--- a/data/比亞迪.xlsx
+++ b/data/比亞迪.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10982" uniqueCount="5815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12122" uniqueCount="6520">
   <si>
     <t>﻿標題</t>
   </si>
@@ -31297,6 +31297,4816 @@
 原材料價格波動，影響生產成本和利潤空間。
 </t>
   </si>
+  <si>
+    <t>電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找</t>
+  </si>
+  <si>
+    <t>https://ezone.hk/article/20052397/%E9%9B%BB%E5%8B%95%E8%BB%8A%E5%B9%B4%E5%B0%BE%E5%86%8D%E9%AC%A5%E5%B9%B3-%E4%B8%80%E6%AC%BETesla%E4%B8%AD%E5%9C%8B%E5%94%AE%E5%83%B9%E5%85%A8%E7%90%83%E6%9C%80%E4%BD%8E-%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%85%A9%E8%BB%8A10%E8%90%AC%E6%9C%89%E6%89%BE</t>
+  </si>
+  <si>
+    <t>ezone.hk 即時科技生活新聞兩大電動車巨頭Tesla和比亞迪在年尾再起減價戰。先有Tesla宣布Model Y後輪驅動版中國起始售價減至23.99萬，比亞迪27日亦宣布，旗下宋Pro DM-i及秦Plus EV減至9.98萬元。11 分鐘前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">×
+請輸入關鍵字
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+ | 袁耀坤 | 27-12-2024 18:12 |  
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+兩大電動車巨頭Tesla和比亞迪在年尾再起減價戰。先有Tesla宣布Model Y後輪驅動版中國起始售價減至23.99萬（人民幣，下同），比亞迪27日亦宣布，旗下宋Pro DM-i及秦Plus EV減至9.98萬元。
+電動車減價戰｜比亞迪兩車10萬有找
+比亞迪表示，由即日起至2025年1月26日，旗下宋Pro DM-i及秦Plus EV兩款電動車減至9.98萬，減幅分別達11.5%及9.1%。同時，相關車款的置換補貼都有以下變化！
+↓點擊圖片放大↓
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
++6
+電動車減價戰｜Model Y中國售價全球最低
+Tesla 中國減價攻勢亦不惶多讓。Tesla早前在平安夜公布，現選購Model Y現貨，享尾數減價1萬元優惠，令中國Model Y後輪驅動版起始售價降至23.99萬，成為全球市場售價中最便宜的Model Y。此外，Tesla「五年零息」優惠也延長至2025年1月31日。Tesla中國指，「最新優惠主要針對現貨車款，買了不用等車」。
+↓點擊圖片放大↓
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+即刻【按此】，用 App 睇更多產品開箱影片
+【熱門報道】
+【真車實試】MG Cyberster 50 萬平民超跑 內藏 F1 元素鉸剪門超吸睛
+【採訪手記】中東入油平過水之謎 杜拜實地比較油價與水價
+【北海道自駕遊須知】北海道租車必睇事項預算保險泊車 自駕遊8日行程規劃路線
+Honda、日產確定 2026 年合併經營 那個品牌主導新公司？
+香港電動車2025｜逾20款電動車選擇一換一推介 價錢最平10幾萬Tesla/BYD/MG/BMW/Benz
+Source：hket
+【相關話題】Honda、日產確定 2026 年合併經營
+本田 Honda 及日產 Nissan 確定合併！Honda 及日產力爭於 2026 年 8 月正式合併經營，而日產有持股 34% 的三菱，就會在下年 1 月底左右決定是否加入。
+↓點擊圖片放大↓
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+電動車年尾再鬥平 一款Tesla中國售價全球最低 比亞迪兩車10萬有找
+Source：ezone.hk
+科技
+相關文章
+傳 Samsung 削減摺屏手機生產規模 因 Galaxy Z Fold6／Z Flip6 銷售不似預期？
+蘋果Apple Vision Pro懶人包 香港開賣日期/價錢/功能/規格/實試效果
+Samsung Galaxy S25 Slim 潛在規格是這樣？ 首批量產 X 百萬部
+iOS 19 支援硬件全面曝光！對應 iPhone 型號或有驚喜！
+科技焦點
+iPhone
+5G流動
+電腦
+數碼
+智能家居
+科技
+汽車
+人工智能
+網絡生活
+網絡熱話
+生活情報
+筍買着數
+旅遊筍料
+熱門話題
+遊戲動漫
+熱門遊戲
+電競裝備
+動漫玩具
+教學評測
+應用秘技
+新品測試
+Apps 情報
+IT Times
+業界頭條
+AI 策略
+名家專欄
+其他
+私隱政策
+免責聲明
+聯絡/關於我們
+© 2024 e-zone. All Rights Reserved.
+</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:24:07</t>
+  </si>
+  <si>
+    <t>特斯拉和比亞迪在年底掀起電動車價格戰。特斯拉宣布Model Y後輪驅動版在中國的起售價降至23.99萬人民幣，成為全球最便宜的Model Y。比亞迪則宣布宋Pro DM-i和秦Plus EV兩款車型的價格降至9.98萬人民幣。特斯拉的優惠包括尾數減價和延長「五年零息」優惠，而比亞迪則提供置換補貼。這場價格戰反映了電動車市場的競爭激烈。</t>
+  </si>
+  <si>
+    <t>特斯拉宣布Model Y後輪驅動版中國起始售價減至23.99萬（人民幣），成為全球市場售價中最便宜的Model Y。比亞迪宣布，旗下宋Pro DM-i及秦Plus EV減至9.98萬元，減幅分別達11.5%及9.1%。特斯拉「五年零息」優惠也延長至2025年1月31日。Tesla中國指，「最新優惠主要針對現貨車款，買了不用等車」。</t>
+  </si>
+  <si>
+    <t>特斯拉、比亞迪、ModelY、宋ProDM-i、秦PlusEV、電動車、價格戰、減價、中國市場、全球售價、優惠、競爭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特斯拉和比亞迪都是電動車市場的領軍品牌，其價格戰將吸引更多消費者關注電動車。
+降價促銷能有效刺激銷量，提升市場份額。
+現車銷售能快速滿足消費者需求。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激烈的價格戰可能壓縮利潤空間，影響企業盈利能力。
+降價策略可能損害品牌形象，降低品牌溢價能力。
+價格戰的持續性難以預測，存在一定風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開拓更多潛在客戶，擴大市場佔有率。
+提升品牌知名度和影響力。
+藉此機會優化產品線，推出更具競爭力的產品。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手可能採取更激進的價格策略，加劇市場競爭。
+消費者對電動車的接受度和購買力存在不確定性。
+原材料價格上漲可能影響企業生產成本。
+</t>
+  </si>
+  <si>
+    <t>比亞迪起訴自媒體「龍豬-集車」名譽侵權勝訴</t>
+  </si>
+  <si>
+    <t>https://www.bannedbook.org/bnews/zh-tw/itnews/20241227/2133970.html</t>
+  </si>
+  <si>
+    <t>禁闻网 比亞迪法務部今日發布微博表示，昨日，比亞迪起訴自媒體「龍豬– 集車」及相關賬號名譽權糾紛一案有了最新進展。23 分鐘前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN|APP
+論壇
+中共禁聞
+要聞
+中國新聞
+台灣新聞
+香港新聞
+時事觀察
+圖片新聞
+禁言博客
+中國人權
+維權上訪
+新公民運動
+民主運動
+新聞評論
+萌圖囧視
+幽默笑話
+社會百態
+國際新聞
+美國新聞
+傳統文化
+修鍊故事
+氣功
+史海鉤沉
+禁播視頻
+世界奧秘
+外星人之謎
+生命奧秘
+超自然現象
+健康養生
+娛樂新聞
+財經新聞
+生活百科
+心情感悟
+體育新聞
+禁聞網
+禁聞網簡體 
+翻牆必看的中共禁聞,禁網新聞,大陸新聞中國新聞解讀評論,禁聞點擊排行榜
+V2ray翻牆一鍵翻牆包
+交流評論、關注點贊
+Youtube Icon站長動態
+Facebook Icon臉書專頁
+telegram Icon翻牆交流電報群
+telegram Icon電報頻道
+RSS訂閱禁聞RSS/FEED訂閱
+禁聞網 &gt; IT新聞 &gt; 正文
+比亞迪起訴自媒體「龍豬-集車」名譽侵權勝訴
+2024年12月27日 18:00 PDF版 分享轉發
+比亞迪起訴自媒體「龍豬-集車」名譽侵權勝訴
+比亞迪法務部今日發布微博表示，昨日，比亞迪起訴自媒體「龍豬 – 集車」及相關賬號名譽權糾紛一案有了最新進展。法院判令被告需刪除侵權言論、向比亞迪賠禮道歉，並賠償比亞迪包括經濟損失在內共計201.87萬元。法院判定信息透露，被告「龍豬 – 集車」長期發錶針對比亞迪的侮辱、詆毀言論，且存在嚴重歪曲事實的行為，此行為對比亞迪的名譽權構成侵害。比亞迪表示，公司始終尊重並接納來自社會各界的建議與監督，但強調網路空間並非法外之地，對於任何形式諸如侮辱、造謠、抹黑等侵權行徑，比亞迪將持續運用法律武器，捍衛企業自身合法權益。
+—— 比亞迪法務部
+重慶自媒體人劉漢斌因為內蒙古清河縣失地農民發聲被跨省異地抓捕
+為何突然宣布戒嚴？韓國到底發生了什麼？ 6小時戒嚴帶來對總統帶來什麼影響？【嘉賓】時事評論員 藍述 韓國自媒體時事主播 文睿【主持】高潔【焦點解讀】12/03/2024
+班.農：現行的司法系統將被摧毀 行政國家需要解體🔥自媒體與播客將進駐白宮 川普批紐時撒謊 🔥亞利桑那州終於完成統計🔥
+北汽享界汽車法務部正式起訴自媒體「袁啟聰」
+文昭：播客之王為川普勝選立下汗馬功勞，得自媒體者得天下？【會員樣片節選】
+🔥華人必看：中華文化的颶風 幸福感無法描述
+🔥解鎖ChatGPT|全平台高速翻牆:高清視頻秒開,超低延遲
+🔥免費PC翻牆、安卓VPN翻牆APP
+🔥治國大道：修身、齊家、管理、治國的大智慧
+轉自: 風向旗快訊
+站長動態，轉發分享↓Follow Us 責任編輯：藍柱
+熱門禁書
+九評共產黨、解體黨文化、漫談黨文化
+起底共產黨叢書、魔鬼在統治著我們的世界
+馬克思的成魔之路、共產主義的終極目的
+科學與宗教、中華文化、治國大道
+本文標籤：微博, 比亞迪, 法務部, 自媒體
+</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:24:37</t>
+  </si>
+  <si>
+    <t>比亞迪因自媒體「龍豬-集車」長期發布侮辱、詆毀言論，勝訴並獲得201.87萬元賠償。法院判決被告刪除侵權言論、公開道歉並賠償。比亞迪強調網路空間並非法外之地，將持續捍衛自身合法權益。  新聞同時提及其他與自媒體相關的案例，例如重慶自媒體人因發聲被抓捕等，間接點出中國大陸網絡言論環境的嚴峻性。</t>
+  </si>
+  <si>
+    <t>比亞迪法務部表示，法院判令被告「龍豬 – 集車」刪除侵權言論、向比亞迪賠禮道歉，並賠償201.87萬元。法院判定被告長期發布侮辱、詆毀比亞迪的言論，嚴重歪曲事實，侵害比亞迪名譽權。比亞迪表示，網路空間並非法外之地，將持續運用法律武器捍衛合法權益。</t>
+  </si>
+  <si>
+    <t>比亞迪、龍豬-集車、自媒體、名譽侵權、勝訴、賠償、網路言論、法律武器、誹謗、網絡空間、言論自由、中國網路環境</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪積極維護自身權益，有效遏制網絡誹謗。
+法院判決明確，對其他自媒體具有警示作用。
+提升企業品牌形象和公信力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可能引發部分網路用戶對比亞迪的負面觀感。
+法律訴訟過程耗時費力。
+難以完全杜絕網絡誹謗行為。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加強企業公關和輿情監控能力。
+探索更有效的方式應對網路負面信息。
+推動完善網路法規，規範網絡言論。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">網路輿論的負面影響難以完全消除。
+其他自媒體可能效仿，繼續發布不實信息。
+政府監管力度不足，可能導致網絡環境惡化。
+</t>
+  </si>
+  <si>
+    <t>比亞迪旗下兩車型限時減價至不足十萬人民幣</t>
+  </si>
+  <si>
+    <t>https://www.i-cable.com/%E8%B2%A1%E7%B6%93%E8%B3%87%E8%A8%8A/302640/%E6%AF%94%E4%BA%9E%E8%BF%AA%E6%97%97%E4%B8%8B%E5%85%A9%E8%BB%8A%E5%9E%8B%E9%99%90%E6%99%82%E6%B8%9B%E5%83%B9%E8%87%B3%E4%B8%8D%E8%B6%B3%E5%8D%81%E8%90%AC%E4%BA%BA%E6%B0%91%E5%B9%A3</t>
+  </si>
+  <si>
+    <t>有線寬頻 i-CABLE比亞迪周五在社交平台指，即日起至明年1月25日，提供包括1萬元人民幣現金補貼等折扣優惠，旗下第二代宋Pro及秦Plus電動車售價將降至9.98萬元，相比之前的定價，減幅介乎...33 分鐘前</t>
+  </si>
+  <si>
+    <t>.比亞迪旗下兩車型限時減價至不足十萬人民幣
+【有線新聞】比亞迪將旗下兩款車型限時減價至不足10萬元人民幣。
+比亞迪周五在社交平台指，即日起至明年1月25日，提供包括1萬元人民幣現金補貼等折扣優惠，旗下第二代宋Pro及秦Plus電動車售價將降至9.98萬元，相比之前的定價，減幅介乎約9.1%至11.5%。</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:24:58</t>
+  </si>
+  <si>
+    <t>比亞迪宣布旗下第二代宋Pro及秦Plus電動車將限時減價，優惠活動將持續至明年1月25日，價格將降至9.98萬人民幣。此次降價幅度介乎約9.1%至11.5%，主要透過現金補貼等優惠實現。此舉被認為是比亞迪刺激銷售，應對市場競爭的一種策略。</t>
+  </si>
+  <si>
+    <t>比亞迪周五在社交平台指，即日起至明年1月25日，提供包括1萬元人民幣現金補貼等折扣優惠，旗下第二代宋Pro及秦Plus電動車售價將降至9.98萬元，相比之前的定價，減幅介乎約9.1%至11.5%。</t>
+  </si>
+  <si>
+    <t>比亞迪,宋Pro,秦Plus,電動車,降價,價格戰,市場競爭,銷售,優惠,補貼,汽車市場,中國市場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪在中國電動車市場佔據領先地位，品牌知名度高。
+降價策略可以快速提升銷量，增加市場佔有率。
+以價格優勢吸引對價格敏感的消費者。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">降價策略可能損害品牌形象，被消費者認為產品質量存在問題。
+利潤空間縮小，影響盈利能力。
+可能引發價格戰，加劇市場競爭。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引更多消費者，擴大市場佔有率。
+清庫存，減少庫存壓力。
+可以進一步鞏固比亞迪在中國電動車市場的領先地位。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手可能跟進降價，加劇價格戰。
+消費者購買力下降，影響銷售。
+原材料價格上漲，進一步壓縮利潤空間。
+</t>
+  </si>
+  <si>
+    <t>比亞迪(01211.HK)董事會同意授權管理層制定《市值管理制度》</t>
+  </si>
+  <si>
+    <t>http://www.aastocks.com/tc/stocks/news/aafn-con/NOW.1406539/popular-news/AAFN</t>
+  </si>
+  <si>
+    <t>AASTOCKS.com比亞迪(01211.HK)公布，為切實推動公司提升投資價值，加強和規範公司市值管理行為，維護公司和投資者的合法權益，根據中國證券監督管理委員會《上市公司監管指引第10號——...34 分鐘前</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:25:00</t>
+  </si>
+  <si>
+    <t>比亞迪巴西建廠工地捲奴役爭議 | 路透社 | LINE TODAY</t>
+  </si>
+  <si>
+    <t>https://today.line.me/tw/v2/article/2Dnlmkj</t>
+  </si>
+  <si>
+    <t>LINE TODAY（路透里約熱內盧／上海27日電）巴西勞動有關當局昨天表示，中國電動車製造商比亞迪（BYD）在巴西建廠工地的中國工人是人口販運受害者。 巴西是...1 小時前</t>
+  </si>
+  <si>
+    <t>.啟用Javascript
+國際
+比亞迪巴西建廠工地捲奴役爭議
+路透社
+（路透里約熱內盧／上海27日電）巴西勞動有關當局昨天表示，中國電動車製造商比亞迪（BYD）在巴西建廠工地的中國工人是人口販運受害者。
+巴西是比亞迪最大海外市場，這家電動車巨擘在當地捲入的爭議愈演愈烈。
+巴西勞動檢察官辦公室（Labor Prosecutor's Office）在與比亞迪和承包商金匠集團（Jinjiang Group）代表會面後發出聲明說，兩家公司已同意協助在飯店安置這163名工人，直到達成終止合約的協議為止。這項簡短聲明未就檢方如何得出結論提供細節。
+路透社尋求置評，但比亞迪和金匠未立即回應。
+巴西有關當局23日曾評估說，這些在東部巴伊亞州（Bahia）工地的工人處於「奴役般的環境」。
+金匠在社群媒體發文說：「莫名被扣上『奴役』的帽子，讓我們的員工感覺人格受到了侮辱。」聲明中提到翻譯的問題引發誤解。
+比亞迪最初表示已與金匠斷絕合作關係，但比亞迪一名高層隨後指控「境外相關勢力」和一些中國媒體「蓄意抹黑」中國品牌和中國，「企圖破壞中巴友誼」。
+中國外交部25日表示，中國駐巴西使領館正在「與巴西方面保持溝通，核實情況，妥善處理」。
+路透社今天尋求就人口販運指控置評，但中國外交部未立即回應。
+巴西檢方表示，他們將於明年1月7日再次與這些公司會面並提出相關協議。中央社（翻譯）</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:25:19</t>
+  </si>
+  <si>
+    <t>中國電動車製造商比亞迪在巴西建廠工地捲入奴役爭議。巴西勞動檢察官辦公室指控比亞迪和承包商金匠集團在巴伊亞州的工地存在人口販運行為，163名中國工人處於「奴役般的環境」。比亞迪和金匠集團已同意協助安置這些工人，並將於明年1月7日再次與檢方會面，商討終止合約協議。比亞迪最初表示已與金匠斷絕合作關係，但高層隨後指控「境外相關勢力」抹黑，中國外交部則表示正與巴西方面溝通，核實情況。</t>
+  </si>
+  <si>
+    <t>巴西勞動檢察官辦公室表示，比亞迪在巴西建廠工地的中國工人是人口販運受害者，163名工人處於「奴役般的環境」。比亞迪和承包商金匠集團已同意協助安置工人，直到達成終止合約協議。金匠聲稱翻譯問題引發誤解，比亞迪高層則指控「境外相關勢力」抹黑。中國外交部表示正與巴西方面溝通，核實情況。巴西檢方將於明年1月7日再次與公司會面。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、建廠、奴役、人口販運、金匠集團、勞動檢察官辦公室、中國工人、巴伊亞州、中巴關係、中國外交部、翻譯問題、境外勢力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迅速應對危機：比亞迪和金匠集團已同意協助安置受影響工人，展現積極處理問題的態度。
+中國政府介入：中國外交部介入事件，表明重視中巴關係及維護中國企業的聲譽。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">負面形象：此事件嚴重損害比亞迪在巴西及國際上的品牌形象，影響其在巴西市場的發展。
+法律風險：比亞迪和金匠集團面臨人口販運及勞工剝削的指控，可能導致巨額罰款及法律訴訟。
+聲譽受損：比亞迪高層指控「境外勢力」的說法，可能加劇國際社會的負面觀感，反而不利於危機處理。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">改善勞工條件：此事件可促使比亞迪及其合作夥伴重新檢視並改善全球供應鏈的勞工條件及管理流程。
+加強透明度：比亞迪可藉此機會加強其在巴西及其他市場的營運透明度，提升企業社會責任形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場損失：負面新聞可能導致比亞迪在巴西市場的銷售額下降，影響其在全球電動車市場的競爭力。
+政治風險：此事件可能影響中巴之間的政治及經濟關係，進一步加劇兩國之間的緊張關係。
+法律制裁：比亞迪和金匠集團可能面臨嚴厲的法律制裁，包括高額罰款、停業甚至刑事指控。
+</t>
+  </si>
+  <si>
+    <t>巴西控比亞迪奴役勞工「連續25天不休息」 陸外交部核實中</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/6809/8453551</t>
+  </si>
+  <si>
+    <t>聯合新聞網在中國大陸車企積極出海發展之際，外媒報導巴西勞工部門叫停了比亞迪當地建廠項目，指該工地涉嫌奴役163名大陸籍員工。對此，...2 小時前</t>
+  </si>
+  <si>
+    <t>.柯文哲傍晚神情凝重回新竹探望爸爸 柯媽病房內等候團圓
+越晚越冷！首波強烈大陸冷氣團來襲 周末防10度以下低溫
+突感無力！陳菊腎臟長腫瘤、左側腦血管阻塞 高醫說明病況
+巴西控比亞迪奴役勞工「連續25天不休息」 陸外交部核實中
+在中國大陸車企積極出海發展之際，外媒報導巴西勞工部門叫停了比亞迪當地建廠項目，指該工地涉嫌奴役163名大陸籍員工。對此，大陸外交部發言人毛寧27日回應表示，正在核實有關情況，並稱中國大陸高度重視保障勞工的合法權益，一貫要求中資依法依規經營。
+據路透報導，巴西巴伊亞州勞工檢察官辦公室日前表示，在當地一間比亞迪工廠的建築上「解救」了163名大陸公民，指控這些人被迫長期工作，有工人連續25日不休息，31人共用1個浴室，生活條件「堪比奴隸」。
+在27日的大陸外交部例行記者會上，有媒體就此提問，包括巴西官方表示，比亞迪巴西工廠的建設外包施工方之一金匠集團的員工是「國際拐賣的受害者」，金匠公司已配合調查，比亞迪表示與金匠公司終止合約，中方有何評論
+毛寧說回應說，「我們注意到相關報導，也同巴西方面保持溝通，正在核實有關情況。」
+但毛寧也補充，我想說的是，中國政府高度重視保障勞工的合法權益，一貫要求中資依法依規經營。
+另，就美國總統川普近日提及巴拿馬運河，表示有中國士兵駐紮等，毛寧說，前幾天她已經作出了回應，並引述巴拿馬總統穆利諾指出，巴拿馬運河不受任何大國直接或間接控制。
+毛寧重申，作為中方，我們將一如既往地尊重巴拿馬對運河的主權，承認運河為永久中立的國際通行水道。
+▪敘利亞阿塞德遭推翻後首發聲 稱離境「非事前計畫」 ▪敘利亞萬人塚恐還有66處 揭阿塞德政權「死亡機器」 ▪首位踏足敘利亞領土的以國總理！ 內唐亞胡訪緩衝區 ▪超大蘑菇雲衝天畫面曝！以色列猛轟敘利亞 炸出規模3.0地震
+延伸閱讀
+比亞迪巴西蓋廠 逾百陸籍工人被曝沒尊嚴「堪比奴隸」
+比亞迪明年1月正式進軍韓國！韓政府可能展開反補貼調查
+寧德時代傳赴港上市 至少籌資50億美元
+震撼彈！日系車壇傳出驚天合併案？Honda與Nissan據傳展開合併談判
+192票贊成！總統與代總統韓悳洙雙遭彈劾 南韓憲政史上首次
+南韓憲政危機！財長崔相穆成「代理的代理」韓媒憂經濟扛不住
+韓警突襲總統安全之屋！ 搜索戒嚴前監視器畫面
+FB留言
+udn討論區</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:25:40</t>
+  </si>
+  <si>
+    <t>巴西勞工部門叫停比亞迪當地建廠項目，指控該工地涉嫌奴役163名大陸籍員工，這些工人被迫長期工作，生活條件惡劣，堪比奴隸。中國外交部發言人毛寧回應表示，正在核實有關情況，並強調中國政府高度重視保障勞工的合法權益，一貫要求中資依法依規經營。比亞迪表示已與涉事外包公司金匠集團終止合約。</t>
+  </si>
+  <si>
+    <t>巴西勞工部門叫停比亞迪當地建廠項目，指控涉嫌奴役163名大陸籍員工，「連續25日不休息」，生活條件「堪比奴隸」。中國外交部發言人毛寧回應：「正在核實有關情況」，並稱中國政府高度重視保障勞工的合法權益，一貫要求中資依法依規經營。比亞迪表示與涉事外包公司終止合約。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、奴役勞工、大陸籍員工、中國外交部、毛寧、金匠集團、勞工權益、建廠項目、外包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迅速回應事件，展現中國政府重視勞工權益的態度。
+比亞迪及時終止與涉事外包公司的合約，盡力減輕負面影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件曝光對比亞迪的國際形象造成負面影響。
+核實過程可能耗時，無法立即平息輿論。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可促使中國企業加強海外勞工管理，完善合規制度。
+改善勞工條件，提升企業社會責任形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能引發國際社會對中國企業海外經營的關注和質疑。
+可能面臨進一步的調查和處罰，影響在巴西的業務發展。
+</t>
+  </si>
+  <si>
+    <t>新廠建設疑涉及人口販運 巴西政府暫停向比亞迪提供簽證</t>
+  </si>
+  <si>
+    <t>https://www.upmedia.mg/news_info.php?Type=3&amp;SerialNo=220552</t>
+  </si>
+  <si>
+    <t>上報Up Media中國汽車大廠比亞迪在巴西新建的工廠，近日因勞動條件近似「奴工」而遭當局勒令停工之後，又被發現部分勞工疑是人口販運的受害者，因此巴西政府27日宣布暫停向該公司發放...11 分鐘前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2024 / 12 / 28　星期六
+上報 Up Media
+toggle
+應曉薇遭疑有第二國護照　辦公室：14年前已放棄加拿大國籍
+新廠建設疑涉及人口販運　巴西政府暫停向比亞迪提供簽證
+高鐵南延屏東方案確定　卓榮泰：會到高雄車站
+《珠簾玉幕》趙露思病倒送醫疑患重度憂鬱症　網揭「2大關鍵」洩她身體異狀早有端倪
+農業部公布新人事　蘇治芬接畜產會董事長
+白宮指北韓在俄烏前線蒙受嚴重傷亡　澤倫斯基：俄軍未提供必要防護
+逛爆台版六本木！台中勤美草悟生活圈兩日遊行程規劃　台中勤美洲際酒店、勤美術館、第六市場美食懶人包
+強烈冷氣團襲台越晚越冷　急凍低溫剩6度
+美政府明年元月中旬恐達舉債上限　美財長籲國會盡早因應
+柯文哲等4人交保北檢提抗告　高院分案審理
+︿
+國際 時事
+新廠建設疑涉及人口販運　巴西政府暫停向比亞迪提供簽證
+讚 1
+王能斌 2024年12月28日 12:16:00
+分享 :
+Line
+Facebook
+Twitter
+Copy
+中國汽車大廠比亞迪，在巴西爆發人口販運爭議，圖為該公司位於巴伊亞州的建設工地。（美聯社）
+中國汽車大廠比亞迪，在巴西爆發人口販運爭議，圖為該公司位於巴伊亞州的建設工地。（美聯社）
+中國汽車大廠比亞迪在巴西新建的工廠，近日因勞動條件近似「奴工」而遭當局勒令停工之後，又被發現部分勞工疑是人口販運的受害者，因此巴西政府27日宣布暫停向該公司發放工作簽證，並展開相關調查。
+路透報導指出，巴西勞動主管部門日前表示，查獲比亞迪（BYD）在該國東部巴伊亞州（Bahia）新廠興建地點，發現有163名中國工人被非法運往當地，並且在「奴隸般」的環境下工作，報導指出這些工人是由中國「金匠集團」所雇用，該集團表示在當地並無任何不法行為。
+但監管當局在不久後，表示這些持有臨時工作簽證的工人，是「人口販運」的受害者，巴西外交部則在27日宣布暫停向比亞迪人員提供工作簽證，並且將對此事展開進一步的調查。
+報導指出，光是在巴伊亞州的園區，比亞迪就投資了6.2億美元（約203.5億元新台幣）進行建設，且該廠正凸顯出中國有意擴大在南美洲影響力、提升和「南方世界」（Global South）國家關係的企圖。根據比亞迪計畫，巴伊亞州新廠預計在2025年投產，初步估算年產量為15萬輛，對於巴西外交部暫停發放工作簽證的決定，比亞迪目前尚未做出回應。
+根據比亞迪發言人透過社群平台發表的貼文，承包巴伊亞州廠區建設的金匠集團駁斥巴西當局的指控，強調「奴工」的形容並不正確，且該公司與巴西政府單位之間的溝通似乎存在錯誤。
+報導表示，比亞迪與金匠集團在與巴西勞工檢查辦公室代表會面之後，都同意將被認為是人口販運受害者的163名工人，安置在當地一間旅館之中，直到勞動契約結束，改善其居住條件。
+關鍵字： 巴西 比亞迪 中國 南方世界 巴伊亞州
+分享 :
+Line
+Facebook
+Twitter
+Copy
+編輯部推薦
+【有片】極氪最新電動車電池號稱10分半充8成滿　效能海放特斯拉、比亞迪
+ 【有片】中國2款六代機畫面流出　路透：罕見「全翼式」設計
+不滿對台軍售　中國制裁7家美國公司
+【有片】中國「報復社會」事件激增　外界憂北京藉口「源頭管控」擴大監控打壓
+【有片】儼然是「第四航母」　中國下水世界最大兩棲突擊艦
+【加入上報國際圈，把繽紛世界帶到你眼前！】
+提供新聞訊息、人物邀訪、異業合作以及意見反映煩請email至國際中心公用信箱： intnews@upmedia.mg，我們會儘速處理。
+上一篇
+美政府明年元月中旬恐達舉債上限　美財長籲國會盡早因應
+下一篇
+上報UP Media 於2016年7月成立。我們集結菁英記者、編輯、專業行銷業務、社群好手，強調多元的原生內容與有趣豐富的觀點。我們有國內外調查新聞、生活、遊戲、消費等資訊，希望提供讀者具有深度、廣度、樂趣及生活、時尚品味的原生新聞。
+地址：新北市新店區寶橋路188號8樓
+電話：+886 (2) 2568-3356
+傳真：+886 (2) 2568-3826
+e-mail：service@upmedia.mg
+facebook youtube instagram threads
+提供新聞：news@upmedia.mg
+投書評論：editor@upmedia.mg
+客戶服務：service@upmedia.mg
+廣告合作：ad@upmedia.mg
+關於我們　‧　隱私權政策　　‧　廣告刊登　‧　意見回饋
+ⓒ 2016 UP MEDIA. All rights reserved.
+回頂端</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:28:12</t>
+  </si>
+  <si>
+    <t>中國電動車大廠比亞迪在巴西新建的工廠，因勞動條件惡劣，被指控涉及人口販運，巴西政府已暫停向其發放工作簽證。比亞迪在巴伊亞州的新廠建設中，有163名中國工人被發現處於類似「奴工」的環境下工作，這些工人疑似是人口販運的受害者。此事件不僅引發勞工權益問題，也凸顯中國在南美洲擴大影響力的企圖。比亞迪和承包商金匠集團否認相關指控，但已同意安置受影響的工人。</t>
+  </si>
+  <si>
+    <t>巴西政府因比亞迪巴西新廠建設疑似涉及人口販運，暫停向其發放工作簽證。「查獲比亞迪在巴伊亞州新廠興建地點，發現有163名中國工人被非法運往當地，並且在『奴隸般』的環境下工作。」這些工人疑似人口販運受害者。「巴西外交部則在27日宣布暫停向比亞迪人員提供工作簽證，並且將對此事展開進一步的調查。」比亞迪和承包商金匠集團否認指控，但已同意安置受影響的工人。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、人口販運、奴工、工作簽證、巴伊亞州、中國、勞動條件、新廠、投資、南美洲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迅速反應並調查事件，展現巴西政府對勞工權益的重視。
+公佈事件細節，提高社會對人口販運問題的關注。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪新廠建設受阻，可能影響其在南美洲市場的發展。
+此事件可能損害比亞迪的品牌形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加強國際合作，打擊人口販運犯罪。
+改善巴西的勞動監管體系。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可能引發國際社會對中國企業在海外經營行為的關注。
+影響中巴兩國的經貿關係。
+</t>
+  </si>
+  <si>
+    <t>被指在巴西奴役勞工 比亞迪工人公關齊上陣回擊</t>
+  </si>
+  <si>
+    <t>https://money.udn.com/money/story/5603/8454788</t>
+  </si>
+  <si>
+    <t>經濟日報中國車廠比亞迪的巴西建廠工地被查出奴役勞工後，巴西外交部昨天表示，已停止向比亞迪發放臨時工作簽證。比亞迪則發起反擊，工人...33 分鐘前</t>
+  </si>
+  <si>
+    <t>中國車廠比亞迪的巴西建廠工地被查出奴役勞工後，巴西外交部昨天表示，已停止向比亞迪發放臨時工作簽證。比亞迪則發起反擊，工人們不但集體現身並連署聲明否認被奴役，比亞迪公關主管更聲稱這是「境外勢力蓄意抹黑中國」。
+路透社報導，巴西外交部當地時間27日表示，這批比亞迪建廠工人是持臨時工作簽證進入巴西；而巴西司法部同日發表聲明，若檢方在比亞迪工地發現的違規行為得到證實，將撤銷這些工人的居留許可；在此之前，巴西司法部20日已要求巴西外交部停發比亞迪的臨時工作簽證。
+比亞迪在巴西巴伊亞州卡馬薩里市（Camaçari）興建的電動車廠工地，日前被巴西勞檢部門查出，來自中國的工人們居住環境惡劣，床上沒有床墊，31人共用一間廁所；每天工時超長且沒有休息日，甚至有人連續工作25天；他們的護照及6成薪資更被承包商統一收繳。外電報導形容，這些中國工人處於被奴役狀態，終獲解救。
+然而，不甘挨打的比亞迪立即發起反擊攻勢。綜合觀察者網等中國媒體報導，這批中國工人的承包商金匠集團26日召集工地所有工人拍攝短片，並有2名工人站在最前面，由其中1人手持麥克風，逐字唸出所謂員工聲明。這些工人並在紙本聲明下方一一簽名，並蓋上指印。
+綜合聲明內容及鏡頭前陳述，工人宣稱，他們在巴西「工作很愉快」，這段時間「遵紀守法、努力工作」。但工人們這兩天看到網路上出現大量關於「比亞迪巴西工地奴役工人」的新聞，相關內容描述「與事實完全不符」，還被扣上了「奴隸」的帽子，讓員工感覺「受到了人格侮辱」。
+工人聲稱，有107名工人因為需要金匠公司統一辦理巴西臨時身分證，金匠才將工人的護照「臨時蒐集和保管起來」。這時巴西勞工部門到場檢查，「誤以為」金匠將員工護照全部統一沒收，得出工人被「非法奴役」的結論，且強制要求金匠與工人解除合約並遣返回國，讓工人們萬分震驚，「嚴重屈辱了員工的尊嚴」。
+工人提到，此事「完全是一場誤會」，證件辦好後護照就會歸還，他們沒有受到人身自由限制，薪資都照常發放，公司也「提供了相關福利保障」。近1個月來，巴西勞工部門曾上門多次詢問，由於語言或翻譯問題，很多訊息不一定傳達準確。但員工們「很珍惜這份工作，願意繼續留在巴西」，且都願接受媒體採訪表達觀點。
+除動員工人現身辯白外，比亞迪集團品牌及公關處總經理李雲飛則以「欲加之罪，何患無辭」為題公開聲稱，在「抹黑中國品牌，抹黑中國」，以及企圖破壞中巴友誼的事情上，見識了「境外勢力如何惡意關聯、蓄意抹黑」，國內部分自媒體如何「裡應外合」，「相信大家的眼睛是雪亮的」。
+至於中國官方，中國外交部發言人毛寧25日及27日先後說，中國駐巴西使領館正與巴西方面保持溝通，「核實情況，妥善處理」。中國政府「一貫高度重視保障勞動者合法權益」，要求中資企業依法依規經營。</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:28:13</t>
+  </si>
+  <si>
+    <t>比亞迪在巴西新建電動車廠的中國籍工人被指控遭受奴役，巴西政府已停止向比亞迪發放臨時工作簽證。比亞迪否認指控，並聲稱這是「境外勢力蓄意抹黑中國」，動員工人拍攝影片並發表聲明，表示工作條件良好，護照只是暫時保管，並非被沒收。事件引發中巴兩國政府關注，中國外交部表示正在核實情況。</t>
+  </si>
+  <si>
+    <t>巴西外交部已停止向比亞迪發放臨時工作簽證，因其在巴西建廠工地被查出奴役勞工。比亞迪工人居住環境惡劣，工時超長，護照和部分薪資被承包商收繳。比亞迪反駁指控，工人發表聲明稱工作愉快，護照暫時保管，並非被沒收。中國外交部表示正與巴西方面保持溝通，核實情況。比亞迪公關主管更聲稱這是「境外勢力蓄意抹黑中國」。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、電動車廠、奴役勞工、臨時工作簽證、中國工人、護照、薪資、承包商、金匠集團、境外勢力、抹黑中國、中巴關係、中國外交部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪迅速回應指控，積極澄清事實，維護公司形象。
+動員工人親自發聲，增加事件的可信度。
+中國政府介入調查，展現對勞工權益的重視。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工人居住環境惡劣、工時超長、薪資被扣等指控，嚴重損害比亞迪聲譽。
+比亞迪將事件歸咎於「境外勢力」，未能正面回應問題，可能激化矛盾。
+缺乏獨立第三方調查報告，難以客觀判斷事件真相。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加強海外工廠的管理和監管，避免類似事件再次發生。
+改善工人福利待遇，提升企業社會責任形象。
+促進與巴西政府的溝通合作，增進互信。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能影響比亞迪在巴西的投資和發展。
+損害中國企業在國際上的形象和信譽。
+可能引發國際社會對中國企業勞工權益的關注和質疑。
+</t>
+  </si>
+  <si>
+    <t>比亞迪工地涉奴役工人巴西停發臨時工作簽- 兩岸</t>
+  </si>
+  <si>
+    <t>https://www.ctee.com.tw/news/20241228700377-430801</t>
+  </si>
+  <si>
+    <t>工商時報中國電動車巨頭比亞迪在巴西的一家車廠，有部分工人被指是人口販運的受害者後，巴西外交部27日透露，巴西已停止向比亞迪發放臨時工作簽證。 聯合早報報導，巴西巴伊亞州...1 小時前</t>
+  </si>
+  <si>
+    <t>.比亞迪工地涉奴役工人 巴西停發臨時工作簽
+已將目前網頁的網址複製到您的剪貼簿！
+中國電動車巨頭比亞迪在巴西的一家車廠，有部分工人被指是人口販運的受害者後，巴西外交部27日透露，巴西已停止向比亞迪發放臨時工作簽證。
+聯合早報報導，巴西巴伊亞州勞動檢察官辦公室23日在記者會上指出，他們在比亞迪所在的工廠建築工地，發現有163名中國工人在「類似奴役式環境」下工作的情形。該辦公室隨後於26日披露，這些工人是人口販運的受害者。
+路透報導，巴西外交部表示，涉事工人是持臨時工作簽證進入巴西的。
+巴西司法部27日發聲明指出，如果檢方在比亞迪工廠發現的違規行為得到證實，將撤銷向中國工人發放的居留許可。
+知情人士透露，巴西司法部已於20日向外交部發出請求，要求暫停發放比亞迪臨時簽證，該請求隨後也被轉發給巴西駐中國使館。
+根據巴西當局說法，涉事工人在中國被金匠集團雇用，不定期被帶到巴西，實際工作時長超過巴西法律允許時間，有時每周連續工作7天，同時被關押在「有辱人格」的環境中，還有其他違反勞動法的行為。
+金匠集團否認上述指控，並稱巴西當局把工人描述為「被奴役」的說法不準確，與事實完全不符。
+推薦閱讀
+中美重啟貿易戰坐收漁翁之利？ 阿根廷、巴西擴大農產品輸中
+進口牛肉劇增影響價格下降？ 陸商務部展開調查
+比亞迪涉奴役工人 巴西政府：比亞迪中國工人是人口販運受害者</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:28:37</t>
+  </si>
+  <si>
+    <t>中國電動車巨頭比亞迪在巴西的一家工廠建築工地被爆出有163名中國工人遭受類似奴役的環境，巴西政府已停止向比亞迪發放臨時工作簽證，並考慮撤銷相關工人的居留許可。巴西勞動檢察官辦公室指出，這些工人是人口販運的受害者，在「有辱人格」的環境下工作，工作時間過長，違反巴西勞動法。比亞迪與涉事的金匠集團則否認相關指控。</t>
+  </si>
+  <si>
+    <t>巴西已停止向比亞迪發放臨時工作簽證，因其在巴西的一家工廠建築工地發現163名中國工人處於「類似奴役式環境」。巴西勞動檢察官辦公室指出這些工人是人口販運受害者，工作時間過長，環境惡劣，違反勞動法。巴西司法部表示，若違規行為屬實，將撤銷相關工人的居留許可。金匠集團否認相關指控。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國工人、奴役、人口販運、臨時工作簽證、勞動法、違規、金匠集團、居留許可、勞動檢察官辦公室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快速反應：巴西政府迅速採取行動，停止發放簽證並調查事件。
+關注人權：事件凸顯了對國際勞工權益的關注。
+促使改善：此事件可能促使比亞迪及其合作夥伴改善勞動條件。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">影響聲譽：此事件嚴重損害比亞迪的國際形象。
+法律訴訟：比亞迪可能面臨法律訴訟和罰款。
+經濟損失：事件可能導致比亞迪在巴西的業務受到影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提升勞工標準：事件可能促使比亞迪及其供應商重新評估並提升勞工標準。
+加強監管：事件可能促使巴西政府加強對外國勞工的監管。
+改善國際合作：事件可能促使國際合作，以打擊人口販運。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">業務中斷：比亞迪在巴西的業務可能面臨長期中斷。
+投資者信心下降：此事件可能影響投資者對比亞迪的信心。
+政府制裁：巴西政府可能對比亞迪採取進一步的制裁措施。
+</t>
+  </si>
+  <si>
+    <t>比亞迪新廠涉勞役華工　巴西停發臨時工作簽證 | on.cc 東網 | LINE TODAY</t>
+  </si>
+  <si>
+    <t>https://today.line.me/hk/v2/article/Vx2rpwy</t>
+  </si>
+  <si>
+    <t>LINE TODAY中國電動汽車巨頭比亞迪在巴西巴伊亞州的新廠房工地被指勞役中國工人，巴西外交部周五（28日）稱涉事工人是持臨時工作簽證進入巴西，已停止向比亞迪...1 小時前</t>
+  </si>
+  <si>
+    <t>.啟用Javascript
+新聞
+比亞迪新廠涉勞役華工　巴西停發臨時工作簽證
+on.cc 東網
+中國電動汽車巨頭比亞迪在巴西巴伊亞州的新廠房工地被指勞役中國工人，巴西外交部周五（28日）稱涉事工人是持臨時工作簽證進入巴西，已停止向比亞迪發放臨時工作簽證。
+巴伊亞州勞動檢察官辦公室日前指控，比亞迪工廠建築工地有163名中國工人在類似奴役式環境下工作，是人口販運的受害者。涉事工人在中國由金匠集團僱用，金匠集團已否認指控，駁斥巴西把工人描述為被奴役的說法不準確，與事實完全不符。
+巴西司法部表示，如果檢方在比亞迪工廠發現的違規行為得到證實，將撤銷向中國工人發放的居留許可。知情人士透露，司法部已於上周五（20日）向外交部發出請求，要求暫停發放比亞迪臨時簽證，該請求同時轉發給巴西駐中國大使館。
+東網網站 : https://on.cc/東網Facebook專頁 : https://www.facebook.com/onccnews/</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:28:56</t>
+  </si>
+  <si>
+    <t>中國電動車巨頭比亞迪在巴西新廠房工地被指控使用類似奴役的環境僱傭163名中國工人，巴西外交部已停止向比亞迪發放臨時工作簽證。巴伊亞州勞動檢察官辦公室指控這些工人是人口販運的受害者，在中國由金匠集團僱用。金匠集團否認指控，巴西司法部表示若違規行為屬實，將撤銷相關居留許可。巴西司法部已於10月20日請求外交部暫停發放比亞迪臨時簽證。</t>
+  </si>
+  <si>
+    <t>比亞迪巴西新廠涉勞役華工，巴西外交部已停止向比亞迪發放臨時工作簽證。巴伊亞州勞動檢察官辦公室指控163名中國工人於類似奴役環境下工作，為人口販運受害者。金匠集團否認指控，巴西司法部表示若違規行為屬實，將撤銷相關居留許可。司法部10月20日已請求外交部暫停發放比亞迪臨時簽證。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國工人、勞役、奴役、人口販運、臨時工作簽證、金匠集團、巴伊亞州、勞動檢察官辦公室、司法部、外交部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迅速揭露了比亞迪在巴西工廠的勞工問題，引起國際社會關注。
+巴西政府採取行動，暫停發放比亞迪臨時簽證，顯示政府對勞工權益的重視。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">目前僅為單方面指控，比亞迪與金匠集團均否認相關指控，缺乏更多證據佐證。
+調查仍在進行中，最終結果仍有待觀察。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件促使比亞迪重新檢視其在海外的勞工管理制度，避免未來發生類似事件。
+巴西政府可藉此機會加強對外國企業在巴西的勞工監督與管理。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可能損害比亞迪的國際形象和品牌聲譽。
+可能影響比亞迪在巴西的投資和業務發展。
+可能引發更多關於中國企業海外勞工待遇的爭議。
+</t>
+  </si>
+  <si>
+    <t>報導：奴工指稱控曝光後 巴西停止向比亞迪發放臨時工作簽證</t>
+  </si>
+  <si>
+    <t>https://tw.news.yahoo.com/%E5%A0%B1%E5%B0%8E-%E5%A5%B4%E5%B7%A5%E6%8C%87%E7%A8%B1%E6%8E%A7%E6%9B%9D%E5%85%89%E5%BE%8C-%E5%B7%B4%E8%A5%BF%E5%81%9C%E6%AD%A2%E5%90%91%E6%AF%94%E4%BA%9E%E8%BF%AA%E7%99%BC%E6%94%BE%E8%87%A8%E6%99%82%E5%B7%A5%E4%BD%9C%E7%B0%BD%E8%AD%89-012001954.html</t>
+  </si>
+  <si>
+    <t>奇摩新聞路透社週五(12月27日)獨家報導說，巴西外交部表示已經停止向中國電動車製造商比亞迪(BYD)發放臨時工作簽證。在此之前，巴西檢察官指控稱，在比亞迪的一處建築工地發現163...2 小時前</t>
+  </si>
+  <si>
+    <t>路透社週五(12月27日)獨家報導說，巴西外交部表示已經停止向中國電動車製造商比亞迪(BYD)發放臨時工作簽證。在此之前，巴西檢察官指控稱，在比亞迪的一處建築工地發現163名中國工人處在“奴隸般”的惡劣條件下，他們是人口販運的受害者。美聯社同天報導說，幾十名中國工人已被帶走，並安置在巴西東北部熱帶地區的旅館。  當地檢察官指控稱，這些勞工是人口販運受害者，在承包商金匠集團(Jinjiang Group)管理下，生活在“奴隸般的條件”中，但是控方沒有提出支持其說法的證據。  美聯社聯繫到巴伊亞州勞工事務檢察官辦公室，該辦公室表示無法評論，稱調查正在進行中。  路透社通報說，據巴西外交部說，這些中國工人是持臨時工作簽證進入的巴西。  路透社報導說，巴西司法部星期五在另一項聲明中說，如果檢察官在比亞迪廠發現的不合規問題得到證實，司法部將吊銷發給這些中國工人的居住許可。  熟悉溝通的一位消息人士對路透社說，巴西司法部已在12月20日向巴西外交部發出要求，請求暫停為比亞迪發放臨時簽證，這是在勞工當局發現的情況被公開的三天之前。  消息人士補充說，這項命令隨後轉送巴西駐北京的大使館。  檢察官辦公室星期一對外披露發現了這些中國工人及其生活環境，並敦促公司將他們安置在巴伊亞卡馬薩裡的當地旅館。這座城市有30萬人口，位於裡約熱內盧以北約1600公里。  來自檢察官辦公室的影片顯示了建築工地的宿舍，床鋪沒有床墊，烹飪設施簡陋。  比亞迪是世界最大的電動車製造商之一。比亞迪的英語縮寫BYD代表“成就夢想”或“打造你的夢想”(Build Your Dreams)。  本週較早時候，比亞迪表示將“立即終止”與金匠集團的合同，並表示正在“研究其他適當措施”。  但是，比亞迪在星期四張貼的一份聲明中反駁了有關工地條件惡劣的報導。比亞迪說，這些指稱是為了“抹黑中國品牌，抹黑中國”。  比亞迪正在那處施工場地興建一座工廠，預計明年投產。這家工廠已成為中國在這個南美國家的影響力不斷擴大的象徵，也是兩國合作不斷密切的例子。比亞迪僅為位於巴伊亞州的這處工廠設施就投資了6.2億美元。  巴西是比亞迪最大的海外市場。  星期五，卡馬薩裡的當地居民對美聯社說，這些中國工人當中有許多人來過城裡並且已經離開。不清楚他們目前在那裡，也不知道此刻誰在處理他們的事務。  (本文參考了路透社與美聯社的報導。)</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:28:58</t>
+  </si>
+  <si>
+    <t>巴西外交部已停止向中國電動車製造商比亞迪發放臨時工作簽證，原因是巴西檢察官指控比亞迪一處建築工地上的163名中國工人生活在“奴隸般”的惡劣條件下，是人口販運的受害者。比亞迪已表示將終止與涉事承包商金匠集團的合同，並反駁相關指控，稱其為抹黑中國品牌的行為。事件凸顯了中國企業在巴西投資過程中可能面臨的勞工問題和社會責任挑戰，也反映了巴西政府對此類事件的重視和強硬立場。</t>
+  </si>
+  <si>
+    <t>巴西外交部停止向比亞迪發放臨時工作簽證，因檢察官指控163名中國工人於比亞迪工地遭受“奴隸般”對待，為人口販運受害者。比亞迪已終止與承包商金匠集團的合同，但反駁指控，稱其為抹黑。巴西司法部表示，若檢察官調查結果證實不合規，將吊銷相關中國工人的居住許可。「這些指稱是為了“抹黑中國品牌，抹黑中國”。」比亞迪正在巴伊亞州興建一座工廠，預計明年投產，投資6.2億美元。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國、電動車、臨時工作簽證、人口販運、奴隸般條件、金匠集團、勞工問題、社會責任、投資、工廠、巴伊亞州、調查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪迅速回應事件，終止與涉事承包商的合同，展現了初步的危機處理能力。
+比亞迪在巴西市場佔有重要地位，事件的關注度高，可以促進企業加強合規管理。
+巴西政府的強硬態度，可以有效震懾其他企業，避免類似事件再次發生。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪的回應被質疑為試圖迴避責任，其聲明未能有效消除負面影響。
+事件損害了比亞迪的品牌形象，可能影響其在巴西市場的發展。
+事件暴露出比亞迪在海外投資項目的供應鏈管理和社會責任方面的不足。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可以藉此機會完善其在海外的合規管理體系，提升企業社會責任形象。
+巴西政府可以加強對外資企業的監管，保障勞工權益。
+此事件可以促進國際社會對跨國企業社會責任的關注和討論。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能引發更大規模的社會抗議和輿論壓力，進一步損害比亞迪的聲譽。
+巴西政府可能出台更嚴格的勞工法規，增加企業在巴西投資的成本。
+事件可能影響其他中國企業在巴西的投資和業務發展。
+</t>
+  </si>
+  <si>
+    <t>比亞迪在巴西中國工人是「國際人口販賣」的受害者？ 中方回應</t>
+  </si>
+  <si>
+    <t>https://www.hkcd.com.hk/hkcdweb/content/2024/12/28/content_8673840.html</t>
+  </si>
+  <si>
+    <t>香港商报針對巴方稱比亞迪在巴西中國工人是「國際人口販賣」的受害者，中國外交部發言人毛寧27日在例行記者會上予以回應。 有記者提問，巴西當地勞工部門稱，從比亞迪在巴工廠建築...3 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 手機版 香港商報APP客戶端 客戶端
+香港商報融媒體矩陣 融媒體矩陣
+香港商報微信視頻號 微信視頻號
+香港商報快手視頻號 快手視頻號
+香港商報今日頭條 今日頭條
+香港商報郵箱 郵箱
+zgc_west@126.com 复制
+繁 繁體
+簡 簡體
+訂報/續訂 |  廣告服務 |  PDF電子報 |  電子報
+香港商報Facebook 香港商報Youtube 香港商報Instagram 香港商報Twitter 香港商報微博
+香港商報微信公眾號
+香港商報微信公眾號
+首頁 港聞 財經 商聯通 視聽 港深合作 評論 綜合 灣區 商社 Life Style 地方 新界專刊 專題
+點擊顯示更多頻道
+搜索新聞
+所有頻道
+香港商報logo
+香港商報
+--℃ 天氣
+滾動新聞：
+比亞迪在巴西中國工人是「國際人口販賣」的受害者？ 中方回應09:46
+12月28日上午10時18分，深圳5條地鐵新線開門迎客09:39
+今年三季度中國外債規模下降，結構保持穩定09:35
+胡塞武裝說美英聯軍空襲也門首都薩那 09:18
+烏克蘭外交部：第二次「和平峰會」籌備工作已完成09:15
+特朗普要求美國最高法院暫停執行TikTok強制出售令09:03
+有片丨90歲羅蘭胡楓捧劉德華演唱會場 劉太朱麗蒨親自攙扶09:01
+美國政府報告：美無家可歸者人數大幅增加 08:58
+首頁&gt;&gt;綜合
+比亞迪在巴西中國工人是「國際人口販賣」的受害者？ 中方回應
+比亞迪在巴西中國工人是「國際人口販賣」的受害者？ 中方回應
+責任編輯：程向明 2024-12-28 09:46:45 來源：中新社
+　針對巴方稱比亞迪在巴西中國工人是「國際人口販賣」的受害者，中國外交部發言人毛寧27日在例行記者會上予以回應。
+　有記者提問，巴西當地勞工部門稱，從比亞迪在巴工廠建築工地發現的中國工人是「國際人口販賣」的受害者。比亞迪及承包商金匠集團已同意在達成終止合同協議前，為這些工人提供協助和酒店住宿。外交部對此有何回應？
+　毛寧回應稱，注意到有關報道，同巴西方面保持着溝通，正在核實有關情況。「我想指出的是，中國政府高度重視保障勞動者合法權益，一貫要求中資企業依法依規經營。」（中新社記者 謝雁冰）
+責任編輯：程向明 比亞迪在巴西中國工人是「國際人口販賣」的受害者？ 中方回應
+推薦新聞
+胡塞武裝說美英聯軍空襲也門首都薩那 
+胡塞武裝說美英聯軍空襲也門首都薩那
+2024-12-28
+分享
+烏克蘭外交部：第二次「和平峰會」籌備工作已完成
+烏克蘭外交部：第二次「和平峰會」籌備工作已完成
+2024-12-28
+分享
+特朗普要求美國最高法院暫停執行TikTok強制出售令
+特朗普要求美國最高法院暫停執行TikTok強制出售令
+2024-12-28
+分享
+美國政府報告：美無家可歸者人數大幅增加 
+美國政府報告：美無家可歸者人數大幅增加
+2024-12-28
+分享
+李慧琼促開放灣區城市「一簽多行」
+李慧琼促開放灣區城市「一簽多行」
+2024-12-28
+分享
+熱門排行
+24小時
+7天
+湖北恩施州赴港經貿文旅專題推介會盛大開幕 溫籍社團辦千人盆菜宴賀國慶迎新年 政府刊憲撤銷李柱銘太平紳士身份 即日生效 有片 | 中國兩款新戰機同日首飛 造型炫酷被認為是六代機 鄭州航空港經濟綜合實驗區低空經濟產業創新應用場景合作交流會在深舉辦 香港跨年倒數煙花維港盛大上演 即睇八大最佳觀賞位置 直播回顧｜除夕節慶特別安排跨部門記者會 高才通合資格大學新增5所 中國科學院大學上榜 寧德時代宣布來港上市 報道指籌集至少50億美元 有片丨四川艦到底有多牛？或將成全球首艘無人機航空母艦
+開通倒計時！深圳地鐵「5線2場」完成「三權移交」 王明夫：江西資本招商已頗有作為 將大有可為 「深港·會客廳」舉辦精品年貨展 恐龍探險+奇幻光影 香港元朗大棠有機生態園「夜繽紛」 鹿城與永嘉同鄉會新屆理監事會就職 強暴12歲男童並懷孕生子 美國女教師判囚25年 快遞小哥立功了！舉報形跡可疑收件人牽出重大案情 湖北恩施州赴港經貿文旅專題推介會盛大開幕 趙薇丈夫黃有龍被指欠債未還 原告入稟高院追討連本帶利逾7.5億元 國產大飛機C919新年起執飛滬港定期航班 陳美寶指示民航處機管局提供全面協助
+香港商報PDF
+股市
+友情鏈接
+香港政府新聞網 |  商務部 |  香港貿易發展局 |  香港旅遊發展局 |  香港立法會 |  香港廉政公署 |  香港申訴專員公署 |  大公文匯網 |  星島環球網 |  香港新聞網 |  紫荊網
+關於我們 -  聯絡我們 -  版權聲明 -  法律聲明 -  廣告服務 -  網上訂報 -  記者證查詢
+香港商報logo
+承印人、出版人：香港商報有限公司 地址：香港九龍觀塘道332號香港商報大廈 香港商報有限公司版權所有，未經授權，不得複製或轉載。 Copyright © All Rights Reserved
+香港商報Facebook 香港商報Youtube 香港商報Instagram 香港商報Twitter 香港商報微博
+香港商報微信公眾號
+香港商報微信公眾號
+聯絡我們
+電話：（香港）852-2564 0768
+（深圳）86-755-83518792 83518734 83518291
+地址：香港九龍觀塘道332號香港商報大廈</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:29:25</t>
+  </si>
+  <si>
+    <t>巴西勞工部門指控比亞迪在巴西工廠的中國籍建築工人是「國際人口販賣」的受害者，並稱比亞迪及承包商金匠集團已同意在達成終止合同協議前，為這些工人提供協助和酒店住宿。中國外交部發言人毛寧回應稱，注意到有關報道，正在核實有關情況，並強調中國政府高度重視保障勞動者合法權益，一貫要求中資企業依法依規經營。</t>
+  </si>
+  <si>
+    <t>針對巴方稱比亞迪在巴西中國工人是「國際人口販賣」的受害者，中國外交部發言人毛寧27日在例行記者會上予以回應。巴西當地勞工部門稱，從比亞迪在巴工廠建築工地發現的中國工人是「國際人口販賣」的受害者。比亞迪及承包商金匠集團已同意在達成終止合同協議前，為這些工人提供協助和酒店住宿。毛寧回應稱，注意到有關報道，同巴西方面保持着溝通，正在核實有關情況。「我想指出的是，中國政府高度重視保障勞動者合法權益，一貫要求中資企業依法依規經營。」</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國工人、國際人口販賣、勞工部門、外交部、毛寧、中資企業、合法權益、金匠集團</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國政府迅速回應事件，展現積極處理態度。
+事件促使對中資企業海外勞工權益的關注。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能損害比亞迪的國際形象。
+事件核實過程需要時間，存在信息不透明的風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可促使中資企業加強海外勞工權益保護措施。
+事件可推動國際社會加強對跨國勞工剝削的監管。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能引發更廣泛的國際社會批評。
+事件可能影響中巴兩國的經貿關係。
+</t>
+  </si>
+  <si>
+    <t>比亞迪工廠建案涉奴役、人口販運 巴西宣布停發工作簽證</t>
+  </si>
+  <si>
+    <t>https://ec.ltn.com.tw/article/breakingnews/4906723</t>
+  </si>
+  <si>
+    <t>自由財經郭顏慧／核稿編輯〔即時新聞／綜合報導〕中國電動車製造商比亞迪（BYD），在巴西工廠的工地近日傳出奴役163名中籍勞工，承包商金匠集團對此否認，但當地政府加碼指控這當中還...3 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">財經&gt;國際財經比亞迪工廠建案涉奴役、人口販運 巴西宣布停發工作簽證2024/12/28 09:26中國電動車製造商比亞迪的巴西工廠建案，近日傳出奴役163名中籍勞工，巴西當局已暫停對比亞迪發放工作簽證。（美聯社）郭顏慧／核稿編輯〔即時新聞／綜合報導〕中國電動車製造商比亞迪（BYD），在巴西工廠的工地近日傳出奴役163名中籍勞工，承包商金匠集團對此否認，但當地政府加碼指控這當中還涉及人口販運，目前巴西當局已暫停對比亞迪建案發放工作簽證。據《路透》報導，巴西勞工單位表示，巴伊亞州比亞迪工廠建築工地的163名中國工人，由金匠集團雇用後是透過非正規手段被帶到巴西的，生活條件就像奴隸一樣，屬於人口販運的受害者。請繼續往下閱讀... 巴西外交部透露，這些工人是持臨時工作簽證入境，司法部已向外交部發出暫停發放比亞迪臨時簽證的要求，這則命令隨後轉發給巴西駐北京大使館。巴西司法部27日指出，若比亞迪工廠的違法行為獲得證實，將吊銷這批中國工人的居留許可。巴西是比亞迪的最大海外市場，公司一共投資6.2億美元（約新台幣203.5億元）興建廠區，對於停發工作簽證一事比亞迪尚未回應。     一手掌握經濟脈動    點我訂閱自由財經Youtube頻道    不用抽 不用搶 現在用APP看新聞 保證天天中獎　    點我下載APP　    按我看活動辦法相關新聞今日熱門新聞看更多！請加入自由財經粉絲團網友回應基金查詢more進階查詢 +熱門新訊more攜手部落 深化臺灣黑熊保育                                                    防猴撇步報你知                                                    攜手部落 深化臺灣黑熊保育                                                    農業發展權移轉恐讓農地淪為炒作工具？揭露農業發展權三大隱憂                        注目新聞 </t>
+  </si>
+  <si>
+    <t>2024-12-28 12:29:27</t>
+  </si>
+  <si>
+    <t>中國電動車製造商比亞迪在巴西新建工廠的承包商金匠集團，被控以奴役方式僱傭163名中國籍勞工，巴西當局已暫停對比亞迪發放工作簽證。  巴西勞工單位指控這些工人生活條件惡劣，如同奴隸，並涉及人口販運。  巴西司法部表示，若違法行為屬實，將吊銷相關工人的居留許可。此事件發生在比亞迪在巴西最大海外市場的工廠建設中，該公司已投資6.2億美元興建廠區。</t>
+  </si>
+  <si>
+    <t>比亞迪巴西工廠建案傳出奴役163名中籍勞工，巴西當局已暫停對比亞迪發放工作簽證。巴西勞工單位表示，工人生活條件惡劣，如同奴隸，屬於人口販運受害者。巴西司法部指出，若違法行為證實，將吊銷相關工人的居留許可。比亞迪在巴西投資6.2億美元興建廠區，對於停發簽證一事尚未回應。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、工廠、奴役、人口販運、中國勞工、工作簽證、金匠集團、投資、海外市場、勞工單位、司法部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快速掌握資訊，及時報導事件。
+報導內容客觀，包含多方觀點。
+揭露了跨國公司在海外生產過程中的潛在風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">目前僅為單方面指控，尚待比亞迪及相關方的回應。
+缺乏對事件細節的深入調查。
+報導未提及比亞迪可能採取的補救措施。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">促使比亞迪及其他跨國企業加強對供應鏈的監管。
+提升公眾對跨國公司社會責任的關注。
+推動巴西政府加強對勞工權益的保護。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能損害比亞迪的品牌形象。
+可能影響比亞迪在巴西的業務發展。
+可能引發更廣泛的社會問題。
+</t>
+  </si>
+  <si>
+    <t>承包商涉嫌奴隸勞工 巴西已停止向比亞迪發放臨時工作簽證</t>
+  </si>
+  <si>
+    <t>https://money.udn.com/money/story/5603/8454524?from=edn_newest_index</t>
+  </si>
+  <si>
+    <t>經濟日報路透社獨家報導，巴西已停止向比亞迪發放臨時工作簽證，巴西外交部周五表示，先前有指控稱，這家中國電動車生產商旗下工廠的部分...3 小時前</t>
+  </si>
+  <si>
+    <t>路透社獨家報導，巴西已停止向比亞迪發放臨時工作簽證，巴西外交部周五表示，先前有指控稱，這家中國電動車生產商旗下工廠的部分工人是人口販運的受害者。巴西司法部周五在另一份聲明中表示，如果檢察官在比亞迪工廠發現的違規行為得到證實，將吊銷向中國工人發放的居留許可。
+幾天前，巴西勞工部門表示，他們在東北部巴伊亞州的比亞迪工廠建築工地發現了 163 名中國工人，這些工人被非正式地帶到巴西，生活條件「像奴隸一樣」。這些工人受僱於承包商錦江集團，該集團否認有任何不當行為。
+隨後，巴西當局也稱這些工人是人口販賣的受害者。據巴西外交部稱，這些工人是持臨時工作簽證進入巴西的。
+比亞迪投資6.2億美元建立巴伊亞工業園區。報導稱，該工廠已成為中國在南美國家影響力不斷增強的象徵，也是兩國關係更密切的典範。而巴西是比亞迪最大的海外市場，2024 年前 11 個月，比亞迪在中國境外銷售的汽車中，近五分之一銷往巴西。但比亞迪沒有立即就巴西停放臨時工作證的決定作出回應。
+這家中國電動車製造商表示，計劃明年初在巴西開始生產，初始年產量為 15 萬輛汽車。
+據知情人士透露，巴西司法部已於12月20日向外交部發出暫停發放比亞迪臨時簽證的請求，即勞動部門公佈調查結果的三天前。消息人士補充說，該命令隨後被轉發給巴西駐北京大使館。
+在比亞迪發言人週四轉發的社群媒體貼文中，錦江集團否認了巴西當局對巴伊亞工廠工作條件的指控。承包商表示，將工人描述為「奴隸」是不準確的，並且存在翻譯誤解。
+報導稱，周四，巴西勞工檢察官辦公室在與兩家公司的代表會面後發表聲明稱，比亞迪和錦江集團已同意為這 163 名工人提供協助並安置在酒店，直至達成終止合約的協議。</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:29:28</t>
+  </si>
+  <si>
+    <t>巴西以人口販運指控為由，停止向比亞迪發放臨時工作簽證。巴西勞工部門此前在比亞迪巴伊亞州工廠發現163名中國工人生活條件惡劣，疑似人口販賣受害者。這些工人受僱於承包商錦江集團，該集團否認不當行為。比亞迪計劃明年初在巴西開始生產電動車，巴西是其最大的海外市場之一。巴西司法部表示，如證實違規行為，將吊銷相關中國工人的居留許可。事件影響比亞迪在巴西的投資和生產計劃，也凸顯了中巴關係中潛在的勞工問題。</t>
+  </si>
+  <si>
+    <t>巴西停止向比亞迪發放臨時工作簽證，因指控其工廠部分工人為人口販運受害者。巴西勞工部門發現163名中國工人生活條件惡劣，「像奴隸一樣」。這些工人受僱於承包商錦江集團，該集團否認不當行為。比亞迪計劃明年初在巴西生產電動車，巴西為其最大海外市場之一。巴西司法部稱，若違規行為屬實，將吊銷相關中國工人的居留許可。比亞迪尚未回應。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、臨時工作簽證、人口販運、勞工條件、中國工人、錦江集團、巴伊亞州、電動車生產、海外市場、中巴關係、司法調查、居留許可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪在巴西擁有龐大的市場，這為其提供了巨大的發展潛力。
+比亞迪的電動車技術在全球市場上具有競爭力。
+比亞迪的生產規模較大，能夠滿足巴西市場的需求。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪在巴西的工廠存在勞工問題，這可能會影響其品牌形象。
+比亞迪在巴西的投資受到當地政府的監管，這可能會增加其經營風險。
+比亞迪在巴西的市場份額仍然相對較小，這可能會限制其發展空間。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可以通過改善勞工條件，提升其在巴西的品牌形象。
+比亞迪可以通過加強與巴西政府的合作，降低其經營風險。
+比亞迪可以通過擴大其在巴西的市場份額，提高其盈利能力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巴西政府可能會加強對比亞迪的監管，這可能會增加其經營成本。
+比亞迪的競爭對手可能會加強在巴西市場的競爭，這可能會影響比亞迪的市場份額。
+巴西的經濟形勢可能會發生變化，這可能會影響比亞迪的投資回報。
+</t>
+  </si>
+  <si>
+    <t>網傳比亞迪夏經銷商預扣提車價28萬元起 將於明年1月8日上市</t>
+  </si>
+  <si>
+    <t>https://www.bitauto.com/news/200397180737.html</t>
+  </si>
+  <si>
+    <t>www.bitauto.com易車訊日前，我們從相關渠道獲悉，比亞迪夏的預扣提車價（即經銷商從廠家提車的價格）曝光，新車預計於明年1月8日上市。根據續航和配置的不同，新車共推出4款配置車型，...3 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitauto 
+HomeNews網傳比亞迪夏經銷商預扣提車價28萬元起 將於明年1月8日上市
+網傳比亞迪夏經銷商預扣提車價28萬元起 將於明年1月8日上市
+易车原创报道
+Dec 27, 2024
+易車訊 日前，我們從相關渠道獲悉，比亞迪夏的預扣提車價（即經銷商從廠家提車的價格）曝光，新車預計於明年1月8日上市。根據續航和配置的不同，新車共推出4款配置車型，其價格區間為28-32萬元。
+比亚迪夏採用了華美龍顏設計，將“山水意境”融入到新車的設計中，並帶有明顯的比亚迪家族風格，包括龍顏美學的龍鬚設計、犀利的鷹眉大燈、有層次感的前大燈組等，初步觀感宜商宜家，時尚大氣。
+從側面來看，新車整體造型較為方正，車身腰線平直的貫穿整個車身，同時該車還將採用側滑門的配置。尺寸方面，新車的長寬高分別是5145/1970/1805mm，軸距達到3045mm。
+車尾部分，新車尾窗與後備廂面板的比例恰到好處，展示出了新車的穩重感，該車將採用貫穿式布局的尾燈，同時保持了王朝網車型"中國結靈感尾燈"設計元素。
+內飾方面，夏採用了王朝新一代內飾設計語言，內飾設計架構靈感取自中國庭院設計中的“四水歸堂”布局，寓意四方之水匯聚一堂，象徵著財富與福氣的匯聚。設計上還採用了庑殿頂、廣袖、中國結等诸多華夏文化元素。內飾配色方面，新車擁有綰棕+潤米、遠山黛+潤米兩款內飾配色。
+動力方面，新車將搭載第五代DM技術，可以帶來超低的能耗和駕駛性能。此外，新車甚至可能會配備騰勢D9的雙槍快充功能。同時新車還將採用比亞迪第五代插混整車平台，搭載雲轎-C智能阻尼車身控制系統。（資訊來源 公眾號：迪廠）
+Information Flow
+第五代DM+雲轎-C，2025款比亞迪唐DM-i
+預算十萬就能買？靜態解讀吉利博越，家用代步正合適
+聚焦新能源汽車智能化發展，東風風行新能源序列快馬加鞭
+強勁動力更省油 2.4T商用炮助你創富之路更暢通
+長安第四代CS75PLUS Ultra上市，售價13.19萬元起
+強強對決！誰是10萬級SUV最強王者？
+滿電都能跑400km+，繽果/海鷗/幾何E選誰更好？
+純電SUV大牌之爭，20多萬選極越01還是比亞迪唐EV？
+Bitauto
+Company Info
+العربية English 中文
+English 中文
+Русский 中文
+Português 中文
+Français 中文
+Русский 中文
+Español 中文
+日本語 中文
+العربية English 中文
+แบบไทย 中文
+Русский 中文
+Español 中文
+English 中文
+English 中文
+Italiano 中文
+中文
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:29:56</t>
+  </si>
+  <si>
+    <t>網路流傳比亞迪新款電動車「夏」的經銷商預扣提車價，預計售價28萬至32萬人民幣，將於2025年1月8日上市。該車型採用比亚迪家族設計風格，配備側滑門，並融入中國傳統文化元素於內外觀設計。動力方面搭載第五代DM技術，可能配備騰勢D9的雙槍快充功能，並採用比亞迪第五代插混整車平台和雲轎-C智能阻尼車身控制系統。</t>
+  </si>
+  <si>
+    <t>網傳比亞迪夏經銷商預扣提車價28-32萬元，將於明年1月8日上市。新車採用華美龍顏設計，融入山水意境及龍顏美學元素。側面造型方正，配備側滑門，長寬高5145/1970/1805mm，軸距3045mm。車尾採用貫穿式尾燈，內飾設計靈感源於中國庭院“四水歸堂”布局，搭載第五代DM技術，或配備雙槍快充功能，並採用比亞迪第五代插混整車平台及雲轎-C系統。（資訊來源 公眾號：迪廠）</t>
+  </si>
+  <si>
+    <t>比亞迪、夏、電動車、新能源汽車、預售價、DM技術、側滑門、中國風設計、內飾設計、雙槍快充、雲轎-C系統、插混、2025年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪品牌知名度高，具備一定的市場影響力。
+車型設計融入中國文化元素，可能吸引特定消費群體。
+配備第五代DM技術和雲轎-C系統，提升產品競爭力。
+預計價格區間在市場上具備競爭力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">網路流傳消息，真實性有待驗證。
+詳細配置和性能數據尚未公布，難以全面評估。
+市場競爭激烈，需要面對其他品牌的競爭壓力。
+新技術應用於市場的風險與接受度有待觀察。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新能源汽車市場持續增長，帶來巨大的市場機會。
+側滑門設計和中國風設計元素，可吸引新的細分市場。
+如果價格和性能達到預期，將有助於擴大市場份額。
+成功的話，可以提升比亞迪在高端新能源汽車市場的競爭力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手的產品可能推出更具競爭力的產品。
+原材料價格波動可能影響生產成本。
+消費者對新能源汽車的接受度和充電設施普及程度。
+市場需求變化、政策調整及經濟環境等不確定性。
+</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>比亞迪在巴拿馬推出BYD SHARK 綜合續航840公里</t>
+  </si>
+  <si>
+    <t>https://www.bitauto.com/news/200397173570.html</t>
+  </si>
+  <si>
+    <t>www.bitauto.com易車訊近日，據媒體報道，比亞迪在巴拿馬推出混合動力皮卡SHARK，此次發布正值巴拿馬皮卡车行業近年來出現顯著增長之際。3 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitauto 
+HomeNews比亞迪在巴拿馬推出BYD SHARK 綜合續航840公里
+比亞迪在巴拿馬推出BYD SHARK 綜合續航840公里
+易车原创报道
+Dec 27, 2024
+易車訊 近日，據媒體報道，比亞迪在巴拿馬推出混合動力皮卡SHARK，此次發布正值巴拿馬皮卡车行業近年來出現顯著增長之際。
+BYD SHARK於北京時間5月15日正式首發亮相，並同時公布了海外售價，該車在墨西哥的售價為899980-969800墨西哥比索（約合人民幣32.47-34.98萬元）。新車是基於DMO平台打造的一款皮卡車型，採用1.5T插混動力系統，綜合續航840公里。
+外觀方面，新車作為比亞迪首款皮卡車型，其外觀采用了較為硬朗方正的輪廓造型，前臉采用大面積的中網設計，前包圍下方配備有金屬護板裝飾。兩側LED大燈采用縱向布局，外圍則是C型日行燈，上半部分還是貫穿式設計。
+車身側面，新車採用了更加硬朗的線條設計，凸顯出很強的力量感。同時，新車搭載了乘用皮卡常見的雙排座椅布局，並配備了龍門架以及側踏板。此外，新車對輪眉，A柱和C柱進行黑化處理。細節方面，比亞迪SHARK的充電口/放電口和燃油加注口位於龍門架兩側下方。該車的長寬高分別為5457/1971/1925毫米，軸距為3260毫米。
+內飾方面，新車採用了比亞迪家族經典設計，車內配備10.25英寸懸浮式液晶儀表和12.8英寸中控顯示屏，營造出不錯的氛圍感。此外，新車使用全新造型的多功能方向盤，在空調出風口、方向盤、杯架、座椅等細節加入橙色裝飾。
+動力方面，新車搭載1.5T發動機和電機組成的插混系統，綜合輸出功率為430馬力，最大牽引重量2500公斤，支持沙地、泥地和雪地三種駕駛模式，NEDC綜合工况續航840公里，純電續航100公里，電量30%-80%充電時間為20分鐘，動力電池為比亞迪刀片電池。
+Information Flow
+第五代DM+雲轎-C，2025款比亞迪唐DM-i
+預算十萬就能買？靜態解讀吉利博越，家用代步正合適
+聚焦新能源汽車智能化發展，東風風行新能源序列快馬加鞭
+強勁動力更省油 2.4T商用炮助你創富之路更暢通
+長安第四代CS75PLUS Ultra上市，售價13.19萬元起
+強強對決！誰是10萬級SUV最強王者？
+滿電都能跑400km+，繽果/海鷗/幾何E選誰更好？
+純電SUV大牌之爭，20多萬選極越01還是比亞迪唐EV？
+Bitauto
+Company Info
+العربية English 中文
+English 中文
+Русский 中文
+Português 中文
+Français 中文
+Русский 中文
+Español 中文
+日本語 中文
+العربية English 中文
+แบบไทย 中文
+Русский 中文
+Español 中文
+English 中文
+English 中文
+Italiano 中文
+中文
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:30:22</t>
+  </si>
+  <si>
+    <t>比亞迪在巴拿馬推出其首款混合動力皮卡SHARK，此舉正值巴拿馬皮卡車市場蓬勃發展之際。SHARK 基於DMO平台打造，採用1.5T插混動力系統，綜合續航里程達840公里，擁有硬朗的外觀設計、舒適的內飾以及強大的動力性能（430馬力，最大牽引重量2500公斤）。其售價在墨西哥市場約為人民幣32.47萬至34.98萬元。 比亞迪此舉拓展了其在國際市場的影響力，並進一步鞏固其在新能源汽車領域的領先地位。</t>
+  </si>
+  <si>
+    <t>比亞迪在巴拿馬推出混合動力皮卡SHARK，綜合續航840公里。「新車是基於DMO平台打造的一款皮卡車型，採用1.5T插混動力系統，綜合續航840公里。」「新車搭載1.5T發動機和電機組成的插混系統，綜合輸出功率為430馬力，最大牽引重量2500公斤，NEDC綜合工况續航840公里，純電續航100公里。」「該車在墨西哥的售價為899980-969800墨西哥比索（約合人民幣32.47-34.98萬元）。」</t>
+  </si>
+  <si>
+    <t>比亞迪、BYDSHARK、混合動力皮卡、巴拿馬、墨西哥、新能源汽車、插混動力系統、DMO平台、綜合續航里程、840公里、電動車、皮卡車市場、刀片電池</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪SHARK擁有強大的續航能力和動力性能，能滿足市場需求。
+比亞迪品牌知名度日益提升，有利於產品銷售。
+巴拿馬皮卡車市場增長迅速，為SHARK提供了良好的市場環境。
+比亞迪刀片電池技術成熟可靠，提升了產品的安全性與可靠性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪SHARK價格相對較高，可能影響部分消費者的購買意願。
+比亞迪在巴拿馬的市場份額仍有待提升。
+與其他品牌的皮卡車相比，比亞迪SHARK的市場競爭力有待觀察。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">進一步拓展國際市場，提升品牌影響力。
+開發更多新能源汽車產品，滿足不同消費者的需求。
+利用技術優勢，提升產品競爭力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他新能源汽車品牌的競爭加劇。
+政府政策的變化可能影響新能源汽車產業的發展。
+原材料價格上漲可能增加生產成本。
+</t>
+  </si>
+  <si>
+    <t>巴西證實比亞迪工廠工地的工人類似奴隸 為人口販運受害者</t>
+  </si>
+  <si>
+    <t>https://www.cmmedia.com.tw/home/articles/51547</t>
+  </si>
+  <si>
+    <t>信傳媒綜合《路透》與《CNN》報導，比亞迪最大的海外工廠引發的爭議日益嚴重，巴西勞動部.3 小時前</t>
+  </si>
+  <si>
+    <t>中國電動汽車巨頭比亞迪最大的海外工廠引發的爭議日益嚴重。綜合《路透》與《CNN》報導，巴西勞動部周四證實，境內中國比亞迪工廠的建築工地100多名中國工人遭到奴役，這些工人是人口販賣的受害者。巴西勞工檢查當局指出，他們發現163名中國公民在巴西巴伊亞州比亞迪旗下工廠的建築工地上，「在奴役般的條件下工作」。巴西檢察官公佈中國工人工寮環境的錄影，顯示雙層床沒有床墊。檢方指出，工人工作時間過長，有時每周工作7天，31名工人共同使用一間浴室，需要極早起床以便準備上工，同時中國工人的護照和工資被錦江建設扣押，這些工作條件被當局稱為「有辱人格」，近似於「奴隸」。中國工人工資被扣押、31人共用一間浴室巴西勞動部表示：「這些住宿條件所揭示的情況，令人震驚、岌岌可危」。這些情況還構成「強迫勞動」，因為許多工人的工資被扣押，若要解約需要支付高額的解約金。巴西法律定義「類似奴隸的工作條件」，包括強迫勞動，還包括有辱人格的環境、對工人健康構成風險的長時間工作、任何侵犯人類尊嚴的工作。不過，比亞迪的建築承包商錦江集團周四出面澄清，巴西勞檢當局形容工地工人為「奴隸」與事實不符，並且存在翻譯措辭的誤解。巴西勞工檢察官辦公室在與這2家中國公司的代表會面後發表聲明稱，比亞迪和承包商錦江建設已同意協助並安置這163名工人到飯店，直至達成終止契約協議。中國電動車巨頭比亞迪最初指出，他們已經和僱用工人的錦江建設斷絕關係，正在與巴西當局合作，承諾將會「全面遵守巴西法律」。但是隨後比亞迪高層指責「外國勢力」和一些外國媒體「蓄意抹黑中國品牌和國家，破壞中巴關係」。中國外交部周三表示，中國駐巴西大使館正在與巴西政府溝通核實，並處理相關情況，但是周五中國外交部沒有立即回應對人口販運指控發表評論的請求。中國在巴西的影響力與日俱增巴西檢察官表示，他們預訂1月7日再次與這些中國公司會面，並提出一項交易。檢方聲稱，這筆交易可能會使比亞迪和錦江建設公司免受勞動檢察官的調查，但它們仍可能面臨勞動監察員和聯邦檢察官的審查，後者已要求共享證據，以便在刑事領域採取措施。作為明年初在巴西開始生產計畫的一部分，比亞迪在巴伊亞州建造工廠，初期將生產15萬輛汽車。在2024年前11個月，比亞迪在中國外銷汽車當中，巴西佔據五分之一。2023年最後三個月，比亞迪在巴西售出的電動汽車數量首次超過馬斯克的特斯拉，雙方在該領域爭奪市場的領先地位。比亞迪也積極擴展巴西汽車市場的佔有率，巴西是比亞迪最大的海外市場，遠超其他地區。2015年，比亞迪在聖保羅首次設廠，生產電動巴士的底盤，2023年，公司宣布將在巴西巴伊亞州投資30億雷亞爾（約4.842億美元）建設一座電動汽車工廠。這座巴伊亞州在建的工廠原定於2025年3月投入運營，將成為比亞迪在亞洲以外的首座電動汽車工廠，這已成為中國在巴西影響力日益增強的象徵，也是兩國關係更加密切的典範，比亞迪僅投資6.2億美元，建立巴伊亞工廠廠區。中國企業長期引進中國工人到投資國家如今，檢方查獲巴伊亞工廠工人被奴役的違規行為，可能會成為雙邊關係的主要癥結。巴西長期以來尋求更多中國投資，但中國企業長期引進中國工人到投資國家，這種經營模式無助於創造巴西就業機會，這是巴西總統魯拉的首要任務。這項調查也讓比亞迪受到負面評價，比亞迪為中國最大造車集團，目前在中國佔據電動車和插電式混合動力車市場三分之一以上的份額，同時該公司積極向全球市場擴張。比亞迪汽車今年全球銷量預計將超過福特和本田，該公司一直在國內外大舉擴張，擴大產能，並且大規模招聘工人，截至9月底，該公司在全球擁有近100萬名員工。雖然比亞迪90％以上的銷量依賴中國市場，但比亞迪分別在匈牙利、墨西哥、泰國、烏茲別克和巴西建設乘用車工廠，以服務主要海外市場，並增加投資向海外行銷比亞迪汽車。</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:30:23</t>
+  </si>
+  <si>
+    <t>巴西勞工檢查當局發現，中國電動車巨頭比亞迪在巴西巴伊亞州的工廠建築工地上，有超過100名中國工人遭到人口販賣並在類似奴隸的條件下工作，其護照和工資被承包商錦江建設扣押，工作環境惡劣，引發國際關注。比亞迪最初聲稱已與承包商斷絕關係，並與巴西當局合作，但隨後指責「外國勢力」抹黑。巴西檢方已介入調查，並與比亞迪和錦江建設商討解決方案，此事件可能影響中巴關係及比亞迪在巴西的投資計畫。</t>
+  </si>
+  <si>
+    <t>巴西勞動部證實，比亞迪在巴西工廠建築工地100多名中國工人遭奴役，工作條件惡劣，護照和工資被扣押。「在奴役般的條件下工作」、「工作時間過長，有時每周工作7天，31名工人共同使用一間浴室」、「中國工人的護照和工資被錦江建設扣押」。比亞迪最初聲稱已與承包商斷絕關係，但隨後指責「外國勢力」抹黑。巴西檢方介入調查，並與比亞迪和錦江建設商討解決方案。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國、奴役、人口販賣、強迫勞動、錦江建設、巴伊亞州、電動汽車工廠、中巴關係、勞工檢查、護照扣押、工資扣押、國際關注、人權</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪是中國電動車領軍企業，具有雄厚的資金和技術實力。
+巴西是比亞迪重要的海外市場，具有巨大的市場潛力。
+比亞迪積極拓展海外市場，提升國際影響力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪在巴西的工廠建設中出現嚴重的人權問題，損害企業形象。
+此事件可能引發國際社會的批評和抵制。
+比亞迪可能面臨法律訴訟和經濟損失。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可以藉此機會改善企業社會責任，提升品牌形象。
+比亞迪可以加強對合作夥伴的管理和監督，避免類似事件再次發生。
+比亞迪可以藉此機會加強與巴西政府的溝通，增進互信。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可能嚴重影響中巴關係。
+比亞迪在巴西的投資計畫可能受到影響。
+比亞迪的全球市場份額和品牌聲譽可能受到損害。
+</t>
+  </si>
+  <si>
+    <t>比亞迪巴西廠的事鬧大!官方認定"人口販運"</t>
+  </si>
+  <si>
+    <t>https://www.westca.com/News/article/sid=1061817/%E6%AF%94%E4%BA%9A%E8%BF%AA%E5%B7%B4%E8%A5%BF%E5%8E%82%E7%9A%84%E4%BA%8B%E9%97%B9%E5%A4%A7%E5%AE%98%E6%96%B9%E8%AE%A4%E5%AE%9A%E4%BA%BA%E5%8F%A3%E8%B4%A9%E8%BF%90/lang=tchinese.html</t>
+  </si>
+  <si>
+    <t>加西网巴西政府勞工部門日前表示，替中國電動車巨頭比亞迪巴西工廠工作的163名中國工人已被認定為人口販運的受害者。4 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+| 廣告聯系 | 簡體版 | 手機版 | 微信 | 微博 | 搜索: 
+歡迎您 游客 | 登錄 | 免費注冊 | 忘記了密碼 | 社交賬號注冊或登錄
+歡迎來到加西網 (溫哥華門戶網)	
+首頁	
+新聞資訊	
+論壇	
+溫哥華地產	
+大溫餐館點評	
+溫哥華汽車	
+溫哥華教育	
+黃頁/二手	
+旅游
+新聞 生活資訊 社區 專欄 原創 圖片新聞 最新新聞 評論 搜索 國際新聞
+比亞迪巴西廠的事鬧大!官方認定"人口販運"
+2024-12-27 | 來源: RFA | 轉到微信 | 有0人參與評論 | 字體: 放大 縮小 | 收藏 | 打印
+巴西政府勞工部門日前表示，替中國電動車巨頭比亞迪巴西工廠工作的163名中國工人已被認定為人口販運的受害者。
+對此，比亞迪承諾將妥善處理這一人權問題。
+巴西勞工檢察官辦公室發表聲明指出，比亞迪及其承包商金匠集團已同意為這些工人提供援助，並暫時安排他們入住酒店，直至雙方就終止合同達成協議。
+路透社披露，巴西方面未詳細說明作出“人口販運”結論的依據，比亞迪和金匠集團目前也未對此事作出回應。
+本台此前報道，巴西勞工部門在本周一點名指出，比亞迪位於巴伊亞州的工廠存在“奴役式”工作環境。
+工廠內的中國建築工人被指工時極長，一周工作七天，並出現多項違反巴西勞動法的行為。例如，宿舍環境惡劣、扣押工人護照，以及工人離開住所需經上級批准等。
+ 比亞迪"奴役勞工"?中國國情,巴西人懂個球!
+ 奴工指稱曝光後,巴西停止向比亞迪發臨時工簽
+ 比亞迪在巴西的"勞工"風波:奴家給各位吹個笛子吧
+對此，比亞迪隨即宣布終止與建築承包商金匠集團的合作，並重申將遵守巴西當地法律，特別是在勞工保障和人權方面的規范。然而，據路透社報道，金匠集團否認“奴役式”指控，稱這是翻譯問題引發的誤解。
+這一說法隨後被比亞迪發言人轉發到社交平台。一名比亞迪高管更指責此事件是“外部勢力”聯合部分中國媒體“故意抹黑中國品牌和國家，並破壞中巴關系”。
+路透社披露，巴西方面未詳細說明作出“人口販運”結論的依據，比亞迪和金匠集團目前也未對此事作出回應。
+針對比亞迪的勞工剝削爭議，中國外交部發言人毛寧也在周五的例行記者會上進行了回應。毛寧表示，中方已注意到相關消息，正在核實有關情況。她強調，“中國政府高度重視保障勞動者合法權益，一貫要求中資企業依法依規經營。”
+據路透社報道，巴西勞工檢察官計劃於1月7日再次與比亞迪及其承包商金匠集團的代表會面，就當前的問題商討解決方案。未來，比亞迪可能面臨巴西勞動監察員和聯邦檢察官更為嚴格的審查。
+比亞迪原本規劃於明年初在巴西啟動生產，目標是每年生產15萬輛汽車，並通過產地直銷模式運營。目前，巴西市場占比亞迪海外市場的五分之一。
+ 點個贊吧！您的鼓勵讓我們進步      無評論不新聞，發表一下您的意見吧
+ 分享: 	
+注：	
+新聞來源於其它媒體，內容不代表本站立場！
+猜您喜歡:
+比亞迪"奴役勞工"?中國國情,巴西人懂個球!
+印度指控留學生經加國被販運美國
+客機真是被擊落的? 俄官方甩鍋烏克蘭
+解救"奴工",巴西和中國,處在兩個不同的時空
+這樓盤限時三年特惠利率低至3.88%
+從溫飛往歐洲這5個熱門城市最便宜
+溫哥華貸款經理 利率優惠手續簡單
+郭富城7年不娶熊黛林,就是敗在她"一脫成名"上
+神仙打架!1月一口氣放出8部王炸新片!!
+大溫27歲女子被車撞傷 因傷重死亡
+豐味小廚開業狂歡 豐泰超市全場九折
+加拿大土著55年前花10w買下KFC 如今成快餐巨頭
+Costco這批雞蛋事大 搞不好會死人
+農村女教師震驚:妹妹竟是林青霞
+200萬人要離開加拿大?不走怎麼辦
+BC荒野失蹤50天 小哥是如何幸存的
+您可能也喜歡:
+被李嘉誠說中!中國手握2套房以上的家庭有3種結局
+隔壁省這評為2025年加國最佳旅游地
+一句話澆滅所有人希望 習無德無才令中國陷絕境
+外資撤離 富人落跑 看看現在真實的北京和上海…
+鞏俐:姐姐和父親去世 她托起98歲老母親的晚年
+張雨綺大秀魔鬼身材!坦言:為討大家喜歡才穿這樣
+溫哥華科學館《奇觀》視覺震撼的全新展覽 買一送一優惠迎寒假
+美候任國家安全顧問喊話哈馬斯:想活命 就釋放人質
+酒後"身體撞車"被拘留的寶石老舅:已預告多場年末直播演出
+美國史上最大規模驅逐行動:優先驅逐中國公民…
+揭秘著名演員曾黎的成名經歷與感情生活....
+溫哥華會計事務所 收費低 服務好
+溫哥華貸款經理 利率優惠手續簡單
+加國郵政:積壓物品大部分聖誕前到
+"伊鵬3號"事件,北京留了一手,瑞典批評
+未來飛機座椅不能傾斜了?近20萬人簽署請願…
+我來說兩句:
+評論:
+安全校驗碼:
+ 請在此處輸入圖片中的數字
+The Captcha image
+  大家正在圍觀
+ 周末大溫超市優惠搶先看 掃貨指南
+ "加拿大州"減稅60%? 不少人躁動了
+ 大溫本周與新年豐富多彩活動匯總
+ 又拱火!川普慫恿他競選加拿大總理
+ 列治文這種類型房屋價格繼續上升
+ 心碎 聖誕節飛機"被擊落"視頻曝光
+ 亞裔餐館老板感染這病死亡100%致
+ 大溫降雨強風警告 還有風暴在路上
+ 嚴!眾多華人回國剛落地行李就被鎖
+ 平安夜清理池塘積雪 加國男子悲劇
+  同類熱門新聞
+ 56歲阿姨8年窮游12國,10年抑郁症
+ 客機墜毀,機長最後舉動挽救數十人
+ 看俄羅斯車震大賽 像被挖機輪碾過
+ 日本頂流天團隊長伙同導演"圍獵"
+ 未來飛機座椅不能傾斜了?近20萬人
+ 突發:載有67人客機墜毀32人生還
+ 11歲喬治王子越發帥氣,長到1.91米
+ 美國為何不替烏克蘭直接滅了俄羅
+ 日本皇室窮瘋了?最美公主3個月連
+ 空難前機艙最後影像曝光 機尾孔洞
+  隨時閱讀新聞
+加西網微信	
+大溫優惠小紅書
+溫哥華地產中心微信	
+Android: 加西網
+ Terms &amp; Conditions     Privacy Policy     Political ADs     Activities Agreement     Contact Us     Sitemap    
+加西網為北美中文網傳媒集團旗下網站
+頁面生成: 0.0310 秒 and 7 DB Queries in 0.0014 秒
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:30:53</t>
+  </si>
+  <si>
+    <t>巴西勞工部門認定替中國電動車巨頭比亞迪巴西工廠工作的163名中國工人為人口販運受害者，指控工廠存在「奴役式」工作環境，包括超長工時、惡劣宿舍環境、扣押護照等違規行為。比亞迪已終止與承包商金匠集團的合作，並承諾將遵守巴西當地法律。然而，金匠集團否認指控，比亞迪高管則指責事件為外部勢力抹黑。中國外交部回應表示正在核實情況，並強調重視保障勞動者合法權益。巴西勞工檢察官將於1月7日再次與比亞迪會面，商討解決方案。</t>
+  </si>
+  <si>
+    <t>巴西政府勞工部門認定比亞迪巴西工廠163名中國工人為人口販運受害者，指控存在「奴役式」工作環境，包括超長工時、惡劣宿舍環境及扣押護照等。比亞迪終止與承包商金匠集團合作，但金匠集團否認指控，比亞迪高管指責為外部勢力抹黑。中國外交部回應正在核實情況，強調重視勞動者權益。巴西檢察官將於1月7日再次與比亞迪會面。比亞迪巴西廠規劃明年初啟動生產，目標年產15萬輛汽車。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、人口販運、奴役式勞動、中國工人、勞工權益、金匠集團、巴西勞工部門、中國外交部、電動車、工廠、超長工時、惡劣宿舍環境、扣押護照</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪迅速回應事件，終止與違規承包商合作，展現積極處理問題的態度。
+中國外交部回應強調重視勞動者權益，維護國家形象。
+事件曝光促使巴西方面加強對企業勞工規範的監管。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪承包商的違規行為造成負面國際形象，損害品牌聲譽。
+事件可能影響比亞迪在巴西市場的發展和投資計劃。
+缺乏詳細證據說明「人口販運」結論的依據，使事件真相難以釐清。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加強企業社會責任，完善海外工廠勞工管理制度，提升企業形象。
+與巴西政府合作，建立更完善的勞工保護機制。
+藉此事件提升國際社會對勞工權益的關注。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能引發國際社會對中國企業在海外經營的質疑和批評。
+巴西政府可能加強監管，提高經營成本。
+負面輿論持續發酵，進一步損害比亞迪品牌聲譽。
+</t>
+  </si>
+  <si>
+    <t>比亞迪再減價最多11% 迎Tesla降價 - 20241228 - 經濟</t>
+  </si>
+  <si>
+    <t>https://news.mingpao.com/pns/%E7%B6%93%E6%BF%9F/article/20241228/s00004/1735318783953/%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%86%8D%E6%B8%9B%E5%83%B9%E6%9C%80%E5%A4%9A11-%E8%BF%8Etesla%E9%99%8D%E5%83%B9</t>
+  </si>
+  <si>
+    <t>明報新聞網【明報專訊】內地汽車減價戰升溫，比亞迪（1211）日前推出年終促銷後，另一對手Tesla（特斯拉）（美：TSLA）隨即將Model Y型號減價至由23.99萬元（人民幣，下同）起。8 小時前</t>
+  </si>
+  <si>
+    <t>.經濟
+比亞迪再減價最多11% 迎Tesla降價
+【明報專訊】內地汽車減價戰升溫，比亞迪（1211）日前推出年終促銷後，另一對手Tesla（特斯拉）（美：TSLA）隨即將Model Y型號減價至由23.99萬元（人民幣，下同）起。比亞迪昨再推出更多車款優惠，旗下第二代宋Pro DM-i和秦Plus EV榮耀版推限時折扣，價格降至9.98萬元，有效期至明年1月26日。
+上 / 下一篇新聞
+官方樓指連升兩月近1% 首11月挫6.5% 業界籲政府想辦法救經濟 才可真正穩樓市
+CCL按周挫0.73% 3個月最大跌幅</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:31:13</t>
+  </si>
+  <si>
+    <t>比亞迪為因應特斯拉降價，再度推出更多車款優惠，其中第二代宋Pro DM-i和秦Plus EV榮耀版價格降至9.98萬人民幣，有效期至明年1月26日。此舉顯示內地汽車市場的減價競爭持續升溫。</t>
+  </si>
+  <si>
+    <t>比亞迪推出年終促銷後，特斯拉將Model Y減價至23.99萬元起。比亞迪昨再推出優惠，第二代宋Pro DM-i和秦Plus EV榮耀版價格降至9.98萬元，有效期至明年1月26日。此舉顯示內地汽車市場減價競爭升溫。</t>
+  </si>
+  <si>
+    <t>比亞迪、特斯拉、ModelY、減價、促銷、汽車市場、價格戰、內地汽車、宋ProDM-i、秦PlusEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪迅速回應特斯拉降價，積極爭取市場份額。
+此次減價幅度較大，能有效吸引消費者。
+比亞迪擁有較強的品牌力和產品力，能更好地抵禦價格戰的衝擊。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持續降價策略可能影響利潤率。
+激烈的價格競爭可能引發市場混亂。
+消費者對價格敏感度高，可能導致價格戰持續惡化。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通過降價提升銷量，擴大市場佔有率。
+吸引更多新客戶，提升品牌知名度。
+在價格戰中脫穎而出，巩固市場地位。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手可能跟進降價，加劇價格戰。
+市場需求疲軟，降價效果可能不佳。
+長期價格戰可能損害品牌形象。
+</t>
+  </si>
+  <si>
+    <t>內地電動車再掀減價戰比亞迪兩車款10萬有找</t>
+  </si>
+  <si>
+    <t>https://www.stheadline.com/article/3414550/%E5%85%A7%E5%9C%B0%E9%9B%BB%E5%8B%95%E8%BB%8A%E5%86%8D%E6%8E%80%E6%B8%9B%E5%83%B9%E6%88%B0%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%85%A9%E8%BB%8A%E6%AC%BE10%E8%90%AC%E6%9C%89%E6%89%BE</t>
+  </si>
+  <si>
+    <t>星島頭條內地電動車市場再掀減價戰，中資電動車巨頭比亞迪（1211）進行年底促銷，由即日起至明年1月26日，兩款車型宋Pro DM-i及秦Plus EV售價均低至9.98萬元（人民幣，同下），分別減價...9 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.旗下品牌
+內地電動車再掀減價戰比亞迪兩車款10萬有找
+　　內地電動車市場再掀減價戰，中資電動車巨頭比亞迪（1211）進行年底促銷，由即日起至明年1月26日，兩款車型宋Pro DM-i及秦Plus EV售價均低至9.98萬元（人民幣，同下），分別減價約11.5%和9.1%。此外，兩款車型的最高置換補貼分別達2.4萬元和2.5萬元。 　　Tesla在內地市場亦有減價。在平安夜當日，Tesla公布最新優惠活動，年尾前訂購Model Y兼取貨，即可享有減價1萬元優惠，同時搭配5年期零利率車貸。此舉令中國Model Y的後輪驅動版起始售價降至23.99萬，為Model Y在全球市場的最低價格。此外，Tesla「五年零息」優惠也延長至明年1月31日。對此，Tesla中國強調，「最新優惠主要針對的是現貨車款，車主買了不用等車」。 Tesla延「五年零息」優惠 　　日前，理想汽車（2015）創辦人李想指出，汽車將由工業時代的交通工具，進化成人工智能（AI）時代的空間機械人。公司在研發方面，一年投入超過100億元，接近一半投入在人工智能方面。 　　針對理想在AI時代的戰略布局，他表示，未來百分之百會做人形機械人，但理想要先解決L4自動駕駛。實現L4自動駕駛以後，家庭用車也會變得更便宜，成本變得更低，願意擁有汽車的人會變得更多。
+↓立即下載星島頭條App↓
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:31:36</t>
+  </si>
+  <si>
+    <t>中國電動車市場掀起新一輪價格戰，比亞迪推出宋Pro DM-i和秦Plus EV兩款車型，價格均低於10萬人民幣，並提供高額置換補貼。特斯拉也加入價格戰，提供Model Y減價及五年零利率車貸優惠。理想汽車創辦人李想則指出，未來汽車將進化成AI時代的空間機械人，公司正大力投資AI研發，並計劃未來研發人形機器人。</t>
+  </si>
+  <si>
+    <t>內地電動車市場再掀減價戰，比亞迪宋Pro DM-i及秦Plus EV售價均低至9.98萬元，分別減價約11.5%和9.1%，並提供高額置換補貼。Tesla年尾前訂購Model Y享減價1萬元及5年期零利率車貸優惠，起始售價降至23.99萬元。理想汽車創辦人李想表示，未來汽車將進化成AI時代的空間機械人，公司正大力投資AI研發，並計劃未來研發人形機器人。</t>
+  </si>
+  <si>
+    <t>比亞迪、特斯拉、理想汽車、電動車、價格戰、減價、促銷、ModelY、宋ProDM-i、秦PlusEV、AI、人工智能、人形機器人、中國電動車市場、價格競爭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪和特斯拉的價格戰，刺激了消費者購買慾望，提高了銷量。
+價格優惠策略，吸引更多消費者進入電動車市場。
+理想汽車的AI戰略佈局，為未來汽車發展方向提供了新思路。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激烈的價格戰，可能壓縮企業利潤空間。
+價格戰可能導致低價競爭，影響行業健康發展。
+AI技術研發投入巨大，存在一定的風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電動車市場持續擴大，為企業帶來更多發展機遇。
+AI技術的發展，為汽車產業帶來革新。
+新能源汽車市場政策扶持，為企業帶來利好。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原材料價格波動，影響企業生產成本。
+市場競爭激烈，企業面臨較大的壓力。
+消費者需求變化，可能影響產品銷售。
+</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>比亞迪劈價撼Tesla 兩車款最低9.98萬</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%8A%88%E5%83%B9%E6%92%BCtesla-%E5%85%A9%E8%BB%8A%E6%AC%BE%E6%9C%80%E4%BD%8E9-98%E8%90%AC-185000580.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經內地電動車市場再掀減價戰，特拉斯（Tesla）中國於平安夜將Model Y售價削至23.99萬元（人民幣．下同）的歷史新低，為最新一輪減價戰揭開序幕。對此，內地電動車龍頭...10 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+內地電動車市場再掀減價戰，特拉斯（Tesla）中國於平安夜將Model Y售價削至23.99萬元（人民幣．下同）的歷史新低，為最新一輪減價戰揭開序幕。對此，內地電動車龍頭比亞迪（01211）周五（27日）亦宣布，對兩款低價車款提供限時優惠。
+特拉斯Model Y售價創新低
+由即日起至2025年1月26日，比亞迪旗下兩款車型秦Plus EV榮耀版及宋Pro DM-i第二代，限時優惠起售價均為9.98萬元起。秦Plus EV榮耀版及宋Pro DM-i第二代，原來起售價分別為10.98萬元及11.28萬元，故是次優惠的折扣幅度，分別相當於9.1%及11.5%。此外，比亞迪亦為上述兩款車型提供其他優惠，包括分別為2.4萬元和2.5萬元的最高置換補貼。
+特拉斯於早前於周二（24日）平安夜當天，宣布推出Model Y「選購現車，尾款立減」活動，減幅1萬元。
+在該推廣活動下，Model Y後輪驅動版在內地的最新起售價為23.99萬元，不僅創出Model Y在內地的歷史低價，亦是同一車款全球最低售價，該版本在港起售價目前為28.62萬港元。
+另外，吉利（00175）於數周前推出了新車吉利銀河星艦7 EM-i，5款車型的原定售價介乎10.38萬元至13.68萬元。惟2025年1月31日前鎖定訂單的客戶，可享9.98萬元至13.28萬元的優惠價。
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:32:04</t>
+  </si>
+  <si>
+    <t>中國電動車市場掀起新一輪價格戰，特斯拉率先將Model Y降價至歷史新低23.99萬人民幣，比亞迪隨後跟進，對秦Plus EV榮耀版和宋Pro DM-i第二代提供限時優惠，起售價均為9.98萬人民幣。吉利也推出新車優惠活動，以刺激銷售。這顯示中國電動車市場競爭激烈，廠商藉由降價來爭奪市場份額。</t>
+  </si>
+  <si>
+    <t>內地電動車市場再掀減價戰，特拉斯（Tesla）中國於平安夜將Model Y售價削至23.99萬元（人民幣．下同）的歷史新低……比亞迪周五（27日）亦宣布，對兩款低價車款提供限時優惠……秦Plus EV榮耀版及宋Pro DM-i第二代，限時優惠起售價均為9.98萬元起……特拉斯於早前於周二（24日）平安夜當天，宣布推出Model Y「選購現車，尾款立減」活動，減幅1萬元……Model Y後輪驅動版在內地的最新起售價為23.99萬元……吉利（00175）於數周前推出了新車吉利銀河星艦7 EM-i……2025年1月31日前鎖定訂單的客戶，可享9.98萬元至13.28萬元的優惠價。</t>
+  </si>
+  <si>
+    <t>電動車、價格戰、特斯拉、ModelY、比亞迪、秦PlusEV榮耀版、宋ProDM-i第二代、吉利、銀河星艦7EM-i、中國市場、降價、優惠、競爭、市場份額</t>
+  </si>
+  <si>
+    <t xml:space="preserve">特斯拉ModelY降價策略成功引發市場關注，提高品牌知名度。
+比亞迪及吉利跟進降價，顯示其對市場的敏銳反應和快速應變能力。
+降價策略短期內可有效提升銷售量及市佔率。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">降價策略可能導致利潤率下降，影響企業長期盈利能力。
+價格戰容易陷入惡性循環，最終損害整個行業的發展。
+消費者可能對頻繁降價失去信任，影響品牌形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引更多消費者進入電動車市場，擴大市場規模。
+促進行業技術革新和產品升級，提高產品競爭力。
+為消費者提供更多選擇，滿足不同消費需求。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激烈的價格競爭可能導致一些企業倒閉或被收購。
+政府可能出台相關政策，限制價格戰的發生。
+原材料價格上漲可能加劇企業的經營壓力。
+</t>
+  </si>
+  <si>
+    <t>巴西勞工當局調查比亞迪工廠工地涉嫌人口販運 作者 Investing.com</t>
+  </si>
+  <si>
+    <t>https://hk.investing.com/news/stock-market-news/article-93CH-752130</t>
+  </si>
+  <si>
+    <t>Investing.com 香港 - 股市報價&amp; 財經新聞Investing.com -- 巴西勞工當局正在調查巴伊亞州一處建築工地涉嫌人口販運和強迫勞動的指控。該工地計劃建設中國電動車製造商比亞迪的工廠。這項調查為比亞迪在其最大...10 小時前</t>
+  </si>
+  <si>
+    <t>Investing.com -- 巴西勞工當局正在調查巴伊亞州一處建築工地涉嫌人口販運和強迫勞動的指控。該工地計劃建設中國電動車製造商比亞迪的工廠。這項調查為比亞迪在其最大海外市場的爭議再添一筆。
+週四，巴西勞工部發布了視頻和照片，似乎顯示了一個擁擠的睡眠區、一張放在廚房桌子旁的床，以及骯髒的牆壁。勞工檢察官辦公室在與比亞迪和承包商晉江集團代表會面後表示，雙方已同意為163名工人提供協助和臨時酒店住宿，直到達成合同終止協議。
+中國外交部週五表示，已與巴西當局溝通以核實情況。外交部強調其致力於保護工人權利，並要求中國公司依法經營。週五，比亞迪和晉江集團均未立即回應置評請求。然而，晉江集團週一駁斥了巴西當局的評估，稱工地工人處於類似奴隸的條件下工作的說法不準確。
+比亞迪一位高管此前曾指責"外國勢力和一些中國媒體蓄意抹黑中國品牌"。目前正在建設中的這家工廠是比亞迪計劃在2024年或2025年初開始在巴西生產的一部分。該工廠估計年產能為15萬輛汽車，已成為中國在巴西日益增長影響力的象徵。僅在巴伊亞工廠綜合體，比亞迪就投資了620 million美元。
+這項調查為比亞迪帶來了不受歡迎的關注，因為該公司正尋求全球擴張，已在中國取得主導地位。巴西當局已安排於1月7日與這些公司再次會面，屆時計劃提出一項協議。
+此文章由人工智能協助翻譯。更多資訊，請參閱我們的使用條款。</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:32:05</t>
+  </si>
+  <si>
+    <t>巴西勞工當局正在調查比亞迪在巴伊亞州的電動車工廠建設工地，該工地涉嫌人口販運和強迫勞動。調查顯示工地工人居住環境惡劣，勞工檢察官辦公室已與比亞迪和承包商晉江集團達成協議，為163名工人提供協助和臨時住宿。中國外交部表示已與巴西當局溝通，強調保護工人權利，要求中國公司依法經營。晉江集團否認工人處於類似奴隸的條件下工作。比亞迪高管則指責“外國勢力和一些中國媒體蓄意抹黑”。該工廠計劃於2024年或2025年初開始生產，年產能15萬輛，是中國在巴西影響力的象徵。</t>
+  </si>
+  <si>
+    <t>巴西勞工當局調查比亞迪巴伊亞州工廠涉嫌人口販運和強迫勞動，勞工部發布照片顯示工人居住環境惡劣。比亞迪和承包商晉江集團已同意為163名工人提供協助和臨時住宿。中國外交部表示已與巴西當局溝通，強調保護工人權利。晉江集團駁斥工人處於類似奴隸條件下工作的說法。比亞迪高管指責“外國勢力抹黑”。該工廠年產能15萬輛，比亞迪投資6.2億美元。巴西當局計劃1月7日再次與公司會面。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、電動車工廠、人口販運、強迫勞動、勞工調查、晉江集團、中國外交部、工人權利、巴伊亞州、投資、全球擴張</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪是中國電動車領導品牌，在技術和生產能力方面具有優勢。
+巴西是重要的汽車市場，比亞迪在巴西設廠可以擴大其全球市場份額。
+比亞迪在巴西的投資規模巨大，顯示其對巴西市場的信心。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪在巴西的工廠建設項目受到勞工問題的困擾，可能影響其品牌形象和投資者信心。
+比亞迪在海外市場的管理經驗相對不足，可能在處理勞工問題上缺乏經驗。
+負面新聞可能影響比亞迪在巴西的業務發展和擴張計劃。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可以藉此機會改善其在巴西的勞工管理，提升品牌形象。
+比亞迪可以加強與巴西政府和社會組織的溝通合作，以解決勞工問題。
+比亞迪可以利用其技術和生產能力優勢，在巴西市場取得更大的成功。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巴西政府可能會加強對勞工權益的保護，增加比亞迪的經營成本。
+比亞迪在巴西的工廠建設項目可能會面臨更多法律和社會壓力。
+負面新聞可能會影響比亞迪在巴西的銷售和市場份額。
+</t>
+  </si>
+  <si>
+    <t>比亞迪"奴役勞工"?中國國情,巴西人懂個球!</t>
+  </si>
+  <si>
+    <t>https://www.westca.com/News/article/sid=1061753/%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%A5%B4%E5%BD%B9%E5%8B%9E%E5%B7%A5%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%83%85%E5%B7%B4%E8%A5%BF%E4%BA%BA%E6%87%82%E5%80%8B%E7%90%83/lang=tchinese.html</t>
+  </si>
+  <si>
+    <t>加西网近日，比亞迪在巴西的工廠因為“涉嫌奴役勞工”而遭遇密集檢查，引發了軒然大波。這件事不僅讓比亞迪深陷輿論漩渦，也讓我們看到了全球化背景下企業、媒體和公眾的復雜...11 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+| 廣告聯系 | 簡體版 | 手機版 | 微信 | 微博 | 搜索: 
+歡迎您 游客 | 登錄 | 免費注冊 | 忘記了密碼 | 社交賬號注冊或登錄
+歡迎來到加西網 (溫哥華門戶網)	
+首頁	
+新聞資訊	
+論壇	
+溫哥華地產	
+大溫餐館點評	
+溫哥華汽車	
+溫哥華教育	
+黃頁/二手	
+旅游
+新聞 生活資訊 社區 專欄 原創 圖片新聞 最新新聞 評論 搜索 中國新聞
+比亞迪"奴役勞工"?中國國情,巴西人懂個球!
+2024-12-27 | 來源: 三人成虎 | 轉到微信 | 有0人參與評論 | 字體: 放大 縮小 | 收藏 | 打印
+近日，比亞迪在巴西的工廠因為“涉嫌奴役勞工”而遭遇密集檢查，引發了軒然大波。這件事不僅讓比亞迪深陷輿論漩渦，也讓我們看到了全球化背景下企業、媒體和公眾的復雜博弈。
+比亞迪公關總經理李雲飛的發言“欲加之罪，何患無辭”，更是讓事件從勞動權益問題直接飛升到了民族情感層面。吃瓜群眾一邊看著企業“甩鍋藝術”，一邊感歎“文化輸出”的艱難。然而，事件背後的真相究竟如何？我們不妨細細琢磨。
+——文案：鴨叔
+12月26日，對此消息，比亞迪巴西工廠的建設外包施工方之一金匠集團巴西分公司表示，近期遭到巴西當地勞工部門頻繁密集檢查。因文化差異，其誘導性的問詢加上語言翻譯理解的偏差，勞工部門新聞發布的信息很多表達不准確，甚至有些用詞與事實完全不符，集團的員工希望自己站出來講出真實的情況，並願意接受任何媒體的采訪和詢問。
+金匠集團巴西分公司還附有一份手寫簽名及手印的員工聲明。
+聲明中稱，事件的起因涉及107位員工需金匠公司協助辦理巴西臨時身份證。為此，公司臨時收集了這些員工的護照，以便後續進行相關手續處理。
+然而，在勞工部門的一次現場檢查中，這批護照被發現在金匠公司的櫃子內，導致檢查人員誤以為公司統一沒收了所有護照，且未接受公司解釋，錯誤地判斷這些員工的人身自由受到限制，處於非法奴役狀態。
+01
+996：我們的福報，別人當犯罪
+ 字節跳動老對手,近30%巴西人迷上中國這款APP
+比亞迪此次被指控的核心問題，一是工人加班過多，二是生活條件惡劣。根據巴西媒體披露的信息，工人們被安排加班到深夜，甚至男女混住、12人擠在一個宿舍的情況也被曝光。這種“集裝箱式奮斗”模式，不禁讓人懷疑：比亞迪是不是把國內996的“福報文化”直接輸出到了巴西？
+誠然，中國企業的“勤勞文化”在國內已經是家喻戶曉，“加班”幾乎成了企業競爭力的標配。但巴西不是中國，勞動法規定的底線也不是可以隨意突破的。更何況，巴西工人的文化背景與中國有天壤之別。你讓一個習慣了足球、燒烤、桑巴舞的巴西人去接受“吃苦是福”，本質上是文化沖突。如果說國內的996是一種“法外容忍”的灰色地帶，那麼在巴西，這種模式不僅違法，還顯得格外荒唐。
+所以，比亞迪在巴西遇到的這場危機，某種程度上是文化輸出的失敗。把國內那套“加班=奮斗”的邏輯搬到國外，不僅無法被接受，還成了國際笑柄。
+02
+“抹黑中國”這口鍋甩不出去了
+面對指控，比亞迪的回應可謂“高屋建瓴”。李雲飛直接將這件事上升到“抹黑中國品牌”“破壞中巴友誼”的高度，仿佛一場普通的勞工權益糾紛，已經成為了國際陰謀的舞台。不得不說，這種甩鍋手法在國內外輿論場上已經屢見不鮮——“欲加之罪，何患無辭”，不僅能轉移視線，還能激發民族主義情緒，把原本的企業責任問題包裝成一場“國家榮譽戰”。
+但問題在於，這種甩鍋的邏輯並不牢靠。比亞迪在國內外的輿論表現呈現出“雙標”特性：在國外承認工廠存在問題，並終止了與相關外包公司的合作；而在國內宣傳中，卻一口咬定自己是“冤枉的”，並試圖將責任推給外界勢力。這種“外認錯、內甩鍋”的操作，除了讓人覺得公關策略有點“精神分裂”之外，也讓企業形象雪上加霜。
+ 覺得新聞不錯，請點個贊吧      還沒人說話啊，我想來說幾句
+ 分享: 	
+上一頁12下一頁
+注：	
+新聞來源於其它媒體，內容不代表本站立場！
+在此頁閱讀全文
+猜您喜歡:
+字節跳動老對手,近30%巴西人迷上中國這款APP
+力邦藝術港 展覽活動拍攝場地租賃
+王寶強兒子已長大,是誰的親兒子一目了然,觀眾:太像了
+振龍電器 各類熱銷家電 種類齊全
+BC女屋主付了77萬1年半還沒裝修完
+亞裔餐館老板感染這病死亡100%致命
+被震醒了嗎? 溫哥華附近有4級地震
+宋佳:我跟張嘉益拍《懸崖》,是有一點不開心的,被養得圓圓肉肉
+平安夜溫市嚴重車禍 卡車泄漏氣體
+突發:載有67人客機墜毀32人生還
+風暴來襲 BC渡輪取消明天多趟航班
+大溫27歲女子被車撞傷 因傷重死亡
+農村女教師震驚:妹妹竟是林青霞
+列市男子炒14套房不報坐牢罰210萬
+大溫房價都超100萬 要備多少銀子
+冬至加拿大風暴肆虐 BC發強風警告
+您可能也喜歡:
+未來飛機座椅不能傾斜了?近20萬人簽署請願…
+揭秘著名演員曾黎的成名經歷與感情生活....
+清明上河圖密碼懸疑中透著搞笑,網友調侃:不如改名忙人趙大哥
+川普就像鄧小平?中國大搞資本主義打敗美國
+溫哥華牙醫 采用先進技術最新設備
+男子竟開自動駕駛在車內換衫 失控撞車害死嬰兒
+缺乏規劃 大溫人口漲到420萬太多
+"伊鵬3號"事件,北京留了一手,瑞典批評
+溫哥華地產經紀 經驗豐富誠信可靠
+張馨予疑回應老公何捷年薪15萬:價值觀是個好東西
+溫家寶的悲鳴:胡春華投名狀 換不來習的真心
+酒後"身體撞車"被拘留的寶石老舅:已預告多場年末直播演出
+新任中國駐烏克蘭大使馬升琨向澤連斯基遞交國書
+美候任國家安全顧問喊話哈馬斯:想活命 就釋放人質
+鞏俐:姐姐和父親去世 她托起98歲老母親的晚年
+隔壁省這評為2025年加國最佳旅游地
+我來說兩句:
+評論:
+安全校驗碼:
+ 請在此處輸入圖片中的數字
+The Captcha image
+  大家正在圍觀
+ 周末大溫超市優惠搶先看 掃貨指南
+ "加拿大州"減稅60%? 不少人躁動了
+ 大溫本周與新年豐富多彩活動匯總
+ 又拱火!川普慫恿他競選加拿大總理
+ 列治文這種類型房屋價格繼續上升
+ 心碎 聖誕節飛機"被擊落"視頻曝光
+ 亞裔餐館老板感染這病死亡100%致
+ 大溫降雨強風警告 還有風暴在路上
+ 嚴!眾多華人回國剛落地行李就被鎖
+ 平安夜清理池塘積雪 加國男子悲劇
+  同類熱門新聞
+ 大陸熱帖:只有一個國家例外,中國
+ 薄瓜瓜辯文引出的舊文:薄熙來獲罪
+ 爛尾將軍暴增 暴露習與軍中勢力激
+ 五大突變發生 中共引爆政治大亂局
+ 瓊瑤初戀蔣仁:妻子跳江自殺, 喝劣
+ 中國鼓勵"過聖誕"了?網友:文化自
+ 上班6天小伙誤觸輻射源 面臨截肢
+ 歐美同學會背後不為人知的內幕(圖
+ 一場上將晉升儀式 暴露了諸多秘密
+ 央視出手!佟大為、任素汐主演,被
+  隨時閱讀新聞
+加西網微信	
+大溫優惠小紅書
+溫哥華地產中心微信	
+Android: 加西網
+ Terms &amp; Conditions     Privacy Policy     Political ADs     Activities Agreement     Contact Us     Sitemap    
+加西網為北美中文網傳媒集團旗下網站
+頁面生成: 0.0317 秒 and 7 DB Queries in 0.0011 秒
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:32:33</t>
+  </si>
+  <si>
+    <t>比亞迪巴西工廠因「涉嫌奴役勞工」接受密集檢查，引發軒然大波。事件核心問題是工人加班過多和生活條件惡劣，例如加班到深夜、男女混住、多人擠住宿舍等。比亞迪公關總經理李雲飛回應將事件上升到「抹黑中國品牌」、「破壞中巴友誼」的高度，引發爭議。事件的起因涉及外包公司金匠集團協助員工辦理身份證，過程中護照被發現導致誤會，金匠集團表示願意接受媒體採訪和詢問。事件反映了文化差異、勞動法規及企業社會責任等問題。</t>
+  </si>
+  <si>
+    <t>比亞迪在巴西的工廠因為“涉嫌奴役勞工”而遭遇密集檢查，引發了軒然大波。比亞迪公關總經理李雲飛的發言“欲加之罪，何患無辭”，更是讓事件從勞動權益問題直接飛升到了民族情感層面。工人們被安排加班到深夜，甚至男女混住、12人擠在一個宿舍。金匠集團表示，事件起因是協助員工辦理身份證，過程中護照被發現導致誤會，並附上員工聲明。比亞迪在國內外的輿論表現呈現出“雙標”特性。</t>
+  </si>
+  <si>
+    <t>比亞迪，巴西，奴役勞工，加班，996，文化輸出，民族情感，輿論，金匠集團，勞動權益，公關，雙標，中巴友誼，文化衝突，護照，外包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章迅速報導了比亞迪巴西工廠涉嫌奴役勞工事件的最新進展。
+文章從多個角度分析了事件的起因和影響，包括文化差異、勞動法規和企業社會責任。
+文章提供了比亞迪和金匠集團的回應，呈現了事件的多方觀點。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章的觀點帶有一定的主觀性，例如評論比亞迪的公關策略“精神分裂”。
+文章未能提供更多證據支持其觀點，例如工人加班時間的具體數據。
+文章的標題略帶煽動性，可能導致讀者產生偏見。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以深入調查比亞迪巴西工廠的勞動條件，並向讀者提供更全面的信息。
+可以比較比亞迪在中國和巴西的勞動管理模式，分析其差異和原因。
+可以探討如何避免類似事件的發生，例如企業如何更好地遵守當地勞動法規和尊重當地文化。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可能采取法律行動，控告文章中不實的指控。
+文章可能引發讀者之間的爭論和對抗，損害文章的信譽。
+文章可能被其他媒體曲解或斷章取義，造成負面影響。
+</t>
+  </si>
+  <si>
+    <t>電動車減價戰 比亞迪兩車型降價1成</t>
+  </si>
+  <si>
+    <t>https://invest.hket.com/article/3879387</t>
+  </si>
+  <si>
+    <t>Hong Kong Economic Times【本報訊】內地電動車市場再現減價戰，比亞迪（01211）進行年底促銷，即日起至2025年1月26日，兩款車型宋Pro DM-i及秦Plus EV售價均低至9.98萬元（人民幣，下同），...12 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:32:59</t>
+  </si>
+  <si>
+    <t>↩ 巴西稱中國比亞迪工廠建設工人是人口販運的受害者 巴西勞工部門周四表示，比亞迪在巴西的一家工廠建築工地上的中國工人是人口販運的受害者，執法機構將繼續…</t>
+  </si>
+  <si>
+    <t>https://www.bannedbook.org/bnews/zh-tw/itnews/20241228/2134098.html</t>
+  </si>
+  <si>
+    <t>禁闻网前文報道: · 巴西下令停止比亞迪工廠建設因奴隸般勞動巴西當局12月24日下令停止中國純電動汽車大型企業比亞迪計劃的工廠建設，原因是工人們處於「奴隸般的狀態」。12 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN|APP
+論壇
+中共禁聞
+要聞
+中國新聞
+台灣新聞
+香港新聞
+時事觀察
+圖片新聞
+禁言博客
+中國人權
+維權上訪
+新公民運動
+民主運動
+新聞評論
+萌圖囧視
+幽默笑話
+社會百態
+國際新聞
+美國新聞
+傳統文化
+修鍊故事
+氣功
+史海鉤沉
+禁播視頻
+世界奧秘
+外星人之謎
+生命奧秘
+超自然現象
+健康養生
+娛樂新聞
+財經新聞
+生活百科
+心情感悟
+體育新聞
+禁聞網
+禁聞網簡體 
+翻牆必看的中共禁聞,禁網新聞,大陸新聞中國新聞解讀評論,禁聞點擊排行榜
+V2ray翻牆一鍵翻牆包
+交流評論、關注點贊
+Youtube Icon站長動態
+Facebook Icon臉書專頁
+telegram Icon翻牆交流電報群
+telegram Icon電報頻道
+RSS訂閱禁聞RSS/FEED訂閱
+禁聞網 &gt; IT新聞 &gt; 正文
+↩️ 巴西稱中國比亞迪工廠建設工人是人口販運的受害者 巴西勞工部門周四表示，比亞迪在巴西的一家工廠建築工地上的中國工人是人口販運的受害者，執法機構將繼續...
+2024年12月28日 0:00 PDF版 分享轉發
+前文報道:
+巴西下令停止比亞迪工廠建設 因奴隸般勞動 巴西當局12月24日下令停止中國純電動汽車大型企業比亞迪計劃的工廠建設，原因是工人們處於「奴隸般的狀態」。巴西勞動部12月23日指出，在建設現場工作的中國工人在惡劣的環境下工作，因此對比亞迪及其承包建築公司下達了停止施工的命令。同時，保護了163名工人。據悉，工人的護照被扣押，並且工資的6成被扣作保證金。住宿的地方沒有床墊，廁所等設施也不完善，衛生條件存在問題。還報告了惡劣的居住環境和長時間工作導致的睡眠不足等健康問題，還存在未給予適當治療的情況。比亞迪的巴西法…
+巴西稱中國比亞迪工廠建設工人是人口販運的受害者
+巴西勞工部門周四表示，比亞迪在巴西的一家工廠建築工地上的中國工人是人口販運的受害者，執法機構將繼續調查。巴西勞工檢察官辦公室在會見兩家公司的代表后發表聲明稱，比亞迪承包商金匠集團已同意為這 163 名工人提供協助，併為他們提供酒店住宿，直至達成終止合同的協議。金匠集團在聲明中表示，將工人描述為「被奴役」是不準確的，只是存在翻譯和溝通問題。比亞迪最初表示已切斷與金匠的聯繫，但比亞迪公關負責人李雲飛後來指責「境外勢力」和一些中國自媒體「故意抹黑中國品牌和中國，破壞中巴關係」。
+巴西檢察官公布了工人宿舍的視頻，視頻顯示，宿舍里有雙層床，但沒有床墊。但一些中國網民表示，這裏的生活條件與中國建築工地的典型情況類似。工人們工作時間過長，有時一周七天都在工作，當局稱工作條件惡劣。在巴西，「奴隸制條件」包括強迫勞動，也包括惡劣的工作條件、對工人健康構成風險的長時間工作、債務奴役以及任何侵犯人類尊嚴的工作。
+—— 路透社
+中國進疫情爆發期 醫院和火葬場爆滿；巴西叫停比亞迪工廠 160多中國工人處境艱難；神韻蒞臨義大利 開啟2025歐洲14國巡演；屏東滿州鄉「捆草秀」 風光盡收眼底【 環球直擊 】
+飛往俄羅斯的客機在哈薩克斯坦墜毀 約30人遇難；巴西叫停比亞迪工廠 160多中國工人處境艱難；美國會聽證會：中共竊取美國人信息；期待神韻演出 賓州州眾議員贊神韻激勵人心【 環球直擊】
+比亞迪巴西新廠工地奴役中國工人 生存狀況「令人震驚」
+聖誕老人已來到澳洲，很快抵達北美；路透：明年中共發行3兆特別國債；中國工人被奴役，巴西叫停比亞迪新廠；星巴克罷工，涵蓋全美300多家店。｜ 新唐人快報 12/24 /2024
+突發：俄國貨船爆炸沉沒，3千朝鮮兵傷亡；李宜雪二度被精神病；比亞迪巴西工廠停工，163名中國工人遭奴役；日美同盟穩固；追蹤聖誕老人；神韻全美首演大爆滿【 全球新聞】
+🔥華人必看：中華文化的颶風 幸福感無法描述
+🔥解鎖ChatGPT|全平台高速翻牆:高清視頻秒開,超低延遲
+🔥免費PC翻牆、安卓VPN翻牆APP
+🔥治國大道：修身、齊家、管理、治國的大智慧
+轉自: 風向旗快訊
+站長動態，轉發分享↓Follow Us 責任編輯：石嵐
+熱門禁書
+九評共產黨、解體黨文化、漫談黨文化
+起底共產黨叢書、魔鬼在統治著我們的世界
+馬克思的成魔之路、共產主義的終極目的
+科學與宗教、中華文化、治國大道
+本文標籤：中國, 中國工人, 人口販運, 勞動部, 勞工部, 巴西, 建築工地, 檢察官, 比亞迪
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:33:29</t>
+  </si>
+  <si>
+    <t>巴西勞工部門指控比亞迪在巴西工廠建築工地上的中國工人遭受人口販運，並下令停止施工。163名中國工人護照被扣押，工資被扣六成，居住環境惡劣，工作時間過長。比亞迪承包商金匠集團否認「奴役」指控，稱問題源於翻譯和溝通。比亞迪則指責「境外勢力」抹黑。巴西檢察官公布了工人宿舍的視頻，顯示條件簡陋。此事件引起廣泛關注，並被多家國際媒體報導。</t>
+  </si>
+  <si>
+    <t>巴西勞工部門周四表示，比亞迪在巴西的一家工廠建築工地上的中國工人是人口販運的受害者，執法機構將繼續調查。比亞迪承包商金匠集團已同意為這163名工人提供協助。金匠集團否認「被奴役」的說法，稱存在翻譯和溝通問題。比亞迪指責「境外勢力」和一些中國自媒體「故意抹黑中國品牌和中國，破壞中巴關係」。巴西檢察官公布了工人宿舍的視頻，顯示宿舍里有雙層床，但沒有床墊。工人們工作時間過長，有時一周七天都在工作，當局稱工作條件惡劣。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國工人、人口販運、勞工部門、金匠集團、工廠建設、惡劣工作條件、護照扣押、工資剋扣、翻譯溝通問題、境外勢力、抹黑、雙層床、床墊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迅速反應：巴西政府及勞工部門對事件做出快速反應，保護了受影響工人。
+公開透明：巴西檢察官公布視頻證據，提高事件透明度。
+多方關注：事件受到國際媒體廣泛報導，引起國際社會關注。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資訊不對稱：比亞迪與金匠集團的說法與巴西官方說法存在出入，資訊真偽難以判斷。
+潛在風險：事件可能損害比亞迪的國際形象及中巴關係。
+缺乏細節：報導中缺乏更詳細的證據和證詞，例如具體的工資待遇、工作時間安排等。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加強監管：事件凸顯國際企業在海外投資中需加強對勞工權益的保障。
+提升形象：比亞迪可藉此事件檢討自身管理流程，提升企業社會責任形象。
+促進合作：中巴兩國政府可藉此事件加強溝通，避免類似事件再次發生。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政治風險：事件可能被利用於政治操作，加劇國際社會對中國企業的負面評價。
+法律風險：比亞迪及其承包商可能面臨法律訴訟及巨額罰款。
+商業風險：事件可能影響比亞迪在巴西的投資及業務發展。
+</t>
+  </si>
+  <si>
+    <t>巴西調查比亞迪工廠「奴役」中國工人，承包商否認、旗下員工稱：來巴西工作我們很愉快</t>
+  </si>
+  <si>
+    <t>https://www.thenewslens.com/article/246912</t>
+  </si>
+  <si>
+    <t>The News Lens 關鍵評論網巴西調查比亞迪在巴西當地的工廠建築工地有「人口販運」嫌疑，且雇用的中國員工在極度惡劣的環境工作。然而承包商金匠集團發出聲明指出，將工人描述為「奴役」的說法不...17 小時前</t>
+  </si>
+  <si>
+    <t>.巴西調查比亞迪工廠「奴役」中國工人，承包商否認、旗下員工稱：來巴西工作我們很愉快
+關鍵評論網編輯部實習生
+巴西調查比亞迪在巴西當地的工廠建築工地有「人口販運」嫌疑，且雇用的中國員工在極度惡劣的環境工作。然而承包商金匠集團發出聲明指出，將工人描述為「奴役」的說法不準確，並且存在文化差異與翻譯上的偏差，指出巴西勞工部門發布的消息有許多「不準確」。且在一部包含當地員工的影片中，員工也自述這是「一場很大的誤會」。
+《路透社》報導，巴西勞工當局週四（26日）表示，中國電動車製造商比亞迪（BYD）在當地旗下一家工廠建設的中國工人是「人口販運的受害者」，此事導致原先將成為比亞迪的首座海外工廠引發爭議。
+比亞迪和承包商金匠集團已同意協助並安置這163名工人，讓他們暫時住在飯店，直到達成解除合約的協議為止。巴西勞工檢察官辦公室在與兩家公司代表會面後的一份聲明中表示。
+這份簡短的聲明並沒有提供檢察官如何得出結論的細節。
+比亞迪與承包商雙雙否認
+比亞迪和金匠集團27日沒有立即回應評論的要求，金匠集團週一否認了巴西當局的評估，即東部巴伊亞（Bahia）州工地的工人在「奴隸般的條件下」工作。
+金匠集團在微博上發出聲明，表示將工人描述為「奴役」的說法不準確，並且存在文化差異與翻譯上的偏差，指出巴西勞工部門發布的消息有許多「不準確」。
+Photo Credit: 金匠集團巴西分公司微博截圖
+然而比亞迪最初表示已與金匠集團斷絕關係，但隨後比亞迪品牌及公關處總經理李雲飛轉發這則聲明，並指責「外國勢力」和一些中國媒體「故意抹黑中國品牌和國家，破壞中巴兩國關係」。</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:33:49</t>
+  </si>
+  <si>
+    <t>巴西勞工當局指控比亞迪在巴西工廠建築工地存在「人口販運」嫌疑，並指稱雇用的中國員工在惡劣環境下工作。比亞迪和承包商金匠集團否認相關指控，聲稱「奴役」的說法不準確，存在文化差異和翻譯偏差。雙方已同意協助安置163名工人。比亞迪隨後指責「外國勢力」和部分中國媒體故意抹黑。</t>
+  </si>
+  <si>
+    <t>巴西勞工當局指控比亞迪巴西工廠建築工地「人口販運」，稱中國員工在惡劣環境工作。比亞迪和承包商金匠集團否認，稱「奴役」說法不準確，存在文化差異和翻譯偏差。雙方已同意協助安置163名工人。比亞迪指責「外國勢力」和部分中國媒體故意抹黑。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、人口販運、奴役、中國工人、工廠、金匠集團、勞工當局、文化差異、翻譯偏差、外國勢力、抹黑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪和金匠集團快速回應指控，並採取安置工人的措施，顯示積極處理危機的態度。
+金匠集團發布聲明澄清，試圖減輕負面影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪的回應中指責「外國勢力」和媒體抹黑，可能加劇負面輿論。
+事件可能損害比亞迪的國際形象和品牌聲譽。
+缺乏對指控的詳細說明和證據，難以判斷事件真相。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若能有效澄清事實，並改善工人工作條件，可以重建公眾信任。
+可以藉此機會檢視和改善公司在海外的勞工管理制度。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能導致比亞迪在巴西的投資和業務受阻。
+負面輿論持續發酵，可能對比亞迪的全球業務造成長遠影響。
+可能面臨法律訴訟和罰款。
+</t>
+  </si>
+  <si>
+    <t>比亞迪巴西建廠捲奴役爭議 中國稱正核實情況</t>
+  </si>
+  <si>
+    <t>https://money.udn.com/money/story/5599/8453890</t>
+  </si>
+  <si>
+    <t>經濟日報巴西勞動當局日前表示，中國電動車巨擘比亞迪在巴西建廠工地的中國工人是人口販運受害者。對此，中國外交部今天表示「正在核實有...17 小時前</t>
+  </si>
+  <si>
+    <t>巴西勞動當局日前表示，中國電動車巨擘比亞迪在巴西建廠工地的中國工人是人口販運受害者。對此，中國外交部今天表示「正在核實有關情況」。
+綜合陸媒報導，中國外交部發言人毛寧下午在例行記者會回應媒體說，中國與巴西保持著溝通，正在核實有關情況。
+巴西勞動檢察官辦公室（Labor Prosecutor'sOffice）27日表示，比亞迪在巴西建廠工地的中國工人是人口販運受害者。
+巴西勞動檢察官辦公室在與比亞迪和承包商金匠集團（Jinjiang Group）代表會面後發出聲明說，兩家公司已同意協助在飯店安置相關的163名工人，直到達成終止合約的協議為止。
+巴西是比亞迪最大海外市場，這家中國電動車大廠在當地捲入的爭議愈演愈烈。</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:33:50</t>
+  </si>
+  <si>
+    <t>巴西勞動當局指控比亞迪在巴西建廠工地的中國工人是人口販運受害者，比亞迪和承包商金匠集團已同意協助安置這些工人。中國外交部表示正在核實相關情況。此事件發生在比亞迪將巴西視為最大海外市場的背景下，加劇了比亞迪在巴西的爭議。</t>
+  </si>
+  <si>
+    <t>巴西勞動當局表示，比亞迪在巴西建廠工地的中國工人是人口販運受害者。比亞迪和承包商金匠集團已同意協助安置163名工人。中國外交部發言人毛寧表示「正在核實有關情況」。巴西是比亞迪最大海外市場，此事件加劇了比亞迪在當地的爭議。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、人口販運、中國工人、建廠、金匠集團、勞動當局、中國外交部、海外市場、爭議</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪迅速回應事件並與巴西當局合作安置工人，展現了積極處理危機的態度。
+比亞迪在巴西市場佔據重要地位，事件曝光有助於提升其企業社會責任的關注度。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人口販運指控嚴重損害比亞迪的企業形象和品牌聲譽。
+事件可能引發進一步的調查和法律訴訟，對比亞迪的營運造成負面影響。
+此事件可能影響比亞迪在巴西的投資和業務發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可藉此機會加強企業社會責任措施，建立更完善的勞工保護機制。
+事件可以促使比亞迪重新審視其海外建廠流程和供應鏈管理，提升效率並降低風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能導致比亞迪在巴西的業務受阻，甚至被迫停止在巴西的投資。
+負面新聞可能影響消費者對比亞迪品牌的信任，降低銷售額。
+巴西政府可能出台更嚴格的勞工法規，增加比亞迪的營運成本。
+</t>
+  </si>
+  <si>
+    <t>搶春節旺季市場︳內地比亞迪及Tesla 同時推優惠 最多降價11%</t>
+  </si>
+  <si>
+    <t>https://www.edigest.hk/%E6%8A%95%E8%B3%87/%E6%90%B6%E6%98%A5%E7%AF%80%E6%97%BA%E5%AD%A3-%E6%AF%94%E4%BA%9E%E8%BF%AA-tesla-%E6%8E%A8%E5%84%AA%E6%83%A0-1710751/</t>
+  </si>
+  <si>
+    <t>經濟一週比亞迪（1211）和Tesla近期在內地市場推出限時優惠，以抓住春節前的汽車銷售旺季。比亞迪的起售價低至9.98萬元人民幣，並針對多款車型提供了不同程度的降價優惠。18 小時前</t>
+  </si>
+  <si>
+    <t>.搶春節旺季市場︳內地比亞迪及Tesla 同時推優惠 最多降價11%
+比亞迪的優惠詳情
+比亞迪今日（27日）宣布，從即日起至2025年1月26日，第二代宋 Pro DM-i和秦 PLUS EV榮耀版兩款車型推出以下優惠：
+內媒推算，宋 Pro DM-i和秦 PLUS EV榮耀版的降幅分別為11.5%和9.1%，而宋L DM-i則為3.7%。
+TESLA的優惠措施
+Tesla於12月24日推出「選購現車 尾款立減」活動，針對Model Y現車，尾款可減免1萬元，並可疊加截止至明年1月31日的五年0息金融方案。Tesla在今年11月25日至12月31日期間，針對Model Y推出了相同的尾款減免政策。
+銷量表現與市場分析
+比亞迪一直是汽車「價格戰」的先鋒，今年10月和11月的銷量連續突破50萬輛，1至11月的累計銷量達到375.7萬輛，按年增長40.02%。比亞迪高層預測2024年累計銷量有望達到425萬輛。
+相對而言，Tesla在今年1至11月的內地市場零售達57.42萬輛，按年增長8.77%，在新能源汽車市場中排名第二。
+乘聯會秘書長崔東樹指出，2025年春節在1月28日，較2024年早13天，這將影響到購車時間安排，尤其是春節前的消費熱情，對1月份的銷量影響特別明顯。
+免責聲明：本專頁刊載的所有投資分析技巧，只可作參考用途。市場瞬息萬變，讀者在作出投資決定前理應審慎，並主動掌握市場最新狀況。若不幸招致任何損失，概與本刊及相關作者無關。而本集團旗下網站或社交平台的網誌內容及觀點，僅屬筆者個人意見，與新傳媒立場無關。本集團旗下網站對因上述人士張貼之資訊內容所帶來之損失或損害概不負責。</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:34:12</t>
+  </si>
+  <si>
+    <t>比亞迪和特斯拉為搶佔中國春節前的汽車消費旺季，分別推出促銷優惠活動。比亞迪針對第二代宋 Pro DM-i、秦 PLUS EV榮耀版和宋L DM-i三款車型提供不同程度的價格折扣，降幅最高達11.5%。特斯拉則針對Model Y現車提供尾款減免優惠，並可疊加五年零息金融方案。儘管兩家公司在中國新能源汽車市場表現亮眼，但為應對2025年春節提前到來的影響，以及激烈的市場競爭，都選擇了以價格戰刺激銷量。</t>
+  </si>
+  <si>
+    <t>比亞迪宣布，即日起至2025年1月26日，第二代宋 Pro DM-i和秦 PLUS EV榮耀版推出優惠，降幅分別為11.5%和9.1%，宋L DM-i為3.7%。特斯拉推出「選購現車 尾款立減」活動，Model Y現車尾款減免1萬元，並可疊加五年0息金融方案。比亞迪1至11月累計銷量達375.7萬輛，按年增長40.02%，預計2024年銷量達425萬輛。特斯拉1至11月內地零售達57.42萬輛，按年增長8.77%。乘聯會秘書長崔東樹指出，2025年春節提前，將影響購車時間安排，對1月份銷量影響明顯。</t>
+  </si>
+  <si>
+    <t>比亞迪，特斯拉，價格戰，促銷優惠，春節，新能源汽車，ModelY，宋ProDM-i，秦PLUSEV，銷量，市場競爭，汽車消費，價格折扣，零息金融</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪和特斯拉都是新能源汽車領域的領軍企業，品牌知名度和產品競爭力強。
+兩家公司都有雄厚的資金實力，能夠支撐價格戰的持續進行。
+春節前是汽車銷售旺季，促銷活動更容易吸引消費者。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格戰會降低利潤率，影響企業的盈利能力。
+激烈的價格競爭可能會引發市場混亂，損害行業健康發展。
+部分消費者可能會對價格戰產生抵觸情緒，認為產品質量下降。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通過價格戰提升市場佔有率，鞏固行業領先地位。
+清理庫存，加快資金週轉。
+吸引更多新客戶，擴大市場規模。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他競爭對手可能跟進價格戰，加劇市場競爭。
+消費者購買力下降，影響銷售效果。
+政府監管政策可能收緊，限制價格戰的進行。
+</t>
+  </si>
+  <si>
+    <t>電動車巨擘比亞迪捲奴役爭議 巴西稱工人是人口販賣受害者</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/6809/8453622?from=udn-ch1_breaknews-1-cate5-news</t>
+  </si>
+  <si>
+    <t>聯合新聞網巴西勞動有關當局昨天表示，中國大陸電動車製造商比亞迪（BYD）在巴西建廠工地的中國大陸工人是人口販運受害者.18 小時前</t>
+  </si>
+  <si>
+    <t>.怎樣能長壽又無病無痛？營養師揭91歲老人「健康走向善終」飲食秘訣
+反制侵權自我矮化？傳我故宮擬去「國立」改「台北」登陸註冊
+黃國昌曝柯文哲「關4個月反應變慢」？ 專家：封閉環境刺激少
+電動車巨擘比亞迪捲奴役爭議 巴西稱工人是人口販賣受害者
+巴西勞動有關當局昨天表示，中國大陸電動車製造商比亞迪（BYD）在巴西建廠工地的中國大陸工人是人口販運受害者。
+路透社報導，巴西是比亞迪最大海外市場，這家電動車巨擘在當地捲入的爭議愈演愈烈。
+巴西勞動檢察官辦公室（Labor Prosecutor's Office）在與比亞迪和承包商金匠集團（Jinjiang Group）代表會面後發出聲明說，兩家公司已同意協助在飯店安置這163名工人，直到達成終止合約的協議為止。這項簡短聲明未就檢方如何得出結論提供細節。
+路透社尋求置評，但比亞迪和金匠未立即回應。
+巴西有關當局23日曾評估說，這些在東部巴伊亞州（Bahia）工地的工人處於「奴役般的環境」。
+金匠在社群媒體發文說：「莫名被扣上『奴役』的帽子，讓我們的員工感覺人格受到了侮辱。」聲明中提到翻譯的問題引發誤解。
+比亞迪最初表示已與金匠斷絕合作關係，但比亞迪一名高層隨後指控「境外相關勢力」和一些中國大陸媒體「蓄意抹黑」中國大陸品牌和中國大陸，「企圖破壞中巴友誼」。
+中國大陸外交部25日表示，中國大陸駐巴西使領館正在「與巴西方面保持溝通，核實情況，妥善處理」。
+路透社今天尋求就人口販運指控置評，但中國大陸外交部未立即回應。
+巴西檢方表示，他們將於明年1月7日再次與這些公司會面並提出相關協議。
+編輯推薦
+▪192票贊成！總統與代總統韓悳洙雙遭彈劾 南韓憲政史上首次 ▪烏克蘭首次「活捉」北韓士兵 重傷遭俘虜畫面曝光 ▪俄飛彈擊落亞塞拜然客機釀38死？克里姆林宮回應了 ▪機場也被炸！以襲青年運動6死 WHO秘書長譚德塞正登機逃死 ▪全世界擁有最多土地的大地主是誰？答案出爐眾人跌破眼鏡
+延伸閱讀
+比亞迪在巴西被控奴役勞工 大陸外交部：正核實情況
+比亞迪巴西蓋廠 逾百陸籍工人被曝沒尊嚴「堪比奴隸」
+比亞迪明年1月正式進軍韓國！韓政府可能展開反補貼調查
+寧德時代傳赴港上市 至少籌資50億美元
+被譽為「天才官僚」 認識南韓新任代理總統崔相穆
+敘利亞阿塞德流亡前夕全紀錄：官邸大門洞開、友邦旁觀 　
+中國大陸Shein延攬法國前內政部長 遭批漂綠、破壞立法
+FB留言
+udn討論區</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:34:33</t>
+  </si>
+  <si>
+    <t>中國電動車製造商比亞迪在巴西建廠，爆發163名中國籍工人受奴役的爭議。巴西勞動檢察官辦公室調查後認定這些工人是人口販運受害者，比亞迪和承包商金匠集團已同意協助安置工人。比亞迪最初否認，並指控「境外相關勢力」抹黑，但隨後中國外交部表示正與巴西方面溝通。巴西檢方將於明年1月再次會面，商討相關協議。</t>
+  </si>
+  <si>
+    <t>巴西勞動檢察官辦公室表示，比亞迪在巴西建廠工地的163名中國工人是人口販運受害者，比亞迪和承包商金匠集團已同意協助安置工人。金匠集團稱翻譯問題造成誤解。比亞迪最初指控「境外相關勢力」抹黑，中國外交部表示正與巴西溝通，核實情況。巴西檢方將於明年1月7日再次與公司會面。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國、人口販運、奴役、勞工、電動車、建廠、金匠集團、外交部、勞動檢察官辦公室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件獲得國際媒體廣泛報導，提高大眾對勞工權益的關注。
+巴西政府介入調查，能促使比亞迪及相關企業改善勞工待遇。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪的聲譽受損，可能影響其在巴西及其他市場的業務。
+事件可能加劇中巴關係的緊張。
+調查結果及後續處理可能曠日廢時。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可藉此事件檢討其在海外營運的管理模式，提升企業社會責任。
+巴西政府可藉此機會完善勞工保護法規，避免類似事件再次發生。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可能面臨巨額罰款或法律訴訟。
+事件可能引發其他國家對中國企業在海外投資的審查。
+事件可能加劇國際社會對中國企業勞工待遇的質疑。
+</t>
+  </si>
+  <si>
+    <t>All In民族產業？陸「舉國體制」下的供應鏈悲歌</t>
+  </si>
+  <si>
+    <t>https://www.wealth.com.tw/articles/14bc58c1-1b1d-4ff8-b205-bb4f2be35540</t>
+  </si>
+  <si>
+    <t>財訊近年來，太陽能、電池、電動車等產品在中國「舉國體制」的加持下，出海大殺四方，重塑全球市場競爭格局。「民族產業」的崛起讓中國官方藉此宣揚制度優越性，惟「舉國體制」...20 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:34:59</t>
+  </si>
+  <si>
+    <t>研報掘金丨方正證券：予比亞迪“強烈推薦”評級漢L，唐L等重磅車型發佈值得期待財經新聞Financial News</t>
+  </si>
+  <si>
+    <t>http://www.aastocks.com/tc/mobile/news.aspx?newsid=GLH1800659L&amp;newstype=61&amp;newssource=GLH</t>
+  </si>
+  <si>
+    <t>AASTOCKS.com12月27日｜方正證券研報指出，覆盤2024，比亞迪(002594.SZ)銷量份額增長顯著，新能源汽車龍頭成長如約而至。回顧2024年，比亞迪全年有望實現410-420 萬輛的銷量目標，市佔率...21 小時前</t>
+  </si>
+  <si>
+    <t>logo 桌面版
+代號
+報價
+即時報價
+市場
+新聞
+指數
+返回    放大 +    縮小 -
+研報掘金丨方正證券：予比亞迪“強烈推薦”評級 漢L，唐L等重磅車型發佈值得期待
+推薦0利好2利淡3
+格隆匯新聞
+12月27日｜方正證券研報指出，覆盤2024，比亞迪(002594.SZ)銷量份額增長顯著，新能源汽車龍頭成長如約而至。回顧2024年，比亞迪全年有望實現410-420 萬輛的銷量目標，市佔率從年初（2024w1）10.2%提升至(2024w42)的18.28%，實現了單年市佔率提升8個百分點的歷史跨越。覆盤比亞迪內需、出海、高端化三大成長動能，認為2024年主要增長點來自於DM5.0為代表的新車週期帶來的內需成功表現，秦L，宋L 等DM5.0重磅混動車型投放帶來明確的市場影響力，技術週期驅動內需成長的邏輯驗證明確，後續出海、高端化邏輯有望接力演繹。
+展望2025，比亞迪新車週期持續，有望重點發力20萬以上中高端市場。在20萬元以內市場，比亞迪攜宋、元、漢、秦、以及海洋旗艦系列眾多爆款車型密集鋪設細分價格帶，後續煥新週期有望引領技術領先優勢。測算0-20萬/20-40萬/40萬以上價格帶自主品牌替代空間為382/390/118萬台，預計2025年在自主品牌滲透率持續提高，20萬以上市場合資潛在市場空間約500萬輛，成為比亞迪重點發力方向。騰勢、仰望、方程豹多款全新車型問世，漢L，唐L等重磅車型發佈值得期待。給予“強烈推薦”評級。
+新聞來源 (不包括新聞圖片): 格隆匯
+免責聲明 : 以上資訊僅供參考。AASTOCKS.com Limited對以上資訊的內容不承擔任何責任，對其準確性，完整性，品質，及時性，或可靠性不作任何陳述或予以認可，並明確表示不對任何由本資訊的全部或部分內容引致之損失或損害承擔任何法律責任或為其引起的損失負責。以上資訊或反映了相關文章或專題作者的的個人意見和觀點，並不代表AASTOCKS.com Limited的立場。以上資訊的任何內容均不構成AASTOCKS為任何投資作出招攬、提出要約、意見或推薦，或對任何證劵或投資的收益或是否合適提供法律、稅務、會計、或投資意見或服務。投資者必須按其本身投資目標及財務狀況自行作出投資決定。
+備註
+(1) 所有香港指數為即時指數
+主頁|即時報價|市場|新聞|指數
+意見箱|免責聲明
+查看: 手機|桌面
+語言: 繁|简|EN
+回到頁頂
+聯絡我們
+支援電郵: support@aastocks.com</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:35:26</t>
+  </si>
+  <si>
+    <t>方正證券發布研報，給予比亞迪“強烈推薦”評級。研報指出，比亞迪2024年銷量有望達到410-420萬輛，市佔率提升至18.28%，主要得益於DM-i 5.0等新車型投放市場。展望2025年，比亞迪將重點發力20萬元以上的中高端市場，並推出騰勢、仰望、方程豹等多款新車型，漢L、唐L等重磅車型也值得期待。</t>
+  </si>
+  <si>
+    <t>方正證券研報指出，比亞迪2024年銷量有望實現410-420萬輛，市佔率從10.2%提升至18.28%。主要增長點來自DM5.0等新車型，秦L、宋L等帶來明確市場影響力。展望2025年，比亞迪將重點發力20萬元以上中高端市場，騰勢、仰望、方程豹等新車型問世，漢L，唐L等重磅車型發佈值得期待。給予“強烈推薦”評級。</t>
+  </si>
+  <si>
+    <t>比亞迪、方正證券、研報、強烈推薦、新能源汽車、銷量、市佔率、DM-i5.0、秦L、宋L、中高端市場、騰勢、仰望、方程豹、漢L、唐L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪2024年銷量和市佔率大幅增長，展現強勁的市場競爭力。
+新車型投放市場成功，提升品牌影響力。
+未來規劃明確，重點發力中高端市場，具有巨大潛力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">研報僅為機構分析，存在一定的主觀性，不保證預測的準確性。
+中高端市場競爭激烈，比亞迪能否成功突圍仍存在不確定性。
+原材料價格波動和供應鏈風險可能影響公司盈利。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國新能源汽車市場持續擴大，為比亞迪提供廣闊的發展空間。
+技術研發持續領先，推出更多具有競爭力的新車型。
+積極拓展海外市場，提升國際影響力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新能源汽車行業競爭加劇，來自其他廠商的壓力加大。
+政策環境變化可能影響公司發展。
+消費者需求變化可能導致銷量下滑。
+</t>
+  </si>
+  <si>
+    <t>比亞迪巴西工廠被指虐待員工　工作環境堪比奴隸被迫強制勞動 | Unwire.hk | LINE TODAY</t>
+  </si>
+  <si>
+    <t>https://today.line.me/hk/v2/article/gzvY7jX</t>
+  </si>
+  <si>
+    <t>LINE TODAY巴西勞工檢察署（MPT）最近發表調查報告，指出在巴伊亞州正在興建的比亞迪（BYD）工廠，涉嫌以「奴工」方式剝削超過160 名工人，已勒令停...23 小時前</t>
+  </si>
+  <si>
+    <t>.啟用Javascript
+科技
+比亞迪巴西工廠被指虐待員工　工作環境堪比奴隸被迫強制勞動
+Unwire.hk
+巴西勞工檢察署（MPT）最近發表調查報告，指出在巴伊亞州正在興建的比亞迪（BYD）工廠，涉嫌以「奴工」方式剝削超過 160 名工人，已勒令停工。
+根據報告指出，負責興建該工廠的外判商「晉江建築（巴西）」扣留了中國藉工人的護照與薪水，命令工人在「極度惡劣」的環境中工作。其宿舍甚至只讓工人睡在沒有床墊的床板上，每間浴室需要 31 名工人共用，又逼迫他們必須凌晨起床才能準時工作，否則又面臨懲罰。
+這些工人的工作時間也相當長，報告指有人曾經連續 25 日工作無法休息，而且就算希望辭職，在半年內離職除了需要自己購買機票和支付其他費用，工作期間的薪金也會全數沒收。
+有關當局表示，這些狀況已經違反巴西法律中關於「奴工」的定義，包含債務奴役及有違人性尊嚴的工作環境。比亞迪方面回應指，已經與涉案外判商解除合約，強調完全遵守巴西相關法律。受影響的工人目前已被安置到酒店。
+這座原訂於 2025 年 3 月投產的工廠，是比亞迪在亞洲以外的首座電動車工廠，總投資金額高達 30 億雷亞爾（約 4.842 億美元）。巴西目前是比亞迪最大的海外市場，早在 2015 年就已在聖保羅設立電動巴士底盤工廠。
+來源：BBC
+• 不想錯過新科技 ? 請 Follow unwire.hk FB 專頁http://facebook.com/unwirehk/ • 要入手生活科技潮物 即上 unwire store https://store.unwire.hk/</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:35:45</t>
+  </si>
+  <si>
+    <t>國際、科技</t>
+  </si>
+  <si>
+    <t>巴西勞工檢察署（MPT）調查發現，比亞迪在巴西巴伊亞州興建中的電動車工廠，其承包商「晉江建築（巴西）」涉嫌以「奴工」方式剝削超過160名中國籍工人，包括扣留護照和薪水、提供惡劣的住宿環境、強迫超時工作等，已勒令該工廠停工。比亞迪回應已與涉案承包商解除合約，並安置受影響工人。這座預計2025年3月投產的工廠是比亞迪在亞洲以外的首座電動車工廠，總投資金額高達30億雷亞爾。</t>
+  </si>
+  <si>
+    <t>巴西勞工檢察署調查比亞迪巴西工廠，指控承包商「晉江建築（巴西）」以「奴工」方式剝削超過160名工人，包括扣留護照與薪水，強迫在「極度惡劣」環境下工作，連續工作25天無法休息，且辭職需自付機票和費用，薪金全數沒收。比亞迪回應已與承包商解除合約，受影響工人已被安置酒店。該工廠預計2025年3月投產，總投資金額高達30億雷亞爾。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、電動車工廠、奴工、強制勞動、人權侵犯、晉江建築、勞工檢察署、巴伊亞州、中國工人、護照、薪水、惡劣環境、超時工作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪迅速回應事件，並採取補救措施，顯示其對社會責任的重視。
+此事件凸顯了全球供應鏈中人權問題的重要性，促使企業更加關注勞工權益。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪的承包商行為嚴重損害了其品牌形象和聲譽。
+此事件可能延遲比亞迪在巴西工廠的投產時間，影響其在巴西市場的發展。
+暴露了比亞迪在海外工廠管理上的漏洞。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可以藉此機會加強其供應鏈管理，完善勞工保護措施，提高其企業社會責任形象。
+加強對承包商的監督管理，避免類似事件再次發生。
+可以制定更完善的員工培訓和保護機制。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可能引發國際社會的關注和批評，對比亞迪的國際業務造成負面影響。
+巴西政府可能對比亞迪採取進一步的懲罰措施。
+消費者可能抵制比亞迪產品，損害其銷售額。
+</t>
+  </si>
+  <si>
+    <t>160多名中國工人從比亞迪建築地盤獲救</t>
+  </si>
+  <si>
+    <t>https://www.plataformamedia.com/zh-hant/2024/12/27/160%E5%A4%9A%E5%90%8D%E4%B8%AD%E5%9C%8B%E5%B7%A5%E4%BA%BA%E5%BE%9E%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%BB%BA%E7%AF%89%E5%9C%B0%E7%9B%A4%E7%8D%B2%E6%95%91/</t>
+  </si>
+  <si>
+    <t>Plataforma Media巴西當局表示，從比亞迪於當地興建中的電動車廠工地裡，營求出懷疑遭奴役的163名中國籍員工。24 小時前</t>
+  </si>
+  <si>
+    <t>.160多名中國工人從比亞迪建築地盤獲救
+巴西當局表示，從比亞迪於當地興建中的電動車廠工地裡，營求出懷疑遭奴役的163名中國籍員工。
+巴伊亞州勞工檢察辦公室表示，工人的住宿及施工現場環境惡劣，工人60%的工資及護照都被公司扣留。
+該163名員工由「Jinjiang Construction Brazil」集團所聘用，該集團是為比亞迪在巴伊亞州薩爾瓦多大都會區的卡馬薩里（Camaçari）建廠的公司之一。
+比亞迪總部和大部分生產基地都位於中國。巴西總統盧拉於本月初提到有關車廠，比亞迪執行副總裁李柯亦表示，車廠將是中國以外最大、最先進的汽車生產廠，預計到2025年底產能將達到15萬輛汽車，到2026年底達到30萬輛，主要供應巴西和南美市場。
+巴伊亞州勞工檢察辦公室表示，工人的住宿及施工現場環境惡劣，工人60%的工資及護照都被公司扣留。
+當局又指，工人要睡在沒有床墊的床上，沒有存放個人物品的儲物櫃，「衛生環境尤其惡劣，每31名工人只有一個廁所」。
+廚房亦在令人吃驚的條件下運作，沒有足夠櫥櫃儲存食物，有食物存放在浴室附近，條件不衛生。
+在工地上，大約600名工人只有8個化學廁所，而且狀況「惡劣」，沒有廁紙、沒有水，也沒有適當的維修。
+當局又發現，這些工人暴露在「強烈的太陽輻射」下，「皮膚有明顯曬傷」，而且工地曾發生過多次工作意外。
+當局又指，這些工人屬「強迫勞動」，除被扣留部分工資和護照之外，如想終止合約，還會面臨嚴厲的懲罰，可能會損失被扣留工資的40%，而且除了償還前往巴西的機票費用外，還必須自行支付返回中國的路費。
+根據勞工檢察辦公室的資料，部分獲救的工人住在宿舍，其他則住在旅館。
+這些住宿地點和建築工地將繼續處於封鎖狀態，直至相關檢查機構對其進行完全規範化之前，不得進行任何活動。
+勞工檢察辦公室和勞動部的聯合虛擬聽證會定於本周四（12月26日）舉行，以便比亞迪和Jinjiang集團能提出必要的措施，保證工人最低限度的工作條件。
+本月初，巴西政府表示，中國領先的電動汽車製造商比亞迪表示，計劃從2025年3月開始在巴西生產汽車。
+X</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:36:08</t>
+  </si>
+  <si>
+    <t>巴西當局在比亞迪於當地興建中的電動車廠工地，救出163名疑似遭奴役的中國籍工人。這些工人由「Jinjiang Construction Brazil」集團聘用，其住宿及施工現場環境惡劣，60%的工資和護照被扣留，生活條件簡陋，衛生條件差，且工地存在安全隱患。工人們被指控遭受「強迫勞動」，若想終止合約，還將面臨嚴厲的懲罰。巴西當局已下令封鎖相關住宿地點和建築工地，並將於本周四舉行聽證會，要求比亞迪和Jinjiang集團提出改善工人工作條件的措施。</t>
+  </si>
+  <si>
+    <t>巴西當局從比亞迪在當地興建中的電動車廠工地營救出163名疑似遭奴役的中國籍工人。「工人的住宿及施工現場環境惡劣，工人60%的工資及護照都被公司扣留。」「工人要睡在沒有床墊的床上，沒有存放個人物品的儲物櫃，「衛生環境尤其惡劣，每31名工人只有一個廁所」。「這些工人屬「強迫勞動」，除被扣留部分工資和護照之外，如想終止合約，還會面臨嚴厲的懲罰」。這些住宿地點和建築工地將繼續處於封鎖狀態，「直至相關檢查機構對其進行完全規範化之前，不得進行任何活動」。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國工人、強迫勞動、奴役、JinjiangConstructionBrazil、電動車廠、工地、環境惡劣、衛生條件差、安全隱患、護照扣留、工資扣留、勞工檢察辦公室、聽證會</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迅速介入救援，保護了受壓迫工人的權益。
+事件曝光，引起國際社會關注，促使企業改善勞動條件。
+巴西政府積極介入，展現維護勞工權益的決心。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件暴露了國際承包商的管理漏洞及潛在的道德風險。
+比亞迪的品牌形象受損，可能影響其在巴西的業務發展。
+救援行動的效率和後續的監管力度仍待觀察。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">促使比亞迪等企業加強企業社會責任，改善全球供應鏈的勞動條件。
+提升國際社會對強迫勞動問題的關注度，推動相關法律法規的完善。
+為巴西加強勞工權益保護提供借鑒和經驗。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能引發國際社會對中國企業在海外投資的質疑。
+比亞迪在巴西的投資項目可能面臨延誤或取消的風險。
+可能激化中巴兩國之間的貿易和外交關係。
+</t>
+  </si>
+  <si>
+    <t>比亞迪爆奴工？ 巴西認定涉人口販運 中方稱正在核實</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7333/8454760?from=udn-catelistnews_ch2</t>
+  </si>
+  <si>
+    <t>聯合新聞網在中國車企積極出海發展之際，外媒報導巴西勞工部門叫停了比亞迪當地建廠項目，指該工地涉嫌奴役163名中國籍員工，認定存在人...49 分鐘前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+即時
+起訴柯文哲
+要聞
+娛樂
+運動
+全球
+社會
+地方
+產經
+股市
+房市
+生活
+寵物
+健康
+橘世代
+文教
+評論
+兩岸
+科技
+Oops
+閱讀
+旅遊
+雜誌
+報時光
+倡議+
+500輯
+轉角國際
+NBA
+時尚
+汽車
+棒球
+HBL
+遊戲
+專題
+網誌
+女子漾
+購物
+請輸入關鍵字
+全產品速覽
+新聞評論
+聯合新聞網
+陽光行動
+聯合報數位版
+聯合70
+轉角國際
+倡議家
+世界日報
+新聞話題
+服務
+會員中心
+U利點數
+我的新聞
+歷史新聞
+活動專區
+udn粉絲團
+udn line 好友
+股市理財
+經濟日報網
+房地產
+中經社
+樂透
+發票
+生活娛樂
+噓！星聞
+優人物
+udnSTYLE
+500輯
+遊戲角落
+發燒車訊
+元氣網
+橘世代
+寵物部落
+科技玩家
+女子漾
+報時光
+運動
+udn NBA
+野球夢田
+HBL
+閱讀創作
+琅琅悅讀
+琅琅書店
+琅琅原創
+一刻鯨選
+聯副70
+udn部落格
+聯合文學
+聯經出版
+聯文雜誌
+文創購物
+數位文創
+IP 授權
+瘋活動
+售票網
+時光商號
+更多產品
+聯合知識庫
+聯合電子報
+聯合影音網
+聯合學苑
+有行旅
+APP行動網
+內容聯盟
+關於我們
+輸Email訂聯合電子報
+聯合線上公司 著作權所有 ©2023
+我的頻道
+加入橘世代VIP富活人生下半場。
+MLB／破隊史紀錄！響尾蛇6年2.1億美元搶下塞揚強投伯恩斯
+熟客忘帶錢包求賒帳遭拒！怒喊「以後不來了」 老闆求饒也沒用
+小燕子趙薇宣布離婚！證實「早就解除婚姻關係」
+udn 兩岸 陸港經貿
+比亞迪爆奴工？ 巴西認定涉人口販運 中方稱正在核實
+2024-12-28 14:25 世界日報／ 記者
+陳政錄
+／綜合報導
+部分工人在比亞迪巴西工廠的居住環境。（取材自巴西公共勞動檢察署官網）
+部分工人在比亞迪巴西工廠的居住環境。（取材自巴西公共勞動檢察署官網）
+在中國車企積極出海發展之際，外媒報導巴西勞工部門叫停了比亞迪當地建廠項目，指該工地涉嫌奴役163名中國籍員工，認定存在人口販運。對此，中國外交部發言人毛寧27日回應表示，正在核實有關情況，並稱中國高度重視保障勞工的合法權益，一貫要求中資依法依規經營。
+來源：YouTube
+據路透報導，巴西巴伊亞州勞工檢察官辦公室日前表示，在當地一間比亞迪工廠的建築上「解救」了163名中國公民，指控這些人被迫長期工作，有工人連續25日不休息，31人共用1個浴室，生活條件「堪比奴隸」。
+在27日的中國外交部例行記者會上，有媒體就此提問，包括巴西官方表示，比亞迪巴西工廠的建設外包施工方之一金匠集團的員工是「國際拐賣的受害者」，金匠公司已配合調查，比亞迪表示與金匠公司終止合約，中方有何評論？
+毛寧回應說，「我們注意到相關報導，也同巴西方面保持溝通，正在核實有關情況。」但毛寧也補充，「我想說的是，中國政府高度重視保障勞工的合法權益，一貫要求中資依法依規經營」。
+另據自由亞洲電台報導，巴西勞工檢察官辦公室發表聲明指出，比亞迪及其承包商金匠集團已同意為這些工人提供援助，並暫時安排他們入住酒店，直至雙方就終止合同達成協議。路透披露，巴西方面未詳細說明作出「人口販運」結論的依據，比亞迪和金匠集團目前也未對此事作出回應。
+澳洲龍蝦輸陸重啟 睽違四年首批今晨抵上海
+2024-12-28 14:28
+比亞迪爆奴工？ 巴西認定涉人口販運 中方稱正在核實
+2024-12-28 14:25
+力推低空經濟 大陸發改委成立低空經濟發展司
+2024-12-28 12:02
+FB留言
+udn討論區
+共 0 則留言
+訂閱udn兩岸新聞報
+聯合線上公司 著作權所有 ©2024</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:14:50</t>
+  </si>
+  <si>
+    <t>巴西勞工部門指控比亞迪巴西工廠的建築承包商金匠集團涉嫌奴役163名中國籍員工，認定存在人口販運。這些工人被指控被迫長期工作，生活條件惡劣，與「奴隸」無異。比亞迪已聲稱與金匠集團終止合約，並表示與金匠集團的合作關係已終止。中國外交部回應稱正在核實情況，並強調高度重視保障勞工合法權益，要求中資企業依法依規經營。巴西方面暫未詳細說明作出「人口販運」結論的依據，比亞迪和金匠集團也未對此作出回應。</t>
+  </si>
+  <si>
+    <t>巴西勞工部門指控比亞迪巴西工廠建築承包商金匠集團涉嫌奴役163名中國籍員工，「解救」了163名中國公民，指控這些人被迫長期工作，生活條件「堪比奴隸」。中國外交部回應稱正在核實有關情況，並稱中國高度重視保障勞工的合法權益，一貫要求中資依法依規經營。巴西方面未詳細說明作出「人口販運」結論的依據，比亞迪和金匠集團也未回應。比亞迪已聲稱與金匠集團終止合約。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國、人口販運、奴役、勞工、金匠集團、外交部、核實、合法權益、建築工廠、中國籍員工、勞工部門</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迅速披露了事件，讓大眾關注到在國際企業經營中可能存在的勞工問題。
+呈現了中國官方的回應，展現了中方對勞工權益的重視。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缺乏比亞迪和金匠集團的直接回應，使得事件真相尚不明朗。
+巴西方面未詳細說明作出「人口販運」結論的依據，缺乏證據支持。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">促使比亞迪和相關企業加強對勞工權益的保障，改善勞工條件。
+推動國際社會對企業社會責任的關注，建立更完善的勞工保護機制。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能損害比亞迪的國際品牌形象，影響其在巴西及其他國家的業務發展。
+可能加劇中巴兩國之間的摩擦，影響雙邊關係。
+</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>比亞迪在巴西「勞工」風波：奴家給各位吹個笛子吧</t>
+  </si>
+  <si>
+    <t>https://www.bannedbook.org/bnews/zh-tw/comments/20241228/2134337.html</t>
+  </si>
+  <si>
+    <t>禁闻网在彭博社報道比亞迪在巴西的事情后，國內外輿論已經吵成一鍋粥了。 事情大概是這樣，在巴伊亞州卡馬薩里市，巴西的勞動部門發現在建的比亞迪工廠工地上，有160多名工人居住...1 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN|APP
+論壇
+中共禁聞
+要聞
+中國新聞
+台灣新聞
+香港新聞
+時事觀察
+圖片新聞
+禁言博客
+中國人權
+維權上訪
+新公民運動
+民主運動
+新聞評論
+萌圖囧視
+幽默笑話
+社會百態
+國際新聞
+美國新聞
+傳統文化
+修鍊故事
+氣功
+史海鉤沉
+禁播視頻
+世界奧秘
+外星人之謎
+生命奧秘
+超自然現象
+健康養生
+娛樂新聞
+財經新聞
+生活百科
+心情感悟
+體育新聞
+禁聞網
+禁聞網簡體 
+翻牆必看的中共禁聞,禁網新聞,大陸新聞中國新聞解讀評論,禁聞點擊排行榜
+V2ray翻牆一鍵翻牆包
+交流評論、關注點贊
+Youtube Icon站長動態
+Facebook Icon臉書專頁
+telegram Icon翻牆交流電報群
+telegram Icon電報頻道
+RSS訂閱禁聞RSS/FEED訂閱
+禁聞網 &gt; 新聞評論 &gt; 正文
+比亞迪在巴西「勞工」風波：奴家給各位吹個笛子吧
+2024年12月28日 13:59 PDF版 分享轉發
+在彭博社報道比亞迪在巴西的事情后，國內外輿論已經吵成一鍋粥了。
+事情大概是這樣，在巴伊亞州卡馬薩里市，巴西的勞動部門發現在建的比亞迪工廠工地上，有160多名工人居住環境很差，護照和工資還被建築公司扣了。
+給比亞迪蓋工廠的外包建築企業叫金匠，工人們住在四個設施里。按照巴西人的說法，工人們睡在沒有床墊的板床上，31個人才有一個浴室，上班時間太早，有時一周工作七天。
+巴西人說工人們已經被當地有關部門解救了。但這個居住環境令人震驚，岌岌可危，有辱人格，堪比：奴隸。
+由於文字簡潔加上圖片特別有臨場感，外媒一片嘩然，紛紛跳出來指責比亞迪，有的甚至跳出來說你就這樣和特斯拉爭第一？
+消息傳回國內時，已經比彭博社全面了，因為有金匠員工在視頻賬號上展示自己的工作生活環境。
+按照這個哥們兒的描述，每天8小時的工作，一個月收入13000元人民幣。他們根本不需要解救，是巴西人搞鬼，想把他們趕走自己來上班。
+他這麼一說，大星都有畫面感了。建築建材行業一般都有地頭蛇勢力，詳細情況看過《狂飆》的朋友都懂，巴西人肯定也懂，比亞迪從國內帶人過去蓋廠子，他們能說什麼，只能告訴勞工部門：我想吃魚了。
+至此，國內輿論徹底分化。一方認為，比亞迪這是丟人丟到國外了，就算是給了工人高薪，但還是把996，無視居住環境保障那套帶過去了。至於這個站出來說自己沒有被奴役的哥們兒，是：奴而不自知。
+另一方認為，這環境咋了，國內建築工地都這樣，甚至有的大學宿舍還不如這個呢，而且掙錢又多，人家工人都沒叫苦，你們帶啥節奏？
+沉默了兩天後，金匠巴西分公司和比亞迪公關總經理李雲飛站了出來。金匠說當地勞工部門檢查頻繁，這裏面有文化差異，凈問些誘導性問題，再加上翻譯偏差，所以完全沒有奴役和解救，都是誤會，不信你看我們員工拍的視頻和按的手印。
+看得出來，巴西勞工部門把員工們帶離工棚，侵犯了他們的人權，侮辱了他們的人格，他們非常生氣，指印按的力透紙背。
+李雲飛則說的更直接。他說欲加之罪，何患無辭！在抹黑中國品牌、抹黑中國，以及企圖破壞中巴友誼的事情上，見識了境外相關勢力如何惡意關聯、蓄意抹黑，國內部分自媒體如何：裡應外合。
+攘外必先安內是吧？大星記得比亞迪在巴西可不是這麼說的。
+他們在聲明中表示，已與涉事機構斷絕合作關係，並承諾將會「全面遵守巴西法律」。他們還說已對分包員工的工作和生活條件進行了「詳細審查」，並多次要求建築公司改善。
+這麼看起來，他們確實知道一周干七天不合法，也知道那些建築工住的不好，否則不會這麼發聲明。
+有一點李雲飛說的沒錯。彭博社這個媒體一貫善於抹黑，他們甚至連自己國家的龍頭企業都不放過。
+大星記得當年他們以釣魚執法的報道方式，揭露了蘋果手機在印度尼西亞供應鏈涉及違法行為，造成當地礦難頻發，環境崩壞，最後讓蘋果在國際上丟了大人。
+蘋果當時可是自查到底了，而且還徹底改變了iPhone的一些生產工藝。
+大星看很多媒體從為什麼不用巴西本地建築商，中國出海企業要從中總結教訓，比亞迪在越南是怎麼解決勞資糾紛的，外企是怎麼對待自己員工等等方面去分析了這起事件，我就不贅述了。
+大星只想說一句，不要總想著有人要害你，既然覺得自己沒問題，那就讓大家充分討論，天塌不下來。
+巴西已停止向比亞迪發放臨時工作簽證
+報道：奴工指稱曝光后，巴西停止向比亞迪發放臨時工作簽證
+【巴西稱比亞迪工廠的工人是人口販運受害者】
+↩️ 巴西稱中國比亞迪工廠建設工人是人口販運的受害者 巴西勞工部門周四表示，比亞迪在巴西的一家工廠建築工地上的中國工人是人口販運的受害者，執法機構將繼續...
+比亞迪起訴自媒體「龍豬-集車」名譽侵權勝訴
+🔥華人必看：中華文化的颶風 幸福感無法描述
+🔥解鎖ChatGPT|全平台高速翻牆:高清視頻秒開,超低延遲
+🔥免費PC翻牆、安卓VPN翻牆APP
+🔥治國大道：修身、齊家、管理、治國的大智慧
+來源：星球商業評論
+站長動態，轉發分享↓Follow Us 責任編輯：葉華
+熱門禁書
+九評共產黨、解體黨文化、漫談黨文化
+起底共產黨叢書、魔鬼在統治著我們的世界
+馬克思的成魔之路、共產主義的終極目的
+科學與宗教、中華文化、治國大道
+本文標籤：人民幣, 勞工部, 居住環境, 巴西, 巴西人, 建築公司, 建築商, 比亞迪, 笛子
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:15:19</t>
+  </si>
+  <si>
+    <t>國際、社會、經濟</t>
+  </si>
+  <si>
+    <t>彭博社報導比亞迪在巴西新建工廠的建築工人居住環境惡劣，護照和工資被扣，引發國際輿論關注。  比亞迪和承包商金匠回應稱，並無奴役行為，是文化差異和翻譯問題造成誤會。  但巴西已停止向比亞迪發放臨時工作簽證，事件反映出中國企業海外發展中可能面臨的勞工和社會責任問題。</t>
+  </si>
+  <si>
+    <t>在彭博社報道比亞迪在巴西的事情后，國內外輿論已經吵成一鍋粥了…。巴西的勞動部門發現在建的比亞迪工廠工地上，有160多名工人居住環境很差，護照和工資還被建築公司扣了…。巴西人說工人們已經被當地有關部門解救了。但這個居住環境令人震驚，岌岌可危，有辱人格，堪比：奴隸…。沉默了兩天後，金匠巴西分公司和比亞迪公關總經理李雲飛站了出來…。李雲飛則說的更直接。他說欲加之罪，何患無辭！…。他們在聲明中表示，已與涉事機構斷絕合作關係，並承諾將會「全面遵守巴西法律」。巴西已停止向比亞迪發放臨時工作簽證。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、勞工、工廠、居住環境、護照、工資、彭博社、金匠、文化差異、翻譯問題、人口販運、臨時工作簽證、輿論、社會責任、中國企業、海外發展</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪及金匠迅速回應事件，試圖澄清誤解。
+比亞迪聲明中承諾遵守巴西法律，顯示其願意承擔社會責任。
+事件提高了大眾對中國企業海外經營中勞工權益的關注。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工人居住環境惡劣，即使無意奴役，也反映出管理和監督上的缺失。
+比亞迪的回應未能完全消除國際社會的疑慮。
+事件對比亞迪的品牌形象造成負面影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可藉此機會改善海外工廠的管理和勞工福利，提升企業形象。
+加強與當地政府和機構的溝通，避免類似事件再次發生。
+制定更完善的海外項目管理規範和勞工保護措施。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能影響比亞迪在巴西的業務發展，甚至面臨法律訴訟。
+負面輿論可能持續發酵，損害比亞迪的品牌聲譽。
+其他中國企業可能面臨同樣的風險，加劇國際社會對中國企業海外經營的審查。
+</t>
+  </si>
+  <si>
+    <t>比亞迪巴西廠爆「奴役勞工」 遭勒令停工、停發簽證｜#鏡新聞</t>
+  </si>
+  <si>
+    <t>https://tw.news.yahoo.com/%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%B7%B4%E8%A5%BF%E5%BB%A0%E7%88%86-%E5%A5%B4%E5%BD%B9%E5%8B%9E%E5%B7%A5-%E9%81%AD%E5%8B%92%E4%BB%A4%E5%81%9C%E5%B7%A5-%E5%81%9C%E7%99%BC%E7%B0%BD%E8%AD%89-%E9%8F%A1%E6%96%B0%E8%81%9E-045903074.html</t>
+  </si>
+  <si>
+    <t>奇摩新聞中國電動車大廠比亞迪位在巴西的工廠工地，爆出奴役勞工爭議！巴西勞動部調查後發現，有多達163名中國籍工人，護照和薪水遭人力派遣公司扣押，還被迫在惡劣環境下工作，...2 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國電動車大廠比亞迪位在巴西的工廠工地，爆出奴役勞工爭議！巴西勞動部調查後發現，有多達163名中國籍工人，護照和薪水遭人力派遣公司扣押，還被迫在惡劣環境下工作，除了勒令比亞迪工廠停工，也立即停發工作簽證。對此，中國外交部昨天（12/27）表示正在和巴西政府溝通釐清情況。 </t>
+  </si>
+  <si>
+    <t>2024-12-28 15:15:21</t>
+  </si>
+  <si>
+    <t>比亞迪在巴西的工廠爆發奴役勞工爭議，巴西勞動部調查發現163名中國籍工人護照和薪水被扣押，並在惡劣環境下工作。巴西政府勒令比亞迪工廠停工並停發工作簽證。中國外交部表示正與巴西政府溝通釐清情況。</t>
+  </si>
+  <si>
+    <t>巴西比亞迪工廠爆發奴役勞工爭議，163名中國籍工人護照和薪水遭扣押，被迫在惡劣環境下工作。巴西勞動部勒令工廠停工，並停發工作簽證。中國外交部表示正與巴西政府溝通釐清情況。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、奴役勞工、中國籍工人、護照扣押、薪水扣押、惡劣工作環境、工廠停工、工作簽證停發、中國外交部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件迅速曝光，引起國際社會關注，促使相關單位介入調查。
+巴西政府採取果斷措施，勒令停工並停發簽證，保障工人權益。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪的聲譽受損，可能影響其在巴西及全球的業務發展。
+事件暴露了國際勞工市場中存在的潛在風險，需要更嚴格的監管機制。
+釐清事件真相和追究責任的過程可能漫長而複雜。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">促使比亞迪及其合作夥伴改善勞工管理制度，提升企業社會責任意識。
+推動國際社會加强對跨國企業勞工權益的保護。
+強化國際合作，共同打击跨國勞工剝削行為。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能引發進一步的社會動盪和抗議活動。
+比亞迪在巴西的投資和業務可能面臨更大的風險。
+事件可能影響中巴兩國的關係。
+</t>
+  </si>
+  <si>
+    <t>比亞迪捲入奴工醜聞 巴西：工人是人口販運受害者</t>
+  </si>
+  <si>
+    <t>https://www.ntdtv.com/b5/2024/12/27/a103941827.html</t>
+  </si>
+  <si>
+    <t>新唐人電視台幫助中國電動車製造商比亞迪建築巴西新工廠的中國工人遭到奴隸般對待，消息曝光後引發國際關注。週四（12月26日），巴西勞工當局表示，這些中國工人是人口販運的受害者。5 小時前</t>
+  </si>
+  <si>
+    <t>.比亞迪捲入奴工醜聞 巴西：工人是人口販運受害者
+【新唐人北京時間2024年12月27日訊】幫助中國電動車製造商比亞迪建築巴西新工廠的中國工人遭到奴隸般對待，消息曝光後引發國際關注。週四（12月26日），巴西勞工當局表示，這些中國工人是人口販運的受害者。
+巴西是比亞迪最大的海外市場，此事引發越來越多的爭議。
+路透社報導，巴西勞工檢察官辦公室在會見兩家公司的代表後發表聲明稱，比亞迪和建築承包商金匠集團（Jinjiang Construction Brazil）已同意協助並將163名工人安置在酒店，直到達成終止合同的協議。
+這份簡短聲明沒有提供細節。
+比亞迪在巴西東北部的巴伊亞州正在建設新工廠。巴西勞動部12月23日發表聲明表示，在建設現場工作的中國工人在惡劣環境下工作，因此對比亞迪及其承包建築公司下達停止施工命令。同時，保護了163名工人。
+英國廣播公司（BBC）引用巴西檢察官辦公室的聲明說，工人們分別住在四個「設施（宿舍）」。在其中一處，工人們睡在沒有床墊的床上，31個工人共同使用一個衛生間，他們每天都必須「很早」起床準備上班。「住所內發現的狀況令人震驚，岌岌可危，令人不堪」。
+巴西法律定義的「奴隸般的條件」，包括債務奴役和違反人類尊嚴的工作。勞動部補充道，這種情況還構成「強迫勞動」，因為許多工人工資被扣押，若要解約需面臨高昂的費用。
+週五，比亞迪和金匠集團沒有立即回應路透社置評請求。
+週四，金匠集團反駁巴西當局「類似奴隸制條件下工作」的評估。金匠集團在比亞迪發言人轉發的社交媒體帖子中表示，將工人描述為「奴隸」是不準確的，並且存在翻譯誤解。
+比亞迪最初表示已切斷與金匠的聯繫，但比亞迪高管後來指責「外國勢力」和一些中國媒體「故意抹黑中國品牌和國家，破壞中巴關係」。
+巴西檢察官表示，他們將於1月7日再次與這兩家公司代表會面，並提出一項協議。
+這項協議可能會讓比亞迪和金匠免於勞工檢察官的調查，但他們仍可能面臨勞工監察員和聯邦檢察官的審查，後者要求分享證據。
+檢察官辦公室表示：「在刑事領域可以採取措施。」</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:12:22</t>
+  </si>
+  <si>
+    <t>中國電動車製造商比亞迪在巴西新建廠房的中國籍工人，被控遭受類似奴隸般的待遇，引發國際關注。巴西勞工當局已介入調查，初步認定這些工人是人口販運的受害者，並已將163名工人安置在酒店。比亞迪和承包商金匠集團同意協助安置工人，並將在1月7日與巴西檢察官再次會面，協商解決方案。事件中，比亞迪最初聲稱已終止與金匠的合作關係，但之後又指責「外國勢力」抹黑。巴西檢察官表示，此事件可能面臨勞工監察員和聯邦檢察官的進一步調查，甚至可能面臨刑事指控。</t>
+  </si>
+  <si>
+    <t>巴西勞工當局表示，幫助比亞迪在巴西建設新工廠的中國工人是人口販運受害者，在惡劣環境下工作，類似奴隸般對待。比亞迪和承包商金匠集團已同意協助安置163名工人，並將在1月7日再次會面協商。金匠集團否認「類似奴隸制條件」的評估，比亞迪則指責「外國勢力」抹黑。檢察官表示，此事件可能面臨進一步調查，甚至刑事指控。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國工人、奴工、人口販運、強迫勞動、金匠集團、勞工檢察官、國際關注、中巴關係、電動車、工廠建設</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巴西勞工部門迅速介入，保護了受影響的工人。
+比亞迪和金匠集團初步同意合作解決問題。
+事件曝光提高了國際社會對類似問題的關注。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪的回應前後矛盾，損害了其企業形象。
+事件可能影響比亞迪在巴西的業務和聲譽。
+徹底解決問題需要時間和進一步調查。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可促進巴西加強勞工保護法律法規。
+可加強國際合作，打擊人口販運和強迫勞動。
+比亞迪可藉此機會改善其在巴西的勞工管理。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可能引發國際社會對中國企業在海外經營的質疑。
+比亞迪可能面臨法律訴訟和巨額罰款。
+事件可能損害中巴兩國的關係。
+</t>
+  </si>
+  <si>
+    <t>丟臉到國際！比亞迪奴隸們被好心解救很生氣</t>
+  </si>
+  <si>
+    <t>https://www.bannedbook.org/bnews/zh-tw/comments/20241228/2134382.html</t>
+  </si>
+  <si>
+    <t>禁闻网在彭博社報道比亞迪在巴西的事情后，國內外輿論已經吵成一鍋粥了。 事情大概是這樣，在巴伊亞州卡馬薩里市，巴西的勞動部門發現在建的比亞迪工廠工地上，有160多名工人...37 分鐘前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN|APP
+論壇
+中共禁聞
+要聞
+中國新聞
+台灣新聞
+香港新聞
+時事觀察
+圖片新聞
+禁言博客
+中國人權
+維權上訪
+新公民運動
+民主運動
+新聞評論
+萌圖囧視
+幽默笑話
+社會百態
+國際新聞
+美國新聞
+傳統文化
+修鍊故事
+氣功
+史海鉤沉
+禁播視頻
+世界奧秘
+外星人之謎
+生命奧秘
+超自然現象
+健康養生
+娛樂新聞
+財經新聞
+生活百科
+心情感悟
+體育新聞
+禁聞網
+禁聞網簡體 
+翻牆必看的中共禁聞,禁網新聞,大陸新聞中國新聞解讀評論,禁聞點擊排行榜
+V2ray翻牆一鍵翻牆包
+交流評論、關注點贊
+Youtube Icon站長動態
+Facebook Icon臉書專頁
+telegram Icon翻牆交流電報群
+telegram Icon電報頻道
+RSS訂閱禁聞RSS/FEED訂閱
+禁聞網 &gt; 新聞評論 &gt; 正文
+丟臉到國際！比亞迪奴隸們被好心解救很生氣
+2024年12月28日 16:35 PDF版 分享轉發
+在彭博社報道比亞迪在巴西的事情后，國內外輿論已經吵成一鍋粥了。
+事情大概是這樣，在巴伊亞州卡馬薩里市，巴西的勞動部門發現在建的比亞迪工廠工地上，有160多名工人居住環境很差，護照和工資還被建築公司扣了。
+給比亞迪蓋工廠的外包建築企業叫金匠，工人們住在四個設施里。按照巴西人的說法，工人們睡在沒有床墊的板床上，31個人才有一個浴室，上班時間太早，有時一周工作七天。
+巴西人說工人們已經被當地有關部門解救了。但這個居住環境令人震驚，岌岌可危，有辱人格，堪比：奴隸。
+由於文字簡潔加上圖片特別有臨場感，外媒一片嘩然，紛紛跳出來指責比亞迪，有的甚至跳出來說你就這樣和特斯拉爭第一？
+消息傳回國內時，已經比彭博社全面了，因為有金匠員工在視頻賬號上展示自己的工作生活環境。
+按照這個哥們兒的描述，每天8小時的工作，一個月收入13000元人民幣。他們根本不需要解救，是巴西人搞鬼，想把他們趕走自己來上班。
+他這麼一說，大星都有畫面感了。建築建材行業一般都有地頭蛇勢力，詳細情況看過《狂飆》的朋友都懂，巴西人肯定也懂，比亞迪從國內帶人過去蓋廠子，他們能說什麼，只能告訴勞工部門：我想吃魚了。
+至此，國內輿論徹底分化。一方認為，比亞迪這是丟人丟到國外了，就算是給了工人高薪，但還是把996，無視居住環境保障那套帶過去了。至於這個站出來說自己沒有被奴役的哥們兒，是：奴而不自知。
+另一方認為，這環境咋了，國內建築工地都這樣，甚至有的大學宿舍還不如這個呢，而且掙錢又多，人家工人都沒叫苦，你們帶啥節奏？
+沉默了兩天後，金匠巴西分公司和比亞迪公關總經理李雲飛站了出來。金匠說當地勞工部門檢查頻繁，這裏面有文化差異，凈問些誘導性問題，再加上翻譯偏差，所以完全沒有奴役和解救，都是誤會，不信你看我們員工拍的視頻和按的手印。
+看得出來，巴西勞工部門把員工們帶離工棚，侵犯了他們的人權，侮辱了他們的人格，他們非常生氣，指印按的力透紙背。
+李雲飛則說的更直接。他說欲加之罪，何患無辭！在抹黑中國品牌、抹黑中國，以及企圖破壞中巴友誼的事情上，見識了境外相關勢力如何惡意關聯、蓄意抹黑，國內部分自媒體如何：裡應外合。
+攘外必先安內是吧？大星記得比亞迪在巴西可不是這麼說的。
+他們在聲明中表示，已與涉事機構斷絕合作關係，並承諾將會「全面遵守巴西法律」。他們還說已對分包員工的工作和生活條件進行了「詳細審查」，並多次要求建築公司改善。
+這麼看起來，他們確實知道一周干七天不合法，也知道那些建築工住的不好，否則不會這麼發聲明。
+有一點李雲飛說的沒錯。彭博社這個媒體一貫善於抹黑，他們甚至連自己國家的龍頭企業都不放過。
+大星記得當年他們以釣魚執法的報道方式，揭露了蘋果手機在印度尼西亞供應鏈涉及違法行為，造成當地礦難頻發，環境崩壞，最後讓蘋果在國際上丟了大人。
+蘋果當時可是自查到底了，而且還徹底改變了iPhone的一些生產工藝。
+大星看很多媒體從為什麼不用巴西本地建築商，中國出海企業要從中總結教訓，比亞迪在越南是怎麼解決勞資糾紛的，外企是怎麼對待自己員工等等方面去分析了這起事件，我就不贅述了。
+大星只想說一句，不要總想著有人要害你，既然覺得自己沒問題，那就讓大家充分討論，天塌不下來。
+比亞迪在巴西「勞工」風波：奴家給各位吹個笛子吧
+巴西已停止向比亞迪發放臨時工作簽證
+報道：奴工指稱曝光后，巴西停止向比亞迪發放臨時工作簽證
+【巴西稱比亞迪工廠的工人是人口販運受害者】
+↩️ 巴西稱中國比亞迪工廠建設工人是人口販運的受害者 巴西勞工部門周四表示，比亞迪在巴西的一家工廠建築工地上的中國工人是人口販運的受害者，執法機構將繼續...
+🔥華人必看：中華文化的颶風 幸福感無法描述
+🔥解鎖ChatGPT|全平台高速翻牆:高清視頻秒開,超低延遲
+🔥免費PC翻牆、安卓VPN翻牆APP
+🔥治國大道：修身、齊家、管理、治國的大智慧
+來源：星球商業評論
+站長動態，轉發分享↓Follow Us 責任編輯：唐明
+熱門禁書
+九評共產黨、解體黨文化、漫談黨文化
+起底共產黨叢書、魔鬼在統治著我們的世界
+馬克思的成魔之路、共產主義的終極目的
+科學與宗教、中華文化、治國大道
+本文標籤：勞工部, 勞資糾紛, 奴隸, 居住環境, 巴西, 巴西人, 建築公司, 建築商, 比亞迪
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 17:13:05</t>
+  </si>
+  <si>
+    <t>比亞迪在巴西新建工廠的建築承包商金匠公司被指控剝削中國籍勞工，引發國際社會關注。巴西勞工部門介入調查，發現160多名工人居住條件惡劣，護照和工資被扣留，引发舆论哗然，指责比亚迪。  比亞迪與金匠公司則否認指控，稱存在文化差異和翻譯偏差，並聲稱已與金匠斷絕合作，承諾遵守巴西法律。事件引發國內外輿論紛爭，部分輿論質疑比亞迪將中國建築工地的不良現象帶到巴西，而另一部分輿論則認為事件被誇大。</t>
+  </si>
+  <si>
+    <t>在彭博社報道比亞迪在巴西的事情后，國內外輿論已經吵成一鍋粥了…巴西勞動部門發現在建的比亞迪工廠工地上，有160多名工人居住環境很差，護照和工資還被建築公司扣了…巴西人說工人們已經被當地有關部門解救了。但這個居住環境令人震驚，岌岌可危，有辱人格，堪比：奴隸…沉默了兩天後，金匠巴西分公司和比亞迪公關總經理李雲飛站了出來…金匠說當地勞工部門檢查頻繁，這裏面有文化差異，凈問些誘導性問題，再加上翻譯偏差，所以完全沒有奴役和解救，都是誤會…李雲飛則說的更直接。他說欲加之罪，何患無辭！…他們在聲明中表示，已與涉事機構斷絕合作關係，並承諾將會「全面遵守巴西法律」。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、勞工、金匠公司、剝削、奴隸、居住環境、護照、工資、輿論、彭博社、文化差異、翻譯偏差、國際社會、中巴友誼、勞資糾紛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪迅速回應事件，並聲明與涉事公司斷絕合作，顯示其處理危機的能力。
+比亞迪強調將遵守巴西法律，展現其遵守當地規範的意願。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件曝光後，比亞迪的國際形象受損，影響其品牌聲譽。
+事件凸顯比亞迪在海外項目管理和勞工保護方面的不足。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可藉此事件，改善其海外項目管理和勞工保護措施，提升企業社會責任形象。
+比亞迪可以進一步加強與巴西當地的溝通與合作，增進相互理解。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可能影響比亞迪在巴西的業務發展，甚至可能引發進一步的法律訴訟。
+事件可能被某些勢力利用，進一步抹黑中國企業的國際形象。
+</t>
+  </si>
+  <si>
+    <t>比亞迪新廠涉勞役華工巴西停發臨時工作簽證｜即時新聞｜中港台</t>
+  </si>
+  <si>
+    <t>https://hk.on.cc/hk/bkn/cnt/news/20241228/bkn-20241228110041427-1228_00822_001.html</t>
+  </si>
+  <si>
+    <t>on.cc東網中國電動汽車巨頭比亞迪在巴西巴伊亞州的新廠房工地被指勞役中國工人，巴西外交部周五（28日）稱涉事工人是持臨時工作簽證進入...7 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪新廠工地涉勞役華工　巴西停發臨時工作簽證
+2024年12月28日 11:00
+Tweet
+巴西當局指控比亞迪新廠房工地的中國工人生活環境惡劣。
+中國電動汽車巨頭比亞迪在巴西巴伊亞州的新廠房工地被指勞役中國工人，巴西外交部周五（27日）稱涉事工人是持臨時工作簽證進入巴西，已停止向比亞迪發放臨時工作簽證。
+巴伊亞州勞動檢察官辦公室日前指控，比亞迪工廠建築工地有163名中國工人在類似奴役式環境下工作，是人口販運的受害者。涉事工人在中國由金匠集團僱用，金匠集團已否認指控，駁斥巴西把工人描述為被奴役的說法不準確，與事實完全不符。
+巴西司法部表示，如果檢方在比亞迪工廠發現的違規行為得到證實，將撤銷向中國工人發放的居留許可。知情人士透露，司法部已於上周五（20日）向外交部發出請求，要求暫停發放比亞迪臨時簽證，該請求同時轉發給巴西駐中國大使館。
+on.cc東網
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 18:22:25</t>
+  </si>
+  <si>
+    <t>巴西當局指控比亞迪在巴西巴伊亞州新建廠房的工地存在勞役中國工人的情況，工人的生活環境惡劣，類似奴役。巴西外交部已停止向比亞迪發放臨時工作簽證。巴伊亞州勞動檢察官辦公室指控163名中國工人處於類似奴役的環境中，是人口販運的受害者。金匠集團（僱傭這些工人的公司）否認指控。巴西司法部表示，若違規行為屬實，將撤銷中國工人的居留許可。</t>
+  </si>
+  <si>
+    <t>巴西外交部停止向比亞迪發放臨時工作簽證，因其巴伊亞州新廠房工地被指控勞役中國工人，生活環境惡劣，類似奴役。巴伊亞州勞動檢察官辦公室指控163名中國工人是人口販運受害者，在類似奴役環境下工作。僱傭這些工人的金匠集團否認指控。巴西司法部表示，若違規行為屬實，將撤銷中國工人的居留許可。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國工人、勞役、奴役、人口販運、臨時工作簽證、巴伊亞州、金匠集團、司法部、外交部、居留許可、新廠房、工地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">迅速反應：巴西政府迅速反應，停止發放簽證，顯示對勞工權益的重視。
+國際關注：此事件引起國際關注，有助於提升對海外勞工權益的重視。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">調查結果未定：目前僅為指控，調查結果尚未確定，存在不確定性。
+損害品牌形象：此事件嚴重損害比亞迪的國際品牌形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">改善勞動條件：此事件可促使比亞迪改善海外工廠的勞動條件和管理。
+加強監管：此事件可促使巴西政府加強對外國企業在巴西的勞動監管。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">法律訴訟：比亞迪可能面臨法律訴訟和巨額罰款。
+市場影響：此事件可能影響比亞迪在巴西的市場份額和投資。
+國際聲譽：此事件可能嚴重損害比亞迪的國際聲譽。
+</t>
+  </si>
+  <si>
+    <t>比亞迪Tesla在中國降價 新一輪價格戰再起？</t>
+  </si>
+  <si>
+    <t>https://hk.epochtimes.com/news/2024-12-29/36363883</t>
+  </si>
+  <si>
+    <t>大紀元時報 香港中國電動車市場處於競爭激烈和產能過剩局面，為了生存，整個行業都在競相壓價，領先製造商相比上一輪折扣提前一個月降價。數據顯示，今年前11個月，有195款車型降價，...22 分鐘前</t>
+  </si>
+  <si>
+    <t>.比亞迪Tesla在中國降價 新一輪價格戰再起？
+中國電動車市場處於競爭激烈和產能過剩局面，為了生存，整個行業都在競相壓價，領先製造商相比上一輪折扣提前一個月降價。數據顯示，今年前11個月，有195款車型降價，汽車行業利潤同比下滑。
+分析師表示，由於政府補貼將在今年年底到期，預計電動車銷量將下降，小型電動汽車製造商將面臨財務壓力。北京當局為電動汽車購買者提供的現有2萬元人民幣補貼，將於12月31日到期。
+《南華早報》12月28日報道，上海諮詢公司索雷（Shanghai Suolei）的高級經理Eric Han表示：「每個汽車品牌都明白，由於價格競爭加劇，在2025年保持市場份額至關重要。大多數公司將不得不提供折扣才能在價格戰中生存下來。」
+位於上海的cnevpost網站12月25日報道，比亞迪將把海獅05混動SUV（Sealion 05 DM-i）價格下調11.5%，至99,800元人民幣（下同），以在中國新年假期前吸引更多客戶。比亞迪的促銷活動將持續到1月26日。
+除了比亞迪之外，Tesla等車企也在延續降價措施。從11月25日到12月31日期間，TeslaModel Y後輪驅動版及長續航全輪驅動版車型尾款立減10,000元，售價23.99萬元起，同時還能選擇5年0息金融方案。
+《南早》報道，上海益友汽車服務銷售經理田茂偉表示：「（行業）領先（製造商）推出的低價策略，將被規模較小的競爭對手仿傚，因為如果他們保持價格不變，就會失去客戶。」
+「如今，中等收入消費者對價格更敏感，因為他們擔心經濟放緩導致工資下降。」他說。
+瑞銀分析師鞏旻（Paul Gong）上個月表示：「由於（政府）補貼逐步取消，即將爆發的折扣戰將比今年年初的那場更激烈。」當時，他預計新一輪降價將在1月份發生。
+上一輪折扣始於今年2月份，當時比亞迪將幾乎所有汽車的價格下調5%至20%。在接下來的兩個月裏，各品牌至少有50款車型平均降價10%。
+周五（12月27日），中國乘聯會數據顯示，今年1月至11月，共有195款車型（包括汽油動力、純電動和混合動力汽車）降價，超過2023年降價的150款車型，更大幅超越2022年的95款。其中純電動汽車平均降價10%，即2萬元；而混合動力汽車降價4.3%，即10,500元。
+價格戰擠壓了利潤率。乘聯分會發布數據顯示，今年1月—11月期間，中國汽車製造商全行業利潤率平均為4.4%。2023年利潤率平均為5%。其中，今年11月汽車行業收入11,241億元，同比增9%；成本9,837億元，同比增11%；利潤374億</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:14:27</t>
+  </si>
+  <si>
+    <t>中國電動車市場競爭激烈，產能過剩導致價格戰持續升溫。比亞迪和特斯拉等領先車企提前降價，預計政府補貼到期後，銷量將下降，小型電動汽車製造商將面臨財務壓力。分析師預測，2025年保持市場份額需要提供折扣，價格戰將比今年年初更激烈。今年前11個月，已有195款車型降價，汽車行業利潤同比下滑，利潤率降至4.4%。</t>
+  </si>
+  <si>
+    <t>中國電動車市場競爭激烈，比亞迪和特斯拉等車企降價，價格戰再起。政府補貼將於年底到期，預計電動車銷量下降，小型電動汽車製造商將面臨財務壓力。「由於價格競爭加劇，在2025年保持市場份額至關重要。」比亞迪將海獅05混動SUV價格下調11.5%；特斯拉Model Y部分車型尾款立減10,000元。「領先製造商的低價策略，將被規模較小的競爭對手仿傚。」今年1月至11月，共有195款車型降價，汽車行業利潤同比下滑，利潤率平均為4.4%。</t>
+  </si>
+  <si>
+    <t>中國電動車市場、價格戰、比亞迪、特斯拉、政府補貼、銷量下降、財務壓力、市場份額、折扣、利潤率、海獅05混動SUV、ModelY、汽車行業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">報導及時反應市場動態，抓住了電動車市場降價的熱點議題。
+數據翔實，用具體的數字和案例佐證分析，提升了報導的可信度。
+引用了多方觀點，包括分析師、銷售經理等，使報導更全面客觀。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">報導主要集中在價格戰的現象描述，缺乏對價格戰深層次原因的分析。
+對於小型電動汽車製造商的具體困境和應對策略描述不足。
+未對未來電動車市場走勢進行更深入的預測。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以深入探討中國電動車市場產能過剩的原因，以及政府在產業調整中的作用。
+可以分析不同車企在價格戰中的策略差異，以及其背後的經營理念。
+可以關注消費者在價格戰中的行為變化，以及對市場的影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他媒體可能推出更深入、更全面的報導，搶佔市場份額。
+資訊更新速度快，需要不斷跟蹤市場變化，才能保持報導的時效性。
+缺乏獨家資訊和深入分析，可能會使報導缺乏競爭力。
+</t>
+  </si>
+  <si>
+    <t>最完整的大陸新聞在中天</t>
+  </si>
+  <si>
+    <t>https://ctinews.com/news/topics/6KG96z9gEA</t>
+  </si>
+  <si>
+    <t>中天新聞網中天新聞網提供即時、要聞、社會、娛樂、健康、生活、國際、大陸、毛球萌寵、體育與財經新聞，並提供新聞影音、直播服務與圖文新聞讓您即時掌握新聞。2 小時前</t>
+  </si>
+  <si>
+    <t>.神似「龍女郎」！哈爾濱正妹交警撞臉景甜　遊客搶「打卡」
+發展「新質生產力」！陸元旦起調降935項商品進口關稅
+陸女遭施虐16次「終身掛便袋」　家暴前夫僅被判關11年惹議
+兩岸軍力透視：解放軍第六代戰機狂想曲
+影/疑陸2款「六代戰機」首飛畫面流出　殲20伴飛引外媒關注
+神似「龍女郎」！哈爾濱正妹交警撞臉景甜　遊客搶「打卡」
+影/湖北嬤帶孫去菜園失聯…警證實兩人遭鄰居殺害</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:14:52</t>
+  </si>
+  <si>
+    <t>社會、國際</t>
+  </si>
+  <si>
+    <t>這則新聞包含兩個不相干的事件：
+第一個事件描述哈爾濱一位外貌酷似女演員景甜的正妹交警，因其外貌引發遊客爭相拍照打卡的現象。第二個事件則報導了湖北一名祖母帶著孫子前往菜園後失聯，警方最終證實兩人遭到鄰居殺害的悲劇。</t>
+  </si>
+  <si>
+    <t>神似「龍女郎」！哈爾濱正妹交警撞臉景甜　遊客搶「打卡」。影/湖北嬤帶孫去菜園失聯…警證實兩人遭鄰居殺害。</t>
+  </si>
+  <si>
+    <t>哈爾濱、正妹交警、景甜、遊客、打卡、湖北、祖母、孫子、失聯、鄰居、殺害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞具有時效性，貼近社會熱點。
+兩個事件的內容簡潔明瞭，易於理解。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兩個事件並無內在聯繫，組合在一起缺乏整體性。
+新聞內容過於簡短，缺乏細節和背景資訊。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以針對哈爾濱正妹交警事件，深入探討其網絡爆紅的原因及其社會影響。
+可以對湖北祖母孫子被殺事件進行深入調查，探討其背後的原因和社會問題。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞內容過於簡短，缺乏深度，可能無法引起讀者足夠的關注。
+缺乏專業分析和評論，新聞價值有限。
+</t>
+  </si>
+  <si>
+    <t>【中國1分鐘】比亞迪承包商涉嫌奴役中國工人巴西停發工作簽證| 世界銀行| 欠薪| 環衛工| 新唐人电视台</t>
+  </si>
+  <si>
+    <t>https://www.ntdtv.com/b5/mkt_ipad/2024/12/28/a103942427.html</t>
+  </si>
+  <si>
+    <t>新唐人電視台世界銀行：逾一半中國人在經濟上缺乏保障；比亞迪承包商涉嫌奴役中國工人巴西停發工作簽證；四川閬中肉鋪老闆打人引發抗議警民爆衝突；南寧環衛工因被欠薪數月停工街面垃圾...2 小時前</t>
+  </si>
+  <si>
+    <t>.【中國1分鐘】比亞迪承包商涉嫌奴役中國工人 巴西停發工作簽證
+【新唐人北京時間2024年12月29日訊】下面請看中國一分鐘
+世界銀行：逾一半中國人在經濟上缺乏保障
+世界銀行12月的最新一期中國經濟簡報稱，一半中國人在經濟上缺乏保障，健康問題仍是衝擊中國家庭經濟的根源。報告指出，低消費、房地產企業和地方政府債務，以及人口老齡化等問題，都是制約經濟增長的因素。
+比亞迪承包商涉嫌奴役中國工人 巴西停發工作簽證
+中國電動車製造商比亞迪，在巴西工廠的工地近日被爆出163名中國工人，由金匠集團雇用後，透過非正規手段被帶到巴西，生活條件就像奴隸一樣，屬於人口販運的受害者。目前巴西當局已暫停對比亞迪建案發放工作簽證。
+四川閬中肉鋪老闆打人引發抗議 警民爆衝突
+四川閬中一名肉鋪老闆打人引發連日抗議，據報上千民眾聚集在涉事肉鋪門口，要求嚴懲凶手，與現場的警察爆發衝突。當地公安局後發布通告稱抓了打人者，但同時稱有兩人散布謠言遭處罰，網民質疑又是「解決提出問題的人」。
+南寧環衛工因被欠薪數月停工 街面垃圾遍地
+近年來，中國經濟持續下滑，中共地方政府賣地收入銳減導致財政緊張，有網民反映，廣西南寧市黎塘鎮部分環衛工人因當局欠薪集體罷工，導致街面垃圾成堆，已影響到衛生、交通等多個市政領域。
+新唐人亞太電視綜合報導</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:15:12</t>
+  </si>
+  <si>
+    <t>社會、國際、經濟</t>
+  </si>
+  <si>
+    <t>這則新聞包含四個主要事件：1. 世界銀行報告指出超過一半的中國人在經濟上缺乏保障；2. 比亞迪在巴西的承包商涉嫌奴役中國工人，導致巴西政府暫停發放工作簽證；3. 四川閬中肉鋪老闆打人事件引發警民衝突；4. 廣西南寧市環衛工人因被欠薪數月而罷工，造成街道垃圾遍地。這些事件都反映了中國社會在經濟發展、勞工權益、社會治安和地方政府財政等方面存在的問題。</t>
+  </si>
+  <si>
+    <t>世界銀行報告稱，一半中國人在經濟上缺乏保障，健康問題是衝擊家庭經濟的根源。比亞迪巴西工廠的承包商涉嫌奴役163名中國工人，巴西已暫停發放工作簽證。四川閬中肉鋪老闆打人事件引發警民衝突，公安局抓捕打人者，但同時處罰散佈謠言者。廣西南寧環衛工人因被欠薪數月罷工，街面垃圾遍地。</t>
+  </si>
+  <si>
+    <t>中國、世界銀行、經濟保障、比亞迪、巴西、奴役、人口販運、四川閬中、警民衝突、廣西南寧、環衛工人、欠薪、罷工、社會問題、經濟下滑、地方政府財政</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞涵蓋多個重要的社會議題，具有新聞價值。
+新聞資訊來源明確，可信度較高。
+新聞簡潔扼要，易於理解。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞資訊缺乏深度分析，未能深入探討事件背後的深層原因。
+新聞篇幅較短，未能充分展現事件的複雜性和多樣性。
+部分事件的描述較為簡略，缺乏細節。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以深入探討每個事件背後的深層原因和社會影響。
+可以比較分析這些事件之間的聯繫和共通點。
+可以提出解決這些問題的建議和方案。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞資訊的真實性和準確性可能受到質疑。
+新聞報導可能引發社會爭議和負面輿論。
+新聞報導的影響力可能有限，無法有效促進社會變革。
+</t>
+  </si>
+  <si>
+    <t>比亞迪被巴西停發工作簽證 操控大陸輿論洗地</t>
+  </si>
+  <si>
+    <t>https://www.ntdtv.com/b5/2024/12/29/a103942456.html</t>
+  </si>
+  <si>
+    <t>新唐人電視台中共支持的比亞迪公司，被曝巴西建廠工地奴役中國勞工，日前被巴西停發臨時工作簽證。比亞迪對國內的宣傳則極力否認此事，被指欺騙輿論。3 小時前</t>
+  </si>
+  <si>
+    <t>.比亞迪被巴西停發工作簽證 操控大陸輿論洗地
+【新唐人北京時間2024年12月29日訊】中共支持的比亞迪公司，被曝巴西建廠工地奴役中國勞工，日前被巴西停發臨時工作簽證。比亞迪對國內的宣傳則極力否認此事，被指欺騙輿論。
+巴西外交部週五（12月27日）表示，巴西已停止向比亞迪發放臨時工作簽證，因為有指控稱這家中國電動車製造商旗下工廠的一些工人，是人口販運的受害者。
+此前幾天，巴西勞動部門表示，他們在巴西東北部巴伊亞州（Bahia）的比亞迪工廠建築工地上發現了163名中國工人，他們遭到「奴隸般」的對待，並被扣留護照和扣發部分工資。而且這些工人是被非法帶到巴西。
+這些工人受僱於中國承包商金匠集團（Jinjiang Group）。該集團負責建造比亞迪在大陸的多個工廠。
+事件曝光之初，比亞迪急忙卸責，宣布解除與金匠集團的合作，並聲稱幫助這163名中國工人。但隨後其立場突變，和金匠集團一起「譴責外國勢力抹黑」。網上還傳出據稱是涉事工人集體簽名按手印的公開信，以及共同錄製的視頻，聲稱他們「根本沒有遭到虐待和扣留護照」，巴西當局不讓他們再去工地「侵犯他們的人權」云云。
+許多網民不相信這些説法，認為可能是比亞迪動用中共官方資源，試圖為自己「洗地」。還有人說，比亞迪的目的只是維護自己在國內的「形象」，因為在國際上這種輿論操作根本沒有多少市場。
+近日，大陸網絡上一個名為「波哥」的博主發布長文，引用大量巴西當地消息，披露比亞迪巴西奴工事件的始末，包括工地發生工頭當衆打人事件、多次發生悲慘的安全事故、對163名中國工人和470名巴西當地工人區別對待等。
+長文還稱，幾個月來，針對工地發生的事件，比亞迪多次撒謊欺騙巴西官方和民衆，導致當地對它完全失去信任，當局最後不得不採取法律行動。
+我之所以费力巴拉地将这篇有关比亚迪虐奴的文章截图推出，是因为： 1，这是一个标志性事件； 2，这个事件将中共普遍、广泛虐民的行为展示在世界面前； 3，中国人要靠它国人来解救为“人”； 4，比亚迪的大量出口完全靠中共经济补贴和压榨雇员。它的低价已经是非正常倾销，应该受到抵制和惩罚；… pic.twitter.com/GnmCcEysI7
+— 李隽 (@juanli324324) December 27, 2024
+（轉自大紀元/責任編輯：尚傳）</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:15:30</t>
+  </si>
+  <si>
+    <t>巴西外交部停止向比亞迪發放臨時工作簽證，原因是比亞迪在巴西巴伊亞州的工廠建築工地被指控存在奴役中國勞工的情況。此前，巴西勞動部門發現163名中國工人遭到「奴隸般」的對待，護照被扣押，工資被克扣，且這些工人被非法帶到巴西。比亞迪最初否認，但隨後與承包商金匠集團一起「譴責外國勢力抹黑」，並在網上發佈據稱是工人簽名按手印的公開信和視頻，否認虐待指控。然而，許多網民對此表示懷疑，認為比亞迪可能利用中共資源進行輿論操控。  事件持續發酵，更多細節被披露，包括工地暴力事件和安全事故等，顯示比亞迪在巴西的行為缺乏誠信，最終導致巴西當局採取法律行動。</t>
+  </si>
+  <si>
+    <t>巴西已停止向比亞迪發放臨時工作簽證，因其巴西工廠建築工地被指控奴役163名中國工人，這些工人遭到「奴隸般」的對待，護照和工資被扣押。比亞迪最初否認，後與承包商一起「譴責外國勢力抹黑」，並發佈據稱是工人簽名的聲明。許多網民質疑比亞迪利用中共資源操控輿論。更多細節被披露，顯示比亞迪多次撒謊，最終導致巴西當局採取法律行動。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、工作簽證、奴役勞工、中國工人、金匠集團、人口販運、輿論操控、中共、巴伊亞州、非法勞工、護照扣押、工資克扣、洗地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巴西政府對此事的快速反應，展現了其對勞工權益的重視。
+事件曝光後，國際社會對比亞迪及中共相關行為的關注度提高。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪的公關處理不當，加劇了負面影響。
+事件可能對比亞迪的國際形象和業務造成長期損害。
+中共政府可能介入干預，進一步影響事件調查。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可促使巴西及其他國家加強對跨國企業勞工權益的監管。
+國際社會可藉此事件，進一步關注和監督中共在海外的行為。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中共政府可能加大對比亞迪的支持力度，使事件調查難度增加。
+事件可能演變成外交糾紛，進一步惡化中巴關係。
+比亞迪可能採取更多手段掩蓋真相，阻礙事件調查。
+</t>
+  </si>
+  <si>
+    <t>越來越不對勁！中共認為 明年或爆大動亂 最新動向：習確已失軍權？奴工被曝光 巴西停止向比亞迪發放簽證【紅朝禁聞】</t>
+  </si>
+  <si>
+    <t>https://www.bannedbook.org/bnews/zh-tw/bannedvideo/20241229/2134510.html</t>
+  </si>
+  <si>
+    <t>禁闻网來源: 希望之聲TV , 文章內容並不代表本網立場和觀點。 越來越不對勁！中共認為明年或爆大動亂最新動向：習. #習近平 是否失去軍權？ #張又俠勝了？最新中央會議與去年出現...8 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN|APP
+論壇
+中共禁聞
+要聞
+中國新聞
+台灣新聞
+香港新聞
+時事觀察
+圖片新聞
+禁言博客
+中國人權
+維權上訪
+新公民運動
+民主運動
+新聞評論
+萌圖囧視
+幽默笑話
+社會百態
+國際新聞
+美國新聞
+傳統文化
+修鍊故事
+氣功
+史海鉤沉
+禁播視頻
+世界奧秘
+外星人之謎
+生命奧秘
+超自然現象
+健康養生
+娛樂新聞
+財經新聞
+生活百科
+心情感悟
+體育新聞
+禁聞網
+禁聞網簡體 
+翻牆必看的中共禁聞,禁網新聞,大陸新聞中國新聞解讀評論,禁聞點擊排行榜
+V2ray翻牆一鍵翻牆包
+交流評論、關注點贊
+Youtube Icon站長動態
+Facebook Icon臉書專頁
+telegram Icon翻牆交流電報群
+telegram Icon電報頻道
+RSS訂閱禁聞RSS/FEED訂閱
+禁聞網 &gt; 禁播視頻 &gt; 正文
+越來越不對勁！中共認為 明年或爆大動亂 最新動向：習確已失軍權？奴工被曝光 巴西停止向比亞迪發放簽證【紅朝禁聞】
+2024年12月29日 4:36 PDF版 分享轉發
+來源: 希望之聲TV , 文章內容並不代表本網立場和觀點。
+越來越不對勁！中共認為 明年或爆大動亂 最新動向：習確已失軍權？奴工被曝光 巴西停止向比亞迪發放簽證【紅朝禁聞】
+#習近平 是否失去軍權？ #張又俠 勝了？最新中央會議與去年出現鮮明對比。 #武統台灣 迫在眉睫？台政府緊急籌備。奴工被曝光 巴西停止向比亞迪發放臨時簽證
+內容提要：
+00:45 內部人士：出現奇怪信號 習或準備內戰
+06:31 奴工被曝光 巴西停止向比亞迪發放臨時簽證
+08:54 習近平明年再訪俄會普京 暗藏野心
+12:40 新年將臨 中共多地取消跨年夜
+16:08 四川肉鋪老闆打人 引發連日抗議
+💟捐助我們 ►:https://donorbox.org/soh-tv
+🌻🎈尊敬的觀眾朋友，請留下您的電子郵件，以便有需要之時我們于聯繫您：:https://landing.mailerlite.com/webforms/landing/l1l7p9
+🚗捐車網址 ► :https://donatecarsoh.org ☎️捐車熱線：855-578-0088
+🤝廣告合作洽談 ► [email protected]
+㊙️ 爆料郵箱 ► [email protected]
+🍀自動翻牆APP ► :https://x.co/ohope
+訂閱電子報👉 :https://landofhope.tv/%E9%AB%98%E6%BD%94-email
+▬▬▬▬▬▬▬▬▬▬▬▬▬▬▬▬
+希望之聲TV （SOH TV）每天會為您及時報導中國、香港，台灣、美國、歐洲等全世界的最新新聞，我們的新聞直播會有知名評論員分析當前的時政新聞、即時新聞和實時新聞等; 希望之聲真相節目深受大陸觀眾喜愛。當前中共已成全世界焦點，習近賓士下的中國命運將如何，中國觀察節目會通過紀錄片及記者採訪為您及時報導。
+———————-
+比亞迪涉奴役中國工人 巴西停發臨時工作簽證
+💥這次會議不尋常 習嚴厲俯視最高層同僚⚡️比亞迪攤大事！官方認定「人口販運」 甩鍋不好使😱驚呆！160中國奴工一臉懵 聯名寫聲明滿意💣奴工指稱曝光后，巴西停止向比亞迪發放臨時工簽【阿波羅網CJ】
+丟臉到國際！比亞迪奴隸們被好心解救很生氣
+比亞迪在巴西「勞工」風波：奴家給各位吹個笛子吧
+巴西已停止向比亞迪發放臨時工作簽證
+🔥華人必看：中華文化的颶風 幸福感無法描述
+🔥解鎖ChatGPT|全平台高速翻牆:高清視頻秒開,超低延遲
+🔥免費PC翻牆、安卓VPN翻牆APP
+🔥治國大道：修身、齊家、管理、治國的大智慧
+如何加速觀看YouTube？
+越來越不對勁！中共認為 明年或爆大動亂 最新動向：習確已失軍權？奴工被曝光 巴西停止向比亞迪發放簽證【紅朝禁聞】
+站長動態，轉發分享↓Follow Us 責任編輯：宋伯明
+熱門禁書
+九評共產黨、解體黨文化、漫談黨文化
+起底共產黨叢書、魔鬼在統治著我們的世界
+馬克思的成魔之路、共產主義的終極目的
+科學與宗教、中華文化、治國大道
+本文標籤：中共, 習近平, 軍權, 奴工, 巴西, 希望之聲, 比亞迪, 禁聞, 紅朝
+</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:16:00</t>
+  </si>
+  <si>
+    <t>國際、政治</t>
+  </si>
+  <si>
+    <t>該新聞報導指出，有消息稱中共內部人士預測明年可能爆發大規模動亂，並有傳聞習近平已失去軍權。同時，比亞迪在巴西因涉嫌使用奴工而被停止發放臨時簽證，引發國際關注。新聞涵蓋了中共內部政治動盪的可能性、習近平的權力地位，以及比亞迪在巴西的勞工爭議等多個面向。</t>
+  </si>
+  <si>
+    <t>越來越不對勁！中共認為明年或爆大動亂 最新動向：習確已失軍權？奴工被曝光 巴西停止向比亞迪發放簽證【紅朝禁聞】…比亞迪涉奴役中國工人 巴西停發臨時工作簽證…巴西已停止向比亞迪發放臨時工作簽證…</t>
+  </si>
+  <si>
+    <t>中共、習近平、軍權、政治動盪、比亞迪、巴西、奴工、勞工爭議、國際關注、紅朝禁聞、希望之聲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接點出中共內部可能存在的政治危機和社會動盪，引起讀者關注。
+比亞迪事件是具體的案例，增加了新聞的可信度和影響力。
+新聞來源明確，標明來自希望之聲TV。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞內容主要基於傳聞和未經證實的消息，缺乏官方證據支持，可信度存疑。
+沒有提供具體的證據來源，難以驗證消息的真實性。
+標題聳動，可能造成誤導。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以進一步深入調查中共內部政治動態，以及比亞迪事件的相關細節，提供更全面的報導。
+可以參考其他媒體的報導，進行交叉驗證，提高新聞的可信度。
+可以分析這些事件對國際關係和全球經濟的潛在影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">由於缺乏確鑿證據，新聞內容可能被質疑，影響新聞的公信力。
+報導內容可能引起政治爭議，招致批評或法律風險。
+如果消息來源不實，可能會損害媒體的聲譽。
+</t>
+  </si>
+  <si>
+    <t>陸車市價格戰再起比亞迪槓特斯拉- 全球財經- 工商時報</t>
+  </si>
+  <si>
+    <t>https://www.chinatimes.com/newspapers/20241229000205-260203</t>
+  </si>
+  <si>
+    <t>中時新聞網在業內兩大巨頭比亞迪、特斯拉發動下，2024年大陸汽車業的價格戰從年頭打到年尾。比亞迪日前推出年終促銷後，特斯拉隨即將Model Y降價至人民幣（下同）23.99萬元起，...8 小時前</t>
+  </si>
+  <si>
+    <t>在業內兩大巨頭比亞迪、特斯拉發動下，2024年大陸汽車業的價格戰從年頭打到年尾。比亞迪日前推出年終促銷後，特斯拉隨即將Model Y降價至人民幣（下同）23.99萬元起，比亞迪27日再加碼推出更多車款優惠，旗下第二代宋Pro DM-i和秦Plus EV榮耀版推出限時折扣，價格降至9.98萬元。
+近年大陸市場「內捲」情勢惡化，近期太陽能、儲能行業開會商討「反內捲」，採取減產控產行動。但同樣陷入惡性競爭漩渦的汽車業，年初迄今價格戰尚不知將伊於胡底。機構指出，比亞迪、特斯拉因其強大的降本能力，以及較豐沛的資金流，可能將引領年底至明年初新一輪的價格戰。
+綜合陸港媒體28日報導，今年底大陸汽車業的促銷價格戰由比亞迪先發起，特斯拉隨後跟進，在24日平安夜公布最新優惠活動，選購Model Y現貨享有尾數減價1萬元的優惠，讓大陸Model Y後輪驅動版起售價降至23.99萬元，為Model Y全球市場最低價格。
+比亞迪27日立即宣布，即日起至明年1月26日，對秦PLUS EV榮耀版限時優惠1萬元，對第二代宋Pro DM-i也進行限時優惠活動，優惠後兩款車型起售價均為9.98萬元，且兩款車型置換補貼最高分別為2.5萬元和2.4萬元。
+今年2月，比亞迪靠著起售價7.98萬元的比亞迪秦PLUS榮耀版和驅逐艦05榮耀版，打響龍年汽車價格戰第一槍，此後多次向車市投下價格炸彈，同業只能被迫跟進。前11個月，大陸已經有195款汽車進行降價，超過2023年全年規模。
+中國汽車流通協會最新數據揭露了激烈價格戰的後果。今年前11個月，大陸車市累計損失達1,776億元，金額較上年多出931億元。雖然銷售量年增8.5％，但市場環境卻更加嚴峻。
+東興證券表示，2025年的汽車價格戰提前開打，車廠正紛紛將成本壓力轉嫁給供應鏈上游。招銀國際稱，比亞迪的利潤將在2025年繼續保持韌性，因其強大的降本能力，或將引領新一輪價格戰。
+今年11月，「比亞迪向供應商砍價」的事件引發外界關注，當時比亞迪給供應商的郵件顯示，為增強乘用車競爭力，要求相關供應商所供貨產品從明年1月1日起降價10％。</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:16:07</t>
+  </si>
+  <si>
+    <t>2024年大陸汽車市場價格戰激烈，比亞迪和特斯拉帶頭降價促銷，導致市場損失慘重。比亞迪推出多款車型優惠，價格低至9.98萬元，特斯拉Model Y降價至23.99萬元，引發新一輪價格競爭。  價格戰已持續一年，造成前11個月市場累計損失達1776億元，儘管銷售量增加，但市場環境更加嚴峻。分析機構預測，比亞迪和特斯拉因其強大的降本能力，可能將引領年底至明年初新一輪價格戰。比亞迪更被爆出要求供應商從明年1月1日起降價10%。</t>
+  </si>
+  <si>
+    <t>比亞迪和特斯拉發動價格戰，比亞迪推出第二代宋Pro DM-i和秦Plus EV榮耀版，價格降至9.98萬元；特斯拉Model Y降至23.99萬元。大陸汽車市場前11個月累計損失1,776億元，銷量年增8.5％，但市場環境嚴峻。比亞迪強大的降本能力可能引領新一輪價格戰，並要求供應商明年1月1日起降價10％。</t>
+  </si>
+  <si>
+    <t>比亞迪、特斯拉、價格戰、大陸汽車市場、ModelY、秦PlusEV、宋ProDM-i、降價、促銷、市場損失、供應商、降本、競爭、內捲、電動車</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪和特斯拉擁有強大的品牌影響力和市場份額，可以帶動市場銷售。
+比亞迪和特斯拉擁有強大的降本能力，可以承受價格戰的壓力。
+價格戰可以刺激市場需求，提升銷售量。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格戰會嚴重壓縮利潤空間，影響企業盈利能力。
+價格戰會加劇市場競爭，導致企業之間的惡性競爭。
+價格戰會損害品牌形象，影響長期發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格戰可以淘汰落後企業，優化市場結構。
+價格戰可以促進技術創新，提升產品競爭力。
+價格戰可以擴大市場規模，提升市場份額。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格戰會導致市場混亂，影響市場秩序。
+價格戰會降低產品品質，損害消費者利益。
+價格戰會引發政府監管，增加企業經營風險。
+</t>
+  </si>
+  <si>
+    <t>大陸新一輪車市價格戰 開打</t>
+  </si>
+  <si>
+    <t>https://udn.com/news/story/7333/8455628</t>
+  </si>
+  <si>
+    <t>聯合新聞網時序進入歲末年初，大陸各家車企為衝刺年度銷量目標，已陸續開啟降價促銷策略。中國汽車流通協會專家委員會成員李顏偉認為，明（2025）年初大陸新車折扣有可能加大，車市將重...9 小時前</t>
+  </si>
+  <si>
+    <t>.韓媒稱濟州航空墜機恐增至179死！同飛機昨飛桃園 2天前引擎多次熄火
+北一女校長為「呼叫101董事長」道歉 賈永婕力挺：被圈粉
+M1A2開箱／車內可精準射控 小布演「怒火」激戰免躲子彈
+大陸新一輪車市價格戰 開打
+時序進入歲末年初，大陸各家車企為衝刺年度銷量目標，已陸續開啟降價促銷策略。中國汽車流通協會專家委員會成員李顏偉認為，明（2025）年初大陸新車折扣有可能加大，車市將重燃價格戰，預計銷量受損的多為生產中低價位車型的自主與合資車企。
+據《21世紀經濟報導》不完全統計，包含特斯拉、比亞迪、長安汽車、吉利汽車、小鵬汽車、上汽大眾、一汽豐田等20家車企已官宣降價，以「限時價」、「一口價」開啟年終降價。
+比亞迪汽車27日宣布，即日起至2025年1月26日，秦PLUS EV榮耀版限時優惠人民幣1萬元，起售價人民幣9.98萬元；第二代宋Pro DM-i同樣限時優惠超人民幣1萬元，優惠後起售價為人民幣9.98萬元。上述兩款車型這波降價幅度均在一成左右。
+多家車企早於11月下旬陸續開啟降價促銷策略。特斯拉中國自今年11月25日到12月31日，推出Model Y 後輪驅動版及長續航全輪驅動版車型尾款立減人民幣1萬元政策，售價人民幣23.99萬元起，且可疊加五年零息政策。這一價格是特斯拉Model Y有史以來的全球最低價。
+理想汽車也11月下旬發布年底限時零息政策，自11月29日起至12月31日期間，購買理想L系列和理想MEGA的用戶，可享受最低首付金額三年零息金融方案，理想L6最低首付僅需要人民幣6.98萬元，比Model Y還低；蔚來汽車在「二年零利率」的政策上，加碼贈送「五年NOP+高階智駕」的政策，折合計算這一權益價值約為人民幣2萬元。同時，騰勢、嵐圖、極氪等多個品牌與車型都針對旗下部分車型推出了「零息」或低息購車政策。
+今年1至11月，大陸一共有195款汽車出現降價，已經超過2023年全年的150款，並且大幅超越了2022年的95款。
+隨著比亞迪、上汽大通日前向供應商提出降本要求，被業內視為新一輪價格下探</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:16:28</t>
+  </si>
+  <si>
+    <t>大陸車市為衝刺年度銷量目標，掀起新一輪價格戰。特斯拉、比亞迪、長安汽車、吉利汽車等20多家車企已宣布降價促銷，部分車型降幅達一成左右，甚至出現歷史最低價。此波降價策略包含直接降價、限時優惠、零利率貸款等，目標鎖定中低價位車型，預計將衝擊自主與合資車企。  比亞迪、上汽大通向供應商提出降本要求，也預示價格戰可能持續加劇。截至11月，大陸已有195款車型降價，遠超往年。</t>
+  </si>
+  <si>
+    <t>時序進入歲末年初，大陸各家車企為衝刺年度銷量目標，已陸續開啟降價促銷策略……包含特斯拉、比亞迪、長安汽車、吉利汽車、小鵬汽車、上汽大眾、一汽豐田等20家車企已官宣降價……比亞迪汽車27日宣布，即日起至2025年1月26日，秦PLUS EV榮耀版限時優惠人民幣1萬元……特斯拉中國自今年11月25日到12月31日，推出Model Y 後輪驅動版及長續航全輪驅動版車型尾款立減人民幣1萬元政策，售價人民幣23.99萬元起……今年1至11月，大陸一共有195款汽車出現降價，已經超過2023年全年的150款……隨著比亞迪、上汽大通日前向供應商提出降本要求，被業內視為新一輪價格下探。</t>
+  </si>
+  <si>
+    <t>大陸車市、價格戰、降價促銷、特斯拉、比亞迪、長安汽車、吉利汽車、小鵬汽車、上汽大眾、一汽豐田、ModelY、秦PLUSEV、第二代宋ProDM-i、年度銷量、限時優惠、零利率貸款、中低價位車型、自主品牌、合資品牌、降本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接點出大陸車市新一輪價格戰的現象，並列舉多家參與車企。
+提供具體的降價案例，數據明確，可信度高。
+分析了價格戰可能造成的影響，以及其背後的原因。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞資訊較為片面，僅從價格戰角度分析，缺乏更深入的市場調查和數據支持。
+未提及價格戰可能造成的長期影響，例如對車企盈利能力的影響。
+缺乏對未來價格走勢的預測。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以深入調查價格戰的原因，例如供需關係、競爭格局等。
+可以分析不同車企的應對策略，以及價格戰對不同車企的影響。
+可以預測未來價格走勢，以及對消費者和市場的影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格戰可能導致車企利潤下降，甚至虧損。
+價格戰可能影響消費者對汽車品牌的信任度。
+價格戰可能導致市場秩序混亂。
+</t>
+  </si>
+  <si>
+    <t>加快出海步伐遇挑戰 韓國研啟動反補貼調查</t>
+  </si>
+  <si>
+    <t>https://std.stheadline.com/daily/article/2649532/%E6%97%A5%E5%A0%B1-%E6%B8%AF%E8%81%9E-%E5%8A%A0%E5%BF%AB%E5%87%BA%E6%B5%B7%E6%AD%A5%E4%BC%90%E9%81%87%E6%8C%91%E6%88%B0-%E9%9F%93%E5%9C%8B%E7%A0%94%E5%95%9F%E5%8B%95%E5%8F%8D%E8%A3%9C%E8%B2%BC%E8%AA%BF%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>星島日報中國新能源車目前銷量佔全球市場6成，比亞迪更是超越特斯拉，晉升全球純電動車銷量冠軍。 中國在電動汽車領域穩站領先地位，日益激烈的國內市場競爭，促使電動車企加快出海...12 小時前</t>
+  </si>
+  <si>
+    <t>.加快出海步伐遇挑戰 韓國研啟動反補貼調查
+中國在電動汽車領域穩站領先地位，日益激烈的國內市場競爭，促使電動車企加快出海步伐，且成績亮眼，也激起歐美國家保護主義抬頭。繼美國、加拿大和歐盟後，韓國也可能對中國電動汽車展開反補貼調查。
+韓國媒體近日引述韓國政府表示，借鑒歐盟經驗，可研究對原產於中國的電動汽車徵收反補貼稅方案。韓國產業通商部人士說，若有關企業提出反補貼調查申請，韓國產業部貿易委員會可依照指南展開調查。
+分析認為，各國紛紛推出措施應對中國產低價電動汽車入市的大環境下，韓國政府也展現出可能加強保護國內產業的意志。但也有意見指出，只有在國內企業提起申訴情況下，才可啟動反補貼調查，因此實際調查可能性不大。 車企為避稅海外建廠
+比亞迪在韓國的分公司本月17日宣布，已與6間當地經銷商簽約，將於明年1月在韓國正式推出乘用車電動車型。
+此前，美國8月起將中國電動車關稅從25%增至100%，其後加拿大仿效，向中國電動車徵收100%關稅。歐盟10月底也決定對中國進口電動汽車，加徵最高35.3%額外關稅，為期5年。目前中歐嘗試達成價格承諾協議。
+中國電動車遠銷至世界各地，過去幾年出口量迅速攀升。數據顯示，今年前10個月，中國新能源汽車出口105.8萬輛，按年增長顯著；去年出口120.3萬輛，年增77.2%。
+為了避稅，海外建廠成為中國電動車企的出海之路。比亞迪在泰國的廠房今年7月投產，同時也在匈牙利建設大型生產基地，將在明年底啟動產能提升。
+最新回應</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:16:48</t>
+  </si>
+  <si>
+    <t>中國電動汽車出口量持續增長，引發歐美等國家的保護主義措施，包括提高關稅等。繼美國、加拿大和歐盟之後，韓國也可能對中國電動汽車展開反補貼調查，以保護國內產業。  中國電動車企為避免高額關稅，紛紛選擇在海外建廠，例如比亞迪在泰國和匈牙利建廠。</t>
+  </si>
+  <si>
+    <t>韓國可能對中國電動汽車展開反補貼調查，借鑒歐盟經驗，研究徵收反補貼稅方案。美國、加拿大和歐盟已對中國電動車提高關稅。今年前10個月，中國新能源汽車出口105.8萬輛，年增長顯著。為避稅，比亞迪等車企在泰國、匈牙利等地建廠。</t>
+  </si>
+  <si>
+    <t>中國電動汽車，出口，反補貼調查，韓國，美國，加拿大，歐盟，關稅，保護主義，比亞迪，海外建廠，新能源汽車</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國電動汽車產業發展迅速，出口量持續增長，顯示其強大的競爭力。
+中國電動車企積極應對國際貿易壁壘，選擇海外建廠，降低貿易風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國電動汽車面臨歐美等國家的貿易保護主義，出口受阻。
+海外建廠需要大量投資，存在一定的風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國電動汽車可以進一步提升技術水平和產品質量，提高國際競爭力。
+可以探索新的市場和合作模式，拓展國際市場。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歐美等國家的貿易保護主義措施將持續加劇，對中國電動汽車出口造成更大的壓力。
+國際政治和經濟形勢的不確定性，也將對中國電動汽車的海外發展造成影響。
+</t>
+  </si>
+  <si>
+    <t>涉奴役工人爭議 巴西暫停對比亞迪發放工簽 | 德國之聲 | LINE TODAY</t>
+  </si>
+  <si>
+    <t>https://today.line.me/tw/v2/article/QwGJpmp</t>
+  </si>
+  <si>
+    <t>LINE TODAY（德國之聲中文網）巴西當局周五（12月27日）表示，他們正在調查中國汽車巨頭比亞迪（BYD）及其承包商金匠公司是否涉嫌「人口販運」。巴西外交...16 小時前</t>
+  </si>
+  <si>
+    <t>.啟用Javascript
+國際
+涉奴役工人爭議 巴西暫停對比亞迪發放工簽
+德國之聲
+（德國之聲中文網）巴西當局周五（12月27日）表示，他們正在調查中國汽車巨頭比亞迪（BYD）及其承包商金匠公司是否涉嫌「人口販運」。巴西外交部也在同一天表示，已停止向比亞迪發放臨時工作簽證。外交部稱，這些工人是持臨時工作簽證進入巴西的。
+巴西當局要求雇主金匠公司將這些工人帶到警察局，在稅務系統中進行登記，以便向他們支付適當的工資。此外，還要求金匠必須確保向1月1日返回中國的7名工人提供機票和120美元的旅行費用。巴西當局表示，已定於1月7日舉行新的聽證會，讓比亞迪和金匠就已查明的勞工違規行為提出補救措施。
+目前，工程所在地巴伊亞州工程部已下令部分工地暫停施工。巴西政府的一份聲明稱，聯邦檢察官正在權衡可能采取的刑事行動。該聲明將受影響的中國工人稱為「以勞動剝削為目的的國際人口販運受害者」。
+巴西司法部周五也發布聲明稱，如果檢方在比亞迪工地發現的違規行為得到證實，將撤銷向中國工人發放的居留許可。
+疑「強迫勞動」
+此前，巴西勞動與就業部通報稱，該國巴伊亞州的一處比亞迪（BYD）工廠建築工地存在嚴重侵犯勞動者權益的行為。
+勞動部門的調查結果顯示，163名由承包商金匠公司雇傭的工人被從中國不正規地招聘後送往巴西。他們工時超長，勞動條件惡劣，缺乏基本安全保障。此外，部分工人的護照被扣押，且需獲得許可方可離開宿舍。
+負責調查的勞動檢查員杜拉奧（Liane Durao）說，如此工作環境充滿危險，完全不符合巴西勞動法律的最低標准。巴西勞動部門稱這些工人的護照被沒收，且雇主「扣留了他們60%的工資」，懷疑其中存在 「強迫勞動」。
+比亞迪最大海外市場
+巴西是比亞迪最大的海外市場，且僅是在巴伊亞州的工廠，比亞迪就投資了6.2億美元。此座正在建造中的工廠料將成為比亞迪在亞洲以外最大的電動汽車工廠，它不僅是中國在南美國家影響力日益增長的象征，也是兩國關系更加密切的見證。
+金匠否認「奴役」 比亞迪高管稱「抹黑」
+中國外交部發言人毛寧12月25日在例行記者會上表示，中國駐巴使領館已與巴西方面溝通，核實情況並妥善處理相關事宜。同時毛寧強調，中國政府一貫「高度重視保障勞動者合法權益，要求中資企業依法依規經營」。
+比亞迪目前已與該工地承包商金匠公司解除合作，並另行安置163名工人。不過，其品牌及公關處總經理李雲飛在其個人微博賬戶上發文抨擊了有關人口販運的指控，稱這是「抹黑中國品牌、抹黑中國，以及企圖破壞中巴友誼」，並轉發了金匠集團巴西分公司否認「奴役」勞工的微博帖子。
+（法新社、路透社）
+©2024年德國之聲版權聲明：本文所有內容受到著作權法保護，如無德國之聲特別授權，不得擅自使用。任何不當行為都將導致追償，並受到刑事追究。</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:17:07</t>
+  </si>
+  <si>
+    <t>巴西當局調查中國電動車巨頭比亞迪及其承包商金匠公司是否涉嫌人口販運，並已暫停向比亞迪發放臨時工作簽證。調查顯示，163名中國工人被不正規招聘至巴西比亞迪工廠工地，遭受超長工時、惡劣勞動條件、缺乏安全保障，甚至護照被扣押和工資被克扣，疑似強迫勞動。巴西政府已下令部分工地停工，並考慮採取刑事行動。比亞迪已與金匠公司解除合作，但否認相關指控。此事件發生在比亞迪在巴西最大海外市場的工廠，影響深遠。</t>
+  </si>
+  <si>
+    <t>巴西暫停對比亞迪發放工簽，因調查其承包商金匠公司是否涉嫌「人口販運」。163名中國工人被指控遭受超長工時、惡劣勞動條件及工資被扣，護照被沒收，「懷疑其中存在『強迫勞動』」。巴西當局已下令部分工地停工，並將受影響工人稱為「以勞動剝削為目的的國際人口販運受害者」。比亞迪已與金匠公司解除合作，但其高管稱指控為「抹黑」。巴西是比亞迪最大的海外市場。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、人口販運、強迫勞動、金匠公司、臨時工作簽證、工地停工、勞動剝削、中巴關係、海外市場、護照扣押、工資克扣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪迅速回應事件，與承包商金匠公司解除合作，並另行安置工人，展現積極處理問題的態度。
+巴西政府積極介入調查，保障勞工權益，維護國際形象。
+事件曝光提升公眾對勞工權益的關注，促使企業改善勞動條件。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪的聲譽受損，可能影響其在巴西的業務發展。
+事件暴露了國際企業在海外經營中可能存在的勞工問題。
+調查結果尚未完全明朗，可能進一步損害比亞迪的形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可借此事件改善其全球供應鏈管理，提升企業社會責任形象。
+巴西政府可借此機會完善勞工保護法規，提高勞工權益保障。
+此事件可促使國際社會加強對跨國企業勞工權益的監管。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">若調查證實比亞迪存在違法行為，將面臨巨額罰款和法律訴訟。
+事件可能引發國際社會對中國企業在海外經營的質疑。
+事件可能影響中巴兩國的經貿關係。
+</t>
+  </si>
+  <si>
+    <t>比亞迪遭販賣人口指控 巴西取消臨時工作簽證</t>
+  </si>
+  <si>
+    <t>https://www.rfi.fr/tw/%E5%9C%8B%E9%9A%9B/20241228-%E6%AF%94%E4%BA%9E%E8%BF%AA%E9%81%AD%E8%B2%A9%E8%B3%A3%E4%BA%BA%E5%8F%A3%E6%8C%87%E6%8E%A7-%E5%B7%B4%E8%A5%BF%E5%8F%96%E6%B6%88%E8%87%A8%E6%99%82%E5%B7%A5%E4%BD%9C%E7%B0%BD%E8%AD%89</t>
+  </si>
+  <si>
+    <t>RFI據路透消息，巴西外交部周五表示，巴西已停止向比亞迪發放臨時工作簽證，此前有指控稱，這家中國電動汽車製造商旗下工廠的部分工人是人口販運的受害者。16 小時前</t>
+  </si>
+  <si>
+    <t>.比亞迪遭販賣人口指控 巴西取消臨時工作簽證
+據路透消息，巴西外交部周五表示，巴西已停止向比亞迪發放臨時工作簽證，此前有指控稱，這家中國電動汽車製造商旗下工廠的部分工人是人口販運的受害者。
+此前幾天，巴西勞動部門稱，他們在巴西東北部巴伊亞州（Bahia）的比亞迪工廠建築工地發現了163 名中國工人，這些工人是在“類似奴役”的條件下被非法帶到巴西的。這些工人受雇於承包商金匠集團，但金匠集團否認有任何不當行為。
+後來，巴西當局還說這些工人是人口販運的受害者。據巴西外交部稱，這些工人是持臨時工作簽證進入巴西的。
+據一位知情人士透露，巴西司法部已於12月20日向該國外交部發出請求，要求暫停向比亞迪發放臨時簽證。
+該消息人士補充說，該指令隨後被轉發給巴西駐華使館。
+比亞迪工廠已成為中國在這個南美國家影響力日益增長的象徵，也是兩國關係更加密切的例證。比亞迪僅在巴西的巴伊亞州的工廠就投資了 6.2 億美元。
+這家中國電動汽車製造商表示，計畫明年初在巴西投產，初期年產量為 15 萬輛。
+同一主題
+其它節目 28/12 11h15 GMT
+汽車：比亞迪希望在歐洲超越特斯拉
+比亞迪巴西建築工地中國工人工作條件被指“堪比奴隸”</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:17:29</t>
+  </si>
+  <si>
+    <t>巴西外交部停止向比亞迪發放臨時工作簽證，原因是比亞迪在巴西巴伊亞州的工廠建築工地發現163名中國工人，他們在“類似奴役”的條件下被非法帶到巴西，並被指控為人口販運受害者。這些工人受雇於承包商金匠集團，但該集團否認有任何不當行為。巴西司法部已於12月20日向外交部發出請求，要求暫停向比亞迪發放臨時簽證。比亞迪在巴西的投資已達6.2億美元，計畫明年初投產，初期年產量為15萬輛。此事件影響比亞迪在巴西的發展，也反映出中巴關係中潛在的複雜問題。</t>
+  </si>
+  <si>
+    <t>巴西已停止向比亞迪發放臨時工作簽證，此前有指控稱，比亞迪巴西工廠的部分工人是人口販運受害者。巴西勞動部門在比亞迪工廠發現163名中國工人，在“類似奴役”條件下工作。這些工人受雇於承包商金匠集團，但該集團否認不當行為。巴西司法部要求暫停向比亞迪發放臨時簽證。比亞迪在巴西投資6.2億美元，計畫明年初投產，初期年產量15萬輛。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、臨時工作簽證、人口販運、非法勞工、奴役、中國工人、巴伊亞州、金匠集團、電動汽車、投資、中巴關係</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪在巴西的投資規模巨大，顯示其對巴西市場的重視。
+比亞迪計畫在巴西投產，將促進巴西的經濟發展和就業。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪在巴西的工廠爆發人口販運醜聞，嚴重損害其企業形象和聲譽。
+巴西政府的措施可能影響比亞迪在巴西的生產和經營。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪可以藉此機會改善其在巴西的勞工管理，提升企業社會責任形象。
+比亞迪可以加強與巴西政府的溝通，尋求解決問題的方案。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可能導致比亞迪在巴西的投資受阻，甚至被迫撤資。
+此事件可能影響中巴兩國的關係。
+比亞迪在巴西市場的競爭力可能下降。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      這次會議不尋常 習嚴厲俯視最高層同僚⚡比亞迪攤大事！官方認定「人口販運」 甩鍋不好使      驚呆！160中國奴工一臉懵 聯名寫聲明滿意      奴工指稱曝光后，巴西停止向比亞迪發放臨時工簽【阿波羅網CJ】</t>
+  </si>
+  <si>
+    <t>https://www.bannedbook.org/bnews/zh-tw/bannedvideo/20241228/2134401.html</t>
+  </si>
+  <si>
+    <t>禁闻网來源: 阿波羅新聞網 – 熱點直擊, 文章內容並不代表本網立場和觀點。 這次會議不尋常習嚴厲俯視最高層同僚⚡比亞迪攤大事！ 本頻道大陸免翻牆鏈接17 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN|APP
+論壇
+中共禁聞
+要聞
+中國新聞
+台灣新聞
+香港新聞
+時事觀察
+圖片新聞
+禁言博客
+中國人權
+維權上訪
+新公民運動
+民主運動
+新聞評論
+萌圖囧視
+幽默笑話
+社會百態
+國際新聞
+美國新聞
+傳統文化
+修鍊故事
+氣功
+史海鉤沉
+禁播視頻
+世界奧秘
+外星人之謎
+生命奧秘
+超自然現象
+健康養生
+娛樂新聞
+財經新聞
+生活百科
+心情感悟
+體育新聞
+禁聞網
+禁聞網簡體 
+翻牆必看的中共禁聞,禁網新聞,大陸新聞中國新聞解讀評論,禁聞點擊排行榜
+V2ray翻牆一鍵翻牆包
+交流評論、關注點贊
+Youtube Icon站長動態
+Facebook Icon臉書專頁
+telegram Icon翻牆交流電報群
+telegram Icon電報頻道
+RSS訂閱禁聞RSS/FEED訂閱
+禁聞網 &gt; 禁播視頻 &gt; 正文
+💥這次會議不尋常 習嚴厲俯視最高層同僚⚡️比亞迪攤大事！官方認定「人口販運」 甩鍋不好使😱驚呆！160中國奴工一臉懵 聯名寫聲明滿意💣奴工指稱曝光后，巴西停止向比亞迪發放臨時工簽【阿波羅網CJ】
+2024年12月28日 19:03 PDF版 分享轉發
+來源: 阿波羅新聞網 – 熱點直擊 , 文章內容並不代表本網立場和觀點。
+💥這次會議不尋常 習嚴厲俯視最高層同僚⚡️比亞迪攤大事！官方認定「人口販運」 甩鍋不好使😱驚呆！160中國奴工一臉懵 聯名寫聲明滿意💣奴工指稱曝光后，巴西停止向比亞迪發放臨時工簽【阿波羅網CJ】
+🌸本頻道大陸免翻牆鏈接🌸
+:https://s3.us-east-1.amazonaws.com/xinshi/cxs.html?members/aboluo/
+（鏈接長期有效，請複製保存上方鏈接，在中國大陸可將上方鏈接直接粘貼到瀏覽器地址欄就可免翻牆打開我們的頻道，請傳給大陸的朋友，請幫助我們傳播🙏）
+訂閱副頻道鏈接：:https://shorturl.at/lMP34
+訂閱主頻道鏈接：:https://shorturl.at/KLT08
+訂閱粵語頻道鏈接：:https://shorturl.asia/afI2O
+00:00 摘要
+00:55 這次會議不尋常 習近平嚴厲俯視最高層同僚
+03:42 比亞迪攤大事！官方認定「人口販運」 甩鍋那套出了海不好使
+06:03 驚呆！160中國奴工一臉懵 聯名寫聲明滿意這種狀態
+08:22 奴工指稱曝光后，巴西停止向比亞迪發放臨時工作簽證
+乾淨世界短鏈接：:https://shorturl.at/luFTU
+乾淨世界：:https://www.ganjing.com/channel/1f954504rs073DY7qaKBhd7Fl13d0c?tab=home
+贊助阿波羅網（台灣之外）：:https://donorbox.org/aboluowang
+贊助阿波羅網（台灣）：:https://p.ecpay.com.tw/11B19D7
+加入會員連結 ： :https://www.youtube.com/user/aboluowang/join
+阿波羅網爆料信箱：[email protected]
+您可以在右下角按訂閱並打開小鈴鐺🔔，選全部，就能收到最新最快的節目訊息！
+#習近平 #民主生活會 #中共會議 #比亞迪 #人口販運 #奴工 #巴西 #反腐鬥爭 #政治局 #高層領導 #國際關係 #996文化 #工作條件 #巴西勞動法 #中國企業 #國際輿論 #甩鍋 #全球化挑戰
+#習近平 #民主生活會 #中共會議 #比亞迪 #人口販運 #奴工 #巴西 #反腐鬥爭 #政治局 #高層領導 #國際關係 #996文化 #工作條件 #巴西勞動法 #中國企業 #國際輿論 #甩鍋 #全球化挑戰
+#阿波羅 #阿波羅網
+#阿波羅 #阿波羅網
+歡迎大家加入阿波羅網電報頻道：:https://t.me/aboluowang
+Twitter推特：:https://twitter.com/aboluowang
+Facebook臉書：:https://www.facebook.com/aboluowang/
+【巴西稱比亞迪工廠的工人是人口販運受害者】
+↩️ 巴西稱中國比亞迪工廠建設工人是人口販運的受害者 巴西勞工部門周四表示，比亞迪在巴西的一家工廠建築工地上的中國工人是人口販運的受害者，執法機構將繼續...
+爆加拿大多達262所高校涉嫌「人口販運」
+聯合國報告：人口販運在疫情后急劇上升
+英、德簽署協議 共同打擊人口販運
+🔥華人必看：中華文化的颶風 幸福感無法描述
+🔥解鎖ChatGPT|全平台高速翻牆:高清視頻秒開,超低延遲
+🔥免費PC翻牆、安卓VPN翻牆APP
+🔥治國大道：修身、齊家、管理、治國的大智慧
+如何加速觀看YouTube？
+💥這次會議不尋常 習嚴厲俯視最高層同僚⚡️比亞迪攤大事！官方認定「人口販運」 甩鍋不好使😱驚呆！160中國奴工一臉懵 聯名寫聲明滿意💣奴工指稱曝光后，巴西停止向比亞迪發放臨時工簽【阿波羅網CJ】
+站長動態，轉發分享↓Follow Us 責任編輯：劉鈺
+熱門禁書
+九評共產黨、解體黨文化、漫談黨文化
+起底共產黨叢書、魔鬼在統治著我們的世界
+馬克思的成魔之路、共產主義的終極目的
+科學與宗教、中華文化、治國大道
+本文標籤：中國, 臨時工, 習近平, 人口販運, 全球化, 奴工, 巴西, 政治局, 比亞迪
+</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:17:59</t>
+  </si>
+  <si>
+    <t>阿波羅新聞網報導，巴西官方認定比亞迪巴西工廠的中國籍建築工人為人口販運受害者，並已停止向比亞迪發放臨時工簽證。  160名中國工人聯名聲明表示對工作狀況滿意，但此舉引發國際關注，質疑比亞迪利用低廉勞動力，並逃避責任。  此外，報導也提及中共高層會議中，習近平以嚴厲態度俯視最高層同僚，暗示中國內部政治局勢的緊張。</t>
+  </si>
+  <si>
+    <t>💥這次會議不尋常 習嚴厲俯視最高層同僚⚡️比亞迪攤大事！官方認定「人口販運」 甩鍋不好使😱驚呆！160中國奴工一臉懵 聯名寫聲明滿意💣奴工指稱曝光后，巴西停止向比亞迪發放臨時工簽【阿波羅網CJ】  巴西稱比亞迪工廠的工人是人口販運受害者。160名中國工人聯名聲明滿意，但巴西已停止發放臨時工簽證。</t>
+  </si>
+  <si>
+    <t>比亞迪、人口販運、巴西、中國工人、奴工、習近平、中共會議、政治局、國際關係、人權、臨時工簽證、阿波羅新聞網</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件引發國際關注，揭露中國企業在海外的勞動問題。
+報導同時觸及中國政治動態，提供更全面的資訊。
+阿波羅新聞網作為一個關注中國新聞的媒體，其報導具有相對的權威性(需考量其立場)。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">報導來自阿波羅新聞網，其立場偏向反共，需審慎看待資訊的客觀性。
+160名工人聯名聲明滿意，與巴西官方認定人口販運形成對比，需要更多證據釐清真相。
+缺乏詳細的證據支持比亞迪涉及人口販運的指控。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">促使國際社會關注中國企業在海外的勞動行為，並加強監管。
+推動比亞迪改善勞動條件，符合國際勞工標準。
+進一步調查事件真相，揭露更多相關細節。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能影響比亞迪的國際形象和業務。
+可能加劇中巴之間的貿易摩擦。
+可能引發更廣泛的對中國企業在海外經營模式的質疑。
+</t>
+  </si>
+  <si>
+    <t>比亞迪巴西廠房捲奴役中國工人風波 承建商員工代表拍片否認做「奴隸」</t>
+  </si>
+  <si>
+    <t>https://news.tvb.com/tc/finance/676fcfbadb2fdd2664ff0d1f/%E8%B2%A1%E7%B6%93-%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%B7%B4%E8%A5%BF%E5%BB%A0%E6%88%BF%E6%8D%B2%E5%A5%B4%E5%BD%B9%E4%B8%AD%E5%9C%8B%E5%B7%A5%E4%BA%BA%E9%A2%A8%E6%B3%A2-%E6%89%BF%E5%BB%BA%E5%95%86%E5%93%A1%E5%B7%A5%E4%BB%A3%E8%A1%A8%E6%8B%8D%E7%89%87%E5%90%A6%E8%AA%8D%E5%81%9A%E5%A5%B4%E9%9A%B8</t>
+  </si>
+  <si>
+    <t>news.tvb.com中國電動車生產商比亞迪在巴西興建的廠房工地，早前被指涉嫌奴役中國工人。廠房工地承建商召集工地工人拍攝影片回應，否認他們被奴役，指出事件只是誤會。18 小時前</t>
+  </si>
+  <si>
+    <t>無綫新聞 TVB News
+繁
+简
+搜尋
+無綫新聞 TVB News
+無綫新聞
+財經
+比亞迪巴西廠房捲奴役中國工人風波 承建商員工代表拍片否認做「奴隸」
+比亞迪巴西廠房捲奴役中國工人風波 承建商員工代表拍片否認做「奴隸」
+發佈日期: 2024-12-28 18:15
+財經
+無綫新聞 TVB News
+粵
+無綫新聞 TVB News
+無綫新聞 TVB News已複製連結
+中國電動車生產商比亞迪在巴西興建的廠房工地，早前被指涉嫌奴役中國工人。廠房工地承建商召集工地工人拍攝影片回應，否認他們被奴役，指出事件只是誤會。
+電動車生產商比亞迪在巴西卡馬薩里的廠房，捲入奴役中國工人風波。其承建商金匠集團巴西分公司近日在社交平台發布片段，有代表否認中國工人做「奴隸」，強調他們在巴西很愉快，並遵紀守法、努力工作。
+比亞迪廠房承建商員工代表稱：「報道相關內容描述與事實嚴重不符，還給我們扣上了『奴隸』的帽子，讓我們感覺人格受到了侮辱，人權受到了侵犯。」
+巴西外交部周五表示，已停止向比亞迪發放臨時工作簽證。當地勞動檢察官辦公室日前查出，比亞迪相關廠房的中國工人面對惡劣工作及住宿環境，每31名工人要共用一個廁所，承建商亦沒有提供床褥。檢察部門又稱，承建商扣起工人的護照與六成工資，作為支付他們提出解約時的費用。
+承建商代表則稱，取走員工護照，只是為他們辦理巴西臨時身份證，又批評當地勞工部門在檢查廠房期間不聽解釋，就作出工人被「非法奴役」的結論，承建商必須澄清這個誤會。
+比亞迪廠房承建商員工代表說：「我們沒有受到公司對於人身自由的限制，工資都照常發放，公司也給我們提供了相關福利保障。」
+這批工人又在紙本聲明簽名及蓋指印。
+比亞迪品牌及公關處總經理李雲飛就在社交平台發文，指「欲加之罪，何患無辭」，見識了境外勢力如何惡意關聯、蓄意抹黑，國內部分自媒體如何裡應外合，相信大家的眼睛是雪亮的。
+在北京，外交部早前強調，中國政府一貫高度重視保障勞動者的合法權益，要求中資企業依法依規經營。
+比亞迪
+巴西
+中國
+無綫新聞 TVB News
+無綫新聞 TVB News
+無綫新聞 TVB News
+隨時隨地觀看新聞，立即下載
+Apple App Store下載無綫新聞TVB News app
+Google Play下載無綫新聞TVB News app
+Huawei App Gallery下載無綫新聞TVB News app
+Samsung Galaxy Store下載無綫新聞TVB News app
+條款及細則
+個人資料收集聲明
+私隱聲明概覽 (歐盟)
+完整私隱聲明 (歐盟)
+Cookies 政策
+準則及守則
+FAQ 常見問題
+關於我們
+聯絡我們
+Copyright 2024 Television Broadcasts Limited
+無綫新聞 Facebook Fanpage
+無綫新聞 YouTube Channel</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:18:26</t>
+  </si>
+  <si>
+    <t>比亞迪在巴西興建的廠房工地被指控涉嫌奴役中國工人，引發國際關注。廠房承建商金匠集團巴西分公司發布影片否認相關指控，聲稱只是誤會，並出示工人簽名的聲明。然而，巴西勞動檢察官辦公室已查出工人面對惡劣工作及住宿環境，承建商也扣留工人的護照和部分工資。巴西外交部已停止向比亞迪發放臨時工作簽證。比亞迪方面則在社交平台發文反駁指控，認為是境外勢力惡意抹黑。</t>
+  </si>
+  <si>
+    <t>比亞迪巴西廠房捲入奴役中國工人風波，承建商金匠集團發布影片否認，稱事件為誤會，工人簽署聲明佐證。巴西勞動檢察部門指出，工人面對惡劣環境，承建商扣留護照和工資。巴西外交部停止向比亞迪發放臨時工作簽證。比亞迪方面則指控為境外勢力惡意抹黑，「欲加之罪，何患無辭」。</t>
+  </si>
+  <si>
+    <t>比亞迪、巴西、中國、奴役、工人、廠房、承建商、金匠集團、惡劣環境、護照、工資、巴西外交部、臨時工作簽證、誤會、抹黑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">承建商及工人公開否認奴役指控，提供了相對的說法。
+比亞迪回應指控，積極澄清事件。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巴西勞動檢察部門已查出惡劣工作及住宿環境，以及承建商扣留護照和工資的事實。
+巴西外交部已採取行動，暫停簽證發放，顯示事件嚴重性。
+比亞迪的回應被質疑為避重就輕，未直接回應勞工環境問題。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透過調查釐清事實真相，避免不實指控造成負面影響。
+改善勞工環境，提升企業社會責任形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">負面報導影響比亞迪品牌形象及在巴西的業務。
+巴西政府可能採取進一步的行動，例如罰款或其他懲罰措施。
+事件可能引發國際社會對中國企業在海外經營的關注和批評。
+</t>
+  </si>
+  <si>
+    <t>中國車企搶進人形機器人 廣汽第3代新品拚2026年量產</t>
+  </si>
+  <si>
+    <t>https://www.worldjournal.com/wj/story/121347/8454544?from=wj_catelistnews</t>
+  </si>
+  <si>
+    <t>World Journal中國車企積極布局人型機器人賽道，包括比亞迪、廣汽集團、小鵬、奇瑞等多家車企已布局機器人這一新藍海。其中，廣汽集團近日發布第三代具身智能人形機器人新品「GoMate」...22 小時前</t>
+  </si>
+  <si>
+    <t>.韓濟州航空失事「179人推測身亡」 1乘客曾傳訊息：要交代遺言嗎？
+中國車企搶進人形機器人 廣汽第3代新品拚2026年量產
+中國車企積極布局人型機器人賽道，包括比亞迪、廣汽集團、小鵬、奇瑞等多家車企已布局機器人這一新藍海。其中，廣汽集團近日發布第三代具身智能人形機器人新品「GoMate」。有機構數據顯示，至2050年全球人形機器人市場規模預計將達7兆美元，全球人形機器人的數量將達6.48億台。
+從目前情況看，各家車企主要透過自研、合作開發、投資創業企業等方式布局該領域。廣汽集團計畫，在2025年實現自研零件批量全球發售，同時，GoMate將在不同行業實現示範應用；2026年，GoMate完成小批量生產並逐步擴展至大規模量產。
+除廣汽集團積極布局外，11月初，小鵬汽車在廣州發布其自主研發的全新AI人形機器人「Iron」。而小米則於2022年就推出首款全尺寸人形仿生機器人CyberOne。另，理想汽車創辦人李想近期還指，未來百分之百會做人形機器人。
+第一財經引述國金證券研報指出，Robo+是汽車賽道最強產業趨勢，比亞迪、華為宣布入局人形機器人，近幾月甚至開始布局或更新的人形機器人。汽車供應鏈和機器人供應鏈從軟體到硬體、研發到銷售都高度重疊，隨多個企業入局，人形機器人產業化將加速，robo+將成為汽車產業鏈最強產業趨勢。
+該研報並稱，2025年是人形機器人商業化元年，2027年是人形機器人一般場景大規模商業化元年。另，太平洋證券分析稱，車企入局人形機器人領域可實現技術同源，將車端演算法復用到人形機器人上，料未來隨著更多企業的加入，人形機器人產業鏈將更加完善，商業化落地的可能性也將提高。
+上一則
+AI助攻下 中國雲端市場規模上季大增11%
+下一則
+中國工業利潤前11月下滑4.7% 降幅恐20年最慘
+延伸閱讀
+比亞迪在巴西被控奴役勞工 中國外交部：正在核實</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:18:47</t>
+  </si>
+  <si>
+    <t>中國多家車企，包括廣汽集團、小鵬汽車、比亞迪、奇瑞等，積極佈局人形機器人市場，搶佔新興藍海產業。廣汽集團最新發佈的第三代人形機器人GoMate，計劃2026年大規模量產，並預計在2025年實現自研零件批量全球發售。其他車企如小鵬汽車也已推出自研人形機器人，顯示出車企跨界發展的趨勢，以及看好人形機器人未來龐大的市場規模。  業界分析認為，車企切入人形機器人領域能利用技術同源性，加速產業化進程，並完善產業鏈。</t>
+  </si>
+  <si>
+    <t>中國車企積極布局人形機器人，廣汽集團發布第三代人形機器人「GoMate」，計畫2026年量產，2025年實現自研零件批量全球發售。小鵬汽車也推出自研人形機器人「Iron」。業界分析認為，車企入局人形機器人可實現技術同源，加速產業化，2025年為商業化元年，2027年為大規模商業化元年。至2050年，全球人形機器人市場規模預計達7兆美元。</t>
+  </si>
+  <si>
+    <t>人形機器人、廣汽集團、GoMate、小鵬汽車、Iron、比亞迪、奇瑞、AI、機器人市場、產業化、商業化、技術同源、車企、7兆美元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國車企擁有雄厚的資金和技術實力，有利於推動人形機器人研發和生產。
+車企在自動駕駛、AI等領域的技術積累，可應用於人形機器人開發，縮短研發週期。
+龐大的市場需求和政府支持，為人形機器人產業發展提供了有利條件。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人形機器人技術仍處於發展初期，技術瓶頸和成本問題仍待解決。
+市場競爭日益激烈，車企需要不斷提升產品性能和競爭力。
+人才短缺，可能制約人形機器人產業的發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人形機器人應用場景廣泛，未來市場規模巨大，發展潛力巨大。
+可以與其他企業合作，共同推動人形機器人產業鏈的完善。
+政府政策支持，可以為企業提供資金和資源。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技術瓶頸難以突破，可能延緩產業發展進程。
+國際競爭激烈，需要提升核心技術競爭力。
+消費者接受度和市場需求的不確定性。
+</t>
+  </si>
+  <si>
+    <t>中國車企降價衝刺年底銷量目標 明年或重燃價格戰</t>
+  </si>
+  <si>
+    <t>https://www.worldjournal.com/wj/story/121318/8454802</t>
+  </si>
+  <si>
+    <t>世界新聞網鄰近年底，中國各家車企為衝刺年度銷量目標，已於11月下旬陸續開啟降價促銷策略。中國汽車流通協會專家委員會成員李顏偉認為，...23 小時前</t>
+  </si>
+  <si>
+    <t>.韓濟州航空失事「179人推測身亡」 1乘客曾傳訊息：要交代遺言嗎？
+中國車企降價衝刺年底銷量目標 明年或重燃價格戰
+鄰近年底，中國各家車企為衝刺年度銷量目標，已於11月下旬陸續開啟降價促銷策略。中國汽車流通協會專家委員會成員李顏偉認為，明年初新車折扣有可能加大，車市將重燃價格戰，預計銷量受損的多為生產中低價位車型的自主與合資車企。
+比亞迪汽車27日在官方微博發文宣布，即日起至2025年1月26日，秦PLUS EV榮耀版限時優惠人民幣1萬元(約1370美元)，起售價人民幣9.98萬元(約13673美元)；第二代宋Pro DM-i同樣限時優惠超人民幣1萬元，優惠後起售價為人民幣9.98萬元。上述兩款車型置換補貼最高分別為人民幣2.5萬元和2.4萬元。
+第一財經報導，2024年以來，比亞迪通過接連發布秦、漢、唐等多款榮耀版車型掀起車市新一輪降價浪潮，也帶動了自身月銷量突破30萬輛。5月底，第五代DM技術迭代後，比亞迪多款車型再度進行了新一輪的迭代，並取得了新的銷量增長。10月、11月，比亞迪連續兩個月銷量超過50萬輛，今年1到11月，比亞迪累計銷量突破370萬輛，已超額完成年初定下的360萬輛年銷目標，且預計今年銷量可達425萬輛。
+多家車企已於11月下旬陸續開啟降價促銷策略。特斯拉中國宣布，自今年11月25日到12月31日，推出Model Y 後輪驅動版及長續航全輪驅動版車型尾款立減人民幣1萬元政策，售價人民幣23.99萬元(約32868美元)起，且可疊加五年0息政策。這一價格是特斯拉Model Y有史以來的全球最低價。
+理想汽車也11月下旬發布年底限時0息政策，自11月29日起至12月31日期間，購買理想L系列和理想MEGA的用戶，可享受最低首付金額3年0息金融方案。12月，領克旗下多款車型推出限時優惠購車政策，最低首付降至人民幣0.76萬元。
+上一則
+川普若對墨課25%關稅「汽車成本多3000元」 便宜車受創最重
+下一則
+想買電動車要快 川普上任後擬砍7500元補貼優惠
+延伸閱讀
+比亞迪在巴西被控奴役勞工 中國外交部：正在核實
+特斯拉人形機器人擺件開賣秒殺 二手平台價翻45倍
+美股最錢線／超越特斯拉 Nvidia成散戶最愛
+學歐盟？比亞迪下月進軍南韓 首爾擬展開反補貼調查
+熱門新聞
+川普若對墨課25%關稅「汽車成本多3000元」 便宜車受創最重
+特斯拉上海儲能超級工廠年底完工 工期僅7個月刷新紀錄
+NHK：Nissan和Honda將在明年6月敲定合併協議
+胎壓偵測異常 特斯拉召回近70萬輛車
+對拚比亞迪？迫切合併求出路 本田、日產11月在中國銷量重摔
+想買電動車要快 川普上任後擬砍7500元補貼優惠
+FB留言</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:19:08</t>
+  </si>
+  <si>
+    <t>為衝刺年底銷售目標，中國多家車企紛紛推出降價促銷策略，其中比亞迪、特斯拉、理想汽車和領克等品牌都祭出不同程度的優惠，包括現金優惠、低首付、零利率貸款等。專家預測，明年初新車折扣可能加大，車市將重燃價格戰，中低價位車型將受衝擊。比亞迪今年前11個月銷量已突破370萬輛，大幅超出目標，預計全年銷量將達425萬輛。特斯拉Model Y更創下歷史新低價。</t>
+  </si>
+  <si>
+    <t>鄰近年底，中國各家車企為衝刺年度銷量目標，已於11月下旬陸續開啟降價促銷策略。比亞迪宣布秦PLUS EV榮耀版和第二代宋Pro DM-i限時優惠人民幣1萬元，並提供置換補貼。特斯拉中國宣布Model Y尾款立減人民幣1萬元，售價人民幣23.99萬元起。理想汽車推出年底限時0息政策，領克旗下多款車型也推出限時優惠。專家認為，明年初新車折扣有可能加大，車市將重燃價格戰，預計銷量受損的多為生產中低價位車型的自主與合資車企。比亞迪今年1到11月累計銷量突破370萬輛，預計今年銷量可達425萬輛。</t>
+  </si>
+  <si>
+    <t>中國車市、降價促銷、年底銷量目標、價格戰、比亞迪、特斯拉、理想汽車、領克、ModelY、秦PLUSEV、宋ProDM-i、汽車優惠、零利率貸款、銷量增長</t>
+  </si>
+  <si>
+    <t xml:space="preserve">降價促銷策略能有效刺激銷售，提升短期銷量。
+比亞迪等車企銷量表現亮眼，顯示降價策略有效。
+特斯拉ModelY創下歷史新低價，提高市場競爭力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">降價策略可能壓縮利潤空間，影響長期盈利能力。
+激烈的價格競爭可能導致市場混亂，損害品牌形象。
+中低價位車型受衝擊較大，市場份額可能被瓜分。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">降價能吸引更多消費者，擴大市場份額。
+可以藉此機會淘汰低效能車型，提升產品結構。
+刺激消費需求，推動整個汽車產業的發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格戰可能持續時間較長，造成長期虧損。
+其他車企跟進降價，加劇市場競爭。
+消費者信心不足，市場需求下降。
+</t>
+  </si>
+  <si>
+    <t>〖微博談〗一方水土養一方AI</t>
+  </si>
+  <si>
+    <t>https://www.bannedbook.org/bnews/zh-tw/ssgc/20241229/2134665.html</t>
+  </si>
+  <si>
+    <t>禁闻网來源: 博談網. （所有圖片均來自網路）. 1．@BingLiu34173809：中國的戶籍制度與土地制度，是世界獨有的。它們是人類有史以來最大規模最快速度工業化和城市化的重要推手；...2 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN|APP
+論壇
+中共禁聞
+要聞
+中國新聞
+台灣新聞
+香港新聞
+時事觀察
+圖片新聞
+禁言博客
+中國人權
+維權上訪
+新公民運動
+民主運動
+新聞評論
+萌圖囧視
+幽默笑話
+社會百態
+國際新聞
+美國新聞
+傳統文化
+修鍊故事
+氣功
+史海鉤沉
+禁播視頻
+世界奧秘
+外星人之謎
+生命奧秘
+超自然現象
+健康養生
+娛樂新聞
+財經新聞
+生活百科
+心情感悟
+體育新聞
+禁聞網
+禁聞網簡體 
+翻牆必看的中共禁聞,禁網新聞,大陸新聞中國新聞解讀評論,禁聞點擊排行榜
+V2ray翻牆一鍵翻牆包
+交流評論、關注點贊
+Youtube Icon站長動態
+Facebook Icon臉書專頁
+telegram Icon翻牆交流電報群
+telegram Icon電報頻道
+RSS訂閱禁聞RSS/FEED訂閱
+禁聞網 &gt; 時事觀察 &gt; 正文
+〖微博談〗一方水土養一方AI
+2024年12月29日 13:31 PDF版 分享轉發
+來源: 博談網
+（所有圖片均來自網路）
+1．@BingLiu34173809：中國的戶籍制度與土地制度，是世界獨有的。它們是人類有史以來最大規模最快速度工業化和城市化的重要推手；當然也是老齡化和貧困化的重要推手。
+2．比亞迪在巴伊亞州的廠區投資了6.2億美元。在爆發該醜聞之前，該工廠是北京在南美影響力日益增長的象徵。比亞迪原先計劃成為比亞迪在亞洲以外第一個電動車工廠，巴西司法部在周五的另一份聲明中表示，如果檢察官證實比亞迪工廠存在違規行為，將撤銷向中國工人發放的居留許可。
+3．@dajiyuan：中共政治局年終的民主生活會照例進行，但與一年前相比，「習思想」和「習核心」都被明顯弱化，習近平難以再任意點評政治局成員和提要求，年終政治局民主生活會的變化，正預示著北京的政治大變局。
+4．@zaobaosg：香港優質旅遊服務協會主席黃傑龍星期六（12月28日）說，大陸遊客消費力從疫情前的高位回落很多，特別是零售跌幅最明顯，由疫情前高峰平均5000多元（港元）一個人，跌到現在2000多元，大跌六成。
+5．迢書：很多法律人呼籲，罰沒收入應當全部上繳中央財政，這樣地方政府就沒有動力「遠洋捕撈」了。我當然贊成這樣改，但是並不看好改的效果，因為沒改到關鍵處。只要辦案人員在法院判決前有權力長期凍結企業賬戶、羈押老闆且不讓取保候審，就有辦法敲出錢來。
+6．@xiaojingcanxue：近期短視頻劇本①店員吃撐了自掏腰包購買聖誕樹等裝飾品②老闆巡店發現后瞬間激發了愛國熱情③訓導店員不該吃撐了自掏腰包行為④教育員工時時刻刻愛國。
+7．@satti_metta：這項目好，預算報的五星標準，碗里裝的是窩頭鹹菜。
+8．凍死事小，維穩為大。
+9．現今印度在美國正式註冊的留學生數量33萬，中國28萬。
+〖微博談〗保護性抓捕
+〖微博談〗巴西人也太大驚小怪了
+〖微博談〗社會主義就是新農奴制
+〖微博談〗祈願讀友們心有所安
+〖微博談〗黑幫和共匪才是一家人
+🔥華人必看：中華文化的颶風 幸福感無法描述
+🔥解鎖ChatGPT|全平台高速翻牆:高清視頻秒開,超低延遲
+🔥免費PC翻牆、安卓VPN翻牆APP
+🔥治國大道：修身、齊家、管理、治國的大智慧
+10．@whyyoutouzhele：一方水土養一方AI。網友分別問ChatGPT和國產AI：如果你擁有人類的身軀，你最想做什麼？國產AI回答：如果我擁有人類身軀，我最想積極帶領全人類實現共產主義。
+站長動態，轉發分享↓Follow Us 責任編輯：林遠翔
+熱門禁書
+九評共產黨、解體黨文化、漫談黨文化
+起底共產黨叢書、魔鬼在統治著我們的世界
+馬克思的成魔之路、共產主義的終極目的
+科學與宗教、中華文化、治國大道
+本文標籤：中央財政, 習近平, 共產主義, 微博, 微博談, 政治局, 比亞迪, 民主生活, 民主生活會
+</t>
+  </si>
+  <si>
+    <t>2024-12-29 15:12:14</t>
+  </si>
+  <si>
+    <t>時事觀察</t>
+  </si>
+  <si>
+    <t>本文彙整了多則來自微博的短評，涵蓋了中國社會、政治及經濟等層面的議題。內容包含對中國戶籍制度與土地制度的反思、比亞迪巴西工廠醜聞及其政治影響、中共政治局民主生活會的變化、香港大陸遊客消費力下降、中國法律制度中罰沒收入問題、諷刺短視頻劇本、項目預算與實際執行落差、以及中印留學生人數的比較等。這些短評反映出中國社會不同面向的現狀與問題，並表達了對政治、經濟及社會發展的擔憂與反思。</t>
+  </si>
+  <si>
+    <t>中國的戶籍制度與土地制度，是世界獨有的。它們是人類有史以來最大規模最快速度工業化和城市化的重要推手；當然也是老齡化和貧困化的重要推手。比亞迪在巴伊亞州的廠區投資了6.2億美元……巴西司法部……如果檢察官證實比亞迪工廠存在違規行為，將撤銷向中國工人發放的居留許可。中共政治局年終的民主生活會照例進行，但與一年前相比，「習思想」和「習核心」都被明顯弱化……年終政治局民主生活會的變化，正預示著北京的政治大變局。大陸遊客消費力從疫情前的高位回落很多，特別是零售跌幅最明顯……由疫情前高峰平均5000多元（港元）一個人，跌到現在2000多元，大跌六成。很多法律人呼籲，罰沒收入應當全部上繳中央財政……只要辦案人員在法院判決前有權力長期凍結企業賬戶、羈押老闆且不讓取保候審，就有辦法敲出錢來。近期短視頻劇本①店員吃撐了自掏腰包購買聖誕樹等裝飾品②老闆巡店發現后瞬間激發了愛國熱情③訓導店員不該吃撐了自掏腰包行為④教育員工時時刻刻愛國。這項目好，預算報的五星標準，碗里裝的是窩頭鹹菜。凍死事小，維穩為大。現今印度在美國正式註冊的留學生數量33萬，中國28萬。一方水土養一方AI。</t>
+  </si>
+  <si>
+    <t>中國、戶籍制度、土地制度、比亞迪、巴西、政治局、民主生活會、習近平、香港、大陸遊客、消費力、法律制度、罰沒收入、短視頻、預算、印度、留學生、AI、微博</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彙整多個微博觀點，反映多面向社會議題。
+內容涵蓋政治、經濟、社會等領域，資訊豐富。
+以簡短評論呈現，易於理解。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資訊來源為微博，可靠性有待考量。
+缺乏數據支持，部分觀點缺乏客觀性。
+評論性質為主，缺乏深入分析。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可進一步深入調查研究，佐證微博評論的真實性。
+可結合其他數據及新聞報導，進行更深入的分析。
+可針對特定議題，撰寫更深入的報導。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">微博評論可能存在偏見或不實資訊。
+部分議題敏感，可能引發爭議。
+缺乏官方數據支持，分析結果可能不夠客觀。
+</t>
+  </si>
+  <si>
+    <t>比亞迪官宣：降價！</t>
+  </si>
+  <si>
+    <t>https://hao.cnyes.com/post/128921</t>
+  </si>
+  <si>
+    <t>鉅亨號12月27日，@比亞迪汽車發文稱，即日起至2025年1月26日，對秦PLUS EV榮耀版限時優惠1萬元，對第二代宋Pro DM-i也進行限時優惠活動，優惠後兩款車型起售價均為9.98萬元。3 小時前</t>
+  </si>
+  <si>
+    <t>比亞迪官宣：降價！
+2024/12/29
+•
+12月27日，@比亞迪汽車 發文稱，即日起至2025年1月26日，對秦PLUS EV榮耀版限時優惠1萬元，對第二代宋Pro DM-i也進行限時優惠活動，優惠後兩款車型起售價均為9.98萬元。並且，上述兩款車型置換補貼最高分別為2.5萬元和2.4萬元。
+同日，@比亞迪汽車 還宣佈，2024年12月27日至2025年1月26日，購買漢唐家族車型，限時贈送至高5000元全車保險，並且可享受“0首付、0利息、0月供”福利和最高2.8萬元的置換補貼（包括最高2萬元的國家補貼和8000元的比亞迪補貼）。
+今年以來，比亞迪已多次推出降價和優惠活動，此次降價和優惠活動集中於秦、宋、漢、唐等王朝網車型。11月，比亞迪汽車銷量達到50.68萬輛，同比增長67.2%。其中，比亞迪王朝網銷量達25.31萬輛，佔到了公司汽車總銷量的49.95%，是比亞迪的汽車銷量主力。
+有業內人士分析表示，比亞迪此次的降價和優惠，一是借春節前的消費熱情進一步衝量；二是通過限時優惠，以保證1月市場銷量的相對平穩。
+比亞迪財報顯示，今年前三季度，比亞迪累計銷售新能源汽車274.79萬輛，同比增長32.13%；實現營收5022.51億元，同比增長18.94%；實現歸母淨利潤252.38億元，同比增長18.12%。
+時值年末，除了比亞迪，還有多家車企推出了優惠活動。
+11月25日，特斯拉率先上線尾款立減活動，車主在12月31日前提車，Model Y後輪驅動版及長續航全輪驅動版車型尾款立減1萬元，售價23.99萬元起，同時還能選擇5年0息金融方案。而這一價格是特斯拉Model Y有史以來的最低價，同時也是全球最低價。
+此外，特斯拉12月24日上線“選購現車 尾款立減”政策，選購Model Y現車，尾款立減1萬元，同時可疊加截至明年1月31日的五年0息金融方案。
+11月29日，理想汽車宣佈了年底限時0息政策，購買理想L系列和理想MEGA的使用者，可享受最低首付金額3年0息金融方案。單車型最低首付金額分別為：理想MEGA首付15.98萬元、理想L9首付12.98萬元，理想L8、理想L7首付9.98萬元，理想L6首付6.98萬元。
+12月，領克針對旗下多款車型推出限時優惠購車政策，涉及領克01、領克03、領克05以及領克06等車型，最低首付降至0.76萬元。
+乘聯會資料顯示，今年11月份，乘用車市場零售244.6萬輛，比去年同期增長18%；今年以來累計零售2028.1萬輛，同比增長5%。其中，新能源車市場零售127.7萬輛，比去年同期增長52%，較10月份增長7%，今年以來累計零售960.5萬輛，同比增長41%。 (鋰電派)
+想說些甚麼?
+官方號
+好康站
+客服
+號守則
+鉅亨網
+© Copyright 2000-2022 Anue鉅亨網 All rights reserved.</t>
+  </si>
+  <si>
+    <t>2024-12-29 15:12:41</t>
+  </si>
+  <si>
+    <t>比亞迪宣佈針對秦PLUS EV榮耀版和第二代宋Pro DM-i兩款車型推出限時優惠，起售價均降至9.98萬元人民幣，並提供高額置換補貼。同時，漢唐家族車型也推出限時贈送保險、0首付0利息等優惠活動。 此次降價被分析師認為是為衝刺春節前銷量，並穩定1月市場銷量。  比亞迪今年前三季度新能源汽車銷量增長強勁，但其他車企如特斯拉、理想和領克也推出了年末優惠活動，展現了激烈的市場競爭。</t>
+  </si>
+  <si>
+    <t>比亞迪宣布，秦PLUS EV榮耀版限時優惠1萬元，第二代宋Pro DM-i也進行限時優惠，優惠後起售價均為9.98萬元，並提供高額置換補貼。漢唐家族車型限時贈送保險，享“0首付、0利息、0月供”福利和高額置換補貼。  分析人士認為，此舉旨在衝刺春節前銷量，穩定1月銷量。 比亞迪今年前三季度新能源汽車銷量同比增長32.13%，但特斯拉、理想、領克等也推出年末優惠活動。</t>
+  </si>
+  <si>
+    <t>比亞迪，秦PLUSEV，宋ProDM-i，漢唐家族，降價，優惠，置換補貼，新能源汽車，銷量，春節，特斯拉，理想汽車，領克，市場競爭，年末促銷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪在新能源汽車市場佔據領先地位，品牌影響力大。
+比亞迪產品線豐富，可以滿足不同消費者的需求。
+比亞迪擁有强大的研發能力和生產能力。
+比亞迪的價格策略具有競爭力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪部分車型的銷售增速放緩。
+比亞迪面臨激烈的市場競爭。
+比亞迪部分車型的質量問題偶爾會受到質疑。
+比亞迪的海外市場拓展仍需進一步加強。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新能源汽車市場持續增長，為比亞迪提供了巨大的市場空間。
+比亞迪可以進一步提升產品的科技含量和品牌形象。
+比亞迪可以進一步拓展海外市場。
+比亞迪可以進一步發展相關產業鏈，提高盈利能力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新能源汽車市場競爭加劇，其他車企的崛起對比亞迪構成威脅。
+政府政策的變化可能影響新能源汽車行業的發展。
+原材料價格波動可能影響比亞迪的生產成本。
+技術革新可能使比亞迪的部分技術優勢喪失。
+</t>
+  </si>
+  <si>
+    <t>逆風中突圍！台廠攜手恩智浦，搶攻新世代車用電子商機</t>
+  </si>
+  <si>
+    <t>https://technews.tw/2024/12/29/new-generation-automotive-electronics-business-opportunities/</t>
+  </si>
+  <si>
+    <t>TechNews 科技新報全球汽車市場在這一年因中系電動車竄起，衝擊電動車成長力道驟減；半年內，和碩、英業達、緯創接連與車用半導體大廠成立聯合實驗室，瞄準新世代車用電子市場。4 小時前</t>
+  </si>
+  <si>
+    <t>全球汽車市場在這一年因中系電動車竄起，衝擊電動車成長力道驟減；半年內，和碩、英業達、緯創接連與車用半導體大廠成立聯合實驗室，瞄準新世代車用電子市場。根據《財訊》雙週刊報導，短短半年時間，車用半導體大廠恩智浦（NXP）接連與電子製造代工大廠和碩、英業達及緯創成立聯合實驗室，在面對中國電動車廠比亞迪快速竄起，及車用市場需求疲弱不振下，它們看到的成長潛力是什麼？台積電早在2024年4月的法說會上開出第一槍，下修車用晶片需求，從成長到衰退。果然進入下半年之後，車用半導體大廠意法半導體二度下調2024年的營收目標，恩智浦日前也釋出2024年第四季營收與獲利將不如預期，導致股價大跌回應。契機》電子業拉近車廠距離儘管車用電子市場短期遭逢逆風襲擊，卻無礙於台灣電子製造代工大廠深化布局的腳步。鴻海、台達電、和碩、英業達、緯創都選擇與在台灣落地生根57年之久的恩智浦設立聯合實驗室，著手開發新世代產品。兩年前，英業達即在桃園大溪廠舉辦與恩智浦的策略合作記者會，當時以開發中央網關、車載伺服器以及車載無線充電等產品為主。這一次英業達總經理蔡枝安則強調，將持續深耕車用電子事業，預期採用恩智浦超寬頻（UWB）技術，開發更多的新產品。UWB是一種無載波通訊技術，具有抗干擾性強、高速傳輸、高安全性、低耗電的優點，其傳輸速率是藍牙的159倍，是Wi-Fi標準的18.5倍，且能夠高精度定位。英業達與恩智浦的合作，將應用在智慧汽車安全門禁、兒童感測系統及後踢感應等。而且英業達全球生產線均已經布局完成，包括台灣、中國上海、墨西哥、美國、歐洲等地，未來也將持續增加，2024年來自於車用營收表現倍數成長，2025年營收將再翻倍。再將場景轉到和碩、緯創與恩智浦的合作規畫。恩智浦半導體台灣區業務總經理臧益群表示，與和碩的合作起手式將從智慧座艙，以及電子電氣化架構開始，未來希望進一步在先進輔助駕駛系統、動力系統合作。在緯創的部分，與恩智浦的聯合實驗室配置了先進的車用通訊驗證與開發環境，以車載電腦系統及中控單元的核心技術為主。緯創董事長林憲銘指出，過去發展車用顯示與控制板業務已有不少斬獲，現在將往更高階的項目布局。不難發現，三大電子廠側重的項目各有區隔。資策會產業顧問何心宇分析，恩智浦希望透過這樣的合作方式，讓更多客戶使用它的產品；而電子製造代工大廠藉此可以拉近與車廠的合作距離，甚至跳過一階（Tier-1）供應商，爭取到將新世代產品全面導入新車款的機會。當然電子製造代工大廠的合作對象不僅限於恩智浦，還包括像是輝達、高通、聯發科等晶片大廠。優勢》美國供應鏈更加排中雖然中國車廠積極建立自己的供應鏈，加上非中系電動車的成長減速，讓市場頗為憂心車用電子產業未來的前景，但台灣廠商並不是沒有機會。「從現在開始，美國市場會更加排斥中國供應鏈，不只是產地不能從中國出貨，連身分也不能是中國廠商。」何心宇認為，車用市場的供應鏈未來也會切割得非常清楚。台灣先進車用技術發展協會祕書長沈舉三也強調，不管是燃油車或電動車，智慧座艙已經成為未來汽車標準備配，所衍生的各種車用系統從顯示器、影音娛樂、車用電腦、車聯網、自動駕駛等，都是台灣廠商積極著墨的方向。因此，雖然現在車用電子市場目前正處逆風，但車用電子的經營原本就需要長期作戰。和碩共同執行長鄭光志曾說，現在的產品是為了3年後的新車需求。因為，驗證時間就是3年起跳。且台灣的強項為資通訊技術與產品，與國際車用半導體大廠合作之後，能以中階價位切入新世代車用電子的產品，相信對於美系或者歐系車廠來說，現在都是非常好的機會點。林憲銘直呼，緯創對車用電子長線看好，10年內的營收目標要達到千億元；英業達董事長葉力誠也喊話車用電子事業於2027年要挑戰千億元的營收貢獻。正當市場焦點都放在AI伺服器身上時，相信車用電子未來潛力仍值得期待。（本文由《財訊》授權轉載）延伸閱讀：5張圖表透視籌碼流向 解鎖2025台股大未來宏碁子公司分拆掛牌 為何毛利率不振、成交量低迷？金融業獲利挑戰兆元 存股族最愛嗎？</t>
+  </si>
+  <si>
+    <t>2024-12-29 15:12:42</t>
+  </si>
+  <si>
+    <t>全球汽車市場因中國電動車崛起而影響電動車成長，但台灣電子製造代工廠仍積極佈局新世代車用電子市場。和碩、英業達、緯創與車用半導體大廠恩智浦（NXP）成立聯合實驗室，開發智慧座艙、電子電氣化架構、先進輔助駕駛系統等產品，目標鎖定美國市場，並預期未來營收大幅成長。儘管短期市場面臨逆風，但台灣廠商憑藉資通訊技術優勢，以及與國際大廠合作，看好未來車用電子市場的長期發展潛力。</t>
+  </si>
+  <si>
+    <t>半年內，和碩、英業達、緯創接連與恩智浦成立聯合實驗室，瞄準新世代車用電子市場。英業達將採用恩智浦UWB技術開發新產品，應用在智慧汽車安全門禁等；和碩將從智慧座艙及電子電氣化架構開始合作；緯創則以車載電腦系統及中控單元核心技術為主。資策會分析，此合作方式讓恩智浦產品被更多客戶使用，也讓台灣廠商拉近與車廠距離。何心宇認為，美國市場將更加排斥中國供應鏈，為台灣廠商帶來機會。沈舉三強調，智慧座艙已成汽車標配，相關系統是台灣廠商積極著墨的方向。和碩、英業達都喊出車用電子營收千億目標。</t>
+  </si>
+  <si>
+    <t>和碩、英業達、緯創、恩智浦(NXP)、車用半導體、車用電子、智慧座艙、電子電氣化架構、先進輔助駕駛系統、UWB、美國市場、中國供應鏈、Tier-1供應商、電動車、比亞迪、台積電、意法半導體</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣廠商擁有強大的資通訊技術和製造能力。
+與國際知名車用半導體大廠合作，技術與資源獲得保障。
+美國市場排斥中國供應鏈，為台灣廠商創造機會。
+智慧座艙等新世代車用電子產品市場需求龐大。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球電動車市場成長放緩，短期內市場需求疲弱。
+與國際大廠合作需遵守其規範，自主性可能受限。
+車用電子產品開發週期長，需投入大量研發資源。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開發高階車用電子產品，提升產品附加價值。
+深入佈局美國市場，搶佔市場份額。
+與更多國際大廠合作，擴大業務規模。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國電動車廠崛起，競爭日益激烈。
+全球經濟下行風險，影響市場需求。
+技術更新速度快，需持續投入研發才能保持競爭力。
+</t>
+  </si>
+  <si>
+    <t>中國宣布對牛肉進口展開調查 巴西表示“注意到了”</t>
+  </si>
+  <si>
+    <t>https://www.rfi.fr/tw/%E5%9C%8B%E9%9A%9B/20241228-%E4%B8%AD%E5%9C%8B%E5%AE%A3%E5%B8%83%E5%B0%8D%E7%89%9B%E8%82%89%E9%80%B2%E5%8F%A3%E5%B1%95%E9%96%8B%E8%AA%BF%E6%9F%A5-%E5%B7%B4%E8%A5%BF%E8%A1%A8%E7%A4%BA-%E6%B3%A8%E6%84%8F%E5%88%B0%E4%BA%86</t>
+  </si>
+  <si>
+    <t>RFI中國宣布，應牛肉行業代表的要求，從本周五開始對進口牛肉展開調查。中國是巴西最大的貿易夥伴，也是巴西牛肉出口的主要目的地。18 小時前</t>
+  </si>
+  <si>
+    <t>.中國宣布對牛肉進口展開調查 巴西表示“注意到了”
+中國宣布，應牛肉行業代表的要求，從本周五開始對進口牛肉展開調查。中國是巴西最大的貿易夥伴，也是巴西牛肉出口的主要目的地。
+中國商務部周五在新聞稿中解釋說，根據中國行業協會的說法，近年來，國外牛肉採購量的強勁增長“對國內該產業構成重大負面衝擊”。該部引述中國生產商聲稱，2019-2023年期間牛肉進口量增加了65%。
+法新社引述分析說，由於生產過剩和中國經濟放緩抑制消費，近年來中國牛肉價格趨於下跌。
+與此同時，牛肉進口明顯增加，特別是來自巴西、阿根廷和澳大利亞的進口。中國是這些家的主要市場。
+中國商務部表示，調查從本周五開始，預計持續8個月，但可能會延長，並補充說，調查期間牛肉貿易不會受到影響。
+巴西作為世界最大牛肉出口國，對中國的這一舉措發布聲明稱，其注意到中國開始此次調查，但巴西“原則上”不會採取任何初步措施。
+巴西外交部還保證說，巴西政府將“在未來幾個月內證明，巴西出口到中國的肉類不會以任何方式損害中國的產業，相反，它是補充中國本地生產的一個重要因素”。
+中國是巴西最大的貿易夥伴，也是巴西牛肉出口的主要目的地。
+巴西外交部周五表示，巴西已停止向比亞迪發放臨時工作簽證，此前有指控稱，這家中國電動汽車製造商旗下工廠的部分工人是人口販運的受害者。
+同一主題
+比亞迪遭販賣人口指控 巴西取消臨時工作簽證
+工作條件被指“堪比奴隸”的160多名中國工人在巴西獲救
+巴西與中國在國際舞台上展示靠攏</t>
+  </si>
+  <si>
+    <t>2024-12-29 15:13:05</t>
+  </si>
+  <si>
+    <t>中國商務部宣布自10月12日起對進口牛肉展開為期8個月的反傾銷調查，此舉引發巴西關注。中國牛肉行業協會表示，近年來進口牛肉大幅增長，對國內產業造成重大負面衝擊。儘管調查期間牛肉貿易不受影響，但巴西政府仍表達其對巴西牛肉出口至中國的信心，並強調其補充中國本地生產的重要性。  同時，新聞也提及巴西停止向比亞迪發放臨時工作簽證，因其工廠部分工人疑似人口販賣受害者。</t>
+  </si>
+  <si>
+    <t>中國宣布對進口牛肉展開調查，預計持續8個月，調查期間牛肉貿易不會受到影響。中國牛肉行業協會稱，2019-2023年牛肉進口量增加65%，對國內產業造成重大負面衝擊。巴西是世界最大牛肉出口國，也是中國的主要牛肉進口來源國，巴西政府表示注意到調查，但不會採取初步措施，並保證巴西牛肉出口不會損害中國產業。巴西同時停止向比亞迪發放臨時工作簽證，因有指控稱比亞迪工廠部分工人是人口販運受害者。</t>
+  </si>
+  <si>
+    <t>中國、巴西、牛肉、進口、調查、反傾銷、貿易、經濟、牛肉行業、比亞迪、人口販運、工作簽證、貿易夥伴、經濟放緩、生產過剩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國是全球重要的牛肉消費國，此調查結果將影響全球牛肉貿易格局。
+巴西政府積極回應，展現維護貿易關係的意願。
+此事件突顯國際貿易中反傾銷調查的應用及影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">調查結果的不確定性，可能影響中巴兩國的貿易關係。
+調查時間長達8個月，可能造成短期內的市場不穩定。
+比亞迪在巴西的負面新聞可能影響其在巴西的業務發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國牛肉產業可能藉此機會調整生產策略，提升競爭力。
+巴西可藉此機會提升牛肉品質及市場多元化策略。
+此事件提醒企業需重視國際貿易規則及社會責任。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">調查結果可能對巴西牛肉出口造成負面影響。
+中巴貿易關係可能因調查而受損。
+比亞迪在巴西的負面新聞可能損害其品牌形象。
+</t>
+  </si>
+  <si>
+    <t>解救"奴工",巴西和中國,處在兩個不同的時空| 加西網(溫哥華門戶)</t>
+  </si>
+  <si>
+    <t>https://www.westca.com/News/article/sid=1061870/%E8%A7%A3%E6%95%91%E5%A5%B4%E5%B7%A5%E5%B7%B4%E8%A5%BF%E5%92%8C%E4%B8%AD%E5%9B%BD%E5%A4%84%E5%9C%A8%E4%B8%A4%E4%B8%AA%E4%B8%8D%E5%90%8C%E7%9A%84%E6%97%B6%E7%A9%BA/lang=tchinese.html</t>
+  </si>
+  <si>
+    <t>加西网結果，仔細看看新聞，原來就是中國外派勞務工的常態。 正常的工作狀態竟然被巴西視為“奴役”。 巴西列舉的奴役現象是，護照被雇主扣押，30人睡一屋，共用一個淋浴，睡的木板床...21 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+| 廣告聯系 | 簡體版 | 手機版 | 微信 | 微博 | 搜索: 
+歡迎您 游客 | 登錄 | 免費注冊 | 忘記了密碼 | 社交賬號注冊或登錄
+歡迎來到加西網 (溫哥華門戶網)	
+首頁	
+新聞資訊	
+論壇	
+溫哥華地產	
+大溫餐館點評	
+溫哥華汽車	
+溫哥華教育	
+黃頁/二手	
+旅游
+新聞 生活資訊 社區 專欄 原創 圖片新聞 最新新聞 評論 搜索 中國新聞
+解救"奴工",巴西和中國,處在兩個不同的時空
+2024-12-27 | 來源: 老侯說事兒8 | 轉到微信 | 有0人參與評論 | 字體: 放大 縮小 | 收藏 | 打印
+巴西解救160多名中國奴工的消息一出，我以為黑窯奴工的把戲玩到國外去了。
+結果，仔細看看新聞，原來就是中國外派勞務工的常態。
+正常的工作狀態竟然被巴西視為“奴役”。
+巴西列舉的奴役現象是，護照被雇主扣押，30人睡一屋，共用一個淋浴，睡的木板床沒有床墊。工作強度大，沒有休息。
+比亞迪先是回應與協作方金匠公司解除合同，隨後又指責巴西欲加之罪，何患無辭。
+被“奴役”者本人也一臉懵逼，難道我們的日常生活工作狀態不是勞務工的常態嗎？
+怎麼就奴役了？
+他們還聯名寫了聲明，表明滿意這種工作狀態。
+ CNN揭中國各地狂建218座拘留營(圖
+ 中國民眾歎"年關難過" 官方提前布局春節維穩
+ 川普恐使眾院"中國委員會"喪失作用
+巴西聲稱勞工待遇依據的是巴西法律，在他們眼裡，比亞迪這種待遇就是奴役，他們忘了，那些人是中國人。
+那麼是中方公司不了解巴西法律嗎？有人透露，中方雇傭了470名本地勞工，他們的合同和待遇與中方勞工是不一樣的，那就是說，中方雇主知道巴西法律，只是內外有別，區別對待了。
+只能說，巴西與中國，生活在兩個不同的時空。中國外派勞工的常態，在他們眼裡，就是奴役。
+這個生活狀態，自打中國開始援外項目時，就是如此。
+比如著名的坦贊鐵路工程，坦贊鐵路施工人員來自於鐵道部下屬的不同地方局，最多的是東北局和四川局。鐵路本就是准軍事部門，管理嚴格是常態。
+當年，中國鐵路工人，下船，登上碼頭棧橋，他們統一的藍制服，統一的行李箱，以及整齊的隊伍，就有當地媒體猜測，中國派來修鐵路的是囚犯。
+ 覺得新聞不錯，請點個贊吧      好新聞沒人評論怎麼行，我來說幾句
+ 分享: 	
+上一頁123下一頁
+注：	
+新聞來源於其它媒體，內容不代表本站立場！
+在此頁閱讀全文
+猜您喜歡:
+川普恐使眾院"中國委員會"喪失作用
+CNN揭中國各地狂建218座拘留營(圖
+中國最強縣級市 女市委書記走人
+印度給中國取了個"特色"名字 竟成侮辱性稱呼
+吳亦凡被中國驅逐出境回加還會再判刑?檢察官回答
+張蘭曬孫子後腦勺被汪小菲抱怨,生氣反懟
+《父母愛情》至今10年無人翻拍:靈魂人物已逝,六位演員無法替代
+瓊瑤自傳揭秘:他說"只有我懂你",她等了 16 年
+聖誕老人到哪了 喜慶計算一定要知
+蘭裡地產專家 多年蘭裡地產經驗
+固定年收益7% 最高年化累計收益25% 高回報房地產私募基金（可使用TFSA/RRSP）
+Costco這批雞蛋事大 搞不好會死人
+這著名景點經數月翻修後重新開放
+心碎 聖誕節飛機"被擊落"視頻曝光
+癌症幸存 大溫華裔男平安夜做這事
+2024年十部最佳國產劇排名,《小巷人家》僅排第8,第1名沒爭議
+您可能也喜歡:
+張馨予疑回應老公何捷年薪15萬:價值觀是個好東西
+溫哥華科學館《奇觀》視覺震撼的全新展覽 買一送一優惠迎寒假
+川普就像鄧小平?中國大搞資本主義打敗美國
+揭秘著名演員曾黎的成名經歷與感情生活....
+馬斯克突然語出驚人:美元將一文不值
+一句話澆滅所有人希望 習無德無才令中國陷絕境
+張頌文新劇高開低走,從"叔圈天菜"到油膩大叔,只需要一部劇
+加國夫婦賭城機場遭遇了可怕經歷
+華人父控訴女兒遭踢臉欺凌妻子被罵 校方竟不作為
+溫哥華地產經紀 經驗豐富誠信可靠
+大溫華裔中了大獎 要去亞洲旅行
+溫哥華貸款經紀 解決各類疑難貸款
+沒事別去溫村機場 Boxing Day堵死
+特朗普不斷奚落 小杜終於不再沉默
+缺乏規劃 大溫人口漲到420萬太多
+"加拿大州"減稅60%? 不少人躁動了
+我來說兩句:
+評論:
+安全校驗碼:
+ 請在此處輸入圖片中的數字
+The Captcha image
+  大家正在圍觀
+ 周末大溫超市優惠搶先看 掃貨指南
+ 會玩!特魯多全家在BC這裡滑雪度假
+ 林婉珍和瓊瑤都被騙了,平鑫濤真愛
+ 什麼是超級食物?營養師稱11種多吃
+ 特朗普不斷奚落 小杜終於不再沉默
+ 狗狗走丟1周平安夜自己按門鈴回家
+ 看完《清明上河圖密碼》26集大結
+ 扎心 小杜在BC滑雪被女子伏擊咒罵
+ 大溫房價都超100萬 要備多少銀子
+ 大溫明天50毫米暴雨 BC50厘米大雪
+  同類熱門新聞
+ 林婉珍和瓊瑤都被騙了,平鑫濤真愛
+ 央視明晚開播!28集懸疑武俠大作來
+ 大陸熱帖:只有一個國家例外,中國
+ 薄瓜瓜辯文引出的舊文:薄熙來獲罪
+ 央視出手!佟大為、任素汐主演,被
+ 張蘭人設崩塌?被曝給汪小菲暖房的
+ 態度突然逆轉 她認輸了?中國輿論
+ 蔣介石做客楊森家,見姨太太成群,
+ 川普就像鄧小平?中國大搞資本主義
+ 馬英九從大陸返回台灣,呼吁賴清德
+  隨時閱讀新聞
+加西網微信	
+大溫優惠小紅書
+溫哥華地產中心微信	
+Android: 加西網
+ Terms &amp; Conditions     Privacy Policy     Political ADs     Activities Agreement     Contact Us     Sitemap    
+加西網為北美中文網傳媒集團旗下網站
+頁面生成: 0.0313 秒 and 7 DB Queries in 0.0013 秒
+</t>
+  </si>
+  <si>
+    <t>2024-12-29 15:13:34</t>
+  </si>
+  <si>
+    <t>巴西警方解救了160多名在當地工作的中國勞工，並指控他們遭到「奴役」。  然而，這些中國勞工並未認為自己受到不公平待遇，甚至聯名聲明表示滿意工作狀況。事件的核心在於中方公司對巴西勞工和中國勞工的待遇有所不同，以及中方對巴西法律的理解與巴西方面的認知差異。  文章也藉此點出中國海外勞務派遣的普遍工作環境與西方國家的法律標準之間的衝突。</t>
+  </si>
+  <si>
+    <t>巴西解救160多名中國“奴工”，但勞工本人卻表示滿意工作狀態。巴西指控的“奴役”現象包括護照被扣押、住宿條件差、工作強度大等。比亞迪回應已與合作方解除合同，但被指責內外有別。文章指出，中國外派勞工的常態工作環境與巴西法律認知存在差異，暗示中國海外勞務派遣普遍存在類似情況，並以坦贊鐵路工程為例佐證。</t>
+  </si>
+  <si>
+    <t>巴西、中國、奴工、勞工、比亞迪、外派勞工、護照扣押、住宿條件、工作強度、坦贊鐵路、法律差異、文化差異、人權、國際勞工法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清晰呈現了事件的兩面性：巴西警方的指控和中國勞工的立場。
+用坦贊鐵路工程的例子佐證了中國海外勞務派遣中可能存在的普遍現象。
+引發了對國際勞工法、文化差異和不同社會對勞工權益認知差異的思考。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章立場不夠明確，對中方和巴西雙方的觀點都進行了呈現，缺乏更深入的分析和判斷。
+缺乏具體數據支持，例如關於住宿條件、工作強度的細節描述不夠充分。
+對比亞迪的回應和指控缺乏更深入的調查和證據。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以深入調查比亞迪與合作方的合同內容，以及巴西法律對此類勞務派遣的具體規定。
+可以進一步分析中國海外勞務派遣的管理模式和相關法律法規，探討如何更好地保護中國勞工的權益。
+可以比較不同國家對勞工權益的定義和標準，促進國際勞工權益的協調和統一。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件可能加劇中巴兩國之間的摩擦和誤解。
+可能影響中國企業在巴西的投資和業務發展。
+可能導致國際社會對中國勞工派遣的監管和審查更加嚴格。
+</t>
+  </si>
+  <si>
+    <t>人形機器人更新</t>
+  </si>
+  <si>
+    <t>https://www.bannedbook.org/bnews/zh-tw/baitai/20241229/2134693.html</t>
+  </si>
+  <si>
+    <t>禁闻网特約發布調研紀要，文章內容不知真假，也不代表本網立場和觀點。 市場開始分化，題材輪動加速，高位股開始退潮，整體操作難度上升。如果你對接下來的交易心中沒底，給大家...1 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN|APP
+論壇
+中共禁聞
+要聞
+中國新聞
+台灣新聞
+香港新聞
+時事觀察
+圖片新聞
+禁言博客
+中國人權
+維權上訪
+新公民運動
+民主運動
+新聞評論
+萌圖囧視
+幽默笑話
+社會百態
+國際新聞
+美國新聞
+傳統文化
+修鍊故事
+氣功
+史海鉤沉
+禁播視頻
+世界奧秘
+外星人之謎
+生命奧秘
+超自然現象
+健康養生
+娛樂新聞
+財經新聞
+生活百科
+心情感悟
+體育新聞
+禁聞網
+禁聞網簡體 
+翻牆必看的中共禁聞,禁網新聞,大陸新聞中國新聞解讀評論,禁聞點擊排行榜
+V2ray翻牆一鍵翻牆包
+交流評論、關注點贊
+Youtube Icon站長動態
+Facebook Icon臉書專頁
+telegram Icon翻牆交流電報群
+telegram Icon電報頻道
+RSS訂閱禁聞RSS/FEED訂閱
+禁聞網 &gt; 社會百態 &gt; 正文
+人形機器人更新
+2024年12月29日 16:05 PDF版 分享轉發
+特約發布 調研紀要 ，文章內容不知真假，也不代表本網立場和觀點。
+市場開始分化，題材輪動加速，高位股開始退潮，整體操作難度上升。如果你對接下來的交易心中沒底，給大家推薦一位圈內頂級的盤手——葛老大。
+今年他的收益已經超出想象，近期他在文中提示介入的漂，也是收穫頗豐，交易節點都在公眾號中有據可查，做不得假。強烈建議大家關注老葛，看看他的漂和交易，真誠推薦！
+————
+正文：
+這幾天除了宇樹機器狗，比較值得重視的事情：OpenAI正研發實體智能機器人、市場預期特斯拉會在元旦前發布第三代機器人，而去年也正是在這個時間段發布了Gen2。
+1、人工智慧巨頭OpenAI正式下場自研人形機器人，或將在人形領域掀起新一輪AI革命。此前OpenAI主要以投資Figure、1x等機器人初創公司為主，而近期被曝將自己涉足硬體，親自下場研發實體韌性機器人，11月挖來了Meta機器人團隊負責人Caitlin Kalinowski。作為大語言模型巨頭，OpenAI有望將AI技術與硬體實現強強聯合，或將在機器人領域掀起一場AI革命，新的供應鏈條帶來新的投資機會。
+2、Optimus三代有望在近期發布，新催化漸行漸近。Tesla_Optimus在X發布的最新動態展示了Optimus第二代與第三代的合影，配文「它們成長得很快」，暗示第三代或將在近期發布。此前T更新室外視頻，展示了優秀的平衡能力和動作流暢度、控制精密度，第三代的正式發布或有望帶來新一輪資本市場熱潮。
+3、曼恩斯特子公司與宇樹簽署戰略合作協議，宇樹鏈標的再添新秀、值得重視。近期宇樹科技發布四足機器人B2-W相關視頻，在複雜路況上呈現出了驚人的平穩奔走和彈跳能力，具備水中行走和載人功能，整體表現驚艷、超出市場預期。12月25日曼恩斯特子公司藍方科技與宇樹簽署戰略合作協議，未來可能在靈巧手和關節的電機驅動方面為宇樹提供合作支持。
+整機廠方面關注比亞迪入局具身智能，整車廠人形機器人布局加速。
+1）12月15日，比亞迪發布具身智能研究團隊招聘公告，研究方向包括演算法類深度學習、控制演算法、伺服驅動器和結構類人形、雙足、四足和多模態機械結構等。目前團隊已開發完成工藝機器人、智能協作機器人、智能移動機器人、類人型機器人等。工作地點為深圳、合肥、長沙。
+2）比亞迪投資的#智元機器人宣布開啟通用機器人商用量產，年度計劃累計量產926台。
+3）持續與人形機器人廠商優必選合作工廠全棧式自動化無人物流，在比亞迪工廠中應用優必選的工業人形機器人Walker S1、Wali瓦力工業移動機器人T3000和L4級無人物流車Chitu赤兔作為落地產品。
+【比亞迪人形機器人調研紀要】
+Q：比亞迪進軍人形機器人的起源、設計理念、產品定義以及應用場景等方面可以做個系統的介紹嗎？
+A：比亞迪進軍人形機器人是出於提高智能製造與整體自動化產線的需求，以及通過機器人替代大量重複性工作以解決提高產業高質量發展的問題。目前，比亞迪已經研發出約150台人形機器人應用於汽車產線。
+Q：比亞迪現在的人形機器人整體進展如何？有哪些研發里程碑、時間節點以及內部樣品展示或定型的情況？
+A：比亞迪在人形機器人領域與優必選和智元進行深度合作，不僅投資了相關的優必選和智元，還實現了核心零部件的自主可控生產。目前，比亞迪已投入150台研究機器人在汽車產線上運行。
+Q：這150台機器人具體適用於比亞迪的哪條產線？
+A：這些機器人主要應用於比亞迪的汽車產線。
+Q：到目前為止，比亞迪內部協同機器人項目的部門有哪些？具體的組織架構是怎麼安排的？
+A：比亞迪內部協同機器人項目的主導部門包括中央研究院（工程研究院）、智能製造部分（信息化中心和數據化中心），同時還有各個零部件部門如比亞迪電子、比亞迪半導體等參与合作。其中，比亞迪的信息化部門即智能製造部門是真正主導並運營機器人技術的部門。
+Q：在軟體系統方面，比亞迪是自行研發還是與外部承包商或合作夥伴共同研發？
+A：軟體系統部分是與優必選和資源共同研發，並且會有一些外部企業在協作參与。
+Q：視覺方案方面，比亞迪採取何種合作方式？
+A：視覺方案中，比亞迪大部分組件如鏡頭、模組和激光雷達等是自主組合製造，但相關零部件會採用外購方式。
+Q：機器人上是否使用了六維力感測器？這方面的情況和合作夥伴能否介紹一下？
+A：比亞迪確實使用了六維力感測器，雖然比亞迪自身也在研發，但目前合作夥伴仍然是主要選擇。對於成本問題，比亞迪會在採購環節盡量爭取市場最低價。
+Q：關於觸覺方面，比亞迪目前採用什麼樣的材料或解決方案？
+A：比亞迪在觸覺方面使用的材料主要包括驅動器、行星減速器、空心杯電機、編碼器等部件，構成靈巧手的關節部分。其中，靈巧手的價值量占整個機器人總成的大約20%，如果加上線性關節，則佔比約為38%。    
+Q：減速器這一部分目前我們選用的是哪些類型？
+A：目前我們使用的減速器主要包括諧波和行星減速器。
+Q：在選型方案上，我們是完全按照優必選的方案還是有所調整？
+A：我們會基於優必選的方案，並結合實際應用場景進行一些調整和考量。在推動和執行過程中，會根據車間和產線的具體需求，在標準速度、靈巧程度以及對工作效果的具體要求等方面進行定製化操作。
+Q：首次將機器人投入工廠實際生產是什麼時候？
+A：首次投入工廠進行實際生產是在今年2月份。
+Q：經過了幾輪迭代后，現在滿足量產定型的標準了嗎？
+A：經過了六次迭代，主要是針對不同環節進行優化。第一輪產線測試基本完成，第二輪產品測試的目標是實現機器人替代人工，達到一定效率、成本回收和品控能力的要求。
+Q：這些迭代或節點是針對優必選機器人還是其他企業的產品？
+A：主要是針對優必選、智元、宇樹以及傅利葉這幾家企業的機器人產品。
+Q：目前在比亞迪車間應用的機器人數量和比例大概是怎樣的？
+A：目前共投入了150台機器人，其中優必選的品牌佔了九十多台，且優必選的機器人才真正大規模量產，而其他品牌大多還在樣機或測試階段。
+Q：工廠里的機器人是輪式還是足式？
+A：工廠里的機器人採用的是雙足人形設計，因為工廠環境複雜，需要能夠適應各種工位起起落落的需求。
+Q：絲杠選型的情況如何？
+A：目前使用的是滾珠絲杠，沒有明確計劃轉向滾柱絲杠。
+Q：單根絲杠的成本以及整機成本大概多少？
+A：單根絲杠的成本目前不好估算，因為還處於樣機階段。而整機成本方面，優必選品牌的全能型雙足機器人，在大規模應用時預計成本在8萬到12萬元之間，其他品牌成本相近，但具體數值會根據採購數量和品牌的不同有所差異。
+Q：在智能化控制系統方面，是由優必選主導還是有其他企業參与合作？
+A：目前，我們與優必選共同合作控制系統部分，也會與其他企業的操作系統和大模型進行合作。在優必選機器人方案中，我們會參与其中，優必選負責大模型主導工作，同時也會與其他外部企業協作開發機器人的應用、大模型及操作系統。    
+Q：優必選提供的機器人，在工廠的應用選型是由優必選主導還是工廠主導？
+A：機器人關鍵選型由優必選主導，但在具體應用場景上，是由工廠來主導，即根據工廠的實際需求進行調整和優化。
+Q：工廠與特斯拉在工廠中應用機器人的具體場景和側重點是否存在差異？
+A：目前工廠與特斯拉在工廠中的應用場景基本一致，主要集中在總裝線，因為這部分人力密集，目前自動化率還無法達到100%，需要通過原型機器人替代人工。
+Q：我們與優必選的合作模式與其他合作夥伴（如宇樹、智元、傅利葉）的合作模式有何區別？
+A：與優必選的合作模式相較於宇樹等其他合作夥伴有所不同，我們與優必選和智元等有深度合作，共同開發開放場景，並主要選擇這兩家供應商，而與宇樹等企業的合作更多停留在供應商層面，未達到深度戰略合作夥伴關係。
+Q：優必選除了與我們工廠合作外，是否與其他車企有合作？
+A：優必選確實與其他車企有合作，例如未來上汽、比亞迪等，目前已經在產線上試用了他們的機器人。
+Q：優必選給我們工廠供應的機器人關鍵零部件方案是否已達到量產定型程度？
+A：優必選的關鍵零部件方案目前已經是量產狀態，但由於還在測試階段，尚未進行大批量規模化採購。預計在第二輪測試完成後，明年可能會有約1500台的採購量。
+Q：對於遠期大規模採購的時間線是怎樣的？
+A：我們原計劃今年採購800至1200台機器人，但由於測試尚未完成，可能會推遲至明年採購約1500台。遠期目標是到2026年之前投入2萬台以上機器人到產業上。
+Q：是否存在零部件廠商直接與我們接觸而不通過主機廠商的情況？
+A：目前基本沒有這種情況，大部分零部件廠商是通過主機廠與我們接觸，直接與我們建立聯繫的零部件廠商較少。
+Q：跟蹤比亞迪產業鏈進展時，需要關注哪些重要時間節點或催化因素？
+A：需要關注工廠產線實際測試結果，這將決定整個產業的發展及企業能否獲得大量訂單的關鍵因素。例如比亞迪進入第二輪市場測試，如果測試成功，明年可能會有較大規模的採購量，反之則需重新調整優化。    
+Q：您提到的25年1500台目標，是專門針對優必選還是整個工廠的需求？
+A：這是整個工廠所追求的目標。
+Q：根據當前工廠實際情況和需求判斷，您認為1500台的目標達成概率是多少？
+A：我個人認為這個目標有90%的達成率。
+Q：需求方面有哪些因素制約了向機器人數量的場景拓展？
+A：需求能否達成主要取決於工廠崗位測試結果。例如貼標籤、巡檢及玻璃打膠等環節，需要評估用人與用機器人的成本、效率和損耗。只有當機器人在綜合評估中達到與人相當或超過95%的效率、品質和成本時，才會決定替代人工。目前大部分崗位能達到80%的要求，但要達到90%還有一定困難。
+Q：關於效率和成本的性價比問題，我們有沒有專門的統計口徑來衡量？
+A：對於機器人效率和成本的衡量，確實有專門的統計口徑。製造部門會計算機器人替代人工后每小時能完成多少產品，以及良率等關鍵指標，並基於一套基本計算邏輯來評估性價比。目的是確保機器人替代不會影響原有效率，反而應提升整體效率以降低成本。
+Q：對於優必選、智元等幾家企業的機器人產品成熟度和迭代速度，您如何評價？
+A：從目前看，優必選在產品成熟度和研發能力上表現出色，擁有完整的機器人研發能力，包括感知、執行控制及模型計算演算法等，並且能夠把控和設計所有零部件及生產製造過程。相較於其他企業，優必選在批量生產方面最為優秀。雖然智元和優必選的產品迭代速度相近，但在綜合能力方面，優必選略勝一籌。
+Q：目前在測試中的場景中，哪些場景的測試進展較為成熟且最可能優先使用？
+A：目前汽車板塊的測試進展成熟，尤其是貼車標（包括前後屁股的車標）、車門巡檢、安全帶巡檢以及玻璃窗打膠等崗位，成熟度較高，工作完成程度也較高。最可能優先使用的是簡單重複性的貼標工作，智慧巡檢工作，以及部分協作裝配工作。
+Q：除了剛才提到的場景外，有哪些場景是有困難但想重點突破的？
+A：重點想突破的場景包括車內裝限速、車燈、座椅等，以及底盤裝配如油箱、懸架等部分。這些崗位對技術要求較高，目前尚處於測試階段，尚未完全成熟。
+Q：在測試中，機器人和人的效率對比情況是如何的？
+A：目前，機器人的效率難以達到人的效率，最多只能達到80%。此外，機器人的品控能力和錯誤率也相對較高，尤其是在裝配環節的靈敏度和準確度上不如人。    
+Q：造成機器人目前成熟度不夠的原因是在硬體端還是大腦端？後續迭代主要有哪些方面需要改進？
+A：機器人成熟度不足主要由兩部分組成：軟體和硬體。軟體方面，從感知到控制的執行過程，機器人的反應靈敏程度和感應能力不足，更依賴程序化和數據模型化。硬體方面，包括靈巧手的自由度、手臂的靈活程度以及雙足的穩健性和靈活性等都需要優化改良。
+Q：大規模採購時，合意的價格是多少？是否存在不同規模對應不同價格的階梯式漲價？
+A：如果大規模採購5000台機器人，希望的價格在8萬到10萬之間。若採購量進一步增加到一兩萬或四五萬台，理想價格是8萬塊錢一台。
+Q：激光雷達在機器人中的應用進展如何？對感測器融合的重要性是什麼？
+A：激光雷達在機器人中是有應用的，對於感測器融合來說非常重要，因為感知系統的有效性直接影響到整個機器人的折射系統、控制系統及執行效果。不過，是否採用激光雷達方案還需根據整體機器人設計架構、大模型演算法以及腦晶元控制力等因素綜合考慮。
+Q：在比亞迪一條裝配線上，貼車標和巡檢工人的數量及佔比是多少？
+A：在蘇州工廠的總裝線上，貼車標和巡檢工人大約有150人，占工人總數的佔比約為5%。
+Q：工人的人力成本大約是多少？
+A：每個工人每年的人力成本平均約為15萬，這包括社保、住宿費用等所有相關支出。
+Q：是否會考慮自己組裝生產機器人，以及如果自行生產，預計的自由度數量是多少？
+A：目前不考慮完全自行組裝生產機器人，但會考慮自主生產相關零部件，如電機、關節機構、線性類產品和晶元等。對於自行生產的機器人自由度數量，沒有明確給出具體數字。
+Q：在不同的應用場景下，是否需要研髮針對性的模型，還是可以使用一個大的通用模型？
+A：在通用模型的基礎上，可以根據具體應用場景進行改良和適應，而不是為每個不同的行業或產品重新開發模型。    
+Q：減速器成本佔比多少？
+A：減速器成本大約佔整個人形機器人總成本的25%左右。
+Q：在機器人減重方面，採用的是什麼材料？
+A：採用的減重材料主要包括鋁鎂合金為主。
+Q：鋁鎂合金外殼在機器人BOM成本中佔比較大嗎？
+A：鋁鎂合金外殼占整個機器人BOM成本的比例基本控制在10%左右。
+Q：與優必選、傅利葉、宇樹等合作廠商在採購行星滾珠絲杠方面的合作模式是否相同，以及他們之間的差異是什麼？
+A：目前主要是以購買的方式合作，價格問題是個別差異，暫無考慮採用租賃方式合作。
+Q：對於未來與這些廠商的合作模式是否會轉變為租賃方式？
+A：對於量大的話可能會考慮租賃方式，但目前暫時不會考慮。
+Q：在接下來的發展中，各家在成本下降方面的進度如何？
+A：各家在成本下降方面的進度不一，其中宇樹較為激進，目標是實現10萬級以上的成本控制。
+Q：對於人形機器人的未來發展，特別是2025年是一個關鍵節點，對此有何看法？
+A：2025年是一個非常關鍵的一年，能否實現大規模使用將取決於頭部企業的投入和應用情況。比亞迪堅定投入智能製造和智能化工廠建設，並計劃在未來幾年內投入數千台人形機器人到產線上應用，首先會在汽車埠開始使用。整個行業能否發展起來，關鍵還是要看頭部企業對使用人形機器人的堅定選擇。    
+——————-
+從2017年開始每年12月份都會出跨年妖股，這也是改變你今年收益的關鍵，強烈建議大家去關注葛老大這種妖股獵手，即便是不抄作業，也能學習他選股的思路。
+OpenAI 已討論開發一款人形機器人
+中國首個「開源」人形機器人令人驚喜
+英偉達尋求在台灣建立人形機器人供應鏈
+首件AI人形機器人繪畫 108萬美元賣出
+馬斯克人形機器人發布會 機器人走路姿勢很奇怪 很像一個人
+🔥華人必看：中華文化的颶風 幸福感無法描述
+🔥解鎖ChatGPT|全平台高速翻牆:高清視頻秒開,超低延遲
+🔥免費PC翻牆、安卓VPN翻牆APP
+🔥治國大道：修身、齊家、管理、治國的大智慧
+​
+站長動態，轉發分享↓Follow Us 責任編輯：林遠翔
+熱門禁書
+九評共產黨、解體黨文化、漫談黨文化
+起底共產黨叢書、魔鬼在統治著我們的世界
+馬克思的成魔之路、共產主義的終極目的
+科學與宗教、中華文化、治國大道
+本文標籤：OpenAI, 中央研究院, 人形機器人, 感測器, 操作系統, 智能機器人, 機器人, 比亞迪, 特斯拉
+</t>
+  </si>
+  <si>
+    <t>2024-12-29 17:08:05</t>
+  </si>
+  <si>
+    <t>本文報導了人形機器人領域的最新發展趨勢，包括OpenAI研發實體智能機器人、特斯拉預計發布第三代機器人Optimus、宇樹科技與曼恩斯特子公司合作，以及比亞迪進軍人形機器人領域的相關細節。文章詳細介紹了比亞迪在人形機器人方面的研發進展、應用場景、合作夥伴以及未來規劃，並通過問答的形式呈現了比亞迪內部對人形機器人項目的詳細調研紀要。</t>
+  </si>
+  <si>
+    <t>這幾天除了宇樹機器狗，比較值得重視的事情：OpenAI正研發實體智能機器人、市場預期特斯拉會在元旦前發布第三代機器人…Tesla_Optimus在X發布的最新動態展示了Optimus第二代與第三代的合影…12月25日曼恩斯特子公司藍方科技與宇樹簽署戰略合作協議…比亞迪發布具身智能研究團隊招聘公告…比亞迪投資的#智元機器人宣布開啟通用機器人商用量產，年度計劃累計量產926台…目前，比亞迪已經研發出約150台人形機器人應用於汽車產線。</t>
+  </si>
+  <si>
+    <t>OpenAI、特斯拉、Optimus、宇樹科技、曼恩斯特、比亞迪、人形機器人、具身智能、智元機器人、優必選、AI革命、機器人應用、量產、產業鏈、自動化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">報導內容涵蓋了人形機器人領域的最新進展和重要事件，信息量豐富。
+包含了比亞迪內部調研紀要，提供了更深入的產業信息和獨家觀點。
+文章結構清晰，邏輯順暢，易於閱讀理解。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章包含一些推測和預期，例如特斯拉發布時間和比亞迪的量產目標，缺乏確鑿證據支持。
+調研紀要的真實性和完整性無法完全驗證。
+文章中穿插了非新聞內容，例如推薦投資者。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以深入探討人形機器人產業的發展前景、技術瓶頸和市場挑戰。
+可以分析不同企業在人形機器人領域的競爭優勢和策略。
+可以結合政策、資金、人才等因素，對人形機器人產業的未來發展做出更全面的預測。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人形機器人產業發展存在較大的不確定性，技術突破和市場需求可能影響產業發展。
+競爭日益激烈，企業需要持續創新才能保持競爭力。
+政策和監管環境的變化也可能對產業發展造成影響。
+</t>
+  </si>
+  <si>
+    <t>12月29日 6點重點新聞30分鐘</t>
+  </si>
+  <si>
+    <t>https://www.soundofhope.org/post/860211?lang=b5</t>
+  </si>
+  <si>
+    <t>希望之声中共統計局調整GDP統計方式學者指出：為編造今年數據做準備； 中國各地醫院爆滿民眾說與三年疫情大爆發不相上下； 市場需求疲軟國內工業企業利潤繼續下滑； 四川閬中肉鋪...10 小時前</t>
+  </si>
+  <si>
+    <t>soh logo
+12月29日 6點重點新聞30分鐘
+16kbps下載128kbps下載
+每日新聞時段169
+首頁
+廣播
+新聞
+每日新聞時段
+12月29日 6點重點新聞30分鐘
+李颂2024.12.28 14:38中共統計局調整GDP統計方式編造數據醫院爆滿疫情爆發中共隱瞞真相跨年夜公共場所群聚活動美國媒體川普對華鷹派團隊美中關係經濟衰退市場需求萎縮工業企業利潤下滑流亡作家慕容雪村離亂陝西原油泄漏污染問題河南幼兒園新生兒出生率下降倒閉潮四川大規模抗議事件吳柳芳美國傑出人才簽證美國華人抖音賬號俄羅斯超市假貨中國產巴西比亞迪人口販運中國電動車朝鮮軍隊俄烏戰爭傷亡慘重俄羅斯日本財年預算防衛預算越南風力發電塔征反傾銷稅
+【希望之聲2024年12月28日】（本台記者李颂綜合報導）
+中共統計局調整GDP統計方式 學者指出：為編造今年數據做準備；
+中國各地醫院爆滿 民眾說與三年疫情大爆發不相上下；
+市場需求疲軟 國內工業企業利潤繼續下滑；
+四川閬中肉鋪老闆打人引發抗議 警民爆衝突；
+比亞迪巴西建廠被爆奴工醜聞 中共宣布調查巴西牛肉進口；
+責任編輯：中国广播
+拒絕謊言 堅守正義 承受苦難 呼喚良知
+支持良心媒體 捐助希望之聲
+歡迎訂閱希望之聲電子報，我們會每天精選最精彩內容為您呈現
+輸入您的電子郵件
+相關文章
+更多 &gt;
+12月29日 6點重點新聞30分鐘
+30:42
+每日新聞時段169
+越來越不對勁！中共認為 明年或爆大動亂 最新動向：習確已失軍權？奴工被曝光 巴西停止向比亞迪發放簽證【紅朝禁聞】
+18:521
+12月29日 1點整點新聞10分鐘
+10:0615
+每日新聞時段169
+【老北京茶館】1305關鍵時刻，王滬寧給八炯送四大證據！“狂悖帝”習近平獲頒【罪己詔】，全民辱包；吳柳芳600萬粉絲被黨剿滅，羊毛月傻了
+26:11110
+1305
+【老北京茶館】王滬寧給八炯送證據！習獲頒【罪己詔】
+26:1025
+【視頻】「邊境沙皇」演講超震撼! 美最大非法移民驅逐第一天從芝加哥開始
+49
+霍曼
+同類文章
+更多 &gt;
+12月28日19點整點新聞10分鐘
+10:5127
+每日新聞時段169
+12月28日18點重點新聞30分鐘
+29:1354
+每日新聞時段
+12月28日13點整點新聞10分鐘
+10:2918
+每日新聞時段
+12月28日12點重點新聞30分鐘
+29:4160
+每日新聞時段
+最新文章
+更多 &gt;
+【加拿大熱點新聞】加拿大知名會計公司突然關閉600人將失業
+7:367
+加拿大熱點新聞
+【老北京茶館】1305關鍵時刻，王滬寧給八炯送四大證據！“狂悖帝”習近平獲頒【罪己詔】，全民辱包；吳柳芳600萬粉絲被黨剿滅，羊毛月傻了
+26:11124
+1305
+寵物狗籠養的好處
+31:1424
+狗狗。（Photo AC）
+殖利率飆升美股收跌/分析師怎麼看聖誕行情消失？/2024對衝基金最愛阿根廷
+52:2719
+233
+【江峰漫談】中共神秘戰機亮相，小粉紅斷定「第六代」，然而真相竟是......講好中美故事、中日簽證放開，是最高領導人想法變了，還是領導人變了？
+24:30532
+Jimt20241227
+【天亮時分】政治局會議一張照片，透露習近平權力現狀；習近平痛斥王毅；馬斯克吵架，H1-B簽證是否該敞開發放？（政論天下第1494集 20241227）
+31:51916
+政治局會議一張照片，透露習近平權力現狀；習近平痛斥王毅；馬斯克吵架，H1-B簽證是否該敞開發放？（政論天下第1494集 20241227）天亮時分
+【今日點擊】柯文哲涉收賄及公益侵佔 遭台北地檢署起訴
+12:35551
+今日點擊
+【加拿大熱點新聞】公民遭港府通緝 加拿大重申廢除香港國安法
+7:0758
+加拿大熱點新聞
+冬季心臟容易發生問題，中醫如何保養心臟？
+35:4954
+老人保健問題。（Photo AC）
+加州租房新法即將上路！Fremont開放可負擔房屋申請
+15:4015
+美國舊金山。（REUTERS）
+中國廣播台
+美國聯播網
+粵語台
+热门文章
+更多 &gt;
+【老北京茶館】1198三中全會出事？習近平摔倒中風是真事還是反習派信息戰？川普戰勝刺客引中國某A股漲停，李強被奪權，蔡奇急了！
+24:527171
+1198
+【江峰漫談】北京醫院系統瘋傳，習近平患胰腺癌？A股“暴漲”的短命和危害；哈馬斯擁大量中共武器，以色列摩薩德：中共完全走上反以立場；共軍提「臺灣當歸」，網民回懟：快點行動！
+21:046356
+jf20240125
+《穿透陰霾的舞蹈》序章
+15:095101
+穿透陰霾的舞蹈 序章
+【江峰漫談】習近平被封「中國首席經濟學家」親自指導中國告別「2字頭」利息，逼百姓取錢消費；再邀美國高管訪華同時推出保密法新則；廣州會見烏克蘭外長，“出賣台灣”是真的麼？
+25:054976
+江峰20240725
+【歷史上的今天】千島湖世紀大案成“統獨”民意轉變分水嶺，紅二代副省長撒謊獲高升，虐殺美國傳教士的老紅軍父親是習近平的“前任”，；侯友宜刑偵生涯曾直面中共邪惡，會長記性麼？
+23:023167
+江峰歷史上的今天20240112
+穿透陰霾的舞蹈 11 - 大饑荒
+23:263111
+穿透陰霾的舞蹈11
+【天亮時分】突發：伊朗總統墜機身亡！摩薩德？天氣？內鬥？ 又一中央委員落馬，中國糧食安全問題引關注；福州高官聚眾淫亂被曝光，蔡奇與李強內鬥的延申？（政論天下第1309集 20240519）
+30:403000
+突發：伊朗總統墜機身亡！摩薩德？天氣？內鬥？ 又一中央委員落馬，中國糧食安全問題引關注；福州高官聚眾淫亂被曝光，蔡奇與李強內鬥的延申？（政論天下第1309集 20240519）天亮時分
+【江峰漫談】摧毀普京地堡，傳朝鮮將軍被滅；普京憤怒回應竟然是AI製作，出什麼事了？究竟是否洲際導彈？俄軍導彈報復，卻不裝彈頭！
+22:152863
+jfmt20241122
+亞當斯被控5罪，官邸被搜，到底怎麼了？！？ ｜方偉時間 09.26.2024
+24:342796
+亞當斯被控5罪，官邸被搜，到底怎麼了？！？ ｜方偉時間 09.26.2024
+【天亮時分】疑似和團派妥協，習近平二十一大交班？網傳王岐山被軟禁（政論天下第1428集 20241013）
+1:02:512769
+疑似和團派妥協，習近平二十一大交班？網傳王岐山被軟禁（政論天下第1428集 20241013）天亮時分
+最热文章
+更多 &gt;
+法輪功創始人李洪志大師發表《為甚麼會有人類》
+58155
+法輪功創始人李洪志大師發表《為什麼會有人類》
+網傳中共國安叛逃官員曝光習明澤真容 身後歐美面孔男子是誰？
+45954
+左圖為網傳中共國安副廳級叛逃官員爆料的習明澤照片，右圖為香港明報刊登的習明澤照片（網絡圖片合成）
+習近平出事傳聞越來越火！ 張又俠現不尋常舉動
+43864
+傳習近平像遭撤下
+後習時代誰接班？ 傳習父女不合 反叛女兒要還政於民？
+13:0442402
+杜文披露李克強為何不得不死 及習李之間的矛盾
+40315
+習近平，李克強
+習李暗鬥十年 習近平為何痛恨李克強 李為何不得不消失 更多猛料流出
+16:3238666
+習近平痛恨李克強，李克強必須得S？（圖片：希望視界）
+出啥大事？三中全會前夕 網傳中共軍隊突然包圍北京部隊家屬大院視頻
+35880
+三種全會前夕 網傳北京香山南路87號軍隊家屬大院成軍事管制區（網絡視頻截圖）
+神秘兒子要登大位？習近平的影子胞弟習遠平履歷遭封殺 讚賞資本主義
+18:0435024
+神秘兒子要登大位？習近平的影子胞弟習遠平履歷遭封殺 讚賞資本主義 
+習近平最新內部講話熱傳 內容驚悚 重點是兩件事
+14:4133781
+習近平出事傳聞越來越玄乎 軍中紅二代暗示：將有最驚爆大事發生 天安門廣場再度戒嚴？
+9:0933028
+繼中共三中全會會議期間傳出習近平腦中風的傳言後，再有關於習近平被軍委副主席張又俠軟禁的消息7月22日在網絡上流傳。（網絡截圖）
+ABOUT US關於我們聯繫我們加入我們服務條款隐私权政策授權許可版權聲明破網指南
+短波收聽無界動態明慧網明慧電台神韻藝術團全球退黨服務中心追查國際大紀元新唐人電視台干净世界正見網
+希望之聲捐車網希望之聲灣區生活台日本台粵語台 歐洲希望之聲澳洲生活台
+下載 App
+Copyright © 2002-2023 Sound of Hope Radio Network.
+All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>2024-12-29 17:08:35</t>
+  </si>
+  <si>
+    <t>希望之聲電台報導了多項國際和中國內部新聞，內容涵蓋：中共統計局調整GDP統計方式引發外界質疑數據造假；中國各地醫院爆滿，疫情狀況嚴峻；中國市場需求疲軟，工業企業利潤持續下滑；四川發生警民衝突；比亞迪巴西建廠爆出奴工醜聞；以及其他國際事件，例如俄烏戰爭、美國政治等。  報導中也提及了關於中共內部權力鬥爭和領導人健康狀況的傳聞。</t>
+  </si>
+  <si>
+    <t>中共統計局調整GDP統計方式，學者指出為編造數據做準備；中國各地醫院爆滿，民眾說與三年疫情大爆發不相上下；市場需求疲軟，國內工業企業利潤繼續下滑；四川閬中肉鋪老闆打人引發抗議，警民爆衝突；比亞迪巴西建廠被爆奴工醜聞，中共宣布調查巴西牛肉進口。</t>
+  </si>
+  <si>
+    <t>中共、GDP、數據造假、醫院爆滿、疫情、市場需求疲軟、工業企業利潤下滑、四川抗議、警民衝突、比亞迪、巴西、奴工醜聞、俄烏戰爭、美國政治、權力鬥爭、習近平、健康狀況</t>
+  </si>
+  <si>
+    <t xml:space="preserve">涵蓋多個重要議題，資訊量豐富。
+報導內容涉及政治、經濟、社會等多個層面。
+報導及時，反映了當前國際和中國的熱點事件。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞來源單一，缺乏其他媒體佐證，可信度有待考量。
+部分內容為傳聞，缺乏確鑿證據。
+報導風格偏向負面，缺乏客觀分析。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可增加更多新聞來源，提升報導的可信度。
+可增加數據分析和專家評論，提升報導的深度。
+可調整報導風格，力求更客觀公正。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資訊真偽難以辨別，可能造成誤導。
+報導可能引起政治爭議。
+缺乏事實查證，可能面臨法律風險。
+</t>
+  </si>
 </sst>
 </file>
 
@@ -31340,7 +36150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S578"/>
+  <dimension ref="A1:S638"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -65448,6 +70258,3546 @@
         <v>35</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" t="s" s="0">
+        <v>5815</v>
+      </c>
+      <c r="B579" t="s" s="0">
+        <v>5816</v>
+      </c>
+      <c r="C579" t="s" s="0">
+        <v>5817</v>
+      </c>
+      <c r="D579" t="s" s="0">
+        <v>5818</v>
+      </c>
+      <c r="E579" t="s" s="0">
+        <v>5819</v>
+      </c>
+      <c r="F579" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G579" t="s" s="0">
+        <v>5820</v>
+      </c>
+      <c r="H579" t="s" s="0">
+        <v>5821</v>
+      </c>
+      <c r="I579" t="s" s="0">
+        <v>5822</v>
+      </c>
+      <c r="J579" t="s" s="0">
+        <v>5823</v>
+      </c>
+      <c r="K579" t="s" s="0">
+        <v>5824</v>
+      </c>
+      <c r="L579" t="s" s="0">
+        <v>5825</v>
+      </c>
+      <c r="M579" t="s" s="0">
+        <v>5826</v>
+      </c>
+      <c r="N579" t="s" s="0">
+        <v>2782</v>
+      </c>
+      <c r="O579" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P579" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q579" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R579" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="S579" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="0">
+        <v>5827</v>
+      </c>
+      <c r="B580" t="s" s="0">
+        <v>5828</v>
+      </c>
+      <c r="C580" t="s" s="0">
+        <v>5829</v>
+      </c>
+      <c r="D580" t="s" s="0">
+        <v>5830</v>
+      </c>
+      <c r="E580" t="s" s="0">
+        <v>5831</v>
+      </c>
+      <c r="F580" t="s" s="0">
+        <v>5561</v>
+      </c>
+      <c r="G580" t="s" s="0">
+        <v>5832</v>
+      </c>
+      <c r="H580" t="s" s="0">
+        <v>5833</v>
+      </c>
+      <c r="I580" t="s" s="0">
+        <v>5834</v>
+      </c>
+      <c r="J580" t="s" s="0">
+        <v>5835</v>
+      </c>
+      <c r="K580" t="s" s="0">
+        <v>5836</v>
+      </c>
+      <c r="L580" t="s" s="0">
+        <v>5837</v>
+      </c>
+      <c r="M580" t="s" s="0">
+        <v>5838</v>
+      </c>
+      <c r="N580" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="O580" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="P580" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="Q580" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="R580" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S580" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="0">
+        <v>5839</v>
+      </c>
+      <c r="B581" t="s" s="0">
+        <v>5840</v>
+      </c>
+      <c r="C581" t="s" s="0">
+        <v>5841</v>
+      </c>
+      <c r="D581" t="s" s="0">
+        <v>5842</v>
+      </c>
+      <c r="E581" t="s" s="0">
+        <v>5843</v>
+      </c>
+      <c r="F581" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G581" t="s" s="0">
+        <v>5844</v>
+      </c>
+      <c r="H581" t="s" s="0">
+        <v>5845</v>
+      </c>
+      <c r="I581" t="s" s="0">
+        <v>5846</v>
+      </c>
+      <c r="J581" t="s" s="0">
+        <v>5847</v>
+      </c>
+      <c r="K581" t="s" s="0">
+        <v>5848</v>
+      </c>
+      <c r="L581" t="s" s="0">
+        <v>5849</v>
+      </c>
+      <c r="M581" t="s" s="0">
+        <v>5850</v>
+      </c>
+      <c r="N581" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O581" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P581" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q581" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R581" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S581" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="0">
+        <v>5851</v>
+      </c>
+      <c r="B582" t="s" s="0">
+        <v>5852</v>
+      </c>
+      <c r="C582" t="s" s="0">
+        <v>5853</v>
+      </c>
+      <c r="D582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E582" t="s" s="0">
+        <v>5854</v>
+      </c>
+      <c r="F582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="K582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="L582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="M582" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="N582" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="O582" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P582" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q582" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="R582" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S582" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="0">
+        <v>5855</v>
+      </c>
+      <c r="B583" t="s" s="0">
+        <v>5856</v>
+      </c>
+      <c r="C583" t="s" s="0">
+        <v>5857</v>
+      </c>
+      <c r="D583" t="s" s="0">
+        <v>5858</v>
+      </c>
+      <c r="E583" t="s" s="0">
+        <v>5859</v>
+      </c>
+      <c r="F583" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G583" t="s" s="0">
+        <v>5860</v>
+      </c>
+      <c r="H583" t="s" s="0">
+        <v>5861</v>
+      </c>
+      <c r="I583" t="s" s="0">
+        <v>5862</v>
+      </c>
+      <c r="J583" t="s" s="0">
+        <v>5863</v>
+      </c>
+      <c r="K583" t="s" s="0">
+        <v>5864</v>
+      </c>
+      <c r="L583" t="s" s="0">
+        <v>5865</v>
+      </c>
+      <c r="M583" t="s" s="0">
+        <v>5866</v>
+      </c>
+      <c r="N583" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="O583" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P583" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q583" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R583" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="S583" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="0">
+        <v>5867</v>
+      </c>
+      <c r="B584" t="s" s="0">
+        <v>5868</v>
+      </c>
+      <c r="C584" t="s" s="0">
+        <v>5869</v>
+      </c>
+      <c r="D584" t="s" s="0">
+        <v>5870</v>
+      </c>
+      <c r="E584" t="s" s="0">
+        <v>5871</v>
+      </c>
+      <c r="F584" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G584" t="s" s="0">
+        <v>5872</v>
+      </c>
+      <c r="H584" t="s" s="0">
+        <v>5873</v>
+      </c>
+      <c r="I584" t="s" s="0">
+        <v>5874</v>
+      </c>
+      <c r="J584" t="s" s="0">
+        <v>5875</v>
+      </c>
+      <c r="K584" t="s" s="0">
+        <v>5876</v>
+      </c>
+      <c r="L584" t="s" s="0">
+        <v>5877</v>
+      </c>
+      <c r="M584" t="s" s="0">
+        <v>5878</v>
+      </c>
+      <c r="N584" t="s" s="0">
+        <v>4130</v>
+      </c>
+      <c r="O584" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P584" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q584" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R584" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="S584" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="0">
+        <v>5879</v>
+      </c>
+      <c r="B585" t="s" s="0">
+        <v>5880</v>
+      </c>
+      <c r="C585" t="s" s="0">
+        <v>5881</v>
+      </c>
+      <c r="D585" t="s" s="0">
+        <v>5882</v>
+      </c>
+      <c r="E585" t="s" s="0">
+        <v>5883</v>
+      </c>
+      <c r="F585" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G585" t="s" s="0">
+        <v>5884</v>
+      </c>
+      <c r="H585" t="s" s="0">
+        <v>5885</v>
+      </c>
+      <c r="I585" t="s" s="0">
+        <v>5886</v>
+      </c>
+      <c r="J585" t="s" s="0">
+        <v>5887</v>
+      </c>
+      <c r="K585" t="s" s="0">
+        <v>5888</v>
+      </c>
+      <c r="L585" t="s" s="0">
+        <v>5889</v>
+      </c>
+      <c r="M585" t="s" s="0">
+        <v>5890</v>
+      </c>
+      <c r="N585" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="O585" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P585" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q585" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R585" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="S585" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="0">
+        <v>5891</v>
+      </c>
+      <c r="B586" t="s" s="0">
+        <v>5892</v>
+      </c>
+      <c r="C586" t="s" s="0">
+        <v>5893</v>
+      </c>
+      <c r="D586" t="s" s="0">
+        <v>5894</v>
+      </c>
+      <c r="E586" t="s" s="0">
+        <v>5895</v>
+      </c>
+      <c r="F586" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G586" t="s" s="0">
+        <v>5896</v>
+      </c>
+      <c r="H586" t="s" s="0">
+        <v>5897</v>
+      </c>
+      <c r="I586" t="s" s="0">
+        <v>5898</v>
+      </c>
+      <c r="J586" t="s" s="0">
+        <v>5899</v>
+      </c>
+      <c r="K586" t="s" s="0">
+        <v>5900</v>
+      </c>
+      <c r="L586" t="s" s="0">
+        <v>5901</v>
+      </c>
+      <c r="M586" t="s" s="0">
+        <v>5902</v>
+      </c>
+      <c r="N586" t="s" s="0">
+        <v>4130</v>
+      </c>
+      <c r="O586" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P586" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q586" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R586" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="S586" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="0">
+        <v>5903</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>5904</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>5905</v>
+      </c>
+      <c r="D587" t="s" s="0">
+        <v>5906</v>
+      </c>
+      <c r="E587" t="s" s="0">
+        <v>5907</v>
+      </c>
+      <c r="F587" t="s" s="0">
+        <v>4423</v>
+      </c>
+      <c r="G587" t="s" s="0">
+        <v>5908</v>
+      </c>
+      <c r="H587" t="s" s="0">
+        <v>5909</v>
+      </c>
+      <c r="I587" t="s" s="0">
+        <v>5910</v>
+      </c>
+      <c r="J587" t="s" s="0">
+        <v>5911</v>
+      </c>
+      <c r="K587" t="s" s="0">
+        <v>5912</v>
+      </c>
+      <c r="L587" t="s" s="0">
+        <v>5913</v>
+      </c>
+      <c r="M587" t="s" s="0">
+        <v>5914</v>
+      </c>
+      <c r="N587" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="O587" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P587" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q587" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R587" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S587" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="0">
+        <v>5915</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>5916</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>5917</v>
+      </c>
+      <c r="D588" t="s" s="0">
+        <v>5918</v>
+      </c>
+      <c r="E588" t="s" s="0">
+        <v>5919</v>
+      </c>
+      <c r="F588" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G588" t="s" s="0">
+        <v>5920</v>
+      </c>
+      <c r="H588" t="s" s="0">
+        <v>5921</v>
+      </c>
+      <c r="I588" t="s" s="0">
+        <v>5922</v>
+      </c>
+      <c r="J588" t="s" s="0">
+        <v>5923</v>
+      </c>
+      <c r="K588" t="s" s="0">
+        <v>5924</v>
+      </c>
+      <c r="L588" t="s" s="0">
+        <v>5925</v>
+      </c>
+      <c r="M588" t="s" s="0">
+        <v>5926</v>
+      </c>
+      <c r="N588" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="O588" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P588" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q588" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R588" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="S588" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="0">
+        <v>5927</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>5928</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>5929</v>
+      </c>
+      <c r="D589" t="s" s="0">
+        <v>5930</v>
+      </c>
+      <c r="E589" t="s" s="0">
+        <v>5931</v>
+      </c>
+      <c r="F589" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G589" t="s" s="0">
+        <v>5932</v>
+      </c>
+      <c r="H589" t="s" s="0">
+        <v>5933</v>
+      </c>
+      <c r="I589" t="s" s="0">
+        <v>5934</v>
+      </c>
+      <c r="J589" t="s" s="0">
+        <v>5935</v>
+      </c>
+      <c r="K589" t="s" s="0">
+        <v>5936</v>
+      </c>
+      <c r="L589" t="s" s="0">
+        <v>5937</v>
+      </c>
+      <c r="M589" t="s" s="0">
+        <v>5938</v>
+      </c>
+      <c r="N589" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="O589" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P589" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q589" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R589" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S589" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="0">
+        <v>5939</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>5940</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>5941</v>
+      </c>
+      <c r="D590" t="s" s="0">
+        <v>5942</v>
+      </c>
+      <c r="E590" t="s" s="0">
+        <v>5943</v>
+      </c>
+      <c r="F590" t="s" s="0">
+        <v>4423</v>
+      </c>
+      <c r="G590" t="s" s="0">
+        <v>5944</v>
+      </c>
+      <c r="H590" t="s" s="0">
+        <v>5945</v>
+      </c>
+      <c r="I590" t="s" s="0">
+        <v>5946</v>
+      </c>
+      <c r="J590" t="s" s="0">
+        <v>5947</v>
+      </c>
+      <c r="K590" t="s" s="0">
+        <v>5948</v>
+      </c>
+      <c r="L590" t="s" s="0">
+        <v>5949</v>
+      </c>
+      <c r="M590" t="s" s="0">
+        <v>5950</v>
+      </c>
+      <c r="N590" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="O590" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P590" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q590" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R590" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="S590" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="0">
+        <v>5951</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>5952</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>5953</v>
+      </c>
+      <c r="D591" t="s" s="0">
+        <v>5954</v>
+      </c>
+      <c r="E591" t="s" s="0">
+        <v>5955</v>
+      </c>
+      <c r="F591" t="s" s="0">
+        <v>1758</v>
+      </c>
+      <c r="G591" t="s" s="0">
+        <v>5956</v>
+      </c>
+      <c r="H591" t="s" s="0">
+        <v>5957</v>
+      </c>
+      <c r="I591" t="s" s="0">
+        <v>5958</v>
+      </c>
+      <c r="J591" t="s" s="0">
+        <v>5959</v>
+      </c>
+      <c r="K591" t="s" s="0">
+        <v>5960</v>
+      </c>
+      <c r="L591" t="s" s="0">
+        <v>5961</v>
+      </c>
+      <c r="M591" t="s" s="0">
+        <v>5962</v>
+      </c>
+      <c r="N591" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="O591" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P591" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q591" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R591" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="S591" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="0">
+        <v>5963</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>5964</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>5965</v>
+      </c>
+      <c r="D592" t="s" s="0">
+        <v>5966</v>
+      </c>
+      <c r="E592" t="s" s="0">
+        <v>5967</v>
+      </c>
+      <c r="F592" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G592" t="s" s="0">
+        <v>5968</v>
+      </c>
+      <c r="H592" t="s" s="0">
+        <v>5969</v>
+      </c>
+      <c r="I592" t="s" s="0">
+        <v>5970</v>
+      </c>
+      <c r="J592" t="s" s="0">
+        <v>5971</v>
+      </c>
+      <c r="K592" t="s" s="0">
+        <v>5972</v>
+      </c>
+      <c r="L592" t="s" s="0">
+        <v>5973</v>
+      </c>
+      <c r="M592" t="s" s="0">
+        <v>5974</v>
+      </c>
+      <c r="N592" t="s" s="0">
+        <v>1972</v>
+      </c>
+      <c r="O592" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P592" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q592" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R592" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="S592" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="0">
+        <v>5975</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>5976</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>5977</v>
+      </c>
+      <c r="D593" t="s" s="0">
+        <v>5978</v>
+      </c>
+      <c r="E593" t="s" s="0">
+        <v>5979</v>
+      </c>
+      <c r="F593" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G593" t="s" s="0">
+        <v>5980</v>
+      </c>
+      <c r="H593" t="s" s="0">
+        <v>5981</v>
+      </c>
+      <c r="I593" t="s" s="0">
+        <v>5982</v>
+      </c>
+      <c r="J593" t="s" s="0">
+        <v>5983</v>
+      </c>
+      <c r="K593" t="s" s="0">
+        <v>5984</v>
+      </c>
+      <c r="L593" t="s" s="0">
+        <v>5985</v>
+      </c>
+      <c r="M593" t="s" s="0">
+        <v>5986</v>
+      </c>
+      <c r="N593" t="s" s="0">
+        <v>5987</v>
+      </c>
+      <c r="O593" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="P593" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q593" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R593" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="S593" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="0">
+        <v>5988</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>5989</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>5990</v>
+      </c>
+      <c r="D594" t="s" s="0">
+        <v>5991</v>
+      </c>
+      <c r="E594" t="s" s="0">
+        <v>5992</v>
+      </c>
+      <c r="F594" t="s" s="0">
+        <v>2032</v>
+      </c>
+      <c r="G594" t="s" s="0">
+        <v>5993</v>
+      </c>
+      <c r="H594" t="s" s="0">
+        <v>5994</v>
+      </c>
+      <c r="I594" t="s" s="0">
+        <v>5995</v>
+      </c>
+      <c r="J594" t="s" s="0">
+        <v>5996</v>
+      </c>
+      <c r="K594" t="s" s="0">
+        <v>5997</v>
+      </c>
+      <c r="L594" t="s" s="0">
+        <v>5998</v>
+      </c>
+      <c r="M594" t="s" s="0">
+        <v>5999</v>
+      </c>
+      <c r="N594" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O594" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P594" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q594" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R594" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S594" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="0">
+        <v>6000</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>6001</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>6002</v>
+      </c>
+      <c r="D595" t="s" s="0">
+        <v>6003</v>
+      </c>
+      <c r="E595" t="s" s="0">
+        <v>6004</v>
+      </c>
+      <c r="F595" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G595" t="s" s="0">
+        <v>6005</v>
+      </c>
+      <c r="H595" t="s" s="0">
+        <v>6006</v>
+      </c>
+      <c r="I595" t="s" s="0">
+        <v>6007</v>
+      </c>
+      <c r="J595" t="s" s="0">
+        <v>6008</v>
+      </c>
+      <c r="K595" t="s" s="0">
+        <v>6009</v>
+      </c>
+      <c r="L595" t="s" s="0">
+        <v>6010</v>
+      </c>
+      <c r="M595" t="s" s="0">
+        <v>6011</v>
+      </c>
+      <c r="N595" t="s" s="0">
+        <v>1972</v>
+      </c>
+      <c r="O595" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P595" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q595" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R595" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="S595" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="0">
+        <v>6012</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>6013</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>6014</v>
+      </c>
+      <c r="D596" t="s" s="0">
+        <v>6015</v>
+      </c>
+      <c r="E596" t="s" s="0">
+        <v>6016</v>
+      </c>
+      <c r="F596" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G596" t="s" s="0">
+        <v>6017</v>
+      </c>
+      <c r="H596" t="s" s="0">
+        <v>6018</v>
+      </c>
+      <c r="I596" t="s" s="0">
+        <v>6019</v>
+      </c>
+      <c r="J596" t="s" s="0">
+        <v>6020</v>
+      </c>
+      <c r="K596" t="s" s="0">
+        <v>6021</v>
+      </c>
+      <c r="L596" t="s" s="0">
+        <v>6022</v>
+      </c>
+      <c r="M596" t="s" s="0">
+        <v>6023</v>
+      </c>
+      <c r="N596" t="s" s="0">
+        <v>1077</v>
+      </c>
+      <c r="O596" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P596" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q596" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R596" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="S596" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="0">
+        <v>6024</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>6025</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>6026</v>
+      </c>
+      <c r="D597" t="s" s="0">
+        <v>6027</v>
+      </c>
+      <c r="E597" t="s" s="0">
+        <v>6028</v>
+      </c>
+      <c r="F597" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G597" t="s" s="0">
+        <v>6029</v>
+      </c>
+      <c r="H597" t="s" s="0">
+        <v>6030</v>
+      </c>
+      <c r="I597" t="s" s="0">
+        <v>6031</v>
+      </c>
+      <c r="J597" t="s" s="0">
+        <v>6032</v>
+      </c>
+      <c r="K597" t="s" s="0">
+        <v>6033</v>
+      </c>
+      <c r="L597" t="s" s="0">
+        <v>6034</v>
+      </c>
+      <c r="M597" t="s" s="0">
+        <v>6035</v>
+      </c>
+      <c r="N597" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="O597" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P597" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q597" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R597" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="S597" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="0">
+        <v>6036</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>6037</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>6038</v>
+      </c>
+      <c r="D598" t="s" s="0">
+        <v>6039</v>
+      </c>
+      <c r="E598" t="s" s="0">
+        <v>6040</v>
+      </c>
+      <c r="F598" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G598" t="s" s="0">
+        <v>6041</v>
+      </c>
+      <c r="H598" t="s" s="0">
+        <v>6042</v>
+      </c>
+      <c r="I598" t="s" s="0">
+        <v>6043</v>
+      </c>
+      <c r="J598" t="s" s="0">
+        <v>6044</v>
+      </c>
+      <c r="K598" t="s" s="0">
+        <v>6045</v>
+      </c>
+      <c r="L598" t="s" s="0">
+        <v>6046</v>
+      </c>
+      <c r="M598" t="s" s="0">
+        <v>6047</v>
+      </c>
+      <c r="N598" t="s" s="0">
+        <v>6048</v>
+      </c>
+      <c r="O598" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P598" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q598" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R598" t="s" s="0">
+        <v>2489</v>
+      </c>
+      <c r="S598" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="0">
+        <v>6049</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>6050</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>6051</v>
+      </c>
+      <c r="D599" t="s" s="0">
+        <v>6052</v>
+      </c>
+      <c r="E599" t="s" s="0">
+        <v>6053</v>
+      </c>
+      <c r="F599" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G599" t="s" s="0">
+        <v>6054</v>
+      </c>
+      <c r="H599" t="s" s="0">
+        <v>6055</v>
+      </c>
+      <c r="I599" t="s" s="0">
+        <v>6056</v>
+      </c>
+      <c r="J599" t="s" s="0">
+        <v>6057</v>
+      </c>
+      <c r="K599" t="s" s="0">
+        <v>6058</v>
+      </c>
+      <c r="L599" t="s" s="0">
+        <v>6059</v>
+      </c>
+      <c r="M599" t="s" s="0">
+        <v>6060</v>
+      </c>
+      <c r="N599" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="O599" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P599" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q599" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R599" t="s" s="0">
+        <v>1844</v>
+      </c>
+      <c r="S599" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="0">
+        <v>6061</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>6062</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>6063</v>
+      </c>
+      <c r="D600" t="s" s="0">
+        <v>6064</v>
+      </c>
+      <c r="E600" t="s" s="0">
+        <v>6065</v>
+      </c>
+      <c r="F600" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G600" t="s" s="0">
+        <v>6066</v>
+      </c>
+      <c r="H600" t="s" s="0">
+        <v>6067</v>
+      </c>
+      <c r="I600" t="s" s="0">
+        <v>6068</v>
+      </c>
+      <c r="J600" t="s" s="0">
+        <v>6069</v>
+      </c>
+      <c r="K600" t="s" s="0">
+        <v>6070</v>
+      </c>
+      <c r="L600" t="s" s="0">
+        <v>6071</v>
+      </c>
+      <c r="M600" t="s" s="0">
+        <v>6072</v>
+      </c>
+      <c r="N600" t="s" s="0">
+        <v>1972</v>
+      </c>
+      <c r="O600" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P600" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q600" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R600" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="S600" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="0">
+        <v>6073</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>6074</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>6075</v>
+      </c>
+      <c r="D601" t="s" s="0">
+        <v>6076</v>
+      </c>
+      <c r="E601" t="s" s="0">
+        <v>6077</v>
+      </c>
+      <c r="F601" t="s" s="0">
+        <v>4423</v>
+      </c>
+      <c r="G601" t="s" s="0">
+        <v>6078</v>
+      </c>
+      <c r="H601" t="s" s="0">
+        <v>6079</v>
+      </c>
+      <c r="I601" t="s" s="0">
+        <v>6080</v>
+      </c>
+      <c r="J601" t="s" s="0">
+        <v>6081</v>
+      </c>
+      <c r="K601" t="s" s="0">
+        <v>6082</v>
+      </c>
+      <c r="L601" t="s" s="0">
+        <v>6083</v>
+      </c>
+      <c r="M601" t="s" s="0">
+        <v>6084</v>
+      </c>
+      <c r="N601" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="O601" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P601" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q601" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R601" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="S601" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="0">
+        <v>6085</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>6086</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>6087</v>
+      </c>
+      <c r="D602" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E602" t="s" s="0">
+        <v>6088</v>
+      </c>
+      <c r="F602" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G602" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H602" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I602" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J602" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="K602" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="L602" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="M602" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="N602" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="O602" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P602" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q602" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="R602" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S602" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="0">
+        <v>6089</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>6090</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>6091</v>
+      </c>
+      <c r="D603" t="s" s="0">
+        <v>6092</v>
+      </c>
+      <c r="E603" t="s" s="0">
+        <v>6093</v>
+      </c>
+      <c r="F603" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G603" t="s" s="0">
+        <v>6094</v>
+      </c>
+      <c r="H603" t="s" s="0">
+        <v>6095</v>
+      </c>
+      <c r="I603" t="s" s="0">
+        <v>6096</v>
+      </c>
+      <c r="J603" t="s" s="0">
+        <v>6097</v>
+      </c>
+      <c r="K603" t="s" s="0">
+        <v>6098</v>
+      </c>
+      <c r="L603" t="s" s="0">
+        <v>6099</v>
+      </c>
+      <c r="M603" t="s" s="0">
+        <v>6100</v>
+      </c>
+      <c r="N603" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="O603" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P603" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q603" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R603" t="s" s="0">
+        <v>2178</v>
+      </c>
+      <c r="S603" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="0">
+        <v>6101</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>6102</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>6103</v>
+      </c>
+      <c r="D604" t="s" s="0">
+        <v>6104</v>
+      </c>
+      <c r="E604" t="s" s="0">
+        <v>6105</v>
+      </c>
+      <c r="F604" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G604" t="s" s="0">
+        <v>6106</v>
+      </c>
+      <c r="H604" t="s" s="0">
+        <v>6107</v>
+      </c>
+      <c r="I604" t="s" s="0">
+        <v>6108</v>
+      </c>
+      <c r="J604" t="s" s="0">
+        <v>6109</v>
+      </c>
+      <c r="K604" t="s" s="0">
+        <v>6110</v>
+      </c>
+      <c r="L604" t="s" s="0">
+        <v>6111</v>
+      </c>
+      <c r="M604" t="s" s="0">
+        <v>6112</v>
+      </c>
+      <c r="N604" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="O604" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P604" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q604" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R604" t="s" s="0">
+        <v>2178</v>
+      </c>
+      <c r="S604" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="0">
+        <v>6113</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>6114</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>6115</v>
+      </c>
+      <c r="D605" t="s" s="0">
+        <v>6116</v>
+      </c>
+      <c r="E605" t="s" s="0">
+        <v>6117</v>
+      </c>
+      <c r="F605" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G605" t="s" s="0">
+        <v>6118</v>
+      </c>
+      <c r="H605" t="s" s="0">
+        <v>6119</v>
+      </c>
+      <c r="I605" t="s" s="0">
+        <v>6120</v>
+      </c>
+      <c r="J605" t="s" s="0">
+        <v>6121</v>
+      </c>
+      <c r="K605" t="s" s="0">
+        <v>6122</v>
+      </c>
+      <c r="L605" t="s" s="0">
+        <v>6123</v>
+      </c>
+      <c r="M605" t="s" s="0">
+        <v>6124</v>
+      </c>
+      <c r="N605" t="s" s="0">
+        <v>4130</v>
+      </c>
+      <c r="O605" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P605" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q605" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R605" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="S605" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="0">
+        <v>6125</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>6126</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>6127</v>
+      </c>
+      <c r="D606" t="s" s="0">
+        <v>6128</v>
+      </c>
+      <c r="E606" t="s" s="0">
+        <v>6129</v>
+      </c>
+      <c r="F606" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G606" t="s" s="0">
+        <v>6130</v>
+      </c>
+      <c r="H606" t="s" s="0">
+        <v>6131</v>
+      </c>
+      <c r="I606" t="s" s="0">
+        <v>6132</v>
+      </c>
+      <c r="J606" t="s" s="0">
+        <v>6133</v>
+      </c>
+      <c r="K606" t="s" s="0">
+        <v>6134</v>
+      </c>
+      <c r="L606" t="s" s="0">
+        <v>6135</v>
+      </c>
+      <c r="M606" t="s" s="0">
+        <v>6136</v>
+      </c>
+      <c r="N606" t="s" s="0">
+        <v>1275</v>
+      </c>
+      <c r="O606" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P606" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q606" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R606" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="S606" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="0">
+        <v>6137</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>6138</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>6139</v>
+      </c>
+      <c r="D607" t="s" s="0">
+        <v>6140</v>
+      </c>
+      <c r="E607" t="s" s="0">
+        <v>6141</v>
+      </c>
+      <c r="F607" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G607" t="s" s="0">
+        <v>6142</v>
+      </c>
+      <c r="H607" t="s" s="0">
+        <v>6143</v>
+      </c>
+      <c r="I607" t="s" s="0">
+        <v>6144</v>
+      </c>
+      <c r="J607" t="s" s="0">
+        <v>6145</v>
+      </c>
+      <c r="K607" t="s" s="0">
+        <v>6146</v>
+      </c>
+      <c r="L607" t="s" s="0">
+        <v>6147</v>
+      </c>
+      <c r="M607" t="s" s="0">
+        <v>6148</v>
+      </c>
+      <c r="N607" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O607" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P607" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q607" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R607" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="S607" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="0">
+        <v>6149</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>6150</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>6151</v>
+      </c>
+      <c r="D608" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E608" t="s" s="0">
+        <v>6152</v>
+      </c>
+      <c r="F608" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G608" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H608" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="I608" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="J608" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="K608" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="L608" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="M608" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="N608" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="O608" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P608" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q608" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="R608" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S608" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="0">
+        <v>6153</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>6154</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>6155</v>
+      </c>
+      <c r="D609" t="s" s="0">
+        <v>6156</v>
+      </c>
+      <c r="E609" t="s" s="0">
+        <v>6157</v>
+      </c>
+      <c r="F609" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G609" t="s" s="0">
+        <v>6158</v>
+      </c>
+      <c r="H609" t="s" s="0">
+        <v>6159</v>
+      </c>
+      <c r="I609" t="s" s="0">
+        <v>6160</v>
+      </c>
+      <c r="J609" t="s" s="0">
+        <v>6161</v>
+      </c>
+      <c r="K609" t="s" s="0">
+        <v>6162</v>
+      </c>
+      <c r="L609" t="s" s="0">
+        <v>6163</v>
+      </c>
+      <c r="M609" t="s" s="0">
+        <v>6164</v>
+      </c>
+      <c r="N609" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="O609" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P609" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q609" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="R609" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="S609" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="0">
+        <v>6165</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>6166</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>6167</v>
+      </c>
+      <c r="D610" t="s" s="0">
+        <v>6168</v>
+      </c>
+      <c r="E610" t="s" s="0">
+        <v>6169</v>
+      </c>
+      <c r="F610" t="s" s="0">
+        <v>6170</v>
+      </c>
+      <c r="G610" t="s" s="0">
+        <v>6171</v>
+      </c>
+      <c r="H610" t="s" s="0">
+        <v>6172</v>
+      </c>
+      <c r="I610" t="s" s="0">
+        <v>6173</v>
+      </c>
+      <c r="J610" t="s" s="0">
+        <v>6174</v>
+      </c>
+      <c r="K610" t="s" s="0">
+        <v>6175</v>
+      </c>
+      <c r="L610" t="s" s="0">
+        <v>6176</v>
+      </c>
+      <c r="M610" t="s" s="0">
+        <v>6177</v>
+      </c>
+      <c r="N610" t="s" s="0">
+        <v>4527</v>
+      </c>
+      <c r="O610" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="P610" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q610" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R610" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="S610" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="0">
+        <v>6178</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>6179</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>6180</v>
+      </c>
+      <c r="D611" t="s" s="0">
+        <v>6181</v>
+      </c>
+      <c r="E611" t="s" s="0">
+        <v>6182</v>
+      </c>
+      <c r="F611" t="s" s="0">
+        <v>4423</v>
+      </c>
+      <c r="G611" t="s" s="0">
+        <v>6183</v>
+      </c>
+      <c r="H611" t="s" s="0">
+        <v>6184</v>
+      </c>
+      <c r="I611" t="s" s="0">
+        <v>6185</v>
+      </c>
+      <c r="J611" t="s" s="0">
+        <v>6186</v>
+      </c>
+      <c r="K611" t="s" s="0">
+        <v>6187</v>
+      </c>
+      <c r="L611" t="s" s="0">
+        <v>6188</v>
+      </c>
+      <c r="M611" t="s" s="0">
+        <v>6189</v>
+      </c>
+      <c r="N611" t="s" s="0">
+        <v>4130</v>
+      </c>
+      <c r="O611" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P611" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q611" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R611" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="S611" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="0">
+        <v>6190</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>6191</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>6192</v>
+      </c>
+      <c r="D612" t="s" s="0">
+        <v>6193</v>
+      </c>
+      <c r="E612" t="s" s="0">
+        <v>6194</v>
+      </c>
+      <c r="F612" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G612" t="s" s="0">
+        <v>6195</v>
+      </c>
+      <c r="H612" t="s" s="0">
+        <v>6196</v>
+      </c>
+      <c r="I612" t="s" s="0">
+        <v>6197</v>
+      </c>
+      <c r="J612" t="s" s="0">
+        <v>6198</v>
+      </c>
+      <c r="K612" t="s" s="0">
+        <v>6199</v>
+      </c>
+      <c r="L612" t="s" s="0">
+        <v>6200</v>
+      </c>
+      <c r="M612" t="s" s="0">
+        <v>6201</v>
+      </c>
+      <c r="N612" t="s" s="0">
+        <v>1790</v>
+      </c>
+      <c r="O612" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P612" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q612" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R612" t="s" s="0">
+        <v>6202</v>
+      </c>
+      <c r="S612" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="0">
+        <v>6203</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>6204</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>6205</v>
+      </c>
+      <c r="D613" t="s" s="0">
+        <v>6206</v>
+      </c>
+      <c r="E613" t="s" s="0">
+        <v>6207</v>
+      </c>
+      <c r="F613" t="s" s="0">
+        <v>6208</v>
+      </c>
+      <c r="G613" t="s" s="0">
+        <v>6209</v>
+      </c>
+      <c r="H613" t="s" s="0">
+        <v>6210</v>
+      </c>
+      <c r="I613" t="s" s="0">
+        <v>6211</v>
+      </c>
+      <c r="J613" t="s" s="0">
+        <v>6212</v>
+      </c>
+      <c r="K613" t="s" s="0">
+        <v>6213</v>
+      </c>
+      <c r="L613" t="s" s="0">
+        <v>6214</v>
+      </c>
+      <c r="M613" t="s" s="0">
+        <v>6215</v>
+      </c>
+      <c r="N613" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="O613" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P613" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q613" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R613" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S613" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="0">
+        <v>6216</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>6217</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>6218</v>
+      </c>
+      <c r="D614" t="s" s="0">
+        <v>6219</v>
+      </c>
+      <c r="E614" t="s" s="0">
+        <v>6220</v>
+      </c>
+      <c r="F614" t="s" s="0">
+        <v>4423</v>
+      </c>
+      <c r="G614" t="s" s="0">
+        <v>6221</v>
+      </c>
+      <c r="H614" t="s" s="0">
+        <v>6222</v>
+      </c>
+      <c r="I614" t="s" s="0">
+        <v>6223</v>
+      </c>
+      <c r="J614" t="s" s="0">
+        <v>6224</v>
+      </c>
+      <c r="K614" t="s" s="0">
+        <v>6225</v>
+      </c>
+      <c r="L614" t="s" s="0">
+        <v>6226</v>
+      </c>
+      <c r="M614" t="s" s="0">
+        <v>6227</v>
+      </c>
+      <c r="N614" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="O614" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P614" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q614" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R614" t="s" s="0">
+        <v>2178</v>
+      </c>
+      <c r="S614" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="0">
+        <v>6228</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>6229</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>6230</v>
+      </c>
+      <c r="D615" t="s" s="0">
+        <v>6231</v>
+      </c>
+      <c r="E615" t="s" s="0">
+        <v>6232</v>
+      </c>
+      <c r="F615" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G615" t="s" s="0">
+        <v>6233</v>
+      </c>
+      <c r="H615" t="s" s="0">
+        <v>6234</v>
+      </c>
+      <c r="I615" t="s" s="0">
+        <v>6235</v>
+      </c>
+      <c r="J615" t="s" s="0">
+        <v>6236</v>
+      </c>
+      <c r="K615" t="s" s="0">
+        <v>6237</v>
+      </c>
+      <c r="L615" t="s" s="0">
+        <v>6238</v>
+      </c>
+      <c r="M615" t="s" s="0">
+        <v>6239</v>
+      </c>
+      <c r="N615" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O615" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P615" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q615" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R615" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="S615" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="0">
+        <v>6240</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>6241</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>6242</v>
+      </c>
+      <c r="D616" t="s" s="0">
+        <v>6243</v>
+      </c>
+      <c r="E616" t="s" s="0">
+        <v>6244</v>
+      </c>
+      <c r="F616" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G616" t="s" s="0">
+        <v>6245</v>
+      </c>
+      <c r="H616" t="s" s="0">
+        <v>6246</v>
+      </c>
+      <c r="I616" t="s" s="0">
+        <v>6247</v>
+      </c>
+      <c r="J616" t="s" s="0">
+        <v>6248</v>
+      </c>
+      <c r="K616" t="s" s="0">
+        <v>6249</v>
+      </c>
+      <c r="L616" t="s" s="0">
+        <v>6250</v>
+      </c>
+      <c r="M616" t="s" s="0">
+        <v>6251</v>
+      </c>
+      <c r="N616" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="O616" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P616" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q616" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R616" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="S616" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="0">
+        <v>6252</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>6253</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>6254</v>
+      </c>
+      <c r="D617" t="s" s="0">
+        <v>6255</v>
+      </c>
+      <c r="E617" t="s" s="0">
+        <v>6256</v>
+      </c>
+      <c r="F617" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G617" t="s" s="0">
+        <v>6257</v>
+      </c>
+      <c r="H617" t="s" s="0">
+        <v>6258</v>
+      </c>
+      <c r="I617" t="s" s="0">
+        <v>6259</v>
+      </c>
+      <c r="J617" t="s" s="0">
+        <v>6260</v>
+      </c>
+      <c r="K617" t="s" s="0">
+        <v>6261</v>
+      </c>
+      <c r="L617" t="s" s="0">
+        <v>6262</v>
+      </c>
+      <c r="M617" t="s" s="0">
+        <v>6263</v>
+      </c>
+      <c r="N617" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="O617" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P617" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q617" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R617" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="S617" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="0">
+        <v>6264</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>6265</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>6266</v>
+      </c>
+      <c r="D618" t="s" s="0">
+        <v>6267</v>
+      </c>
+      <c r="E618" t="s" s="0">
+        <v>6268</v>
+      </c>
+      <c r="F618" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G618" t="s" s="0">
+        <v>6269</v>
+      </c>
+      <c r="H618" t="s" s="0">
+        <v>6270</v>
+      </c>
+      <c r="I618" t="s" s="0">
+        <v>6271</v>
+      </c>
+      <c r="J618" t="s" s="0">
+        <v>6272</v>
+      </c>
+      <c r="K618" t="s" s="0">
+        <v>6273</v>
+      </c>
+      <c r="L618" t="s" s="0">
+        <v>6274</v>
+      </c>
+      <c r="M618" t="s" s="0">
+        <v>6275</v>
+      </c>
+      <c r="N618" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="O618" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P618" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q618" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R618" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="S618" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="0">
+        <v>6276</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>6277</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>6278</v>
+      </c>
+      <c r="D619" t="s" s="0">
+        <v>6279</v>
+      </c>
+      <c r="E619" t="s" s="0">
+        <v>6280</v>
+      </c>
+      <c r="F619" t="s" s="0">
+        <v>6281</v>
+      </c>
+      <c r="G619" t="s" s="0">
+        <v>6282</v>
+      </c>
+      <c r="H619" t="s" s="0">
+        <v>6283</v>
+      </c>
+      <c r="I619" t="s" s="0">
+        <v>6284</v>
+      </c>
+      <c r="J619" t="s" s="0">
+        <v>6285</v>
+      </c>
+      <c r="K619" t="s" s="0">
+        <v>6286</v>
+      </c>
+      <c r="L619" t="s" s="0">
+        <v>6287</v>
+      </c>
+      <c r="M619" t="s" s="0">
+        <v>6288</v>
+      </c>
+      <c r="N619" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="O619" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P619" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q619" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="R619" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S619" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="0">
+        <v>6289</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>6290</v>
+      </c>
+      <c r="C620" t="s" s="0">
+        <v>6291</v>
+      </c>
+      <c r="D620" t="s" s="0">
+        <v>6292</v>
+      </c>
+      <c r="E620" t="s" s="0">
+        <v>6293</v>
+      </c>
+      <c r="F620" t="s" s="0">
+        <v>6294</v>
+      </c>
+      <c r="G620" t="s" s="0">
+        <v>6295</v>
+      </c>
+      <c r="H620" t="s" s="0">
+        <v>6296</v>
+      </c>
+      <c r="I620" t="s" s="0">
+        <v>6297</v>
+      </c>
+      <c r="J620" t="s" s="0">
+        <v>6298</v>
+      </c>
+      <c r="K620" t="s" s="0">
+        <v>6299</v>
+      </c>
+      <c r="L620" t="s" s="0">
+        <v>6300</v>
+      </c>
+      <c r="M620" t="s" s="0">
+        <v>6301</v>
+      </c>
+      <c r="N620" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="O620" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P620" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q620" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R620" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S620" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="0">
+        <v>6302</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>6303</v>
+      </c>
+      <c r="C621" t="s" s="0">
+        <v>6304</v>
+      </c>
+      <c r="D621" t="s" s="0">
+        <v>6305</v>
+      </c>
+      <c r="E621" t="s" s="0">
+        <v>6306</v>
+      </c>
+      <c r="F621" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G621" t="s" s="0">
+        <v>6307</v>
+      </c>
+      <c r="H621" t="s" s="0">
+        <v>6308</v>
+      </c>
+      <c r="I621" t="s" s="0">
+        <v>6309</v>
+      </c>
+      <c r="J621" t="s" s="0">
+        <v>6310</v>
+      </c>
+      <c r="K621" t="s" s="0">
+        <v>6311</v>
+      </c>
+      <c r="L621" t="s" s="0">
+        <v>6312</v>
+      </c>
+      <c r="M621" t="s" s="0">
+        <v>6313</v>
+      </c>
+      <c r="N621" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="O621" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P621" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q621" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R621" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="S621" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="0">
+        <v>6314</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>6315</v>
+      </c>
+      <c r="C622" t="s" s="0">
+        <v>6316</v>
+      </c>
+      <c r="D622" t="s" s="0">
+        <v>6317</v>
+      </c>
+      <c r="E622" t="s" s="0">
+        <v>6318</v>
+      </c>
+      <c r="F622" t="s" s="0">
+        <v>6319</v>
+      </c>
+      <c r="G622" t="s" s="0">
+        <v>6320</v>
+      </c>
+      <c r="H622" t="s" s="0">
+        <v>6321</v>
+      </c>
+      <c r="I622" t="s" s="0">
+        <v>6322</v>
+      </c>
+      <c r="J622" t="s" s="0">
+        <v>6323</v>
+      </c>
+      <c r="K622" t="s" s="0">
+        <v>6324</v>
+      </c>
+      <c r="L622" t="s" s="0">
+        <v>6325</v>
+      </c>
+      <c r="M622" t="s" s="0">
+        <v>6326</v>
+      </c>
+      <c r="N622" t="s" s="0">
+        <v>5399</v>
+      </c>
+      <c r="O622" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="P622" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q622" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R622" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="S622" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="0">
+        <v>6327</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>6328</v>
+      </c>
+      <c r="C623" t="s" s="0">
+        <v>6329</v>
+      </c>
+      <c r="D623" t="s" s="0">
+        <v>6330</v>
+      </c>
+      <c r="E623" t="s" s="0">
+        <v>6331</v>
+      </c>
+      <c r="F623" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G623" t="s" s="0">
+        <v>6332</v>
+      </c>
+      <c r="H623" t="s" s="0">
+        <v>6333</v>
+      </c>
+      <c r="I623" t="s" s="0">
+        <v>6334</v>
+      </c>
+      <c r="J623" t="s" s="0">
+        <v>6335</v>
+      </c>
+      <c r="K623" t="s" s="0">
+        <v>6336</v>
+      </c>
+      <c r="L623" t="s" s="0">
+        <v>6337</v>
+      </c>
+      <c r="M623" t="s" s="0">
+        <v>6338</v>
+      </c>
+      <c r="N623" t="s" s="0">
+        <v>2732</v>
+      </c>
+      <c r="O623" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P623" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="Q623" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R623" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="S623" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="0">
+        <v>6339</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>6340</v>
+      </c>
+      <c r="C624" t="s" s="0">
+        <v>6341</v>
+      </c>
+      <c r="D624" t="s" s="0">
+        <v>6342</v>
+      </c>
+      <c r="E624" t="s" s="0">
+        <v>6343</v>
+      </c>
+      <c r="F624" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G624" t="s" s="0">
+        <v>6344</v>
+      </c>
+      <c r="H624" t="s" s="0">
+        <v>6345</v>
+      </c>
+      <c r="I624" t="s" s="0">
+        <v>6346</v>
+      </c>
+      <c r="J624" t="s" s="0">
+        <v>6347</v>
+      </c>
+      <c r="K624" t="s" s="0">
+        <v>6348</v>
+      </c>
+      <c r="L624" t="s" s="0">
+        <v>6349</v>
+      </c>
+      <c r="M624" t="s" s="0">
+        <v>6350</v>
+      </c>
+      <c r="N624" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="O624" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P624" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q624" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R624" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S624" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="0">
+        <v>6351</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>6352</v>
+      </c>
+      <c r="C625" t="s" s="0">
+        <v>6353</v>
+      </c>
+      <c r="D625" t="s" s="0">
+        <v>6354</v>
+      </c>
+      <c r="E625" t="s" s="0">
+        <v>6355</v>
+      </c>
+      <c r="F625" t="s" s="0">
+        <v>2032</v>
+      </c>
+      <c r="G625" t="s" s="0">
+        <v>6356</v>
+      </c>
+      <c r="H625" t="s" s="0">
+        <v>6357</v>
+      </c>
+      <c r="I625" t="s" s="0">
+        <v>6358</v>
+      </c>
+      <c r="J625" t="s" s="0">
+        <v>6359</v>
+      </c>
+      <c r="K625" t="s" s="0">
+        <v>6360</v>
+      </c>
+      <c r="L625" t="s" s="0">
+        <v>6361</v>
+      </c>
+      <c r="M625" t="s" s="0">
+        <v>6362</v>
+      </c>
+      <c r="N625" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="O625" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P625" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q625" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R625" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="S625" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="0">
+        <v>6363</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>6364</v>
+      </c>
+      <c r="C626" t="s" s="0">
+        <v>6365</v>
+      </c>
+      <c r="D626" t="s" s="0">
+        <v>6366</v>
+      </c>
+      <c r="E626" t="s" s="0">
+        <v>6367</v>
+      </c>
+      <c r="F626" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G626" t="s" s="0">
+        <v>6368</v>
+      </c>
+      <c r="H626" t="s" s="0">
+        <v>6369</v>
+      </c>
+      <c r="I626" t="s" s="0">
+        <v>6370</v>
+      </c>
+      <c r="J626" t="s" s="0">
+        <v>6371</v>
+      </c>
+      <c r="K626" t="s" s="0">
+        <v>6372</v>
+      </c>
+      <c r="L626" t="s" s="0">
+        <v>6373</v>
+      </c>
+      <c r="M626" t="s" s="0">
+        <v>6374</v>
+      </c>
+      <c r="N626" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="O626" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P626" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q626" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="R626" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="S626" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="0">
+        <v>6375</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>6376</v>
+      </c>
+      <c r="C627" t="s" s="0">
+        <v>6377</v>
+      </c>
+      <c r="D627" t="s" s="0">
+        <v>6378</v>
+      </c>
+      <c r="E627" t="s" s="0">
+        <v>6379</v>
+      </c>
+      <c r="F627" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G627" t="s" s="0">
+        <v>6380</v>
+      </c>
+      <c r="H627" t="s" s="0">
+        <v>6381</v>
+      </c>
+      <c r="I627" t="s" s="0">
+        <v>6382</v>
+      </c>
+      <c r="J627" t="s" s="0">
+        <v>6383</v>
+      </c>
+      <c r="K627" t="s" s="0">
+        <v>6384</v>
+      </c>
+      <c r="L627" t="s" s="0">
+        <v>6385</v>
+      </c>
+      <c r="M627" t="s" s="0">
+        <v>6386</v>
+      </c>
+      <c r="N627" t="s" s="0">
+        <v>1589</v>
+      </c>
+      <c r="O627" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P627" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q627" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R627" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S627" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="0">
+        <v>6387</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>6388</v>
+      </c>
+      <c r="C628" t="s" s="0">
+        <v>6389</v>
+      </c>
+      <c r="D628" t="s" s="0">
+        <v>6390</v>
+      </c>
+      <c r="E628" t="s" s="0">
+        <v>6391</v>
+      </c>
+      <c r="F628" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G628" t="s" s="0">
+        <v>6392</v>
+      </c>
+      <c r="H628" t="s" s="0">
+        <v>6393</v>
+      </c>
+      <c r="I628" t="s" s="0">
+        <v>6394</v>
+      </c>
+      <c r="J628" t="s" s="0">
+        <v>6395</v>
+      </c>
+      <c r="K628" t="s" s="0">
+        <v>6396</v>
+      </c>
+      <c r="L628" t="s" s="0">
+        <v>6397</v>
+      </c>
+      <c r="M628" t="s" s="0">
+        <v>6398</v>
+      </c>
+      <c r="N628" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="O628" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P628" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q628" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R628" t="s" s="0">
+        <v>2178</v>
+      </c>
+      <c r="S628" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="0">
+        <v>6399</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>6400</v>
+      </c>
+      <c r="C629" t="s" s="0">
+        <v>6401</v>
+      </c>
+      <c r="D629" t="s" s="0">
+        <v>6402</v>
+      </c>
+      <c r="E629" t="s" s="0">
+        <v>6403</v>
+      </c>
+      <c r="F629" t="s" s="0">
+        <v>2291</v>
+      </c>
+      <c r="G629" t="s" s="0">
+        <v>6404</v>
+      </c>
+      <c r="H629" t="s" s="0">
+        <v>6405</v>
+      </c>
+      <c r="I629" t="s" s="0">
+        <v>6406</v>
+      </c>
+      <c r="J629" t="s" s="0">
+        <v>6407</v>
+      </c>
+      <c r="K629" t="s" s="0">
+        <v>6408</v>
+      </c>
+      <c r="L629" t="s" s="0">
+        <v>6409</v>
+      </c>
+      <c r="M629" t="s" s="0">
+        <v>6410</v>
+      </c>
+      <c r="N629" t="s" s="0">
+        <v>1790</v>
+      </c>
+      <c r="O629" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P629" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q629" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R629" t="s" s="0">
+        <v>6202</v>
+      </c>
+      <c r="S629" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="0">
+        <v>6411</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>6412</v>
+      </c>
+      <c r="C630" t="s" s="0">
+        <v>6413</v>
+      </c>
+      <c r="D630" t="s" s="0">
+        <v>6414</v>
+      </c>
+      <c r="E630" t="s" s="0">
+        <v>6415</v>
+      </c>
+      <c r="F630" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="G630" t="s" s="0">
+        <v>6416</v>
+      </c>
+      <c r="H630" t="s" s="0">
+        <v>6417</v>
+      </c>
+      <c r="I630" t="s" s="0">
+        <v>6418</v>
+      </c>
+      <c r="J630" t="s" s="0">
+        <v>6419</v>
+      </c>
+      <c r="K630" t="s" s="0">
+        <v>6420</v>
+      </c>
+      <c r="L630" t="s" s="0">
+        <v>6421</v>
+      </c>
+      <c r="M630" t="s" s="0">
+        <v>6422</v>
+      </c>
+      <c r="N630" t="s" s="0">
+        <v>1972</v>
+      </c>
+      <c r="O630" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="P630" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="Q630" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="R630" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S630" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="0">
+        <v>6423</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>6424</v>
+      </c>
+      <c r="C631" t="s" s="0">
+        <v>6425</v>
+      </c>
+      <c r="D631" t="s" s="0">
+        <v>6426</v>
+      </c>
+      <c r="E631" t="s" s="0">
+        <v>6427</v>
+      </c>
+      <c r="F631" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G631" t="s" s="0">
+        <v>6428</v>
+      </c>
+      <c r="H631" t="s" s="0">
+        <v>6429</v>
+      </c>
+      <c r="I631" t="s" s="0">
+        <v>6430</v>
+      </c>
+      <c r="J631" t="s" s="0">
+        <v>6431</v>
+      </c>
+      <c r="K631" t="s" s="0">
+        <v>6432</v>
+      </c>
+      <c r="L631" t="s" s="0">
+        <v>6433</v>
+      </c>
+      <c r="M631" t="s" s="0">
+        <v>6434</v>
+      </c>
+      <c r="N631" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="O631" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P631" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q631" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R631" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="S631" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="0">
+        <v>6435</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>6436</v>
+      </c>
+      <c r="C632" t="s" s="0">
+        <v>6437</v>
+      </c>
+      <c r="D632" t="s" s="0">
+        <v>6438</v>
+      </c>
+      <c r="E632" t="s" s="0">
+        <v>6439</v>
+      </c>
+      <c r="F632" t="s" s="0">
+        <v>6440</v>
+      </c>
+      <c r="G632" t="s" s="0">
+        <v>6441</v>
+      </c>
+      <c r="H632" t="s" s="0">
+        <v>6442</v>
+      </c>
+      <c r="I632" t="s" s="0">
+        <v>6443</v>
+      </c>
+      <c r="J632" t="s" s="0">
+        <v>6444</v>
+      </c>
+      <c r="K632" t="s" s="0">
+        <v>6445</v>
+      </c>
+      <c r="L632" t="s" s="0">
+        <v>6446</v>
+      </c>
+      <c r="M632" t="s" s="0">
+        <v>6447</v>
+      </c>
+      <c r="N632" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="O632" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="P632" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q632" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R632" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S632" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="0">
+        <v>6448</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>6449</v>
+      </c>
+      <c r="C633" t="s" s="0">
+        <v>6450</v>
+      </c>
+      <c r="D633" t="s" s="0">
+        <v>6451</v>
+      </c>
+      <c r="E633" t="s" s="0">
+        <v>6452</v>
+      </c>
+      <c r="F633" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G633" t="s" s="0">
+        <v>6453</v>
+      </c>
+      <c r="H633" t="s" s="0">
+        <v>6454</v>
+      </c>
+      <c r="I633" t="s" s="0">
+        <v>6455</v>
+      </c>
+      <c r="J633" t="s" s="0">
+        <v>6456</v>
+      </c>
+      <c r="K633" t="s" s="0">
+        <v>6457</v>
+      </c>
+      <c r="L633" t="s" s="0">
+        <v>6458</v>
+      </c>
+      <c r="M633" t="s" s="0">
+        <v>6459</v>
+      </c>
+      <c r="N633" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="O633" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P633" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q633" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R633" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="S633" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="0">
+        <v>6460</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>6461</v>
+      </c>
+      <c r="C634" t="s" s="0">
+        <v>6462</v>
+      </c>
+      <c r="D634" t="s" s="0">
+        <v>6463</v>
+      </c>
+      <c r="E634" t="s" s="0">
+        <v>6464</v>
+      </c>
+      <c r="F634" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G634" t="s" s="0">
+        <v>6465</v>
+      </c>
+      <c r="H634" t="s" s="0">
+        <v>6466</v>
+      </c>
+      <c r="I634" t="s" s="0">
+        <v>6467</v>
+      </c>
+      <c r="J634" t="s" s="0">
+        <v>6468</v>
+      </c>
+      <c r="K634" t="s" s="0">
+        <v>6469</v>
+      </c>
+      <c r="L634" t="s" s="0">
+        <v>6470</v>
+      </c>
+      <c r="M634" t="s" s="0">
+        <v>6471</v>
+      </c>
+      <c r="N634" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="O634" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P634" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q634" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="R634" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="S634" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="0">
+        <v>6472</v>
+      </c>
+      <c r="B635" t="s" s="0">
+        <v>6473</v>
+      </c>
+      <c r="C635" t="s" s="0">
+        <v>6474</v>
+      </c>
+      <c r="D635" t="s" s="0">
+        <v>6475</v>
+      </c>
+      <c r="E635" t="s" s="0">
+        <v>6476</v>
+      </c>
+      <c r="F635" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="G635" t="s" s="0">
+        <v>6477</v>
+      </c>
+      <c r="H635" t="s" s="0">
+        <v>6478</v>
+      </c>
+      <c r="I635" t="s" s="0">
+        <v>6479</v>
+      </c>
+      <c r="J635" t="s" s="0">
+        <v>6480</v>
+      </c>
+      <c r="K635" t="s" s="0">
+        <v>6481</v>
+      </c>
+      <c r="L635" t="s" s="0">
+        <v>6482</v>
+      </c>
+      <c r="M635" t="s" s="0">
+        <v>6483</v>
+      </c>
+      <c r="N635" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="O635" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P635" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q635" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R635" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="S635" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="0">
+        <v>6484</v>
+      </c>
+      <c r="B636" t="s" s="0">
+        <v>6485</v>
+      </c>
+      <c r="C636" t="s" s="0">
+        <v>6486</v>
+      </c>
+      <c r="D636" t="s" s="0">
+        <v>6487</v>
+      </c>
+      <c r="E636" t="s" s="0">
+        <v>6488</v>
+      </c>
+      <c r="F636" t="s" s="0">
+        <v>4423</v>
+      </c>
+      <c r="G636" t="s" s="0">
+        <v>6489</v>
+      </c>
+      <c r="H636" t="s" s="0">
+        <v>6490</v>
+      </c>
+      <c r="I636" t="s" s="0">
+        <v>6491</v>
+      </c>
+      <c r="J636" t="s" s="0">
+        <v>6492</v>
+      </c>
+      <c r="K636" t="s" s="0">
+        <v>6493</v>
+      </c>
+      <c r="L636" t="s" s="0">
+        <v>6494</v>
+      </c>
+      <c r="M636" t="s" s="0">
+        <v>6495</v>
+      </c>
+      <c r="N636" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="O636" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="P636" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q636" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="R636" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S636" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="0">
+        <v>6496</v>
+      </c>
+      <c r="B637" t="s" s="0">
+        <v>6497</v>
+      </c>
+      <c r="C637" t="s" s="0">
+        <v>6498</v>
+      </c>
+      <c r="D637" t="s" s="0">
+        <v>6499</v>
+      </c>
+      <c r="E637" t="s" s="0">
+        <v>6500</v>
+      </c>
+      <c r="F637" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="G637" t="s" s="0">
+        <v>6501</v>
+      </c>
+      <c r="H637" t="s" s="0">
+        <v>6502</v>
+      </c>
+      <c r="I637" t="s" s="0">
+        <v>6503</v>
+      </c>
+      <c r="J637" t="s" s="0">
+        <v>6504</v>
+      </c>
+      <c r="K637" t="s" s="0">
+        <v>6505</v>
+      </c>
+      <c r="L637" t="s" s="0">
+        <v>6506</v>
+      </c>
+      <c r="M637" t="s" s="0">
+        <v>6507</v>
+      </c>
+      <c r="N637" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O637" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="P637" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q637" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R637" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="S637" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="0">
+        <v>6508</v>
+      </c>
+      <c r="B638" t="s" s="0">
+        <v>6509</v>
+      </c>
+      <c r="C638" t="s" s="0">
+        <v>6510</v>
+      </c>
+      <c r="D638" t="s" s="0">
+        <v>6511</v>
+      </c>
+      <c r="E638" t="s" s="0">
+        <v>6512</v>
+      </c>
+      <c r="F638" t="s" s="0">
+        <v>1255</v>
+      </c>
+      <c r="G638" t="s" s="0">
+        <v>6513</v>
+      </c>
+      <c r="H638" t="s" s="0">
+        <v>6514</v>
+      </c>
+      <c r="I638" t="s" s="0">
+        <v>6515</v>
+      </c>
+      <c r="J638" t="s" s="0">
+        <v>6516</v>
+      </c>
+      <c r="K638" t="s" s="0">
+        <v>6517</v>
+      </c>
+      <c r="L638" t="s" s="0">
+        <v>6518</v>
+      </c>
+      <c r="M638" t="s" s="0">
+        <v>6519</v>
+      </c>
+      <c r="N638" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="O638" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="P638" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="Q638" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="R638" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S638" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
